--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documentos\ICESI\7mo Semestre\Arquitectura de hardware\Proyecto final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Semestre\Arquitectura de computadores y Laboratorio\Taller Final\ProyectoFinal-Arquihard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E11DA-D65D-48F8-A4AE-21E7CA6634F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E67A4BE-F461-4845-A6AC-714C15929826}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{CC1E190A-F1DE-402A-8C1B-6B8DAA8DD481}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CC1E190A-F1DE-402A-8C1B-6B8DAA8DD481}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -463,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24AEB7E-528F-497B-B9C6-FF1952540C60}">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,8 +470,7 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
@@ -521,7 +518,9 @@
       <c r="D2" s="2">
         <v>592215900</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>2217199700</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
         <f>(D2/$B2^2)/$C2</f>
@@ -529,7 +528,7 @@
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:I2" si="0">(E2/$B2^2)/$C2</f>
-        <v>0</v>
+        <v>352.41440137227374</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
@@ -549,7 +548,9 @@
       <c r="D3" s="2">
         <v>7679241200</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>32251464900</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G66" si="1">(D3/$B3^2)/$C3</f>
@@ -557,7 +558,7 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H66" si="2">(E3/$B3^2)/$C3</f>
-        <v>0</v>
+        <v>597.24934999999994</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="3">(F3/$B3^2)/$C3</f>
@@ -577,7 +578,9 @@
       <c r="D4" s="2">
         <v>46033200</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>256550400</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
         <f t="shared" si="1"/>
@@ -585,7 +588,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>208.78125</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="3"/>
@@ -605,7 +608,9 @@
       <c r="D5" s="2">
         <v>4263122200</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>23493837100</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
         <f t="shared" si="1"/>
@@ -613,7 +618,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>326.30329305555557</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="3"/>
@@ -633,7 +638,9 @@
       <c r="D6" s="2">
         <v>13251100</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>61418200</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
@@ -641,7 +648,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>312.38911946614581</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="3"/>
@@ -661,7 +668,9 @@
       <c r="D7" s="2">
         <v>4471200</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>19012800</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
         <f t="shared" si="1"/>
@@ -669,7 +678,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>96.7041015625</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="3"/>
@@ -689,7 +698,9 @@
       <c r="D8" s="2">
         <v>9696600</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>41577600</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
@@ -697,7 +708,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>211.474609375</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="3"/>
@@ -717,7 +728,9 @@
       <c r="D9" s="2">
         <v>40873900</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>175161100</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
@@ -725,7 +738,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>285.09293619791669</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="3"/>
@@ -745,7 +758,9 @@
       <c r="D10" s="2">
         <v>47560900</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>173847600</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
@@ -753,7 +768,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>282.955078125</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="3"/>
@@ -773,7 +788,9 @@
       <c r="D11" s="2">
         <v>256473100</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>1284306900</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
@@ -781,7 +798,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>102.06754207611084</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="3"/>
@@ -801,7 +818,9 @@
       <c r="D12" s="2">
         <v>4073029900</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>15672797000</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <f t="shared" si="1"/>
@@ -809,7 +828,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>290.23698148148145</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="3"/>
@@ -829,7 +848,9 @@
       <c r="D13" s="2">
         <v>2365104600</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>11297050000</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
@@ -837,7 +858,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>156.90347222222223</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
@@ -857,7 +878,9 @@
       <c r="D14" s="2">
         <v>2466195000</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>11007758400</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
@@ -865,7 +888,7 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>152.88553333333334</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
@@ -885,7 +908,9 @@
       <c r="D15" s="2">
         <v>8396800</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>25152200</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <f t="shared" si="1"/>
@@ -893,7 +918,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>255.86140950520834</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="3"/>
@@ -913,7 +938,9 @@
       <c r="D16" s="2">
         <v>545755700</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>2631416300</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <f t="shared" si="1"/>
@@ -921,7 +948,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>313.68926763534546</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="3"/>
@@ -941,7 +968,9 @@
       <c r="D17" s="2">
         <v>4571240100</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>24618844500</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
@@ -949,7 +978,7 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>227.95226388888889</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="3"/>
@@ -969,7 +998,9 @@
       <c r="D18" s="2">
         <v>2340070800</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>11462393200</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
         <f t="shared" si="1"/>
@@ -977,7 +1008,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>159.19990555555555</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="3"/>
@@ -997,7 +1028,9 @@
       <c r="D19" s="2">
         <v>2233864800</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>11312061800</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
         <f t="shared" si="1"/>
@@ -1005,7 +1038,7 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>104.74131296296297</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="3"/>
@@ -1025,7 +1058,9 @@
       <c r="D20" s="2">
         <v>526426299</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>2610136900</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
@@ -1033,7 +1068,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>311.15256547927856</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="3"/>
@@ -1053,7 +1088,9 @@
       <c r="D21" s="2">
         <v>8098808700</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>31441332900</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
@@ -1061,7 +1098,7 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>582.2469055555556</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="3"/>
@@ -1081,7 +1118,9 @@
       <c r="D22" s="2">
         <v>528920900</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>1817052900</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
         <f t="shared" si="1"/>
@@ -1089,7 +1128,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>288.81278038024902</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="3"/>
@@ -1109,7 +1148,9 @@
       <c r="D23" s="2">
         <v>66576900</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>263119300</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
         <f t="shared" si="1"/>
@@ -1117,7 +1158,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214.12703450520834</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="3"/>
@@ -1137,7 +1178,9 @@
       <c r="D24" s="2">
         <v>36354100</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>252419300</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
         <f t="shared" si="1"/>
@@ -1145,7 +1188,7 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>205.41935221354166</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="3"/>
@@ -1165,7 +1208,9 @@
       <c r="D25" s="2">
         <v>313196400</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>2210985100</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3">
         <f t="shared" si="1"/>
@@ -1173,7 +1218,7 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>175.71330865224203</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="3"/>
@@ -1193,7 +1238,9 @@
       <c r="D26" s="2">
         <v>13414600</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>64985300</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
         <f t="shared" si="1"/>
@@ -1201,7 +1248,7 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>661.06465657552087</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="3"/>
@@ -1221,7 +1268,9 @@
       <c r="D27" s="2">
         <v>2787528400</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>13313948100</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3">
         <f t="shared" si="1"/>
@@ -1229,7 +1278,7 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>184.91594583333332</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="3"/>
@@ -1249,7 +1298,9 @@
       <c r="D28" s="2">
         <v>272598800</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>1463899800</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3">
         <f t="shared" si="1"/>
@@ -1257,7 +1308,7 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>174.51045513153076</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="3"/>
@@ -1277,7 +1328,9 @@
       <c r="D29" s="2">
         <v>80320100</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>410390800</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
@@ -1285,7 +1338,7 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>333.97688802083331</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="3"/>
@@ -1305,7 +1358,9 @@
       <c r="D30" s="2">
         <v>3942762700</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>17554615700</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3">
         <f t="shared" si="1"/>
@@ -1313,7 +1368,7 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>325.08547592592589</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="3"/>
@@ -1333,7 +1388,9 @@
       <c r="D31" s="2">
         <v>11378100</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>57542900</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3">
         <f t="shared" si="1"/>
@@ -1341,7 +1398,7 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>292.67832438151044</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="3"/>
@@ -1361,7 +1418,9 @@
       <c r="D32" s="2">
         <v>2236918900</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>12417197300</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3">
         <f t="shared" si="1"/>
@@ -1369,7 +1428,7 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>172.46107361111112</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="3"/>
@@ -1389,7 +1448,9 @@
       <c r="D33" s="2">
         <v>3540500</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>23425500</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
@@ -1397,7 +1458,7 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>178.72238159179688</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="3"/>
@@ -1417,7 +1478,9 @@
       <c r="D34" s="2">
         <v>84693800</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>407575000</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3">
         <f t="shared" si="1"/>
@@ -1425,7 +1488,7 @@
       </c>
       <c r="H34" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>497.528076171875</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="3"/>
@@ -1445,7 +1508,9 @@
       <c r="D35" s="2">
         <v>75357800</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>404966500</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3">
         <f t="shared" si="1"/>
@@ -1453,7 +1518,7 @@
       </c>
       <c r="H35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>329.56258138020831</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="3"/>
@@ -1473,7 +1538,9 @@
       <c r="D36" s="2">
         <v>8269400</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>39136500</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3">
         <f t="shared" si="1"/>
@@ -1481,7 +1548,7 @@
       </c>
       <c r="H36" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>398.1170654296875</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="3"/>
@@ -1501,7 +1568,9 @@
       <c r="D37" s="2">
         <v>25942300</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>138666000</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3">
         <f t="shared" si="1"/>
@@ -1509,7 +1578,7 @@
       </c>
       <c r="H37" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>169.27001953125</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="3"/>
@@ -1529,7 +1598,9 @@
       <c r="D38" s="2">
         <v>3956396500</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>19051427900</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f t="shared" si="1"/>
@@ -1537,7 +1608,7 @@
       </c>
       <c r="H38" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>352.80422037037039</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="3"/>
@@ -1557,7 +1628,9 @@
       <c r="D39" s="2">
         <v>29308500</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>100038800</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3">
         <f t="shared" si="1"/>
@@ -1565,7 +1638,7 @@
       </c>
       <c r="H39" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>81.411783854166671</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="3"/>
@@ -1585,7 +1658,9 @@
       <c r="D40" s="2">
         <v>454802900</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>1737095500</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3">
         <f t="shared" si="1"/>
@@ -1593,7 +1668,7 @@
       </c>
       <c r="H40" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>276.10389391581219</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="3"/>
@@ -1613,7 +1688,9 @@
       <c r="D41" s="2">
         <v>5104300</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>17019100</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3">
         <f t="shared" si="1"/>
@@ -1621,7 +1698,7 @@
       </c>
       <c r="H41" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>86.563618977864579</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="3"/>
@@ -1641,7 +1718,9 @@
       <c r="D42" s="2">
         <v>4569108200</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>21661572800</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
         <f t="shared" si="1"/>
@@ -1649,7 +1728,7 @@
       </c>
       <c r="H42" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200.57011851851851</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="3"/>
@@ -1669,7 +1748,9 @@
       <c r="D43" s="2">
         <v>49582200</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>226705100</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3">
         <f t="shared" si="1"/>
@@ -1677,7 +1758,7 @@
       </c>
       <c r="H43" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>276.7396240234375</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="3"/>
@@ -1697,7 +1778,9 @@
       <c r="D44" s="2">
         <v>80258900</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>357246100</v>
+      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3">
         <f t="shared" si="1"/>
@@ -1705,7 +1788,7 @@
       </c>
       <c r="H44" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>290.72762044270831</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="3"/>
@@ -1725,7 +1808,9 @@
       <c r="D45" s="2">
         <v>26070000</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>95821400</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3">
         <f t="shared" si="1"/>
@@ -1733,7 +1818,7 @@
       </c>
       <c r="H45" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>116.969482421875</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="3"/>
@@ -1753,7 +1838,9 @@
       <c r="D46" s="2">
         <v>24945500</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>123756000</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3">
         <f t="shared" si="1"/>
@@ -1761,7 +1848,7 @@
       </c>
       <c r="H46" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100.712890625</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="3"/>
@@ -1781,7 +1868,9 @@
       <c r="D47" s="2">
         <v>24054900</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>124732900</v>
+      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3">
         <f t="shared" si="1"/>
@@ -1789,7 +1878,7 @@
       </c>
       <c r="H47" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>152.2618408203125</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="3"/>
@@ -1809,7 +1898,9 @@
       <c r="D48" s="2">
         <v>47499700</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2">
+        <v>215636200</v>
+      </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3">
         <f t="shared" si="1"/>
@@ -1817,7 +1908,7 @@
       </c>
       <c r="H48" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>175.48518880208334</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="3"/>
@@ -1837,7 +1928,9 @@
       <c r="D49" s="2">
         <v>4979800</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>15061700</v>
+      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3">
         <f t="shared" si="1"/>
@@ -1845,7 +1938,7 @@
       </c>
       <c r="H49" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>114.91165161132813</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="3"/>
@@ -1865,7 +1958,9 @@
       <c r="D50" s="2">
         <v>10486400</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>34714400</v>
+      </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
         <f t="shared" si="1"/>
@@ -1873,7 +1968,7 @@
       </c>
       <c r="H50" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>176.56656901041666</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="3"/>
@@ -1893,7 +1988,9 @@
       <c r="D51" s="2">
         <v>575161800</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>2519208400</v>
+      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3">
         <f t="shared" si="1"/>
@@ -1901,7 +1998,7 @@
       </c>
       <c r="H51" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200.20869572957358</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="3"/>
@@ -1921,7 +2018,9 @@
       <c r="D52" s="2">
         <v>10562300</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2">
+        <v>40588100</v>
+      </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3">
         <f t="shared" si="1"/>
@@ -1929,7 +2028,7 @@
       </c>
       <c r="H52" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>309.66262817382813</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="3"/>
@@ -1949,7 +2048,9 @@
       <c r="D53" s="2">
         <v>2149145100</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>11186325600</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3">
         <f t="shared" si="1"/>
@@ -1957,7 +2058,7 @@
       </c>
       <c r="H53" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>155.36563333333334</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="3"/>
@@ -1977,7 +2078,9 @@
       <c r="D54" s="2">
         <v>8410700</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2">
+        <v>33910000</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3">
         <f t="shared" si="1"/>
@@ -1985,7 +2088,7 @@
       </c>
       <c r="H54" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>344.95035807291669</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="3"/>
@@ -2005,7 +2108,9 @@
       <c r="D55" s="2">
         <v>4422500</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2">
+        <v>25930100</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3">
         <f t="shared" si="1"/>
@@ -2013,7 +2118,7 @@
       </c>
       <c r="H55" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>131.88730875651041</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="3"/>
@@ -2033,7 +2138,9 @@
       <c r="D56" s="2">
         <v>4817800</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2">
+        <v>34951200</v>
+      </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3">
         <f t="shared" si="1"/>
@@ -2041,7 +2148,7 @@
       </c>
       <c r="H56" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>266.656494140625</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="3"/>
@@ -2061,7 +2168,9 @@
       <c r="D57" s="2">
         <v>462176000</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2">
+        <v>1694429800</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3">
         <f t="shared" si="1"/>
@@ -2069,7 +2178,7 @@
       </c>
       <c r="H57" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>269.32236353556317</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="3"/>
@@ -2089,7 +2198,9 @@
       <c r="D58" s="2">
         <v>1298911500</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2">
+        <v>5348006000</v>
+      </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3">
         <f t="shared" si="1"/>
@@ -2097,7 +2208,7 @@
       </c>
       <c r="H58" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>850.04266103108728</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="3"/>
@@ -2117,7 +2228,9 @@
       <c r="D59" s="2">
         <v>11280912300</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2">
+        <v>42420888900</v>
+      </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3">
         <f t="shared" si="1"/>
@@ -2125,7 +2238,7 @@
       </c>
       <c r="H59" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>785.57201666666663</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="3"/>
@@ -2145,7 +2258,9 @@
       <c r="D60" s="2">
         <v>286295800</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2">
+        <v>823542100</v>
+      </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3">
         <f t="shared" si="1"/>
@@ -2153,7 +2268,7 @@
       </c>
       <c r="H60" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>65.449245770772293</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="3"/>
@@ -2173,7 +2288,9 @@
       <c r="D61" s="2">
         <v>99223900</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2">
+        <v>247957100</v>
+      </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3">
         <f t="shared" si="1"/>
@@ -2181,7 +2298,7 @@
       </c>
       <c r="H61" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>403.57600911458331</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="3"/>
@@ -2201,7 +2318,9 @@
       <c r="D62" s="2">
         <v>2147758200</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2">
+        <v>7369533600</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3">
         <f t="shared" si="1"/>
@@ -2209,7 +2328,7 @@
       </c>
       <c r="H62" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68.236422222222231</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="3"/>
@@ -2229,7 +2348,9 @@
       <c r="D63" s="2">
         <v>264146700</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="2">
+        <v>998778000</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3">
         <f t="shared" si="1"/>
@@ -2237,7 +2358,7 @@
       </c>
       <c r="H63" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>79.375743865966797</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="3"/>
@@ -2257,7 +2378,9 @@
       <c r="D64" s="2">
         <v>475931800</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2">
+        <v>1850682900</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3">
         <f t="shared" si="1"/>
@@ -2265,7 +2388,7 @@
       </c>
       <c r="H64" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>147.07906246185303</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="3"/>
@@ -2285,7 +2408,9 @@
       <c r="D65" s="2">
         <v>1432391000</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="2">
+        <v>3962745100</v>
+      </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3">
         <f t="shared" si="1"/>
@@ -2293,7 +2418,7 @@
       </c>
       <c r="H65" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>629.86137072245276</v>
       </c>
       <c r="I65" s="3">
         <f t="shared" si="3"/>
@@ -2313,7 +2438,9 @@
       <c r="D66" s="2">
         <v>430621800</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2">
+        <v>1384321900</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3">
         <f t="shared" si="1"/>
@@ -2321,7 +2448,7 @@
       </c>
       <c r="H66" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>220.03204027811685</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="3"/>
@@ -2341,7 +2468,9 @@
       <c r="D67" s="2">
         <v>236810600</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2">
+        <v>918151900</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3">
         <f t="shared" ref="G67:G130" si="4">(D67/$B67^2)/$C67</f>
@@ -2349,7 +2478,7 @@
       </c>
       <c r="H67" s="3">
         <f t="shared" ref="H67:H130" si="5">(E67/$B67^2)/$C67</f>
-        <v>0</v>
+        <v>109.45223569869995</v>
       </c>
       <c r="I67" s="3">
         <f t="shared" ref="I67:I130" si="6">(F67/$B67^2)/$C67</f>
@@ -2369,7 +2498,9 @@
       <c r="D68" s="2">
         <v>4466100100</v>
       </c>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2">
+        <v>11799429800</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
         <f t="shared" si="4"/>
@@ -2377,7 +2508,7 @@
       </c>
       <c r="H68" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>218.50795925925925</v>
       </c>
       <c r="I68" s="3">
         <f t="shared" si="6"/>
@@ -2397,7 +2528,9 @@
       <c r="D69" s="2">
         <v>2861865100</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2">
+        <v>7627067800</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3">
         <f t="shared" si="4"/>
@@ -2405,7 +2538,7 @@
       </c>
       <c r="H69" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>70.620998148148146</v>
       </c>
       <c r="I69" s="3">
         <f t="shared" si="6"/>
@@ -2425,7 +2558,9 @@
       <c r="D70" s="2">
         <v>1066327900</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2">
+        <v>2617529900</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3">
         <f t="shared" si="4"/>
@@ -2433,7 +2568,7 @@
       </c>
       <c r="H70" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>416.04517300923663</v>
       </c>
       <c r="I70" s="3">
         <f t="shared" si="6"/>
@@ -2453,7 +2588,9 @@
       <c r="D71" s="2">
         <v>1001887200</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="2">
+        <v>2679691200</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3">
         <f t="shared" si="4"/>
@@ -2461,7 +2598,7 @@
       </c>
       <c r="H71" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>319.44408416748047</v>
       </c>
       <c r="I71" s="3">
         <f t="shared" si="6"/>
@@ -2481,7 +2618,9 @@
       <c r="D72" s="2">
         <v>30860700</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2">
+        <v>86526900</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3">
         <f t="shared" si="4"/>
@@ -2489,7 +2628,7 @@
       </c>
       <c r="H72" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>105.6236572265625</v>
       </c>
       <c r="I72" s="3">
         <f t="shared" si="6"/>
@@ -2509,7 +2648,9 @@
       <c r="D73" s="2">
         <v>356840400</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2">
+        <v>829920900</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3">
         <f t="shared" si="4"/>
@@ -2517,7 +2658,7 @@
       </c>
       <c r="H73" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.934280872344971</v>
       </c>
       <c r="I73" s="3">
         <f t="shared" si="6"/>
@@ -2537,7 +2678,9 @@
       <c r="D74" s="2">
         <v>43812200</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2">
+        <v>97305900</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3">
         <f t="shared" si="4"/>
@@ -2545,7 +2688,7 @@
       </c>
       <c r="H74" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>79.187744140625</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="6"/>
@@ -2565,7 +2708,9 @@
       <c r="D75" s="2">
         <v>2138250200</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="2">
+        <v>7549327200</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3">
         <f t="shared" si="4"/>
@@ -2573,7 +2718,7 @@
       </c>
       <c r="H75" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>69.901177777777775</v>
       </c>
       <c r="I75" s="3">
         <f t="shared" si="6"/>
@@ -2593,7 +2738,9 @@
       <c r="D76" s="2">
         <v>20945000</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2">
+        <v>55502300</v>
+      </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3">
         <f t="shared" si="4"/>
@@ -2601,7 +2748,7 @@
       </c>
       <c r="H76" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>564.59859212239587</v>
       </c>
       <c r="I76" s="3">
         <f t="shared" si="6"/>
@@ -2621,7 +2768,9 @@
       <c r="D77" s="2">
         <v>27392200</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="2">
+        <v>81210000</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3">
         <f t="shared" si="4"/>
@@ -2629,7 +2778,7 @@
       </c>
       <c r="H77" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>66.0888671875</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="6"/>
@@ -2649,7 +2798,9 @@
       <c r="D78" s="2">
         <v>8372800</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="E78" s="2">
+        <v>26250300</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3">
         <f t="shared" si="4"/>
@@ -2657,7 +2808,7 @@
       </c>
       <c r="H78" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>133.51593017578125</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" si="6"/>
@@ -2677,7 +2828,9 @@
       <c r="D79" s="2">
         <v>18670300</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="2">
+        <v>56240000</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3">
         <f t="shared" si="4"/>
@@ -2685,7 +2838,7 @@
       </c>
       <c r="H79" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>572.10286458333337</v>
       </c>
       <c r="I79" s="3">
         <f t="shared" si="6"/>
@@ -2705,7 +2858,9 @@
       <c r="D80" s="2">
         <v>8092100</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="2">
+        <v>29450800</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3">
         <f t="shared" si="4"/>
@@ -2713,7 +2868,7 @@
       </c>
       <c r="H80" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>299.58902994791669</v>
       </c>
       <c r="I80" s="3">
         <f t="shared" si="6"/>
@@ -2733,7 +2888,9 @@
       <c r="D81" s="2">
         <v>31267400</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2">
+        <v>87777800</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3">
         <f t="shared" si="4"/>
@@ -2741,7 +2898,7 @@
       </c>
       <c r="H81" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>71.433756510416671</v>
       </c>
       <c r="I81" s="3">
         <f t="shared" si="6"/>
@@ -2761,7 +2918,9 @@
       <c r="D82" s="2">
         <v>476445600</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="E82" s="2">
+        <v>1387430300</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3">
         <f t="shared" si="4"/>
@@ -2769,7 +2928,7 @@
       </c>
       <c r="H82" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>220.52610715230307</v>
       </c>
       <c r="I82" s="3">
         <f t="shared" si="6"/>
@@ -2789,7 +2948,9 @@
       <c r="D83" s="2">
         <v>5400200</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="E83" s="2">
+        <v>18230800</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3">
         <f t="shared" si="4"/>
@@ -2797,7 +2958,7 @@
       </c>
       <c r="H83" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>139.0899658203125</v>
       </c>
       <c r="I83" s="3">
         <f t="shared" si="6"/>
@@ -2817,7 +2978,9 @@
       <c r="D84" s="2">
         <v>11855267600</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="2">
+        <v>34525495800</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3">
         <f t="shared" si="4"/>
@@ -2825,7 +2988,7 @@
       </c>
       <c r="H84" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>639.36103333333335</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" si="6"/>
@@ -2845,7 +3008,9 @@
       <c r="D85" s="2">
         <v>255336700</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="E85" s="2">
+        <v>863465800</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3">
         <f t="shared" si="4"/>
@@ -2853,7 +3018,7 @@
       </c>
       <c r="H85" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>102.93314456939697</v>
       </c>
       <c r="I85" s="3">
         <f t="shared" si="6"/>
@@ -2873,7 +3038,9 @@
       <c r="D86" s="2">
         <v>4396400</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="2">
+        <v>13519000</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3">
         <f t="shared" si="4"/>
@@ -2881,7 +3048,7 @@
       </c>
       <c r="H86" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>68.761189778645829</v>
       </c>
       <c r="I86" s="3">
         <f t="shared" si="6"/>
@@ -2901,7 +3068,9 @@
       <c r="D87" s="2">
         <v>252541400</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2">
+        <v>862926100</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3">
         <f t="shared" si="4"/>
@@ -2909,7 +3078,7 @@
       </c>
       <c r="H87" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>102.86880731582642</v>
       </c>
       <c r="I87" s="3">
         <f t="shared" si="6"/>
@@ -2929,7 +3098,9 @@
       <c r="D88" s="2">
         <v>4943300</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="2">
+        <v>11621100</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3">
         <f t="shared" si="4"/>
@@ -2937,7 +3108,7 @@
       </c>
       <c r="H88" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.661956787109375</v>
       </c>
       <c r="I88" s="3">
         <f t="shared" si="6"/>
@@ -2957,7 +3128,9 @@
       <c r="D89" s="2">
         <v>7020200</v>
       </c>
-      <c r="E89" s="2"/>
+      <c r="E89" s="2">
+        <v>20804600</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3">
         <f t="shared" si="4"/>
@@ -2965,7 +3138,7 @@
       </c>
       <c r="H89" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>211.63533528645834</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="6"/>
@@ -2985,7 +3158,9 @@
       <c r="D90" s="2">
         <v>432220700</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="E90" s="2">
+        <v>1318230500</v>
+      </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3">
         <f t="shared" si="4"/>
@@ -2993,7 +3168,7 @@
       </c>
       <c r="H90" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>209.52709515889487</v>
       </c>
       <c r="I90" s="3">
         <f t="shared" si="6"/>
@@ -3013,7 +3188,9 @@
       <c r="D91" s="2">
         <v>2264054600</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2">
+        <v>7865947000</v>
+      </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3">
         <f t="shared" si="4"/>
@@ -3021,7 +3198,7 @@
       </c>
       <c r="H91" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72.832842592592598</v>
       </c>
       <c r="I91" s="3">
         <f t="shared" si="6"/>
@@ -3041,7 +3218,9 @@
       <c r="D92" s="2">
         <v>16117600</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="2">
+        <v>43147200</v>
+      </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3">
         <f t="shared" si="4"/>
@@ -3049,7 +3228,7 @@
       </c>
       <c r="H92" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>438.916015625</v>
       </c>
       <c r="I92" s="3">
         <f t="shared" si="6"/>
@@ -3069,7 +3248,9 @@
       <c r="D93" s="2">
         <v>4223894800</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="2">
+        <v>11096405800</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3">
         <f t="shared" si="4"/>
@@ -3077,7 +3258,7 @@
       </c>
       <c r="H93" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>205.48899629629628</v>
       </c>
       <c r="I93" s="3">
         <f t="shared" si="6"/>
@@ -3097,7 +3278,9 @@
       <c r="D94" s="2">
         <v>6751872300</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2">
+        <v>24569522200</v>
+      </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3">
         <f t="shared" si="4"/>
@@ -3105,7 +3288,7 @@
       </c>
       <c r="H94" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>227.49557592592592</v>
       </c>
       <c r="I94" s="3">
         <f t="shared" si="6"/>
@@ -3125,7 +3308,9 @@
       <c r="D95" s="2">
         <v>913608800</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="2">
+        <v>2525598100</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3">
         <f t="shared" si="4"/>
@@ -3133,7 +3318,7 @@
       </c>
       <c r="H95" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>401.43300692240399</v>
       </c>
       <c r="I95" s="3">
         <f t="shared" si="6"/>
@@ -3153,7 +3338,9 @@
       <c r="D96" s="2">
         <v>777350400</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2">
+        <v>2598457000</v>
+      </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3">
         <f t="shared" si="4"/>
@@ -3161,7 +3348,7 @@
       </c>
       <c r="H96" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>206.50680859883627</v>
       </c>
       <c r="I96" s="3">
         <f t="shared" si="6"/>
@@ -3181,7 +3368,9 @@
       <c r="D97" s="2">
         <v>27943200</v>
       </c>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2">
+        <v>86019500</v>
+      </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3">
         <f t="shared" si="4"/>
@@ -3189,7 +3378,7 @@
       </c>
       <c r="H97" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>105.0042724609375</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="6"/>
@@ -3209,7 +3398,9 @@
       <c r="D98" s="2">
         <v>6785281400</v>
       </c>
-      <c r="E98" s="2"/>
+      <c r="E98" s="2">
+        <v>22631377700</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3">
         <f t="shared" si="4"/>
@@ -3217,7 +3408,7 @@
       </c>
       <c r="H98" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>314.32469027777779</v>
       </c>
       <c r="I98" s="3">
         <f t="shared" si="6"/>
@@ -3237,7 +3428,9 @@
       <c r="D99" s="2">
         <v>23553000</v>
       </c>
-      <c r="E99" s="2"/>
+      <c r="E99" s="2">
+        <v>80530600</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3">
         <f t="shared" si="4"/>
@@ -3245,7 +3438,7 @@
       </c>
       <c r="H99" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.303955078125</v>
       </c>
       <c r="I99" s="3">
         <f t="shared" si="6"/>
@@ -3265,7 +3458,9 @@
       <c r="D100" s="2">
         <v>6539000</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" s="2">
+        <v>15111000</v>
+      </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3">
         <f t="shared" si="4"/>
@@ -3273,7 +3468,7 @@
       </c>
       <c r="H100" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>76.8585205078125</v>
       </c>
       <c r="I100" s="3">
         <f t="shared" si="6"/>
@@ -3293,7 +3488,9 @@
       <c r="D101" s="2">
         <v>3694022600</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" s="2">
+        <v>10389985400</v>
+      </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3">
         <f t="shared" si="4"/>
@@ -3301,7 +3498,7 @@
       </c>
       <c r="H101" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>192.40713703703705</v>
       </c>
       <c r="I101" s="3">
         <f t="shared" si="6"/>
@@ -3321,7 +3518,9 @@
       <c r="D102" s="2">
         <v>4242887200</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2">
+        <v>15113389300</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3">
         <f t="shared" si="4"/>
@@ -3329,7 +3528,7 @@
       </c>
       <c r="H102" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>139.93878981481481</v>
       </c>
       <c r="I102" s="3">
         <f t="shared" si="6"/>
@@ -3349,7 +3548,9 @@
       <c r="D103" s="2">
         <v>6771092000</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E103" s="2">
+        <v>23082705200</v>
+      </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3">
         <f t="shared" si="4"/>
@@ -3357,7 +3558,7 @@
       </c>
       <c r="H103" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>213.72875185185185</v>
       </c>
       <c r="I103" s="3">
         <f t="shared" si="6"/>
@@ -3377,7 +3578,9 @@
       <c r="D104" s="2">
         <v>2308879900</v>
       </c>
-      <c r="E104" s="2"/>
+      <c r="E104" s="2">
+        <v>7468889600</v>
+      </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3">
         <f t="shared" si="4"/>
@@ -3385,7 +3588,7 @@
       </c>
       <c r="H104" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>69.156385185185187</v>
       </c>
       <c r="I104" s="3">
         <f t="shared" si="6"/>
@@ -3405,7 +3608,9 @@
       <c r="D105" s="2">
         <v>54486300</v>
       </c>
-      <c r="E105" s="2"/>
+      <c r="E105" s="2">
+        <v>186906300</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3">
         <f t="shared" si="4"/>
@@ -3413,7 +3618,7 @@
       </c>
       <c r="H105" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>228.1571044921875</v>
       </c>
       <c r="I105" s="3">
         <f t="shared" si="6"/>
@@ -3433,7 +3638,9 @@
       <c r="D106" s="2">
         <v>29283700</v>
       </c>
-      <c r="E106" s="2"/>
+      <c r="E106" s="2">
+        <v>88914700</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3">
         <f t="shared" si="4"/>
@@ -3441,7 +3648,7 @@
       </c>
       <c r="H106" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>108.5384521484375</v>
       </c>
       <c r="I106" s="3">
         <f t="shared" si="6"/>
@@ -3461,7 +3668,9 @@
       <c r="D107" s="2">
         <v>5030000</v>
       </c>
-      <c r="E107" s="2"/>
+      <c r="E107" s="2">
+        <v>17650300</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3">
         <f t="shared" si="4"/>
@@ -3469,7 +3678,7 @@
       </c>
       <c r="H107" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>134.66110229492188</v>
       </c>
       <c r="I107" s="3">
         <f t="shared" si="6"/>
@@ -3489,7 +3698,9 @@
       <c r="D108" s="2">
         <v>6928351900</v>
       </c>
-      <c r="E108" s="2"/>
+      <c r="E108" s="2">
+        <v>22750682900</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3">
         <f t="shared" si="4"/>
@@ -3497,7 +3708,7 @@
       </c>
       <c r="H108" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>315.98170694444445</v>
       </c>
       <c r="I108" s="3">
         <f t="shared" si="6"/>
@@ -3517,7 +3728,9 @@
       <c r="D109" s="2">
         <v>141703500</v>
       </c>
-      <c r="E109" s="2"/>
+      <c r="E109" s="2">
+        <v>411696600</v>
+      </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3">
         <f t="shared" si="4"/>
@@ -3525,7 +3738,7 @@
       </c>
       <c r="H109" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>670.0791015625</v>
       </c>
       <c r="I109" s="3">
         <f t="shared" si="6"/>
@@ -3545,7 +3758,9 @@
       <c r="D110" s="2">
         <v>2208617100</v>
       </c>
-      <c r="E110" s="2"/>
+      <c r="E110" s="2">
+        <v>7749200100</v>
+      </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3">
         <f t="shared" si="4"/>
@@ -3553,7 +3768,7 @@
       </c>
       <c r="H110" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>107.62777916666667</v>
       </c>
       <c r="I110" s="3">
         <f t="shared" si="6"/>
@@ -3573,7 +3788,9 @@
       <c r="D111" s="2">
         <v>41608600</v>
       </c>
-      <c r="E111" s="2"/>
+      <c r="E111" s="2">
+        <v>123996800</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3">
         <f t="shared" si="4"/>
@@ -3581,7 +3798,7 @@
       </c>
       <c r="H111" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>201.81770833333334</v>
       </c>
       <c r="I111" s="3">
         <f t="shared" si="6"/>
@@ -3601,7 +3818,9 @@
       <c r="D112" s="2">
         <v>510329300</v>
       </c>
-      <c r="E112" s="2"/>
+      <c r="E112" s="2">
+        <v>1695739600</v>
+      </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3">
         <f t="shared" si="4"/>
@@ -3609,7 +3828,7 @@
       </c>
       <c r="H112" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>134.76527531941733</v>
       </c>
       <c r="I112" s="3">
         <f t="shared" si="6"/>
@@ -3629,7 +3848,9 @@
       <c r="D113" s="2">
         <v>758832300</v>
       </c>
-      <c r="E113" s="2"/>
+      <c r="E113" s="2">
+        <v>2629286000</v>
+      </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3">
         <f t="shared" si="4"/>
@@ -3637,7 +3858,7 @@
       </c>
       <c r="H113" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>313.43531608581543</v>
       </c>
       <c r="I113" s="3">
         <f t="shared" si="6"/>
@@ -3657,7 +3878,9 @@
       <c r="D114" s="2">
         <v>3704600</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="E114" s="2">
+        <v>15521400</v>
+      </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3">
         <f t="shared" si="4"/>
@@ -3665,7 +3888,7 @@
       </c>
       <c r="H114" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>118.41888427734375</v>
       </c>
       <c r="I114" s="3">
         <f t="shared" si="6"/>
@@ -3685,7 +3908,9 @@
       <c r="D115" s="2">
         <v>91043200</v>
       </c>
-      <c r="E115" s="2"/>
+      <c r="E115" s="2">
+        <v>250052800</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3">
         <f t="shared" si="4"/>
@@ -3693,7 +3918,7 @@
       </c>
       <c r="H115" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>406.98697916666669</v>
       </c>
       <c r="I115" s="3">
         <f t="shared" si="6"/>
@@ -3713,7 +3938,9 @@
       <c r="D116" s="2">
         <v>1384034200</v>
       </c>
-      <c r="E116" s="2"/>
+      <c r="E116" s="2">
+        <v>3838497600</v>
+      </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3">
         <f t="shared" si="4"/>
@@ -3721,7 +3948,7 @@
       </c>
       <c r="H116" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>610.11276245117188</v>
       </c>
       <c r="I116" s="3">
         <f t="shared" si="6"/>
@@ -3741,7 +3968,9 @@
       <c r="D117" s="2">
         <v>13345900</v>
       </c>
-      <c r="E117" s="2"/>
+      <c r="E117" s="2">
+        <v>41665200</v>
+      </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3">
         <f t="shared" si="4"/>
@@ -3749,7 +3978,7 @@
       </c>
       <c r="H117" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>317.8802490234375</v>
       </c>
       <c r="I117" s="3">
         <f t="shared" si="6"/>
@@ -3769,7 +3998,9 @@
       <c r="D118" s="2">
         <v>27590100</v>
       </c>
-      <c r="E118" s="2"/>
+      <c r="E118" s="2">
+        <v>72036000</v>
+      </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3">
         <f t="shared" si="4"/>
@@ -3777,7 +4008,7 @@
       </c>
       <c r="H118" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>58.623046875</v>
       </c>
       <c r="I118" s="3">
         <f t="shared" si="6"/>
@@ -3797,7 +4028,9 @@
       <c r="D119" s="2">
         <v>14393200</v>
       </c>
-      <c r="E119" s="2"/>
+      <c r="E119" s="2">
+        <v>63843000</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3">
         <f t="shared" si="4"/>
@@ -3805,7 +4038,7 @@
       </c>
       <c r="H119" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>487.08343505859375</v>
       </c>
       <c r="I119" s="3">
         <f t="shared" si="6"/>
@@ -3825,7 +4058,9 @@
       <c r="D120" s="2">
         <v>3878549600</v>
       </c>
-      <c r="E120" s="2"/>
+      <c r="E120" s="2">
+        <v>11166221100</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3">
         <f t="shared" si="4"/>
@@ -3833,7 +4068,7 @@
       </c>
       <c r="H120" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>206.7818722222222</v>
       </c>
       <c r="I120" s="3">
         <f t="shared" si="6"/>
@@ -3853,7 +4088,9 @@
       <c r="D121" s="2">
         <v>482080900</v>
       </c>
-      <c r="E121" s="2"/>
+      <c r="E121" s="2">
+        <v>2234716400</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3">
         <f t="shared" si="4"/>
@@ -3861,7 +4098,7 @@
       </c>
       <c r="H121" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>266.39895439147949</v>
       </c>
       <c r="I121" s="3">
         <f t="shared" si="6"/>
@@ -3881,7 +4118,9 @@
       <c r="D122" s="2">
         <v>257281600</v>
       </c>
-      <c r="E122" s="2"/>
+      <c r="E122" s="2">
+        <v>971169200</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3">
         <f t="shared" si="4"/>
@@ -3889,7 +4128,7 @@
       </c>
       <c r="H122" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>115.77239036560059</v>
       </c>
       <c r="I122" s="3">
         <f t="shared" si="6"/>
@@ -3909,7 +4148,9 @@
       <c r="D123" s="2">
         <v>244636600</v>
       </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="2">
+        <v>957152300</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3">
         <f t="shared" si="4"/>
@@ -3917,7 +4158,7 @@
       </c>
       <c r="H123" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>76.067630449930832</v>
       </c>
       <c r="I123" s="3">
         <f t="shared" si="6"/>
@@ -3937,7 +4178,9 @@
       <c r="D124" s="2">
         <v>9387100</v>
       </c>
-      <c r="E124" s="2"/>
+      <c r="E124" s="2">
+        <v>41467500</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3">
         <f t="shared" si="4"/>
@@ -3945,7 +4188,7 @@
       </c>
       <c r="H124" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>316.37191772460938</v>
       </c>
       <c r="I124" s="3">
         <f t="shared" si="6"/>
@@ -3965,7 +4208,9 @@
       <c r="D125" s="2">
         <v>44266300</v>
       </c>
-      <c r="E125" s="2"/>
+      <c r="E125" s="2">
+        <v>173478800</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3">
         <f t="shared" si="4"/>
@@ -3973,7 +4218,7 @@
       </c>
       <c r="H125" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>282.35481770833331</v>
       </c>
       <c r="I125" s="3">
         <f t="shared" si="6"/>
@@ -3993,7 +4238,9 @@
       <c r="D126" s="2">
         <v>29389200</v>
       </c>
-      <c r="E126" s="2"/>
+      <c r="E126" s="2">
+        <v>89847500</v>
+      </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3">
         <f t="shared" si="4"/>
@@ -4001,7 +4248,7 @@
       </c>
       <c r="H126" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>73.118082682291671</v>
       </c>
       <c r="I126" s="3">
         <f t="shared" si="6"/>
@@ -4021,7 +4268,9 @@
       <c r="D127" s="2">
         <v>250515000</v>
       </c>
-      <c r="E127" s="2"/>
+      <c r="E127" s="2">
+        <v>1020960800</v>
+      </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3">
         <f t="shared" si="4"/>
@@ -4029,7 +4278,7 @@
       </c>
       <c r="H127" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>81.138674418131515</v>
       </c>
       <c r="I127" s="3">
         <f t="shared" si="6"/>
@@ -4049,7 +4298,9 @@
       <c r="D128" s="2">
         <v>7281700</v>
       </c>
-      <c r="E128" s="2"/>
+      <c r="E128" s="2">
+        <v>29081500</v>
+      </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3">
         <f t="shared" si="4"/>
@@ -4057,7 +4308,7 @@
       </c>
       <c r="H128" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>295.83231608072919</v>
       </c>
       <c r="I128" s="3">
         <f t="shared" si="6"/>
@@ -4077,7 +4328,9 @@
       <c r="D129" s="2">
         <v>4190600</v>
       </c>
-      <c r="E129" s="2"/>
+      <c r="E129" s="2">
+        <v>17307800</v>
+      </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3">
         <f t="shared" si="4"/>
@@ -4085,7 +4338,7 @@
       </c>
       <c r="H129" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.032023111979171</v>
       </c>
       <c r="I129" s="3">
         <f t="shared" si="6"/>
@@ -4105,7 +4358,9 @@
       <c r="D130" s="2">
         <v>4910100</v>
       </c>
-      <c r="E130" s="2"/>
+      <c r="E130" s="2">
+        <v>12265000</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3">
         <f t="shared" si="4"/>
@@ -4113,7 +4368,7 @@
       </c>
       <c r="H130" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>62.383015950520836</v>
       </c>
       <c r="I130" s="3">
         <f t="shared" si="6"/>
@@ -4133,7 +4388,9 @@
       <c r="D131" s="2">
         <v>6609662600</v>
       </c>
-      <c r="E131" s="2"/>
+      <c r="E131" s="2">
+        <v>30000666600</v>
+      </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3">
         <f t="shared" ref="G131:G181" si="7">(D131/$B131^2)/$C131</f>
@@ -4141,7 +4398,7 @@
       </c>
       <c r="H131" s="3">
         <f t="shared" ref="H131:H181" si="8">(E131/$B131^2)/$C131</f>
-        <v>0</v>
+        <v>416.67592500000001</v>
       </c>
       <c r="I131" s="3">
         <f t="shared" ref="I131:I181" si="9">(F131/$B131^2)/$C131</f>
@@ -4161,7 +4418,9 @@
       <c r="D132" s="2">
         <v>13727500</v>
       </c>
-      <c r="E132" s="2"/>
+      <c r="E132" s="2">
+        <v>39550900</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3">
         <f t="shared" si="7"/>
@@ -4169,7 +4428,7 @@
       </c>
       <c r="H132" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>201.16628011067709</v>
       </c>
       <c r="I132" s="3">
         <f t="shared" si="9"/>
@@ -4189,7 +4448,9 @@
       <c r="D133" s="2">
         <v>3912000</v>
       </c>
-      <c r="E133" s="2"/>
+      <c r="E133" s="2">
+        <v>15207600</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3">
         <f t="shared" si="7"/>
@@ -4197,7 +4458,7 @@
       </c>
       <c r="H133" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77.349853515625</v>
       </c>
       <c r="I133" s="3">
         <f t="shared" si="9"/>
@@ -4217,7 +4478,9 @@
       <c r="D134" s="2">
         <v>11258100</v>
       </c>
-      <c r="E134" s="2"/>
+      <c r="E134" s="2">
+        <v>37038200</v>
+      </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3">
         <f t="shared" si="7"/>
@@ -4225,7 +4488,7 @@
       </c>
       <c r="H134" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>282.57904052734375</v>
       </c>
       <c r="I134" s="3">
         <f t="shared" si="9"/>
@@ -4245,7 +4508,9 @@
       <c r="D135" s="2">
         <v>28349000</v>
       </c>
-      <c r="E135" s="2"/>
+      <c r="E135" s="2">
+        <v>91075000</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3">
         <f t="shared" si="7"/>
@@ -4253,7 +4518,7 @@
       </c>
       <c r="H135" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>111.175537109375</v>
       </c>
       <c r="I135" s="3">
         <f t="shared" si="9"/>
@@ -4273,7 +4538,9 @@
       <c r="D136" s="2">
         <v>257249800</v>
       </c>
-      <c r="E136" s="2"/>
+      <c r="E136" s="2">
+        <v>972954100</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3">
         <f t="shared" si="7"/>
@@ -4281,7 +4548,7 @@
       </c>
       <c r="H136" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>77.323444684346512</v>
       </c>
       <c r="I136" s="3">
         <f t="shared" si="9"/>
@@ -4301,7 +4568,9 @@
       <c r="D137" s="2">
         <v>4604078400</v>
       </c>
-      <c r="E137" s="2"/>
+      <c r="E137" s="2">
+        <v>400497800</v>
+      </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3">
         <f t="shared" si="7"/>
@@ -4309,7 +4578,7 @@
       </c>
       <c r="H137" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>651.85188802083337</v>
       </c>
       <c r="I137" s="3">
         <f t="shared" si="9"/>
@@ -4329,7 +4598,9 @@
       <c r="D138" s="2">
         <v>2212253800</v>
       </c>
-      <c r="E138" s="2"/>
+      <c r="E138" s="2">
+        <v>10066155600</v>
+      </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3">
         <f t="shared" si="7"/>
@@ -4337,7 +4608,7 @@
       </c>
       <c r="H138" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>93.205144444444443</v>
       </c>
       <c r="I138" s="3">
         <f t="shared" si="9"/>
@@ -4357,7 +4628,9 @@
       <c r="D139" s="2">
         <v>964947700</v>
       </c>
-      <c r="E139" s="2"/>
+      <c r="E139" s="2">
+        <v>3354133700</v>
+      </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3">
         <f t="shared" si="7"/>
@@ -4365,7 +4638,7 @@
       </c>
       <c r="H139" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>533.12519391377771</v>
       </c>
       <c r="I139" s="3">
         <f t="shared" si="9"/>
@@ -4385,7 +4658,9 @@
       <c r="D140" s="2">
         <v>78510400</v>
       </c>
-      <c r="E140" s="2"/>
+      <c r="E140" s="2">
+        <v>294642500</v>
+      </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3">
         <f t="shared" si="7"/>
@@ -4393,7 +4668,7 @@
       </c>
       <c r="H140" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>359.6710205078125</v>
       </c>
       <c r="I140" s="3">
         <f t="shared" si="9"/>
@@ -4413,7 +4688,9 @@
       <c r="D141" s="2">
         <v>6926516300</v>
       </c>
-      <c r="E141" s="2"/>
+      <c r="E141" s="2">
+        <v>23386601500</v>
+      </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3">
         <f t="shared" si="7"/>
@@ -4421,7 +4698,7 @@
       </c>
       <c r="H141" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>216.54260648148147</v>
       </c>
       <c r="I141" s="3">
         <f t="shared" si="9"/>
@@ -4441,7 +4718,9 @@
       <c r="D142" s="2">
         <v>12240720300</v>
       </c>
-      <c r="E142" s="2"/>
+      <c r="E142" s="2">
+        <v>34452043100</v>
+      </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3">
         <f t="shared" si="7"/>
@@ -4449,7 +4728,7 @@
       </c>
       <c r="H142" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>638.00079814814819</v>
       </c>
       <c r="I142" s="3">
         <f t="shared" si="9"/>
@@ -4469,7 +4748,9 @@
       <c r="D143" s="2">
         <v>261301300</v>
       </c>
-      <c r="E143" s="2"/>
+      <c r="E143" s="2">
+        <v>878379700</v>
+      </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3">
         <f t="shared" si="7"/>
@@ -4477,7 +4758,7 @@
       </c>
       <c r="H143" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>69.807346661885575</v>
       </c>
       <c r="I143" s="3">
         <f t="shared" si="9"/>
@@ -4497,7 +4778,9 @@
       <c r="D144" s="2">
         <v>4083432200</v>
       </c>
-      <c r="E144" s="2"/>
+      <c r="E144" s="2">
+        <v>10798419600</v>
+      </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3">
         <f t="shared" si="7"/>
@@ -4505,7 +4788,7 @@
       </c>
       <c r="H144" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>199.97073333333333</v>
       </c>
       <c r="I144" s="3">
         <f t="shared" si="9"/>
@@ -4525,7 +4808,9 @@
       <c r="D145" s="2">
         <v>9296500</v>
       </c>
-      <c r="E145" s="2"/>
+      <c r="E145" s="2">
+        <v>17487300</v>
+      </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3">
         <f t="shared" si="7"/>
@@ -4533,7 +4818,7 @@
       </c>
       <c r="H145" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>177.8900146484375</v>
       </c>
       <c r="I145" s="3">
         <f t="shared" si="9"/>
@@ -4553,7 +4838,9 @@
       <c r="D146" s="2">
         <v>81952900</v>
       </c>
-      <c r="E146" s="2"/>
+      <c r="E146" s="2">
+        <v>251694900</v>
+      </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3">
         <f t="shared" si="7"/>
@@ -4561,7 +4848,7 @@
       </c>
       <c r="H146" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>307.2447509765625</v>
       </c>
       <c r="I146" s="3">
         <f t="shared" si="9"/>
@@ -4581,7 +4868,9 @@
       <c r="D147" s="2">
         <v>4658367100</v>
       </c>
-      <c r="E147" s="2"/>
+      <c r="E147" s="2">
+        <v>15222119500</v>
+      </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3">
         <f t="shared" si="7"/>
@@ -4589,7 +4878,7 @@
       </c>
       <c r="H147" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>211.41832638888889</v>
       </c>
       <c r="I147" s="3">
         <f t="shared" si="9"/>
@@ -4609,7 +4898,9 @@
       <c r="D148" s="2">
         <v>140805200</v>
       </c>
-      <c r="E148" s="2"/>
+      <c r="E148" s="2">
+        <v>382778700</v>
+      </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3">
         <f t="shared" si="7"/>
@@ -4617,7 +4908,7 @@
       </c>
       <c r="H148" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>623.01220703125</v>
       </c>
       <c r="I148" s="3">
         <f t="shared" si="9"/>
@@ -4637,7 +4928,9 @@
       <c r="D149" s="2">
         <v>8273470300</v>
       </c>
-      <c r="E149" s="2"/>
+      <c r="E149" s="2">
+        <v>22357065100</v>
+      </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3">
         <f t="shared" si="7"/>
@@ -4645,7 +4938,7 @@
       </c>
       <c r="H149" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>414.01972407407408</v>
       </c>
       <c r="I149" s="3">
         <f t="shared" si="9"/>
@@ -4665,7 +4958,9 @@
       <c r="D150" s="2">
         <v>2264619600</v>
       </c>
-      <c r="E150" s="2"/>
+      <c r="E150" s="2">
+        <v>7551793000</v>
+      </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3">
         <f t="shared" si="7"/>
@@ -4673,7 +4968,7 @@
       </c>
       <c r="H150" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>104.88601388888888</v>
       </c>
       <c r="I150" s="3">
         <f t="shared" si="9"/>
@@ -4693,7 +4988,9 @@
       <c r="D151" s="2">
         <v>6410600</v>
       </c>
-      <c r="E151" s="2"/>
+      <c r="E151" s="2">
+        <v>18917400</v>
+      </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3">
         <f t="shared" si="7"/>
@@ -4701,7 +4998,7 @@
       </c>
       <c r="H151" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>192.437744140625</v>
       </c>
       <c r="I151" s="3">
         <f t="shared" si="9"/>
@@ -4721,7 +5018,9 @@
       <c r="D152" s="2">
         <v>13546700</v>
       </c>
-      <c r="E152" s="2"/>
+      <c r="E152" s="2">
+        <v>35085300</v>
+      </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3">
         <f t="shared" si="7"/>
@@ -4729,7 +5028,7 @@
       </c>
       <c r="H152" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>267.67959594726563</v>
       </c>
       <c r="I152" s="3">
         <f t="shared" si="9"/>
@@ -4749,7 +5048,9 @@
       <c r="D153" s="2">
         <v>443947500</v>
       </c>
-      <c r="E153" s="2"/>
+      <c r="E153" s="2">
+        <v>1247567100</v>
+      </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3">
         <f t="shared" si="7"/>
@@ -4757,7 +5058,7 @@
       </c>
       <c r="H153" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>198.29545021057129</v>
       </c>
       <c r="I153" s="3">
         <f t="shared" si="9"/>
@@ -4777,7 +5078,9 @@
       <c r="D154" s="2">
         <v>251340500</v>
       </c>
-      <c r="E154" s="2"/>
+      <c r="E154" s="2">
+        <v>837990500</v>
+      </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3">
         <f t="shared" si="7"/>
@@ -4785,7 +5088,7 @@
       </c>
       <c r="H154" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>99.896252155303955</v>
       </c>
       <c r="I154" s="3">
         <f t="shared" si="9"/>
@@ -4805,7 +5108,9 @@
       <c r="D155" s="2">
         <v>819184700</v>
       </c>
-      <c r="E155" s="2"/>
+      <c r="E155" s="2">
+        <v>2573191300</v>
+      </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3">
         <f t="shared" si="7"/>
@@ -4813,7 +5118,7 @@
       </c>
       <c r="H155" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>204.49887116750082</v>
       </c>
       <c r="I155" s="3">
         <f t="shared" si="9"/>
@@ -4833,7 +5138,9 @@
       <c r="D156" s="2">
         <v>52311900</v>
       </c>
-      <c r="E156" s="2"/>
+      <c r="E156" s="2">
+        <v>157950500</v>
+      </c>
       <c r="F156" s="3"/>
       <c r="G156" s="3">
         <f t="shared" si="7"/>
@@ -4841,7 +5148,7 @@
       </c>
       <c r="H156" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>192.8106689453125</v>
       </c>
       <c r="I156" s="3">
         <f t="shared" si="9"/>
@@ -4861,7 +5168,9 @@
       <c r="D157" s="2">
         <v>4433747900</v>
       </c>
-      <c r="E157" s="2"/>
+      <c r="E157" s="2">
+        <v>15213818500</v>
+      </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3">
         <f t="shared" si="7"/>
@@ -4869,7 +5178,7 @@
       </c>
       <c r="H157" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>211.30303472222224</v>
       </c>
       <c r="I157" s="3">
         <f t="shared" si="9"/>
@@ -4889,7 +5198,9 @@
       <c r="D158" s="2">
         <v>258448400</v>
       </c>
-      <c r="E158" s="2"/>
+      <c r="E158" s="2">
+        <v>830073900</v>
+      </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3">
         <f t="shared" si="7"/>
@@ -4897,7 +5208,7 @@
       </c>
       <c r="H158" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>65.96834659576416</v>
       </c>
       <c r="I158" s="3">
         <f t="shared" si="9"/>
@@ -4917,7 +5228,9 @@
       <c r="D159" s="2">
         <v>783717400</v>
       </c>
-      <c r="E159" s="2"/>
+      <c r="E159" s="2">
+        <v>2598646600</v>
+      </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3">
         <f t="shared" si="7"/>
@@ -4925,7 +5238,7 @@
       </c>
       <c r="H159" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>206.52187665303549</v>
       </c>
       <c r="I159" s="3">
         <f t="shared" si="9"/>
@@ -4945,7 +5258,9 @@
       <c r="D160" s="2">
         <v>3840259000</v>
       </c>
-      <c r="E160" s="2"/>
+      <c r="E160" s="2">
+        <v>10601605400</v>
+      </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3">
         <f t="shared" si="7"/>
@@ -4953,7 +5268,7 @@
       </c>
       <c r="H160" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>196.32602592592593</v>
       </c>
       <c r="I160" s="3">
         <f t="shared" si="9"/>
@@ -4973,7 +5288,9 @@
       <c r="D161" s="2">
         <v>5181000</v>
       </c>
-      <c r="E161" s="2"/>
+      <c r="E161" s="2">
+        <v>12215200</v>
+      </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3">
         <f t="shared" si="7"/>
@@ -4981,7 +5298,7 @@
       </c>
       <c r="H161" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>93.194580078125</v>
       </c>
       <c r="I161" s="3">
         <f t="shared" si="9"/>
@@ -5001,7 +5318,9 @@
       <c r="D162" s="2">
         <v>2298352900</v>
       </c>
-      <c r="E162" s="2"/>
+      <c r="E162" s="2">
+        <v>7112769700</v>
+      </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3">
         <f t="shared" si="7"/>
@@ -5009,7 +5328,7 @@
       </c>
       <c r="H162" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.788468055555555</v>
       </c>
       <c r="I162" s="3">
         <f t="shared" si="9"/>
@@ -5029,7 +5348,9 @@
       <c r="D163" s="2">
         <v>4397800</v>
       </c>
-      <c r="E163" s="2"/>
+      <c r="E163" s="2">
+        <v>13883800</v>
+      </c>
       <c r="F163" s="3"/>
       <c r="G163" s="3">
         <f t="shared" si="7"/>
@@ -5037,7 +5358,7 @@
       </c>
       <c r="H163" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70.616658528645829</v>
       </c>
       <c r="I163" s="3">
         <f t="shared" si="9"/>
@@ -5057,7 +5378,9 @@
       <c r="D164" s="2">
         <v>7842900</v>
       </c>
-      <c r="E164" s="2"/>
+      <c r="E164" s="2">
+        <v>26149900</v>
+      </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3">
         <f t="shared" si="7"/>
@@ -5065,7 +5388,7 @@
       </c>
       <c r="H164" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>266.01053873697919</v>
       </c>
       <c r="I164" s="3">
         <f t="shared" si="9"/>
@@ -5085,7 +5408,9 @@
       <c r="D165" s="2">
         <v>97217500</v>
       </c>
-      <c r="E165" s="2"/>
+      <c r="E165" s="2">
+        <v>247592900</v>
+      </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3">
         <f t="shared" si="7"/>
@@ -5093,7 +5418,7 @@
       </c>
       <c r="H165" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>402.98323567708331</v>
       </c>
       <c r="I165" s="3">
         <f t="shared" si="9"/>
@@ -5113,7 +5438,9 @@
       <c r="D166" s="2">
         <v>39579800</v>
       </c>
-      <c r="E166" s="2"/>
+      <c r="E166" s="2">
+        <v>115549900</v>
+      </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3">
         <f t="shared" si="7"/>
@@ -5121,7 +5448,7 @@
       </c>
       <c r="H166" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>188.06949869791666</v>
       </c>
       <c r="I166" s="3">
         <f t="shared" si="9"/>
@@ -5141,7 +5468,9 @@
       <c r="D167" s="2">
         <v>46155200</v>
       </c>
-      <c r="E167" s="2"/>
+      <c r="E167" s="2">
+        <v>134721900</v>
+      </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3">
         <f t="shared" si="7"/>
@@ -5149,7 +5478,7 @@
       </c>
       <c r="H167" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>219.27392578125</v>
       </c>
       <c r="I167" s="3">
         <f t="shared" si="9"/>
@@ -5169,7 +5498,9 @@
       <c r="D168" s="2">
         <v>257502700</v>
       </c>
-      <c r="E168" s="2"/>
+      <c r="E168" s="2">
+        <v>822018000</v>
+      </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3">
         <f t="shared" si="7"/>
@@ -5177,7 +5508,7 @@
       </c>
       <c r="H168" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.992181777954102</v>
       </c>
       <c r="I168" s="3">
         <f t="shared" si="9"/>
@@ -5197,7 +5528,9 @@
       <c r="D169" s="2">
         <v>2156160500</v>
       </c>
-      <c r="E169" s="2"/>
+      <c r="E169" s="2">
+        <v>7707345600</v>
+      </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3">
         <f t="shared" si="7"/>
@@ -5205,7 +5538,7 @@
       </c>
       <c r="H169" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>71.364311111111107</v>
       </c>
       <c r="I169" s="3">
         <f t="shared" si="9"/>
@@ -5225,7 +5558,9 @@
       <c r="D170" s="2">
         <v>43797200</v>
       </c>
-      <c r="E170" s="2"/>
+      <c r="E170" s="2">
+        <v>111211800</v>
+      </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3">
         <f t="shared" si="7"/>
@@ -5233,7 +5568,7 @@
       </c>
       <c r="H170" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>181.0087890625</v>
       </c>
       <c r="I170" s="3">
         <f t="shared" si="9"/>
@@ -5253,7 +5588,9 @@
       <c r="D171" s="2">
         <v>19338800</v>
       </c>
-      <c r="E171" s="2"/>
+      <c r="E171" s="2">
+        <v>73977900</v>
+      </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3">
         <f t="shared" si="7"/>
@@ -5261,7 +5598,7 @@
       </c>
       <c r="H171" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>752.5421142578125</v>
       </c>
       <c r="I171" s="3">
         <f t="shared" si="9"/>
@@ -5281,7 +5618,9 @@
       <c r="D172" s="2">
         <v>4376900</v>
       </c>
-      <c r="E172" s="2"/>
+      <c r="E172" s="2">
+        <v>15215600</v>
+      </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3">
         <f t="shared" si="7"/>
@@ -5289,7 +5628,7 @@
       </c>
       <c r="H172" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>116.0858154296875</v>
       </c>
       <c r="I172" s="3">
         <f t="shared" si="9"/>
@@ -5309,7 +5648,9 @@
       <c r="D173" s="2">
         <v>2101646400</v>
       </c>
-      <c r="E173" s="2"/>
+      <c r="E173" s="2">
+        <v>7110485600</v>
+      </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3">
         <f t="shared" si="7"/>
@@ -5317,7 +5658,7 @@
       </c>
       <c r="H173" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>65.837829629629638</v>
       </c>
       <c r="I173" s="3">
         <f t="shared" si="9"/>
@@ -5337,7 +5678,9 @@
       <c r="D174" s="2">
         <v>740410900</v>
       </c>
-      <c r="E174" s="2"/>
+      <c r="E174" s="2">
+        <v>2595172900</v>
+      </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3">
         <f t="shared" si="7"/>
@@ -5345,7 +5688,7 @@
       </c>
       <c r="H174" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>309.36871767044067</v>
       </c>
       <c r="I174" s="3">
         <f t="shared" si="9"/>
@@ -5365,7 +5708,9 @@
       <c r="D175" s="2">
         <v>49451700</v>
       </c>
-      <c r="E175" s="2"/>
+      <c r="E175" s="2">
+        <v>107595600</v>
+      </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3">
         <f t="shared" si="7"/>
@@ -5373,7 +5718,7 @@
       </c>
       <c r="H175" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>175.123046875</v>
       </c>
       <c r="I175" s="3">
         <f t="shared" si="9"/>
@@ -5393,7 +5738,9 @@
       <c r="D176" s="2">
         <v>250404400</v>
       </c>
-      <c r="E176" s="2"/>
+      <c r="E176" s="2">
+        <v>869652100</v>
+      </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3">
         <f t="shared" si="7"/>
@@ -5401,7 +5748,7 @@
       </c>
       <c r="H176" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>103.67060899734497</v>
       </c>
       <c r="I176" s="3">
         <f t="shared" si="9"/>
@@ -5421,7 +5768,9 @@
       <c r="D177" s="2">
         <v>44131300</v>
       </c>
-      <c r="E177" s="2"/>
+      <c r="E177" s="2">
+        <v>135975200</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3">
         <f t="shared" si="7"/>
@@ -5429,7 +5778,7 @@
       </c>
       <c r="H177" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>221.31380208333334</v>
       </c>
       <c r="I177" s="3">
         <f t="shared" si="9"/>
@@ -5449,7 +5798,9 @@
       <c r="D178" s="2">
         <v>32538700</v>
       </c>
-      <c r="E178" s="2"/>
+      <c r="E178" s="2">
+        <v>81714700</v>
+      </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3">
         <f t="shared" si="7"/>
@@ -5457,7 +5808,7 @@
       </c>
       <c r="H178" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>66.499593098958329</v>
       </c>
       <c r="I178" s="3">
         <f t="shared" si="9"/>
@@ -5477,7 +5828,9 @@
       <c r="D179" s="2">
         <v>17497100</v>
       </c>
-      <c r="E179" s="2"/>
+      <c r="E179" s="2">
+        <v>47820100</v>
+      </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3">
         <f t="shared" si="7"/>
@@ -5485,7 +5838,7 @@
       </c>
       <c r="H179" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>486.45121256510419</v>
       </c>
       <c r="I179" s="3">
         <f t="shared" si="9"/>
@@ -5505,7 +5858,9 @@
       <c r="D180" s="2">
         <v>443663900</v>
       </c>
-      <c r="E180" s="2"/>
+      <c r="E180" s="2">
+        <v>1567390600</v>
+      </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3">
         <f t="shared" si="7"/>
@@ -5513,7 +5868,7 @@
       </c>
       <c r="H180" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>249.13002649943033</v>
       </c>
       <c r="I180" s="3">
         <f t="shared" si="9"/>
@@ -5533,7 +5888,9 @@
       <c r="D181" s="2">
         <v>24045800</v>
       </c>
-      <c r="E181" s="2"/>
+      <c r="E181" s="2">
+        <v>113644300</v>
+      </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3">
         <f t="shared" si="7"/>
@@ -5541,7 +5898,7 @@
       </c>
       <c r="H181" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>138.7259521484375</v>
       </c>
       <c r="I181" s="3">
         <f t="shared" si="9"/>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Semestre\Arquitectura de computadores y Laboratorio\Taller Final\ProyectoFinal-Arquihard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayumi\Documents\ProyectoFinal-Arquihard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E67A4BE-F461-4845-A6AC-714C15929826}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BCF1D9-2C91-4655-8575-F6FB44803348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CC1E190A-F1DE-402A-8C1B-6B8DAA8DD481}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CC1E190A-F1DE-402A-8C1B-6B8DAA8DD481}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -462,7 +464,7 @@
   <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E181"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,18 +523,20 @@
       <c r="E2" s="2">
         <v>2217199700</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>873823200</v>
+      </c>
       <c r="G2" s="3">
         <f>(D2/$B2^2)/$C2</f>
         <v>94.130182266235352</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:I2" si="0">(E2/$B2^2)/$C2</f>
+        <f>(E2/$B2^2)/$C2</f>
         <v>352.41440137227374</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(F2/$B2^2)/$C2</f>
+        <v>138.89045715332031</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -551,18 +555,20 @@
       <c r="E3" s="2">
         <v>32251464900</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>15419517400</v>
+      </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G66" si="1">(D3/$B3^2)/$C3</f>
+        <f t="shared" ref="G3:G66" si="0">(D3/$B3^2)/$C3</f>
         <v>142.20817037037037</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H66" si="2">(E3/$B3^2)/$C3</f>
+        <f t="shared" ref="H3:H66" si="1">(E3/$B3^2)/$C3</f>
         <v>597.24934999999994</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I66" si="3">(F3/$B3^2)/$C3</f>
-        <v>0</v>
+        <f t="shared" ref="I3:I66" si="2">(F3/$B3^2)/$C3</f>
+        <v>285.54661851851853</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -581,18 +587,20 @@
       <c r="E4" s="2">
         <v>256550400</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>102307800</v>
+      </c>
       <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>37.4619140625</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>37.4619140625</v>
-      </c>
-      <c r="H4" s="3">
+        <v>208.78125</v>
+      </c>
+      <c r="I4" s="3">
         <f t="shared" si="2"/>
-        <v>208.78125</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>83.25830078125</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -611,18 +619,20 @@
       <c r="E5" s="2">
         <v>23493837100</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>11085299600</v>
+      </c>
       <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>59.210030555555555</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>59.210030555555555</v>
-      </c>
-      <c r="H5" s="3">
+        <v>326.30329305555557</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" si="2"/>
-        <v>326.30329305555557</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>153.96249444444445</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -641,18 +651,20 @@
       <c r="E6" s="2">
         <v>61418200</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>22476200</v>
+      </c>
       <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>67.398579915364579</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>67.398579915364579</v>
-      </c>
-      <c r="H6" s="3">
+        <v>312.38911946614581</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="2"/>
-        <v>312.38911946614581</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>114.31986490885417</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -671,18 +683,20 @@
       <c r="E7" s="2">
         <v>19012800</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>8958000</v>
+      </c>
       <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>22.74169921875</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>22.74169921875</v>
-      </c>
-      <c r="H7" s="3">
+        <v>96.7041015625</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="2"/>
-        <v>96.7041015625</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>45.562744140625</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -701,18 +715,20 @@
       <c r="E8" s="2">
         <v>41577600</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>15530500</v>
+      </c>
       <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>49.3194580078125</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>49.3194580078125</v>
-      </c>
-      <c r="H8" s="3">
+        <v>211.474609375</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="2"/>
-        <v>211.474609375</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78.992207845052079</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -731,18 +747,20 @@
       <c r="E9" s="2">
         <v>175161100</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>93921300</v>
+      </c>
       <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>66.526529947916671</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>66.526529947916671</v>
-      </c>
-      <c r="H9" s="3">
+        <v>285.09293619791669</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="2"/>
-        <v>285.09293619791669</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>152.86669921875</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,18 +779,20 @@
       <c r="E10" s="2">
         <v>173847600</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>93449500</v>
+      </c>
       <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>77.410319010416671</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>77.410319010416671</v>
-      </c>
-      <c r="H10" s="3">
+        <v>282.955078125</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="2"/>
-        <v>282.955078125</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>152.09879557291666</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -791,18 +811,20 @@
       <c r="E11" s="2">
         <v>1284306900</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>543636700</v>
+      </c>
       <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>20.382650693257649</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>20.382650693257649</v>
-      </c>
-      <c r="H11" s="3">
+        <v>102.06754207611084</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="2"/>
-        <v>102.06754207611084</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>43.204363187154136</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -821,18 +843,20 @@
       <c r="E12" s="2">
         <v>15672797000</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>7765422200</v>
+      </c>
       <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>75.426479629629625</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>75.426479629629625</v>
-      </c>
-      <c r="H12" s="3">
+        <v>290.23698148148145</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>290.23698148148145</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>143.80411481481482</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -851,18 +875,20 @@
       <c r="E13" s="2">
         <v>11297050000</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>5267511700</v>
+      </c>
       <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>32.848675</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>32.848675</v>
-      </c>
-      <c r="H13" s="3">
+        <v>156.90347222222223</v>
+      </c>
+      <c r="I13" s="3">
         <f t="shared" si="2"/>
-        <v>156.90347222222223</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>73.159884722222216</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -881,18 +907,20 @@
       <c r="E14" s="2">
         <v>11007758400</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>4757958200</v>
+      </c>
       <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>34.252708333333331</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>34.252708333333331</v>
-      </c>
-      <c r="H14" s="3">
+        <v>152.88553333333334</v>
+      </c>
+      <c r="I14" s="3">
         <f t="shared" si="2"/>
-        <v>152.88553333333334</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>66.082752777777785</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -911,18 +939,20 @@
       <c r="E15" s="2">
         <v>25152200</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>12649800</v>
+      </c>
       <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>85.416666666666671</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>85.416666666666671</v>
-      </c>
-      <c r="H15" s="3">
+        <v>255.86140950520834</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="2"/>
-        <v>255.86140950520834</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>128.680419921875</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -941,18 +971,20 @@
       <c r="E16" s="2">
         <v>2631416300</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <v>1173962200</v>
+      </c>
       <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>65.059149265289307</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>65.059149265289307</v>
-      </c>
-      <c r="H16" s="3">
+        <v>313.68926763534546</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="2"/>
-        <v>313.68926763534546</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>139.94719982147217</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -971,18 +1003,20 @@
       <c r="E17" s="2">
         <v>24618844500</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>10497214300</v>
+      </c>
       <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>42.326297222222223</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>42.326297222222223</v>
-      </c>
-      <c r="H17" s="3">
+        <v>227.95226388888889</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="2"/>
-        <v>227.95226388888889</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>97.196428703703702</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1001,18 +1035,20 @@
       <c r="E18" s="2">
         <v>11462393200</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <v>4995991100</v>
+      </c>
       <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>32.50098333333333</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>32.50098333333333</v>
-      </c>
-      <c r="H18" s="3">
+        <v>159.19990555555555</v>
+      </c>
+      <c r="I18" s="3">
         <f t="shared" si="2"/>
-        <v>159.19990555555555</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>69.388765277777779</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1031,18 +1067,20 @@
       <c r="E19" s="2">
         <v>11312061800</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <v>5027751900</v>
+      </c>
       <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>20.683933333333332</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>20.683933333333332</v>
-      </c>
-      <c r="H19" s="3">
+        <v>104.74131296296297</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="2"/>
-        <v>104.74131296296297</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>46.553258333333332</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1061,18 +1099,20 @@
       <c r="E20" s="2">
         <v>2610136900</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <v>1185226800</v>
+      </c>
       <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>62.754905104637146</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>62.754905104637146</v>
-      </c>
-      <c r="H20" s="3">
+        <v>311.15256547927856</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="2"/>
-        <v>311.15256547927856</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>141.2900447845459</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1091,18 +1131,20 @@
       <c r="E21" s="2">
         <v>31441332900</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <v>15486278500</v>
+      </c>
       <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>149.97793888888887</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>149.97793888888887</v>
-      </c>
-      <c r="H21" s="3">
+        <v>582.2469055555556</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="2"/>
-        <v>582.2469055555556</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>286.78293518518518</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1121,18 +1163,20 @@
       <c r="E22" s="2">
         <v>1817052900</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <v>845806800</v>
+      </c>
       <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>84.069712956746415</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>84.069712956746415</v>
-      </c>
-      <c r="H22" s="3">
+        <v>288.81278038024902</v>
+      </c>
+      <c r="I22" s="3">
         <f t="shared" si="2"/>
-        <v>288.81278038024902</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>134.43737030029297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1151,18 +1195,20 @@
       <c r="E23" s="2">
         <v>263119300</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <v>106097800</v>
+      </c>
       <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>54.180419921875</v>
+      </c>
+      <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>54.180419921875</v>
-      </c>
-      <c r="H23" s="3">
+        <v>214.12703450520834</v>
+      </c>
+      <c r="I23" s="3">
         <f t="shared" si="2"/>
-        <v>214.12703450520834</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>86.342610677083329</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1181,18 +1227,20 @@
       <c r="E24" s="2">
         <v>252419300</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <v>57004400</v>
+      </c>
       <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>29.585042317708332</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>29.585042317708332</v>
-      </c>
-      <c r="H24" s="3">
+        <v>205.41935221354166</v>
+      </c>
+      <c r="I24" s="3">
         <f t="shared" si="2"/>
-        <v>205.41935221354166</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>46.390299479166664</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1211,18 +1259,20 @@
       <c r="E25" s="2">
         <v>2210985100</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <v>582654800</v>
+      </c>
       <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>24.890613555908203</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="1"/>
-        <v>24.890613555908203</v>
-      </c>
-      <c r="H25" s="3">
+        <v>175.71330865224203</v>
+      </c>
+      <c r="I25" s="3">
         <f t="shared" si="2"/>
-        <v>175.71330865224203</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>46.305243174235024</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1241,18 +1291,20 @@
       <c r="E26" s="2">
         <v>64985300</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>30305400</v>
+      </c>
       <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>136.46036783854166</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="1"/>
-        <v>136.46036783854166</v>
-      </c>
-      <c r="H26" s="3">
+        <v>661.06465657552087</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="2"/>
-        <v>661.06465657552087</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>308.282470703125</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1271,18 +1323,20 @@
       <c r="E27" s="2">
         <v>13313948100</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <v>5271949800</v>
+      </c>
       <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>38.715672222222224</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>38.715672222222224</v>
-      </c>
-      <c r="H27" s="3">
+        <v>184.91594583333332</v>
+      </c>
+      <c r="I27" s="3">
         <f t="shared" si="2"/>
-        <v>184.91594583333332</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>73.221525</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1301,18 +1355,20 @@
       <c r="E28" s="2">
         <v>1463899800</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <v>613870700</v>
+      </c>
       <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>32.496309280395508</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="1"/>
-        <v>32.496309280395508</v>
-      </c>
-      <c r="H28" s="3">
+        <v>174.51045513153076</v>
+      </c>
+      <c r="I28" s="3">
         <f t="shared" si="2"/>
-        <v>174.51045513153076</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>73.179090023040771</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1331,18 +1387,20 @@
       <c r="E29" s="2">
         <v>410390800</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3">
+        <v>173965400</v>
+      </c>
       <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>65.364664713541671</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>65.364664713541671</v>
-      </c>
-      <c r="H29" s="3">
+        <v>333.97688802083331</v>
+      </c>
+      <c r="I29" s="3">
         <f t="shared" si="2"/>
-        <v>333.97688802083331</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>141.57340494791666</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1361,18 +1419,20 @@
       <c r="E30" s="2">
         <v>17554615700</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <v>7864765800</v>
+      </c>
       <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>73.014124074074076</v>
+      </c>
+      <c r="H30" s="3">
         <f t="shared" si="1"/>
-        <v>73.014124074074076</v>
-      </c>
-      <c r="H30" s="3">
+        <v>325.08547592592589</v>
+      </c>
+      <c r="I30" s="3">
         <f t="shared" si="2"/>
-        <v>325.08547592592589</v>
-      </c>
-      <c r="I30" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>145.64381111111112</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1391,18 +1451,20 @@
       <c r="E31" s="2">
         <v>57542900</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3">
+        <v>22807800</v>
+      </c>
       <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>57.87200927734375</v>
+      </c>
+      <c r="H31" s="3">
         <f t="shared" si="1"/>
-        <v>57.87200927734375</v>
-      </c>
-      <c r="H31" s="3">
+        <v>292.67832438151044</v>
+      </c>
+      <c r="I31" s="3">
         <f t="shared" si="2"/>
-        <v>292.67832438151044</v>
-      </c>
-      <c r="I31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>116.0064697265625</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1421,18 +1483,20 @@
       <c r="E32" s="2">
         <v>12417197300</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <v>4814903100</v>
+      </c>
       <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>31.068318055555554</v>
+      </c>
+      <c r="H32" s="3">
         <f t="shared" si="1"/>
-        <v>31.068318055555554</v>
-      </c>
-      <c r="H32" s="3">
+        <v>172.46107361111112</v>
+      </c>
+      <c r="I32" s="3">
         <f t="shared" si="2"/>
-        <v>172.46107361111112</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>66.873654166666668</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1451,18 +1515,20 @@
       <c r="E33" s="2">
         <v>23425500</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <v>9866400</v>
+      </c>
       <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>27.011871337890625</v>
+      </c>
+      <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>27.011871337890625</v>
-      </c>
-      <c r="H33" s="3">
+        <v>178.72238159179688</v>
+      </c>
+      <c r="I33" s="3">
         <f t="shared" si="2"/>
-        <v>178.72238159179688</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75.274658203125</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1481,18 +1547,20 @@
       <c r="E34" s="2">
         <v>407575000</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3">
+        <v>170738400</v>
+      </c>
       <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>103.385986328125</v>
+      </c>
+      <c r="H34" s="3">
         <f t="shared" si="1"/>
-        <v>103.385986328125</v>
-      </c>
-      <c r="H34" s="3">
+        <v>497.528076171875</v>
+      </c>
+      <c r="I34" s="3">
         <f t="shared" si="2"/>
-        <v>497.528076171875</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>208.4208984375</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1511,18 +1579,20 @@
       <c r="E35" s="2">
         <v>404966500</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3">
+        <v>168310700</v>
+      </c>
       <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>61.326334635416664</v>
+      </c>
+      <c r="H35" s="3">
         <f t="shared" si="1"/>
-        <v>61.326334635416664</v>
-      </c>
-      <c r="H35" s="3">
+        <v>329.56258138020831</v>
+      </c>
+      <c r="I35" s="3">
         <f t="shared" si="2"/>
-        <v>329.56258138020831</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>136.97159830729166</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1541,18 +1611,20 @@
       <c r="E36" s="2">
         <v>39136500</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3">
+        <v>14614200</v>
+      </c>
       <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>84.120686848958329</v>
+      </c>
+      <c r="H36" s="3">
         <f t="shared" si="1"/>
-        <v>84.120686848958329</v>
-      </c>
-      <c r="H36" s="3">
+        <v>398.1170654296875</v>
+      </c>
+      <c r="I36" s="3">
         <f t="shared" si="2"/>
-        <v>398.1170654296875</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>148.663330078125</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1571,18 +1643,20 @@
       <c r="E37" s="2">
         <v>138666000</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3">
+        <v>57171800</v>
+      </c>
       <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>31.6678466796875</v>
+      </c>
+      <c r="H37" s="3">
         <f t="shared" si="1"/>
-        <v>31.6678466796875</v>
-      </c>
-      <c r="H37" s="3">
+        <v>169.27001953125</v>
+      </c>
+      <c r="I37" s="3">
         <f t="shared" si="2"/>
-        <v>169.27001953125</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>69.789794921875</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1601,18 +1675,20 @@
       <c r="E38" s="2">
         <v>19051427900</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3">
+        <v>7664813000</v>
+      </c>
       <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>73.26660185185186</v>
+      </c>
+      <c r="H38" s="3">
         <f t="shared" si="1"/>
-        <v>73.26660185185186</v>
-      </c>
-      <c r="H38" s="3">
+        <v>352.80422037037039</v>
+      </c>
+      <c r="I38" s="3">
         <f t="shared" si="2"/>
-        <v>352.80422037037039</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>141.94098148148149</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1631,18 +1707,20 @@
       <c r="E39" s="2">
         <v>100038800</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3">
+        <v>55662900</v>
+      </c>
       <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>23.851318359375</v>
+      </c>
+      <c r="H39" s="3">
         <f t="shared" si="1"/>
-        <v>23.851318359375</v>
-      </c>
-      <c r="H39" s="3">
+        <v>81.411783854166671</v>
+      </c>
+      <c r="I39" s="3">
         <f t="shared" si="2"/>
-        <v>81.411783854166671</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>45.298583984375</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1661,18 +1739,20 @@
       <c r="E40" s="2">
         <v>1737095500</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3">
+        <v>892455300</v>
+      </c>
       <c r="G40" s="3">
+        <f t="shared" si="0"/>
+        <v>72.288974126180008</v>
+      </c>
+      <c r="H40" s="3">
         <f t="shared" si="1"/>
-        <v>72.288974126180008</v>
-      </c>
-      <c r="H40" s="3">
+        <v>276.10389391581219</v>
+      </c>
+      <c r="I40" s="3">
         <f t="shared" si="2"/>
-        <v>276.10389391581219</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>141.85194969177246</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1691,18 +1771,20 @@
       <c r="E41" s="2">
         <v>17019100</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3">
+        <v>10675300</v>
+      </c>
       <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>25.961812337239582</v>
+      </c>
+      <c r="H41" s="3">
         <f t="shared" si="1"/>
-        <v>25.961812337239582</v>
-      </c>
-      <c r="H41" s="3">
+        <v>86.563618977864579</v>
+      </c>
+      <c r="I41" s="3">
         <f t="shared" si="2"/>
-        <v>86.563618977864579</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54.297383626302086</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,18 +1803,20 @@
       <c r="E42" s="2">
         <v>21661572800</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3">
+        <v>10922967400</v>
+      </c>
       <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>42.306557407407404</v>
+      </c>
+      <c r="H42" s="3">
         <f t="shared" si="1"/>
-        <v>42.306557407407404</v>
-      </c>
-      <c r="H42" s="3">
+        <v>200.57011851851851</v>
+      </c>
+      <c r="I42" s="3">
         <f t="shared" si="2"/>
-        <v>200.57011851851851</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>101.13858703703704</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1751,18 +1835,20 @@
       <c r="E43" s="2">
         <v>226705100</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3">
+        <v>116789300</v>
+      </c>
       <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>60.525146484375</v>
+      </c>
+      <c r="H43" s="3">
         <f t="shared" si="1"/>
-        <v>60.525146484375</v>
-      </c>
-      <c r="H43" s="3">
+        <v>276.7396240234375</v>
+      </c>
+      <c r="I43" s="3">
         <f t="shared" si="2"/>
-        <v>276.7396240234375</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>142.5650634765625</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,18 +1867,20 @@
       <c r="E44" s="2">
         <v>357246100</v>
       </c>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3">
+        <v>168541400</v>
+      </c>
       <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>65.314860026041671</v>
+      </c>
+      <c r="H44" s="3">
         <f t="shared" si="1"/>
-        <v>65.314860026041671</v>
-      </c>
-      <c r="H44" s="3">
+        <v>290.72762044270831</v>
+      </c>
+      <c r="I44" s="3">
         <f t="shared" si="2"/>
-        <v>290.72762044270831</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>137.15934244791666</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1811,18 +1899,20 @@
       <c r="E45" s="2">
         <v>95821400</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3">
+        <v>55262700</v>
+      </c>
       <c r="G45" s="3">
+        <f t="shared" si="0"/>
+        <v>31.82373046875</v>
+      </c>
+      <c r="H45" s="3">
         <f t="shared" si="1"/>
-        <v>31.82373046875</v>
-      </c>
-      <c r="H45" s="3">
+        <v>116.969482421875</v>
+      </c>
+      <c r="I45" s="3">
         <f t="shared" si="2"/>
-        <v>116.969482421875</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>67.4593505859375</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1841,18 +1931,20 @@
       <c r="E46" s="2">
         <v>123756000</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3">
+        <v>61315300</v>
+      </c>
       <c r="G46" s="3">
+        <f t="shared" si="0"/>
+        <v>20.300699869791668</v>
+      </c>
+      <c r="H46" s="3">
         <f t="shared" si="1"/>
-        <v>20.300699869791668</v>
-      </c>
-      <c r="H46" s="3">
+        <v>100.712890625</v>
+      </c>
+      <c r="I46" s="3">
         <f t="shared" si="2"/>
-        <v>100.712890625</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>49.898518880208336</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1871,18 +1963,20 @@
       <c r="E47" s="2">
         <v>124732900</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3">
+        <v>53864000</v>
+      </c>
       <c r="G47" s="3">
+        <f t="shared" si="0"/>
+        <v>29.3638916015625</v>
+      </c>
+      <c r="H47" s="3">
         <f t="shared" si="1"/>
-        <v>29.3638916015625</v>
-      </c>
-      <c r="H47" s="3">
+        <v>152.2618408203125</v>
+      </c>
+      <c r="I47" s="3">
         <f t="shared" si="2"/>
-        <v>152.2618408203125</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>65.751953125</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1901,18 +1995,20 @@
       <c r="E48" s="2">
         <v>215636200</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3">
+        <v>104307200</v>
+      </c>
       <c r="G48" s="3">
+        <f t="shared" si="0"/>
+        <v>38.655354817708336</v>
+      </c>
+      <c r="H48" s="3">
         <f t="shared" si="1"/>
-        <v>38.655354817708336</v>
-      </c>
-      <c r="H48" s="3">
+        <v>175.48518880208334</v>
+      </c>
+      <c r="I48" s="3">
         <f t="shared" si="2"/>
-        <v>175.48518880208334</v>
-      </c>
-      <c r="I48" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>84.885416666666671</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1931,18 +2027,20 @@
       <c r="E49" s="2">
         <v>15061700</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="3">
+        <v>11765700</v>
+      </c>
       <c r="G49" s="3">
+        <f t="shared" si="0"/>
+        <v>37.99285888671875</v>
+      </c>
+      <c r="H49" s="3">
         <f t="shared" si="1"/>
-        <v>37.99285888671875</v>
-      </c>
-      <c r="H49" s="3">
+        <v>114.91165161132813</v>
+      </c>
+      <c r="I49" s="3">
         <f t="shared" si="2"/>
-        <v>114.91165161132813</v>
-      </c>
-      <c r="I49" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>89.765167236328125</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1961,18 +2059,20 @@
       <c r="E50" s="2">
         <v>34714400</v>
       </c>
-      <c r="F50" s="3"/>
+      <c r="F50" s="3">
+        <v>21185200</v>
+      </c>
       <c r="G50" s="3">
+        <f t="shared" si="0"/>
+        <v>53.336588541666664</v>
+      </c>
+      <c r="H50" s="3">
         <f t="shared" si="1"/>
-        <v>53.336588541666664</v>
-      </c>
-      <c r="H50" s="3">
+        <v>176.56656901041666</v>
+      </c>
+      <c r="I50" s="3">
         <f t="shared" si="2"/>
-        <v>176.56656901041666</v>
-      </c>
-      <c r="I50" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>107.75349934895833</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -1991,18 +2091,20 @@
       <c r="E51" s="2">
         <v>2519208400</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3">
+        <v>1252728200</v>
+      </c>
       <c r="G51" s="3">
+        <f t="shared" si="0"/>
+        <v>45.709753036499023</v>
+      </c>
+      <c r="H51" s="3">
         <f t="shared" si="1"/>
-        <v>45.709753036499023</v>
-      </c>
-      <c r="H51" s="3">
+        <v>200.20869572957358</v>
+      </c>
+      <c r="I51" s="3">
         <f t="shared" si="2"/>
-        <v>200.20869572957358</v>
-      </c>
-      <c r="I51" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>99.557892481486007</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2021,18 +2123,20 @@
       <c r="E52" s="2">
         <v>40588100</v>
       </c>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3">
+        <v>19320500</v>
+      </c>
       <c r="G52" s="3">
+        <f t="shared" si="0"/>
+        <v>80.583953857421875</v>
+      </c>
+      <c r="H52" s="3">
         <f t="shared" si="1"/>
-        <v>80.583953857421875</v>
-      </c>
-      <c r="H52" s="3">
+        <v>309.66262817382813</v>
+      </c>
+      <c r="I52" s="3">
         <f t="shared" si="2"/>
-        <v>309.66262817382813</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>147.40371704101563</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,18 +2155,20 @@
       <c r="E53" s="2">
         <v>11186325600</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3">
+        <v>5216075700</v>
+      </c>
       <c r="G53" s="3">
+        <f t="shared" si="0"/>
+        <v>29.849237500000001</v>
+      </c>
+      <c r="H53" s="3">
         <f t="shared" si="1"/>
-        <v>29.849237500000001</v>
-      </c>
-      <c r="H53" s="3">
+        <v>155.36563333333334</v>
+      </c>
+      <c r="I53" s="3">
         <f t="shared" si="2"/>
-        <v>155.36563333333334</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>72.445495833333339</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2081,18 +2187,20 @@
       <c r="E54" s="2">
         <v>33910000</v>
       </c>
-      <c r="F54" s="3"/>
+      <c r="F54" s="3">
+        <v>13557600</v>
+      </c>
       <c r="G54" s="3">
+        <f t="shared" si="0"/>
+        <v>85.558064778645829</v>
+      </c>
+      <c r="H54" s="3">
         <f t="shared" si="1"/>
-        <v>85.558064778645829</v>
-      </c>
-      <c r="H54" s="3">
+        <v>344.95035807291669</v>
+      </c>
+      <c r="I54" s="3">
         <f t="shared" si="2"/>
-        <v>344.95035807291669</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>137.9150390625</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2111,18 +2219,20 @@
       <c r="E55" s="2">
         <v>25930100</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3">
+        <v>13756000</v>
+      </c>
       <c r="G55" s="3">
+        <f t="shared" si="0"/>
+        <v>22.493998209635418</v>
+      </c>
+      <c r="H55" s="3">
         <f t="shared" si="1"/>
-        <v>22.493998209635418</v>
-      </c>
-      <c r="H55" s="3">
+        <v>131.88730875651041</v>
+      </c>
+      <c r="I55" s="3">
         <f t="shared" si="2"/>
-        <v>131.88730875651041</v>
-      </c>
-      <c r="I55" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>69.966634114583329</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2141,18 +2251,20 @@
       <c r="E56" s="2">
         <v>34951200</v>
       </c>
-      <c r="F56" s="3"/>
+      <c r="F56" s="3">
+        <v>9160600</v>
+      </c>
       <c r="G56" s="3">
+        <f t="shared" si="0"/>
+        <v>36.75689697265625</v>
+      </c>
+      <c r="H56" s="3">
         <f t="shared" si="1"/>
-        <v>36.75689697265625</v>
-      </c>
-      <c r="H56" s="3">
+        <v>266.656494140625</v>
+      </c>
+      <c r="I56" s="3">
         <f t="shared" si="2"/>
-        <v>266.656494140625</v>
-      </c>
-      <c r="I56" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>69.88983154296875</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2171,18 +2283,20 @@
       <c r="E57" s="2">
         <v>1694429800</v>
       </c>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3">
+        <v>989967300</v>
+      </c>
       <c r="G57" s="3">
+        <f t="shared" si="0"/>
+        <v>73.460896809895829</v>
+      </c>
+      <c r="H57" s="3">
         <f t="shared" si="1"/>
-        <v>73.460896809895829</v>
-      </c>
-      <c r="H57" s="3">
+        <v>269.32236353556317</v>
+      </c>
+      <c r="I57" s="3">
         <f t="shared" si="2"/>
-        <v>269.32236353556317</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>157.35106468200684</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2201,18 +2315,20 @@
       <c r="E58" s="2">
         <v>5348006000</v>
       </c>
-      <c r="F58" s="3"/>
+      <c r="F58" s="3">
+        <v>2641990600</v>
+      </c>
       <c r="G58" s="3">
+        <f t="shared" si="0"/>
+        <v>206.45642280578613</v>
+      </c>
+      <c r="H58" s="3">
         <f t="shared" si="1"/>
-        <v>206.45642280578613</v>
-      </c>
-      <c r="H58" s="3">
+        <v>850.04266103108728</v>
+      </c>
+      <c r="I58" s="3">
         <f t="shared" si="2"/>
-        <v>850.04266103108728</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>419.93309656778973</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2231,18 +2347,20 @@
       <c r="E59" s="2">
         <v>42420888900</v>
       </c>
-      <c r="F59" s="3"/>
+      <c r="F59" s="3">
+        <v>39554318100</v>
+      </c>
       <c r="G59" s="3">
+        <f t="shared" si="0"/>
+        <v>208.90578333333335</v>
+      </c>
+      <c r="H59" s="3">
         <f t="shared" si="1"/>
-        <v>208.90578333333335</v>
-      </c>
-      <c r="H59" s="3">
+        <v>785.57201666666663</v>
+      </c>
+      <c r="I59" s="3">
         <f t="shared" si="2"/>
-        <v>785.57201666666663</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>732.48737222222223</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2261,18 +2379,20 @@
       <c r="E60" s="2">
         <v>823542100</v>
       </c>
-      <c r="F60" s="3"/>
+      <c r="F60" s="3">
+        <v>650660100</v>
+      </c>
       <c r="G60" s="3">
+        <f t="shared" si="0"/>
+        <v>22.752745946248371</v>
+      </c>
+      <c r="H60" s="3">
         <f t="shared" si="1"/>
-        <v>22.752745946248371</v>
-      </c>
-      <c r="H60" s="3">
+        <v>65.449245770772293</v>
+      </c>
+      <c r="I60" s="3">
         <f t="shared" si="2"/>
-        <v>65.449245770772293</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>51.709818840026855</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2291,18 +2411,20 @@
       <c r="E61" s="2">
         <v>247957100</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3">
+        <v>203143900</v>
+      </c>
       <c r="G61" s="3">
+        <f t="shared" si="0"/>
+        <v>161.49723307291666</v>
+      </c>
+      <c r="H61" s="3">
         <f t="shared" si="1"/>
-        <v>161.49723307291666</v>
-      </c>
-      <c r="H61" s="3">
+        <v>403.57600911458331</v>
+      </c>
+      <c r="I61" s="3">
         <f t="shared" si="2"/>
-        <v>403.57600911458331</v>
-      </c>
-      <c r="I61" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>330.63785807291669</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2321,18 +2443,20 @@
       <c r="E62" s="2">
         <v>7369533600</v>
       </c>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3">
+        <v>6027105800</v>
+      </c>
       <c r="G62" s="3">
+        <f t="shared" si="0"/>
+        <v>19.886649999999999</v>
+      </c>
+      <c r="H62" s="3">
         <f t="shared" si="1"/>
-        <v>19.886649999999999</v>
-      </c>
-      <c r="H62" s="3">
+        <v>68.236422222222231</v>
+      </c>
+      <c r="I62" s="3">
         <f t="shared" si="2"/>
-        <v>68.236422222222231</v>
-      </c>
-      <c r="I62" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55.80653518518519</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2351,18 +2475,20 @@
       <c r="E63" s="2">
         <v>998778000</v>
       </c>
-      <c r="F63" s="3"/>
+      <c r="F63" s="3">
+        <v>673743700</v>
+      </c>
       <c r="G63" s="3">
+        <f t="shared" si="0"/>
+        <v>20.992493629455566</v>
+      </c>
+      <c r="H63" s="3">
         <f t="shared" si="1"/>
-        <v>20.992493629455566</v>
-      </c>
-      <c r="H63" s="3">
+        <v>79.375743865966797</v>
+      </c>
+      <c r="I63" s="3">
         <f t="shared" si="2"/>
-        <v>79.375743865966797</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>53.544338544209801</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2381,18 +2507,20 @@
       <c r="E64" s="2">
         <v>1850682900</v>
       </c>
-      <c r="F64" s="3"/>
+      <c r="F64" s="3">
+        <v>1713323400</v>
+      </c>
       <c r="G64" s="3">
+        <f t="shared" si="0"/>
+        <v>37.823661168416344</v>
+      </c>
+      <c r="H64" s="3">
         <f t="shared" si="1"/>
-        <v>37.823661168416344</v>
-      </c>
-      <c r="H64" s="3">
+        <v>147.07906246185303</v>
+      </c>
+      <c r="I64" s="3">
         <f t="shared" si="2"/>
-        <v>147.07906246185303</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>136.16271018981934</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2411,18 +2539,20 @@
       <c r="E65" s="2">
         <v>3962745100</v>
       </c>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3">
+        <v>3741718200</v>
+      </c>
       <c r="G65" s="3">
+        <f t="shared" si="0"/>
+        <v>227.67241795857748</v>
+      </c>
+      <c r="H65" s="3">
         <f t="shared" si="1"/>
-        <v>227.67241795857748</v>
-      </c>
-      <c r="H65" s="3">
+        <v>629.86137072245276</v>
+      </c>
+      <c r="I65" s="3">
         <f t="shared" si="2"/>
-        <v>629.86137072245276</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>594.7300910949707</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2441,18 +2571,20 @@
       <c r="E66" s="2">
         <v>1384321900</v>
       </c>
-      <c r="F66" s="3"/>
+      <c r="F66" s="3">
+        <v>1072278100</v>
+      </c>
       <c r="G66" s="3">
+        <f t="shared" si="0"/>
+        <v>68.445491790771484</v>
+      </c>
+      <c r="H66" s="3">
         <f t="shared" si="1"/>
-        <v>68.445491790771484</v>
-      </c>
-      <c r="H66" s="3">
+        <v>220.03204027811685</v>
+      </c>
+      <c r="I66" s="3">
         <f t="shared" si="2"/>
-        <v>220.03204027811685</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>170.43401400248209</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2471,18 +2603,20 @@
       <c r="E67" s="2">
         <v>918151900</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67" s="3">
+        <v>640257700</v>
+      </c>
       <c r="G67" s="3">
-        <f t="shared" ref="G67:G130" si="4">(D67/$B67^2)/$C67</f>
+        <f t="shared" ref="G67:G130" si="3">(D67/$B67^2)/$C67</f>
         <v>28.230023384094238</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H130" si="5">(E67/$B67^2)/$C67</f>
+        <f t="shared" ref="H67:H130" si="4">(E67/$B67^2)/$C67</f>
         <v>109.45223569869995</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" ref="I67:I130" si="6">(F67/$B67^2)/$C67</f>
-        <v>0</v>
+        <f t="shared" ref="I67:I130" si="5">(F67/$B67^2)/$C67</f>
+        <v>76.324665546417236</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2501,18 +2635,20 @@
       <c r="E68" s="2">
         <v>11799429800</v>
       </c>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3">
+        <v>8896781800</v>
+      </c>
       <c r="G68" s="3">
+        <f t="shared" si="3"/>
+        <v>82.705557407407412</v>
+      </c>
+      <c r="H68" s="3">
         <f t="shared" si="4"/>
-        <v>82.705557407407412</v>
-      </c>
-      <c r="H68" s="3">
+        <v>218.50795925925925</v>
+      </c>
+      <c r="I68" s="3">
         <f t="shared" si="5"/>
-        <v>218.50795925925925</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>164.75521851851852</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2531,18 +2667,20 @@
       <c r="E69" s="2">
         <v>7627067800</v>
       </c>
-      <c r="F69" s="3"/>
+      <c r="F69" s="3">
+        <v>6011426600</v>
+      </c>
       <c r="G69" s="3">
+        <f t="shared" si="3"/>
+        <v>26.498750925925929</v>
+      </c>
+      <c r="H69" s="3">
         <f t="shared" si="4"/>
-        <v>26.498750925925929</v>
-      </c>
-      <c r="H69" s="3">
+        <v>70.620998148148146</v>
+      </c>
+      <c r="I69" s="3">
         <f t="shared" si="5"/>
-        <v>70.620998148148146</v>
-      </c>
-      <c r="I69" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>55.661357407407401</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2561,18 +2699,20 @@
       <c r="E70" s="2">
         <v>2617529900</v>
       </c>
-      <c r="F70" s="3"/>
+      <c r="F70" s="3">
+        <v>2064604800</v>
+      </c>
       <c r="G70" s="3">
+        <f t="shared" si="3"/>
+        <v>169.48825518290201</v>
+      </c>
+      <c r="H70" s="3">
         <f t="shared" si="4"/>
-        <v>169.48825518290201</v>
-      </c>
-      <c r="H70" s="3">
+        <v>416.04517300923663</v>
+      </c>
+      <c r="I70" s="3">
         <f t="shared" si="5"/>
-        <v>416.04517300923663</v>
-      </c>
-      <c r="I70" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>328.16009521484375</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2591,18 +2731,20 @@
       <c r="E71" s="2">
         <v>2679691200</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3">
+        <v>2109913200</v>
+      </c>
       <c r="G71" s="3">
+        <f t="shared" si="3"/>
+        <v>119.43426132202148</v>
+      </c>
+      <c r="H71" s="3">
         <f t="shared" si="4"/>
-        <v>119.43426132202148</v>
-      </c>
-      <c r="H71" s="3">
+        <v>319.44408416748047</v>
+      </c>
+      <c r="I71" s="3">
         <f t="shared" si="5"/>
-        <v>319.44408416748047</v>
-      </c>
-      <c r="I71" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>251.52125358581543</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2621,18 +2763,20 @@
       <c r="E72" s="2">
         <v>86526900</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3">
+        <v>62461500</v>
+      </c>
       <c r="G72" s="3">
+        <f t="shared" si="3"/>
+        <v>37.6717529296875</v>
+      </c>
+      <c r="H72" s="3">
         <f t="shared" si="4"/>
-        <v>37.6717529296875</v>
-      </c>
-      <c r="H72" s="3">
+        <v>105.6236572265625</v>
+      </c>
+      <c r="I72" s="3">
         <f t="shared" si="5"/>
-        <v>105.6236572265625</v>
-      </c>
-      <c r="I72" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>76.2469482421875</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2651,18 +2795,20 @@
       <c r="E73" s="2">
         <v>829920900</v>
       </c>
-      <c r="F73" s="3"/>
+      <c r="F73" s="3">
+        <v>1072644000</v>
+      </c>
       <c r="G73" s="3">
+        <f t="shared" si="3"/>
+        <v>42.538690567016602</v>
+      </c>
+      <c r="H73" s="3">
         <f t="shared" si="4"/>
-        <v>42.538690567016602</v>
-      </c>
-      <c r="H73" s="3">
+        <v>98.934280872344971</v>
+      </c>
+      <c r="I73" s="3">
         <f t="shared" si="5"/>
-        <v>98.934280872344971</v>
-      </c>
-      <c r="I73" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>127.8691291809082</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2681,18 +2827,20 @@
       <c r="E74" s="2">
         <v>97305900</v>
       </c>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3">
+        <v>63100800</v>
+      </c>
       <c r="G74" s="3">
+        <f t="shared" si="3"/>
+        <v>35.654459635416664</v>
+      </c>
+      <c r="H74" s="3">
         <f t="shared" si="4"/>
-        <v>35.654459635416664</v>
-      </c>
-      <c r="H74" s="3">
+        <v>79.187744140625</v>
+      </c>
+      <c r="I74" s="3">
         <f t="shared" si="5"/>
-        <v>79.187744140625</v>
-      </c>
-      <c r="I74" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>51.3515625</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2711,18 +2859,20 @@
       <c r="E75" s="2">
         <v>7549327200</v>
       </c>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3">
+        <v>8060933500</v>
+      </c>
       <c r="G75" s="3">
+        <f t="shared" si="3"/>
+        <v>19.798612962962963</v>
+      </c>
+      <c r="H75" s="3">
         <f t="shared" si="4"/>
-        <v>19.798612962962963</v>
-      </c>
-      <c r="H75" s="3">
+        <v>69.901177777777775</v>
+      </c>
+      <c r="I75" s="3">
         <f t="shared" si="5"/>
-        <v>69.901177777777775</v>
-      </c>
-      <c r="I75" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>74.638273148148144</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2741,18 +2891,20 @@
       <c r="E76" s="2">
         <v>55502300</v>
       </c>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3">
+        <v>114583300</v>
+      </c>
       <c r="G76" s="3">
+        <f t="shared" si="3"/>
+        <v>213.06355794270834</v>
+      </c>
+      <c r="H76" s="3">
         <f t="shared" si="4"/>
-        <v>213.06355794270834</v>
-      </c>
-      <c r="H76" s="3">
+        <v>564.59859212239587</v>
+      </c>
+      <c r="I76" s="3">
         <f t="shared" si="5"/>
-        <v>564.59859212239587</v>
-      </c>
-      <c r="I76" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1165.6016031901042</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2771,18 +2923,20 @@
       <c r="E77" s="2">
         <v>81210000</v>
       </c>
-      <c r="F77" s="3"/>
+      <c r="F77" s="3">
+        <v>110241600</v>
+      </c>
       <c r="G77" s="3">
+        <f t="shared" si="3"/>
+        <v>22.291829427083332</v>
+      </c>
+      <c r="H77" s="3">
         <f t="shared" si="4"/>
-        <v>22.291829427083332</v>
-      </c>
-      <c r="H77" s="3">
+        <v>66.0888671875</v>
+      </c>
+      <c r="I77" s="3">
         <f t="shared" si="5"/>
-        <v>66.0888671875</v>
-      </c>
-      <c r="I77" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>89.71484375</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2801,18 +2955,20 @@
       <c r="E78" s="2">
         <v>26250300</v>
       </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3">
+        <v>28446200</v>
+      </c>
       <c r="G78" s="3">
+        <f t="shared" si="3"/>
+        <v>42.586263020833336</v>
+      </c>
+      <c r="H78" s="3">
         <f t="shared" si="4"/>
-        <v>42.586263020833336</v>
-      </c>
-      <c r="H78" s="3">
+        <v>133.51593017578125</v>
+      </c>
+      <c r="I78" s="3">
         <f t="shared" si="5"/>
-        <v>133.51593017578125</v>
-      </c>
-      <c r="I78" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>144.68485514322916</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2831,18 +2987,20 @@
       <c r="E79" s="2">
         <v>56240000</v>
       </c>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3">
+        <v>57139800</v>
+      </c>
       <c r="G79" s="3">
+        <f t="shared" si="3"/>
+        <v>189.92411295572916</v>
+      </c>
+      <c r="H79" s="3">
         <f t="shared" si="4"/>
-        <v>189.92411295572916</v>
-      </c>
-      <c r="H79" s="3">
+        <v>572.10286458333337</v>
+      </c>
+      <c r="I79" s="3">
         <f t="shared" si="5"/>
-        <v>572.10286458333337</v>
-      </c>
-      <c r="I79" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>581.256103515625</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2861,18 +3019,20 @@
       <c r="E80" s="2">
         <v>29450800</v>
       </c>
-      <c r="F80" s="3"/>
+      <c r="F80" s="3">
+        <v>22619000</v>
+      </c>
       <c r="G80" s="3">
+        <f t="shared" si="3"/>
+        <v>82.317097981770829</v>
+      </c>
+      <c r="H80" s="3">
         <f t="shared" si="4"/>
-        <v>82.317097981770829</v>
-      </c>
-      <c r="H80" s="3">
+        <v>299.58902994791669</v>
+      </c>
+      <c r="I80" s="3">
         <f t="shared" si="5"/>
-        <v>299.58902994791669</v>
-      </c>
-      <c r="I80" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>230.09236653645834</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2891,18 +3051,20 @@
       <c r="E81" s="2">
         <v>87777800</v>
       </c>
-      <c r="F81" s="3"/>
+      <c r="F81" s="3">
+        <v>98452200</v>
+      </c>
       <c r="G81" s="3">
+        <f t="shared" si="3"/>
+        <v>25.445475260416668</v>
+      </c>
+      <c r="H81" s="3">
         <f t="shared" si="4"/>
-        <v>25.445475260416668</v>
-      </c>
-      <c r="H81" s="3">
+        <v>71.433756510416671</v>
+      </c>
+      <c r="I81" s="3">
         <f t="shared" si="5"/>
-        <v>71.433756510416671</v>
-      </c>
-      <c r="I81" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80.12060546875</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2921,18 +3083,20 @@
       <c r="E82" s="2">
         <v>1387430300</v>
       </c>
-      <c r="F82" s="3"/>
+      <c r="F82" s="3">
+        <v>1601993200</v>
+      </c>
       <c r="G82" s="3">
+        <f t="shared" si="3"/>
+        <v>75.728988647460938</v>
+      </c>
+      <c r="H82" s="3">
         <f t="shared" si="4"/>
-        <v>75.728988647460938</v>
-      </c>
-      <c r="H82" s="3">
+        <v>220.52610715230307</v>
+      </c>
+      <c r="I82" s="3">
         <f t="shared" si="5"/>
-        <v>220.52610715230307</v>
-      </c>
-      <c r="I82" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>254.62996164957681</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2951,18 +3115,20 @@
       <c r="E83" s="2">
         <v>18230800</v>
       </c>
-      <c r="F83" s="3"/>
+      <c r="F83" s="3">
+        <v>22864800</v>
+      </c>
       <c r="G83" s="3">
+        <f t="shared" si="3"/>
+        <v>41.20025634765625</v>
+      </c>
+      <c r="H83" s="3">
         <f t="shared" si="4"/>
-        <v>41.20025634765625</v>
-      </c>
-      <c r="H83" s="3">
+        <v>139.0899658203125</v>
+      </c>
+      <c r="I83" s="3">
         <f t="shared" si="5"/>
-        <v>139.0899658203125</v>
-      </c>
-      <c r="I83" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>174.444580078125</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2981,18 +3147,20 @@
       <c r="E84" s="2">
         <v>34525495800</v>
       </c>
-      <c r="F84" s="3"/>
+      <c r="F84" s="3">
+        <v>32170412000</v>
+      </c>
       <c r="G84" s="3">
+        <f t="shared" si="3"/>
+        <v>219.54199259259258</v>
+      </c>
+      <c r="H84" s="3">
         <f t="shared" si="4"/>
-        <v>219.54199259259258</v>
-      </c>
-      <c r="H84" s="3">
+        <v>639.36103333333335</v>
+      </c>
+      <c r="I84" s="3">
         <f t="shared" si="5"/>
-        <v>639.36103333333335</v>
-      </c>
-      <c r="I84" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>595.74837037037037</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3011,18 +3179,20 @@
       <c r="E85" s="2">
         <v>863465800</v>
       </c>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3">
+        <v>675360100</v>
+      </c>
       <c r="G85" s="3">
+        <f t="shared" si="3"/>
+        <v>30.438506603240967</v>
+      </c>
+      <c r="H85" s="3">
         <f t="shared" si="4"/>
-        <v>30.438506603240967</v>
-      </c>
-      <c r="H85" s="3">
+        <v>102.93314456939697</v>
+      </c>
+      <c r="I85" s="3">
         <f t="shared" si="5"/>
-        <v>102.93314456939697</v>
-      </c>
-      <c r="I85" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80.50919771194458</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3041,18 +3211,20 @@
       <c r="E86" s="2">
         <v>13519000</v>
       </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3">
+        <v>11028300</v>
+      </c>
       <c r="G86" s="3">
+        <f t="shared" si="3"/>
+        <v>22.361246744791668</v>
+      </c>
+      <c r="H86" s="3">
         <f t="shared" si="4"/>
-        <v>22.361246744791668</v>
-      </c>
-      <c r="H86" s="3">
+        <v>68.761189778645829</v>
+      </c>
+      <c r="I86" s="3">
         <f t="shared" si="5"/>
-        <v>68.761189778645829</v>
-      </c>
-      <c r="I86" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>56.09283447265625</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3071,18 +3243,20 @@
       <c r="E87" s="2">
         <v>862926100</v>
       </c>
-      <c r="F87" s="3"/>
+      <c r="F87" s="3">
+        <v>704281900</v>
+      </c>
       <c r="G87" s="3">
+        <f t="shared" si="3"/>
+        <v>30.105280876159668</v>
+      </c>
+      <c r="H87" s="3">
         <f t="shared" si="4"/>
-        <v>30.105280876159668</v>
-      </c>
-      <c r="H87" s="3">
+        <v>102.86880731582642</v>
+      </c>
+      <c r="I87" s="3">
         <f t="shared" si="5"/>
-        <v>102.86880731582642</v>
-      </c>
-      <c r="I87" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>83.956944942474365</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3101,18 +3275,20 @@
       <c r="E88" s="2">
         <v>11621100</v>
       </c>
-      <c r="F88" s="3"/>
+      <c r="F88" s="3">
+        <v>8136700</v>
+      </c>
       <c r="G88" s="3">
+        <f t="shared" si="3"/>
+        <v>37.714385986328125</v>
+      </c>
+      <c r="H88" s="3">
         <f t="shared" si="4"/>
-        <v>37.714385986328125</v>
-      </c>
-      <c r="H88" s="3">
+        <v>88.661956787109375</v>
+      </c>
+      <c r="I88" s="3">
         <f t="shared" si="5"/>
-        <v>88.661956787109375</v>
-      </c>
-      <c r="I88" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>62.078094482421875</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3131,18 +3307,20 @@
       <c r="E89" s="2">
         <v>20804600</v>
       </c>
-      <c r="F89" s="3"/>
+      <c r="F89" s="3">
+        <v>22691700</v>
+      </c>
       <c r="G89" s="3">
+        <f t="shared" si="3"/>
+        <v>71.413167317708329</v>
+      </c>
+      <c r="H89" s="3">
         <f t="shared" si="4"/>
-        <v>71.413167317708329</v>
-      </c>
-      <c r="H89" s="3">
+        <v>211.63533528645834</v>
+      </c>
+      <c r="I89" s="3">
         <f t="shared" si="5"/>
-        <v>211.63533528645834</v>
-      </c>
-      <c r="I89" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>230.8319091796875</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3161,18 +3339,20 @@
       <c r="E90" s="2">
         <v>1318230500</v>
       </c>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3">
+        <v>9487019300</v>
+      </c>
       <c r="G90" s="3">
+        <f t="shared" si="3"/>
+        <v>68.699630101521805</v>
+      </c>
+      <c r="H90" s="3">
         <f t="shared" si="4"/>
-        <v>68.699630101521805</v>
-      </c>
-      <c r="H90" s="3">
+        <v>209.52709515889487</v>
+      </c>
+      <c r="I90" s="3">
         <f t="shared" si="5"/>
-        <v>209.52709515889487</v>
-      </c>
-      <c r="I90" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1507.9211076100667</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3191,18 +3371,20 @@
       <c r="E91" s="2">
         <v>7865947000</v>
       </c>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3">
+        <v>6243766900</v>
+      </c>
       <c r="G91" s="3">
+        <f t="shared" si="3"/>
+        <v>20.963468518518518</v>
+      </c>
+      <c r="H91" s="3">
         <f t="shared" si="4"/>
-        <v>20.963468518518518</v>
-      </c>
-      <c r="H91" s="3">
+        <v>72.832842592592598</v>
+      </c>
+      <c r="I91" s="3">
         <f t="shared" si="5"/>
-        <v>72.832842592592598</v>
-      </c>
-      <c r="I91" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>57.812656481481476</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3221,18 +3403,20 @@
       <c r="E92" s="2">
         <v>43147200</v>
       </c>
-      <c r="F92" s="3"/>
+      <c r="F92" s="3">
+        <v>26975900</v>
+      </c>
       <c r="G92" s="3">
+        <f t="shared" si="3"/>
+        <v>163.95670572916666</v>
+      </c>
+      <c r="H92" s="3">
         <f t="shared" si="4"/>
-        <v>163.95670572916666</v>
-      </c>
-      <c r="H92" s="3">
+        <v>438.916015625</v>
+      </c>
+      <c r="I92" s="3">
         <f t="shared" si="5"/>
-        <v>438.916015625</v>
-      </c>
-      <c r="I92" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>274.41304524739581</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3251,18 +3435,20 @@
       <c r="E93" s="2">
         <v>11096405800</v>
       </c>
-      <c r="F93" s="3"/>
+      <c r="F93" s="3">
+        <v>9645837400</v>
+      </c>
       <c r="G93" s="3">
+        <f t="shared" si="3"/>
+        <v>78.220274074074069</v>
+      </c>
+      <c r="H93" s="3">
         <f t="shared" si="4"/>
-        <v>78.220274074074069</v>
-      </c>
-      <c r="H93" s="3">
+        <v>205.48899629629628</v>
+      </c>
+      <c r="I93" s="3">
         <f t="shared" si="5"/>
-        <v>205.48899629629628</v>
-      </c>
-      <c r="I93" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>178.62661851851851</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3281,18 +3467,20 @@
       <c r="E94" s="2">
         <v>24569522200</v>
       </c>
-      <c r="F94" s="3"/>
+      <c r="F94" s="3">
+        <v>19744844900</v>
+      </c>
       <c r="G94" s="3">
+        <f t="shared" si="3"/>
+        <v>62.517336111111113</v>
+      </c>
+      <c r="H94" s="3">
         <f t="shared" si="4"/>
-        <v>62.517336111111113</v>
-      </c>
-      <c r="H94" s="3">
+        <v>227.49557592592592</v>
+      </c>
+      <c r="I94" s="3">
         <f t="shared" si="5"/>
-        <v>227.49557592592592</v>
-      </c>
-      <c r="I94" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>182.82263796296297</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3311,18 +3499,20 @@
       <c r="E95" s="2">
         <v>2525598100</v>
       </c>
-      <c r="F95" s="3"/>
+      <c r="F95" s="3">
+        <v>2136608400</v>
+      </c>
       <c r="G95" s="3">
+        <f t="shared" si="3"/>
+        <v>145.21420796712241</v>
+      </c>
+      <c r="H95" s="3">
         <f t="shared" si="4"/>
-        <v>145.21420796712241</v>
-      </c>
-      <c r="H95" s="3">
+        <v>401.43300692240399</v>
+      </c>
+      <c r="I95" s="3">
         <f t="shared" si="5"/>
-        <v>401.43300692240399</v>
-      </c>
-      <c r="I95" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>339.60475921630859</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3341,18 +3531,20 @@
       <c r="E96" s="2">
         <v>2598457000</v>
       </c>
-      <c r="F96" s="3"/>
+      <c r="F96" s="3">
+        <v>2381996400</v>
+      </c>
       <c r="G96" s="3">
+        <f t="shared" si="3"/>
+        <v>61.77825927734375</v>
+      </c>
+      <c r="H96" s="3">
         <f t="shared" si="4"/>
-        <v>61.77825927734375</v>
-      </c>
-      <c r="H96" s="3">
+        <v>206.50680859883627</v>
+      </c>
+      <c r="I96" s="3">
         <f t="shared" si="5"/>
-        <v>206.50680859883627</v>
-      </c>
-      <c r="I96" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>189.3040657043457</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3371,18 +3563,20 @@
       <c r="E97" s="2">
         <v>86019500</v>
       </c>
-      <c r="F97" s="3"/>
+      <c r="F97" s="3">
+        <v>68124000</v>
+      </c>
       <c r="G97" s="3">
+        <f t="shared" si="3"/>
+        <v>34.1103515625</v>
+      </c>
+      <c r="H97" s="3">
         <f t="shared" si="4"/>
-        <v>34.1103515625</v>
-      </c>
-      <c r="H97" s="3">
+        <v>105.0042724609375</v>
+      </c>
+      <c r="I97" s="3">
         <f t="shared" si="5"/>
-        <v>105.0042724609375</v>
-      </c>
-      <c r="I97" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>83.1591796875</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3401,18 +3595,20 @@
       <c r="E98" s="2">
         <v>22631377700</v>
       </c>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3">
+        <v>20701648800</v>
+      </c>
       <c r="G98" s="3">
+        <f t="shared" si="3"/>
+        <v>94.240019444444442</v>
+      </c>
+      <c r="H98" s="3">
         <f t="shared" si="4"/>
-        <v>94.240019444444442</v>
-      </c>
-      <c r="H98" s="3">
+        <v>314.32469027777779</v>
+      </c>
+      <c r="I98" s="3">
         <f t="shared" si="5"/>
-        <v>314.32469027777779</v>
-      </c>
-      <c r="I98" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>287.52289999999999</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3431,18 +3627,20 @@
       <c r="E99" s="2">
         <v>80530600</v>
       </c>
-      <c r="F99" s="3"/>
+      <c r="F99" s="3">
+        <v>64021600</v>
+      </c>
       <c r="G99" s="3">
+        <f t="shared" si="3"/>
+        <v>28.751220703125</v>
+      </c>
+      <c r="H99" s="3">
         <f t="shared" si="4"/>
-        <v>28.751220703125</v>
-      </c>
-      <c r="H99" s="3">
+        <v>98.303955078125</v>
+      </c>
+      <c r="I99" s="3">
         <f t="shared" si="5"/>
-        <v>98.303955078125</v>
-      </c>
-      <c r="I99" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>78.1513671875</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3461,18 +3659,20 @@
       <c r="E100" s="2">
         <v>15111000</v>
       </c>
-      <c r="F100" s="3"/>
+      <c r="F100" s="3">
+        <v>9335900</v>
+      </c>
       <c r="G100" s="3">
+        <f t="shared" si="3"/>
+        <v>33.259073893229164</v>
+      </c>
+      <c r="H100" s="3">
         <f t="shared" si="4"/>
-        <v>33.259073893229164</v>
-      </c>
-      <c r="H100" s="3">
+        <v>76.8585205078125</v>
+      </c>
+      <c r="I100" s="3">
         <f t="shared" si="5"/>
-        <v>76.8585205078125</v>
-      </c>
-      <c r="I100" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>47.484842936197914</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3491,18 +3691,20 @@
       <c r="E101" s="2">
         <v>10389985400</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3">
+        <v>9062732200</v>
+      </c>
       <c r="G101" s="3">
+        <f t="shared" si="3"/>
+        <v>68.407825925925934</v>
+      </c>
+      <c r="H101" s="3">
         <f t="shared" si="4"/>
-        <v>68.407825925925934</v>
-      </c>
-      <c r="H101" s="3">
+        <v>192.40713703703705</v>
+      </c>
+      <c r="I101" s="3">
         <f t="shared" si="5"/>
-        <v>192.40713703703705</v>
-      </c>
-      <c r="I101" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>167.82837407407408</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3521,18 +3723,20 @@
       <c r="E102" s="2">
         <v>15113389300</v>
       </c>
-      <c r="F102" s="3"/>
+      <c r="F102" s="3">
+        <v>12912629900</v>
+      </c>
       <c r="G102" s="3">
+        <f t="shared" si="3"/>
+        <v>39.285992592592592</v>
+      </c>
+      <c r="H102" s="3">
         <f t="shared" si="4"/>
-        <v>39.285992592592592</v>
-      </c>
-      <c r="H102" s="3">
+        <v>139.93878981481481</v>
+      </c>
+      <c r="I102" s="3">
         <f t="shared" si="5"/>
-        <v>139.93878981481481</v>
-      </c>
-      <c r="I102" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>119.56138796296295</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3551,18 +3755,20 @@
       <c r="E103" s="2">
         <v>23082705200</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103" s="3">
+        <v>20663786800</v>
+      </c>
       <c r="G103" s="3">
+        <f t="shared" si="3"/>
+        <v>62.695296296296299</v>
+      </c>
+      <c r="H103" s="3">
         <f t="shared" si="4"/>
-        <v>62.695296296296299</v>
-      </c>
-      <c r="H103" s="3">
+        <v>213.72875185185185</v>
+      </c>
+      <c r="I103" s="3">
         <f t="shared" si="5"/>
-        <v>213.72875185185185</v>
-      </c>
-      <c r="I103" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>191.33135925925924</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3581,18 +3787,20 @@
       <c r="E104" s="2">
         <v>7468889600</v>
       </c>
-      <c r="F104" s="3"/>
+      <c r="F104" s="3">
+        <v>5871531000</v>
+      </c>
       <c r="G104" s="3">
+        <f t="shared" si="3"/>
+        <v>21.378517592592591</v>
+      </c>
+      <c r="H104" s="3">
         <f t="shared" si="4"/>
-        <v>21.378517592592591</v>
-      </c>
-      <c r="H104" s="3">
+        <v>69.156385185185187</v>
+      </c>
+      <c r="I104" s="3">
         <f t="shared" si="5"/>
-        <v>69.156385185185187</v>
-      </c>
-      <c r="I104" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>54.366027777777781</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3611,18 +3819,20 @@
       <c r="E105" s="2">
         <v>186906300</v>
       </c>
-      <c r="F105" s="3"/>
+      <c r="F105" s="3">
+        <v>133535800</v>
+      </c>
       <c r="G105" s="3">
+        <f t="shared" si="3"/>
+        <v>66.5115966796875</v>
+      </c>
+      <c r="H105" s="3">
         <f t="shared" si="4"/>
-        <v>66.5115966796875</v>
-      </c>
-      <c r="H105" s="3">
+        <v>228.1571044921875</v>
+      </c>
+      <c r="I105" s="3">
         <f t="shared" si="5"/>
-        <v>228.1571044921875</v>
-      </c>
-      <c r="I105" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>163.007568359375</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3641,18 +3851,20 @@
       <c r="E106" s="2">
         <v>88914700</v>
       </c>
-      <c r="F106" s="3"/>
+      <c r="F106" s="3">
+        <v>60389800</v>
+      </c>
       <c r="G106" s="3">
+        <f t="shared" si="3"/>
+        <v>35.7467041015625</v>
+      </c>
+      <c r="H106" s="3">
         <f t="shared" si="4"/>
-        <v>35.7467041015625</v>
-      </c>
-      <c r="H106" s="3">
+        <v>108.5384521484375</v>
+      </c>
+      <c r="I106" s="3">
         <f t="shared" si="5"/>
-        <v>108.5384521484375</v>
-      </c>
-      <c r="I106" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>73.718017578125</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3671,18 +3883,20 @@
       <c r="E107" s="2">
         <v>17650300</v>
       </c>
-      <c r="F107" s="3"/>
+      <c r="F107" s="3">
+        <v>8660900</v>
+      </c>
       <c r="G107" s="3">
+        <f t="shared" si="3"/>
+        <v>38.3758544921875</v>
+      </c>
+      <c r="H107" s="3">
         <f t="shared" si="4"/>
-        <v>38.3758544921875</v>
-      </c>
-      <c r="H107" s="3">
+        <v>134.66110229492188</v>
+      </c>
+      <c r="I107" s="3">
         <f t="shared" si="5"/>
-        <v>134.66110229492188</v>
-      </c>
-      <c r="I107" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>66.077423095703125</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3701,18 +3915,20 @@
       <c r="E108" s="2">
         <v>22750682900</v>
       </c>
-      <c r="F108" s="3"/>
+      <c r="F108" s="3">
+        <v>20090758100</v>
+      </c>
       <c r="G108" s="3">
+        <f t="shared" si="3"/>
+        <v>96.227109722222224</v>
+      </c>
+      <c r="H108" s="3">
         <f t="shared" si="4"/>
-        <v>96.227109722222224</v>
-      </c>
-      <c r="H108" s="3">
+        <v>315.98170694444445</v>
+      </c>
+      <c r="I108" s="3">
         <f t="shared" si="5"/>
-        <v>315.98170694444445</v>
-      </c>
-      <c r="I108" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>279.03830694444446</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3731,18 +3947,20 @@
       <c r="E109" s="2">
         <v>411696600</v>
       </c>
-      <c r="F109" s="3"/>
+      <c r="F109" s="3">
+        <v>311364700</v>
+      </c>
       <c r="G109" s="3">
+        <f t="shared" si="3"/>
+        <v>230.63720703125</v>
+      </c>
+      <c r="H109" s="3">
         <f t="shared" si="4"/>
-        <v>230.63720703125</v>
-      </c>
-      <c r="H109" s="3">
+        <v>670.0791015625</v>
+      </c>
+      <c r="I109" s="3">
         <f t="shared" si="5"/>
-        <v>670.0791015625</v>
-      </c>
-      <c r="I109" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>506.77848307291669</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3761,18 +3979,20 @@
       <c r="E110" s="2">
         <v>7749200100</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3">
+        <v>7387953200</v>
+      </c>
       <c r="G110" s="3">
+        <f t="shared" si="3"/>
+        <v>30.675237500000001</v>
+      </c>
+      <c r="H110" s="3">
         <f t="shared" si="4"/>
-        <v>30.675237500000001</v>
-      </c>
-      <c r="H110" s="3">
+        <v>107.62777916666667</v>
+      </c>
+      <c r="I110" s="3">
         <f t="shared" si="5"/>
-        <v>107.62777916666667</v>
-      </c>
-      <c r="I110" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>102.61046111111111</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3791,18 +4011,20 @@
       <c r="E111" s="2">
         <v>123996800</v>
       </c>
-      <c r="F111" s="3"/>
+      <c r="F111" s="3">
+        <v>145830200</v>
+      </c>
       <c r="G111" s="3">
+        <f t="shared" si="3"/>
+        <v>67.722330729166671</v>
+      </c>
+      <c r="H111" s="3">
         <f t="shared" si="4"/>
-        <v>67.722330729166671</v>
-      </c>
-      <c r="H111" s="3">
+        <v>201.81770833333334</v>
+      </c>
+      <c r="I111" s="3">
         <f t="shared" si="5"/>
-        <v>201.81770833333334</v>
-      </c>
-      <c r="I111" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>237.35384114583334</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3821,18 +4043,20 @@
       <c r="E112" s="2">
         <v>1695739600</v>
       </c>
-      <c r="F112" s="3"/>
+      <c r="F112" s="3">
+        <v>1784527800</v>
+      </c>
       <c r="G112" s="3">
+        <f t="shared" si="3"/>
+        <v>40.557328859965004</v>
+      </c>
+      <c r="H112" s="3">
         <f t="shared" si="4"/>
-        <v>40.557328859965004</v>
-      </c>
-      <c r="H112" s="3">
+        <v>134.76527531941733</v>
+      </c>
+      <c r="I112" s="3">
         <f t="shared" si="5"/>
-        <v>134.76527531941733</v>
-      </c>
-      <c r="I112" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>141.8215274810791</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3851,18 +4075,20 @@
       <c r="E113" s="2">
         <v>2629286000</v>
       </c>
-      <c r="F113" s="3"/>
+      <c r="F113" s="3">
+        <v>3334874500</v>
+      </c>
       <c r="G113" s="3">
+        <f t="shared" si="3"/>
+        <v>90.459859371185303</v>
+      </c>
+      <c r="H113" s="3">
         <f t="shared" si="4"/>
-        <v>90.459859371185303</v>
-      </c>
-      <c r="H113" s="3">
+        <v>313.43531608581543</v>
+      </c>
+      <c r="I113" s="3">
         <f t="shared" si="5"/>
-        <v>313.43531608581543</v>
-      </c>
-      <c r="I113" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>397.54801988601685</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3881,18 +4107,20 @@
       <c r="E114" s="2">
         <v>15521400</v>
       </c>
-      <c r="F114" s="3"/>
+      <c r="F114" s="3">
+        <v>10952100</v>
+      </c>
       <c r="G114" s="3">
+        <f t="shared" si="3"/>
+        <v>28.26385498046875</v>
+      </c>
+      <c r="H114" s="3">
         <f t="shared" si="4"/>
-        <v>28.26385498046875</v>
-      </c>
-      <c r="H114" s="3">
+        <v>118.41888427734375</v>
+      </c>
+      <c r="I114" s="3">
         <f t="shared" si="5"/>
-        <v>118.41888427734375</v>
-      </c>
-      <c r="I114" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>83.557891845703125</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3911,18 +4139,20 @@
       <c r="E115" s="2">
         <v>250052800</v>
       </c>
-      <c r="F115" s="3"/>
+      <c r="F115" s="3">
+        <v>220781700</v>
+      </c>
       <c r="G115" s="3">
+        <f t="shared" si="3"/>
+        <v>148.18229166666666</v>
+      </c>
+      <c r="H115" s="3">
         <f t="shared" si="4"/>
-        <v>148.18229166666666</v>
-      </c>
-      <c r="H115" s="3">
+        <v>406.98697916666669</v>
+      </c>
+      <c r="I115" s="3">
         <f t="shared" si="5"/>
-        <v>406.98697916666669</v>
-      </c>
-      <c r="I115" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>359.34521484375</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3941,18 +4171,20 @@
       <c r="E116" s="2">
         <v>3838497600</v>
       </c>
-      <c r="F116" s="3"/>
+      <c r="F116" s="3">
+        <v>3551870400</v>
+      </c>
       <c r="G116" s="3">
+        <f t="shared" si="3"/>
+        <v>219.98631159464517</v>
+      </c>
+      <c r="H116" s="3">
         <f t="shared" si="4"/>
-        <v>219.98631159464517</v>
-      </c>
-      <c r="H116" s="3">
+        <v>610.11276245117188</v>
+      </c>
+      <c r="I116" s="3">
         <f t="shared" si="5"/>
-        <v>610.11276245117188</v>
-      </c>
-      <c r="I116" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>564.55459594726563</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3971,18 +4203,20 @@
       <c r="E117" s="2">
         <v>41665200</v>
       </c>
-      <c r="F117" s="3"/>
+      <c r="F117" s="3">
+        <v>30867400</v>
+      </c>
       <c r="G117" s="3">
+        <f t="shared" si="3"/>
+        <v>101.82113647460938</v>
+      </c>
+      <c r="H117" s="3">
         <f t="shared" si="4"/>
-        <v>101.82113647460938</v>
-      </c>
-      <c r="H117" s="3">
+        <v>317.8802490234375</v>
+      </c>
+      <c r="I117" s="3">
         <f t="shared" si="5"/>
-        <v>317.8802490234375</v>
-      </c>
-      <c r="I117" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>235.49957275390625</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4001,18 +4235,20 @@
       <c r="E118" s="2">
         <v>72036000</v>
       </c>
-      <c r="F118" s="3"/>
+      <c r="F118" s="3">
+        <v>76933100</v>
+      </c>
       <c r="G118" s="3">
+        <f t="shared" si="3"/>
+        <v>22.452880859375</v>
+      </c>
+      <c r="H118" s="3">
         <f t="shared" si="4"/>
-        <v>22.452880859375</v>
-      </c>
-      <c r="H118" s="3">
+        <v>58.623046875</v>
+      </c>
+      <c r="I118" s="3">
         <f t="shared" si="5"/>
-        <v>58.623046875</v>
-      </c>
-      <c r="I118" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>62.608317057291664</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4031,18 +4267,20 @@
       <c r="E119" s="2">
         <v>63843000</v>
       </c>
-      <c r="F119" s="3"/>
+      <c r="F119" s="3">
+        <v>31362700</v>
+      </c>
       <c r="G119" s="3">
+        <f t="shared" si="3"/>
+        <v>109.8114013671875</v>
+      </c>
+      <c r="H119" s="3">
         <f t="shared" si="4"/>
-        <v>109.8114013671875</v>
-      </c>
-      <c r="H119" s="3">
+        <v>487.08343505859375</v>
+      </c>
+      <c r="I119" s="3">
         <f t="shared" si="5"/>
-        <v>487.08343505859375</v>
-      </c>
-      <c r="I119" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>239.27841186523438</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4061,18 +4299,20 @@
       <c r="E120" s="2">
         <v>11166221100</v>
       </c>
-      <c r="F120" s="3"/>
+      <c r="F120" s="3">
+        <v>9936189600</v>
+      </c>
       <c r="G120" s="3">
+        <f t="shared" si="3"/>
+        <v>71.824992592592594</v>
+      </c>
+      <c r="H120" s="3">
         <f t="shared" si="4"/>
-        <v>71.824992592592594</v>
-      </c>
-      <c r="H120" s="3">
+        <v>206.7818722222222</v>
+      </c>
+      <c r="I120" s="3">
         <f t="shared" si="5"/>
-        <v>206.7818722222222</v>
-      </c>
-      <c r="I120" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>184.00351111111112</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4091,18 +4331,20 @@
       <c r="E121" s="2">
         <v>2234716400</v>
       </c>
-      <c r="F121" s="3"/>
+      <c r="F121" s="3">
+        <v>1456458100</v>
+      </c>
       <c r="G121" s="3">
+        <f t="shared" si="3"/>
+        <v>57.468521595001221</v>
+      </c>
+      <c r="H121" s="3">
         <f t="shared" si="4"/>
-        <v>57.468521595001221</v>
-      </c>
-      <c r="H121" s="3">
+        <v>266.39895439147949</v>
+      </c>
+      <c r="I121" s="3">
         <f t="shared" si="5"/>
-        <v>266.39895439147949</v>
-      </c>
-      <c r="I121" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>173.62333536148071</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4121,18 +4363,20 @@
       <c r="E122" s="2">
         <v>971169200</v>
       </c>
-      <c r="F122" s="3"/>
+      <c r="F122" s="3">
+        <v>746297600</v>
+      </c>
       <c r="G122" s="3">
+        <f t="shared" si="3"/>
+        <v>30.670356750488281</v>
+      </c>
+      <c r="H122" s="3">
         <f t="shared" si="4"/>
-        <v>30.670356750488281</v>
-      </c>
-      <c r="H122" s="3">
+        <v>115.77239036560059</v>
+      </c>
+      <c r="I122" s="3">
         <f t="shared" si="5"/>
-        <v>115.77239036560059</v>
-      </c>
-      <c r="I122" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>88.965606689453125</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4151,18 +4395,20 @@
       <c r="E123" s="2">
         <v>957152300</v>
       </c>
-      <c r="F123" s="3"/>
+      <c r="F123" s="3">
+        <v>707830300</v>
+      </c>
       <c r="G123" s="3">
+        <f t="shared" si="3"/>
+        <v>19.441970189412434</v>
+      </c>
+      <c r="H123" s="3">
         <f t="shared" si="4"/>
-        <v>19.441970189412434</v>
-      </c>
-      <c r="H123" s="3">
+        <v>76.067630449930832</v>
+      </c>
+      <c r="I123" s="3">
         <f t="shared" si="5"/>
-        <v>76.067630449930832</v>
-      </c>
-      <c r="I123" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>56.253298123677574</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4181,18 +4427,20 @@
       <c r="E124" s="2">
         <v>41467500</v>
       </c>
-      <c r="F124" s="3"/>
+      <c r="F124" s="3">
+        <v>17854400</v>
+      </c>
       <c r="G124" s="3">
+        <f t="shared" si="3"/>
+        <v>71.617889404296875</v>
+      </c>
+      <c r="H124" s="3">
         <f t="shared" si="4"/>
-        <v>71.617889404296875</v>
-      </c>
-      <c r="H124" s="3">
+        <v>316.37191772460938</v>
+      </c>
+      <c r="I124" s="3">
         <f t="shared" si="5"/>
-        <v>316.37191772460938</v>
-      </c>
-      <c r="I124" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>136.21826171875</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4211,18 +4459,20 @@
       <c r="E125" s="2">
         <v>173478800</v>
       </c>
-      <c r="F125" s="3"/>
+      <c r="F125" s="3">
+        <v>124655700</v>
+      </c>
       <c r="G125" s="3">
+        <f t="shared" si="3"/>
+        <v>72.048014322916671</v>
+      </c>
+      <c r="H125" s="3">
         <f t="shared" si="4"/>
-        <v>72.048014322916671</v>
-      </c>
-      <c r="H125" s="3">
+        <v>282.35481770833331</v>
+      </c>
+      <c r="I125" s="3">
         <f t="shared" si="5"/>
-        <v>282.35481770833331</v>
-      </c>
-      <c r="I125" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>202.89013671875</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4241,18 +4491,20 @@
       <c r="E126" s="2">
         <v>89847500</v>
       </c>
-      <c r="F126" s="3"/>
+      <c r="F126" s="3">
+        <v>64410800</v>
+      </c>
       <c r="G126" s="3">
+        <f t="shared" si="3"/>
+        <v>23.9169921875</v>
+      </c>
+      <c r="H126" s="3">
         <f t="shared" si="4"/>
-        <v>23.9169921875</v>
-      </c>
-      <c r="H126" s="3">
+        <v>73.118082682291671</v>
+      </c>
+      <c r="I126" s="3">
         <f t="shared" si="5"/>
-        <v>73.118082682291671</v>
-      </c>
-      <c r="I126" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>52.417643229166664</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4271,18 +4523,20 @@
       <c r="E127" s="2">
         <v>1020960800</v>
       </c>
-      <c r="F127" s="3"/>
+      <c r="F127" s="3">
+        <v>778009600</v>
+      </c>
       <c r="G127" s="3">
+        <f t="shared" si="3"/>
+        <v>19.909143447875977</v>
+      </c>
+      <c r="H127" s="3">
         <f t="shared" si="4"/>
-        <v>19.909143447875977</v>
-      </c>
-      <c r="H127" s="3">
+        <v>81.138674418131515</v>
+      </c>
+      <c r="I127" s="3">
         <f t="shared" si="5"/>
-        <v>81.138674418131515</v>
-      </c>
-      <c r="I127" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>61.830647786458336</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4301,18 +4555,20 @@
       <c r="E128" s="2">
         <v>29081500</v>
       </c>
-      <c r="F128" s="3"/>
+      <c r="F128" s="3">
+        <v>17821400</v>
+      </c>
       <c r="G128" s="3">
+        <f t="shared" si="3"/>
+        <v>74.073282877604171</v>
+      </c>
+      <c r="H128" s="3">
         <f t="shared" si="4"/>
-        <v>74.073282877604171</v>
-      </c>
-      <c r="H128" s="3">
+        <v>295.83231608072919</v>
+      </c>
+      <c r="I128" s="3">
         <f t="shared" si="5"/>
-        <v>295.83231608072919</v>
-      </c>
-      <c r="I128" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>181.28865559895834</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4331,18 +4587,20 @@
       <c r="E129" s="2">
         <v>17307800</v>
       </c>
-      <c r="F129" s="3"/>
+      <c r="F129" s="3">
+        <v>8856300</v>
+      </c>
       <c r="G129" s="3">
+        <f t="shared" si="3"/>
+        <v>21.314493815104168</v>
+      </c>
+      <c r="H129" s="3">
         <f t="shared" si="4"/>
-        <v>21.314493815104168</v>
-      </c>
-      <c r="H129" s="3">
+        <v>88.032023111979171</v>
+      </c>
+      <c r="I129" s="3">
         <f t="shared" si="5"/>
-        <v>88.032023111979171</v>
-      </c>
-      <c r="I129" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45.04547119140625</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4361,18 +4619,20 @@
       <c r="E130" s="2">
         <v>12265000</v>
       </c>
-      <c r="F130" s="3"/>
+      <c r="F130" s="3">
+        <v>15490500</v>
+      </c>
       <c r="G130" s="3">
+        <f t="shared" si="3"/>
+        <v>24.97406005859375</v>
+      </c>
+      <c r="H130" s="3">
         <f t="shared" si="4"/>
-        <v>24.97406005859375</v>
-      </c>
-      <c r="H130" s="3">
+        <v>62.383015950520836</v>
+      </c>
+      <c r="I130" s="3">
         <f t="shared" si="5"/>
-        <v>62.383015950520836</v>
-      </c>
-      <c r="I130" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>78.78875732421875</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4391,18 +4651,20 @@
       <c r="E131" s="2">
         <v>30000666600</v>
       </c>
-      <c r="F131" s="3"/>
+      <c r="F131" s="3">
+        <v>29240745200</v>
+      </c>
       <c r="G131" s="3">
-        <f t="shared" ref="G131:G181" si="7">(D131/$B131^2)/$C131</f>
+        <f t="shared" ref="G131:G181" si="6">(D131/$B131^2)/$C131</f>
         <v>91.800869444444444</v>
       </c>
       <c r="H131" s="3">
-        <f t="shared" ref="H131:H181" si="8">(E131/$B131^2)/$C131</f>
+        <f t="shared" ref="H131:H181" si="7">(E131/$B131^2)/$C131</f>
         <v>416.67592500000001</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" ref="I131:I181" si="9">(F131/$B131^2)/$C131</f>
-        <v>0</v>
+        <f t="shared" ref="I131:I181" si="8">(F131/$B131^2)/$C131</f>
+        <v>406.1214611111111</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4421,18 +4683,20 @@
       <c r="E132" s="2">
         <v>39550900</v>
       </c>
-      <c r="F132" s="3"/>
+      <c r="F132" s="3">
+        <v>36567100</v>
+      </c>
       <c r="G132" s="3">
+        <f t="shared" si="6"/>
+        <v>69.821675618489579</v>
+      </c>
+      <c r="H132" s="3">
         <f t="shared" si="7"/>
-        <v>69.821675618489579</v>
-      </c>
-      <c r="H132" s="3">
+        <v>201.16628011067709</v>
+      </c>
+      <c r="I132" s="3">
         <f t="shared" si="8"/>
-        <v>201.16628011067709</v>
-      </c>
-      <c r="I132" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>185.98988850911459</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4451,18 +4715,20 @@
       <c r="E133" s="2">
         <v>15207600</v>
       </c>
-      <c r="F133" s="3"/>
+      <c r="F133" s="3">
+        <v>11146200</v>
+      </c>
       <c r="G133" s="3">
+        <f t="shared" si="6"/>
+        <v>19.8974609375</v>
+      </c>
+      <c r="H133" s="3">
         <f t="shared" si="7"/>
-        <v>19.8974609375</v>
-      </c>
-      <c r="H133" s="3">
+        <v>77.349853515625</v>
+      </c>
+      <c r="I133" s="3">
         <f t="shared" si="8"/>
-        <v>77.349853515625</v>
-      </c>
-      <c r="I133" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>56.6925048828125</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4481,18 +4747,20 @@
       <c r="E134" s="2">
         <v>37038200</v>
       </c>
-      <c r="F134" s="3"/>
+      <c r="F134" s="3">
+        <v>41877700</v>
+      </c>
       <c r="G134" s="3">
+        <f t="shared" si="6"/>
+        <v>85.892486572265625</v>
+      </c>
+      <c r="H134" s="3">
         <f t="shared" si="7"/>
-        <v>85.892486572265625</v>
-      </c>
-      <c r="H134" s="3">
+        <v>282.57904052734375</v>
+      </c>
+      <c r="I134" s="3">
         <f t="shared" si="8"/>
-        <v>282.57904052734375</v>
-      </c>
-      <c r="I134" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>319.50149536132813</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4511,18 +4779,20 @@
       <c r="E135" s="2">
         <v>91075000</v>
       </c>
-      <c r="F135" s="3"/>
+      <c r="F135" s="3">
+        <v>98789300</v>
+      </c>
       <c r="G135" s="3">
+        <f t="shared" si="6"/>
+        <v>34.605712890625</v>
+      </c>
+      <c r="H135" s="3">
         <f t="shared" si="7"/>
-        <v>34.605712890625</v>
-      </c>
-      <c r="H135" s="3">
+        <v>111.175537109375</v>
+      </c>
+      <c r="I135" s="3">
         <f t="shared" si="8"/>
-        <v>111.175537109375</v>
-      </c>
-      <c r="I135" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>120.5924072265625</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4541,18 +4811,20 @@
       <c r="E136" s="2">
         <v>972954100</v>
       </c>
-      <c r="F136" s="3"/>
+      <c r="F136" s="3">
+        <v>1175643700</v>
+      </c>
       <c r="G136" s="3">
+        <f t="shared" si="6"/>
+        <v>20.444377263387043</v>
+      </c>
+      <c r="H136" s="3">
         <f t="shared" si="7"/>
-        <v>20.444377263387043</v>
-      </c>
-      <c r="H136" s="3">
+        <v>77.323444684346512</v>
+      </c>
+      <c r="I136" s="3">
         <f t="shared" si="8"/>
-        <v>77.323444684346512</v>
-      </c>
-      <c r="I136" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>93.4317668279012</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4571,18 +4843,20 @@
       <c r="E137" s="2">
         <v>400497800</v>
       </c>
-      <c r="F137" s="3"/>
+      <c r="F137" s="3">
+        <v>543490100</v>
+      </c>
       <c r="G137" s="3">
+        <f t="shared" si="6"/>
+        <v>7493.6171875</v>
+      </c>
+      <c r="H137" s="3">
         <f t="shared" si="7"/>
-        <v>7493.6171875</v>
-      </c>
-      <c r="H137" s="3">
+        <v>651.85188802083337</v>
+      </c>
+      <c r="I137" s="3">
         <f t="shared" si="8"/>
-        <v>651.85188802083337</v>
-      </c>
-      <c r="I137" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>884.58675130208337</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4601,18 +4875,20 @@
       <c r="E138" s="2">
         <v>10066155600</v>
       </c>
-      <c r="F138" s="3"/>
+      <c r="F138" s="3">
+        <v>9933637700</v>
+      </c>
       <c r="G138" s="3">
+        <f t="shared" si="6"/>
+        <v>20.483831481481481</v>
+      </c>
+      <c r="H138" s="3">
         <f t="shared" si="7"/>
-        <v>20.483831481481481</v>
-      </c>
-      <c r="H138" s="3">
+        <v>93.205144444444443</v>
+      </c>
+      <c r="I138" s="3">
         <f t="shared" si="8"/>
-        <v>93.205144444444443</v>
-      </c>
-      <c r="I138" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>91.978126851851854</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4631,18 +4907,20 @@
       <c r="E139" s="2">
         <v>3354133700</v>
       </c>
-      <c r="F139" s="3"/>
+      <c r="F139" s="3">
+        <v>1712649600</v>
+      </c>
       <c r="G139" s="3">
+        <f t="shared" si="6"/>
+        <v>153.37430636088052</v>
+      </c>
+      <c r="H139" s="3">
         <f t="shared" si="7"/>
-        <v>153.37430636088052</v>
-      </c>
-      <c r="H139" s="3">
+        <v>533.12519391377771</v>
+      </c>
+      <c r="I139" s="3">
         <f t="shared" si="8"/>
-        <v>533.12519391377771</v>
-      </c>
-      <c r="I139" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>272.21832275390625</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4661,18 +4939,20 @@
       <c r="E140" s="2">
         <v>294642500</v>
       </c>
-      <c r="F140" s="3"/>
+      <c r="F140" s="3">
+        <v>156857700</v>
+      </c>
       <c r="G140" s="3">
+        <f t="shared" si="6"/>
+        <v>95.837890625</v>
+      </c>
+      <c r="H140" s="3">
         <f t="shared" si="7"/>
-        <v>95.837890625</v>
-      </c>
-      <c r="H140" s="3">
+        <v>359.6710205078125</v>
+      </c>
+      <c r="I140" s="3">
         <f t="shared" si="8"/>
-        <v>359.6710205078125</v>
-      </c>
-      <c r="I140" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>191.4766845703125</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4691,18 +4971,20 @@
       <c r="E141" s="2">
         <v>23386601500</v>
       </c>
-      <c r="F141" s="3"/>
+      <c r="F141" s="3">
+        <v>16292910500</v>
+      </c>
       <c r="G141" s="3">
+        <f t="shared" si="6"/>
+        <v>64.134410185185189</v>
+      </c>
+      <c r="H141" s="3">
         <f t="shared" si="7"/>
-        <v>64.134410185185189</v>
-      </c>
-      <c r="H141" s="3">
+        <v>216.54260648148147</v>
+      </c>
+      <c r="I141" s="3">
         <f t="shared" si="8"/>
-        <v>216.54260648148147</v>
-      </c>
-      <c r="I141" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>150.86028240740742</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4721,18 +5003,20 @@
       <c r="E142" s="2">
         <v>34452043100</v>
       </c>
-      <c r="F142" s="3"/>
+      <c r="F142" s="3">
+        <v>24034848800</v>
+      </c>
       <c r="G142" s="3">
+        <f t="shared" si="6"/>
+        <v>226.68000555555557</v>
+      </c>
+      <c r="H142" s="3">
         <f t="shared" si="7"/>
-        <v>226.68000555555557</v>
-      </c>
-      <c r="H142" s="3">
+        <v>638.00079814814819</v>
+      </c>
+      <c r="I142" s="3">
         <f t="shared" si="8"/>
-        <v>638.00079814814819</v>
-      </c>
-      <c r="I142" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>445.08979259259263</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4751,18 +5035,20 @@
       <c r="E143" s="2">
         <v>878379700</v>
       </c>
-      <c r="F143" s="3"/>
+      <c r="F143" s="3">
+        <v>662199400</v>
+      </c>
       <c r="G143" s="3">
+        <f t="shared" si="6"/>
+        <v>20.766361554463703</v>
+      </c>
+      <c r="H143" s="3">
         <f t="shared" si="7"/>
-        <v>20.766361554463703</v>
-      </c>
-      <c r="H143" s="3">
+        <v>69.807346661885575</v>
+      </c>
+      <c r="I143" s="3">
         <f t="shared" si="8"/>
-        <v>69.807346661885575</v>
-      </c>
-      <c r="I143" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>52.626880009969078</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4781,18 +5067,20 @@
       <c r="E144" s="2">
         <v>10798419600</v>
       </c>
-      <c r="F144" s="3"/>
+      <c r="F144" s="3">
+        <v>7812118900</v>
+      </c>
       <c r="G144" s="3">
+        <f t="shared" si="6"/>
+        <v>75.619114814814807</v>
+      </c>
+      <c r="H144" s="3">
         <f t="shared" si="7"/>
-        <v>75.619114814814807</v>
-      </c>
-      <c r="H144" s="3">
+        <v>199.97073333333333</v>
+      </c>
+      <c r="I144" s="3">
         <f t="shared" si="8"/>
-        <v>199.97073333333333</v>
-      </c>
-      <c r="I144" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>144.66886851851851</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4811,18 +5099,20 @@
       <c r="E145" s="2">
         <v>17487300</v>
       </c>
-      <c r="F145" s="3"/>
+      <c r="F145" s="3">
+        <v>12177700</v>
+      </c>
       <c r="G145" s="3">
+        <f t="shared" si="6"/>
+        <v>94.568888346354171</v>
+      </c>
+      <c r="H145" s="3">
         <f t="shared" si="7"/>
-        <v>94.568888346354171</v>
-      </c>
-      <c r="H145" s="3">
+        <v>177.8900146484375</v>
+      </c>
+      <c r="I145" s="3">
         <f t="shared" si="8"/>
-        <v>177.8900146484375</v>
-      </c>
-      <c r="I145" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>123.87797037760417</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4841,18 +5131,20 @@
       <c r="E146" s="2">
         <v>251694900</v>
       </c>
-      <c r="F146" s="3"/>
+      <c r="F146" s="3">
+        <v>154654300</v>
+      </c>
       <c r="G146" s="3">
+        <f t="shared" si="6"/>
+        <v>100.0401611328125</v>
+      </c>
+      <c r="H146" s="3">
         <f t="shared" si="7"/>
-        <v>100.0401611328125</v>
-      </c>
-      <c r="H146" s="3">
+        <v>307.2447509765625</v>
+      </c>
+      <c r="I146" s="3">
         <f t="shared" si="8"/>
-        <v>307.2447509765625</v>
-      </c>
-      <c r="I146" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>188.7869873046875</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4871,18 +5163,20 @@
       <c r="E147" s="2">
         <v>15222119500</v>
       </c>
-      <c r="F147" s="3"/>
+      <c r="F147" s="3">
+        <v>10765993800</v>
+      </c>
       <c r="G147" s="3">
+        <f t="shared" si="6"/>
+        <v>64.699543055555552</v>
+      </c>
+      <c r="H147" s="3">
         <f t="shared" si="7"/>
-        <v>64.699543055555552</v>
-      </c>
-      <c r="H147" s="3">
+        <v>211.41832638888889</v>
+      </c>
+      <c r="I147" s="3">
         <f t="shared" si="8"/>
-        <v>211.41832638888889</v>
-      </c>
-      <c r="I147" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>149.52769166666667</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4901,18 +5195,20 @@
       <c r="E148" s="2">
         <v>382778700</v>
       </c>
-      <c r="F148" s="3"/>
+      <c r="F148" s="3">
+        <v>284853600</v>
+      </c>
       <c r="G148" s="3">
+        <f t="shared" si="6"/>
+        <v>229.17513020833334</v>
+      </c>
+      <c r="H148" s="3">
         <f t="shared" si="7"/>
-        <v>229.17513020833334</v>
-      </c>
-      <c r="H148" s="3">
+        <v>623.01220703125</v>
+      </c>
+      <c r="I148" s="3">
         <f t="shared" si="8"/>
-        <v>623.01220703125</v>
-      </c>
-      <c r="I148" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>463.62890625</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4931,18 +5227,20 @@
       <c r="E149" s="2">
         <v>22357065100</v>
       </c>
-      <c r="F149" s="3"/>
+      <c r="F149" s="3">
+        <v>15848579700</v>
+      </c>
       <c r="G149" s="3">
+        <f t="shared" si="6"/>
+        <v>153.21241296296296</v>
+      </c>
+      <c r="H149" s="3">
         <f t="shared" si="7"/>
-        <v>153.21241296296296</v>
-      </c>
-      <c r="H149" s="3">
+        <v>414.01972407407408</v>
+      </c>
+      <c r="I149" s="3">
         <f t="shared" si="8"/>
-        <v>414.01972407407408</v>
-      </c>
-      <c r="I149" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>293.49221666666665</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4961,18 +5259,20 @@
       <c r="E150" s="2">
         <v>7551793000</v>
       </c>
-      <c r="F150" s="3"/>
+      <c r="F150" s="3">
+        <v>5507264200</v>
+      </c>
       <c r="G150" s="3">
+        <f t="shared" si="6"/>
+        <v>31.453050000000001</v>
+      </c>
+      <c r="H150" s="3">
         <f t="shared" si="7"/>
-        <v>31.453050000000001</v>
-      </c>
-      <c r="H150" s="3">
+        <v>104.88601388888888</v>
+      </c>
+      <c r="I150" s="3">
         <f t="shared" si="8"/>
-        <v>104.88601388888888</v>
-      </c>
-      <c r="I150" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>76.489780555555555</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4991,18 +5291,20 @@
       <c r="E151" s="2">
         <v>18917400</v>
       </c>
-      <c r="F151" s="3"/>
+      <c r="F151" s="3">
+        <v>22806000</v>
+      </c>
       <c r="G151" s="3">
+        <f t="shared" si="6"/>
+        <v>65.211995442708329</v>
+      </c>
+      <c r="H151" s="3">
         <f t="shared" si="7"/>
-        <v>65.211995442708329</v>
-      </c>
-      <c r="H151" s="3">
+        <v>192.437744140625</v>
+      </c>
+      <c r="I151" s="3">
         <f t="shared" si="8"/>
-        <v>192.437744140625</v>
-      </c>
-      <c r="I151" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>231.99462890625</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5021,18 +5323,20 @@
       <c r="E152" s="2">
         <v>35085300</v>
       </c>
-      <c r="F152" s="3"/>
+      <c r="F152" s="3">
+        <v>27661600</v>
+      </c>
       <c r="G152" s="3">
+        <f t="shared" si="6"/>
+        <v>103.35311889648438</v>
+      </c>
+      <c r="H152" s="3">
         <f t="shared" si="7"/>
-        <v>103.35311889648438</v>
-      </c>
-      <c r="H152" s="3">
+        <v>267.67959594726563</v>
+      </c>
+      <c r="I152" s="3">
         <f t="shared" si="8"/>
-        <v>267.67959594726563</v>
-      </c>
-      <c r="I152" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>211.041259765625</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5051,18 +5355,20 @@
       <c r="E153" s="2">
         <v>1247567100</v>
       </c>
-      <c r="F153" s="3"/>
+      <c r="F153" s="3">
+        <v>881004600</v>
+      </c>
       <c r="G153" s="3">
+        <f t="shared" si="6"/>
+        <v>70.563554763793945</v>
+      </c>
+      <c r="H153" s="3">
         <f t="shared" si="7"/>
-        <v>70.563554763793945</v>
-      </c>
-      <c r="H153" s="3">
+        <v>198.29545021057129</v>
+      </c>
+      <c r="I153" s="3">
         <f t="shared" si="8"/>
-        <v>198.29545021057129</v>
-      </c>
-      <c r="I153" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>140.03190994262695</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5081,18 +5387,20 @@
       <c r="E154" s="2">
         <v>837990500</v>
       </c>
-      <c r="F154" s="3"/>
+      <c r="F154" s="3">
+        <v>548534200</v>
+      </c>
       <c r="G154" s="3">
+        <f t="shared" si="6"/>
+        <v>29.962122440338135</v>
+      </c>
+      <c r="H154" s="3">
         <f t="shared" si="7"/>
-        <v>29.962122440338135</v>
-      </c>
-      <c r="H154" s="3">
+        <v>99.896252155303955</v>
+      </c>
+      <c r="I154" s="3">
         <f t="shared" si="8"/>
-        <v>99.896252155303955</v>
-      </c>
-      <c r="I154" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>65.390372276306152</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5111,18 +5419,20 @@
       <c r="E155" s="2">
         <v>2573191300</v>
       </c>
-      <c r="F155" s="3"/>
+      <c r="F155" s="3">
+        <v>1787065700</v>
+      </c>
       <c r="G155" s="3">
+        <f t="shared" si="6"/>
+        <v>65.102950731913253</v>
+      </c>
+      <c r="H155" s="3">
         <f t="shared" si="7"/>
-        <v>65.102950731913253</v>
-      </c>
-      <c r="H155" s="3">
+        <v>204.49887116750082</v>
+      </c>
+      <c r="I155" s="3">
         <f t="shared" si="8"/>
-        <v>204.49887116750082</v>
-      </c>
-      <c r="I155" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>142.02322165171304</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5141,18 +5451,20 @@
       <c r="E156" s="2">
         <v>157950500</v>
       </c>
-      <c r="F156" s="3"/>
+      <c r="F156" s="3">
+        <v>132774000</v>
+      </c>
       <c r="G156" s="3">
+        <f t="shared" si="6"/>
+        <v>63.8572998046875</v>
+      </c>
+      <c r="H156" s="3">
         <f t="shared" si="7"/>
-        <v>63.8572998046875</v>
-      </c>
-      <c r="H156" s="3">
+        <v>192.8106689453125</v>
+      </c>
+      <c r="I156" s="3">
         <f t="shared" si="8"/>
-        <v>192.8106689453125</v>
-      </c>
-      <c r="I156" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>162.07763671875</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5171,18 +5483,20 @@
       <c r="E157" s="2">
         <v>15213818500</v>
       </c>
-      <c r="F157" s="3"/>
+      <c r="F157" s="3">
+        <v>10916573200</v>
+      </c>
       <c r="G157" s="3">
+        <f t="shared" si="6"/>
+        <v>61.579831944444443</v>
+      </c>
+      <c r="H157" s="3">
         <f t="shared" si="7"/>
-        <v>61.579831944444443</v>
-      </c>
-      <c r="H157" s="3">
+        <v>211.30303472222224</v>
+      </c>
+      <c r="I157" s="3">
         <f t="shared" si="8"/>
-        <v>211.30303472222224</v>
-      </c>
-      <c r="I157" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>151.61907222222223</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5201,18 +5515,20 @@
       <c r="E158" s="2">
         <v>830073900</v>
       </c>
-      <c r="F158" s="3"/>
+      <c r="F158" s="3">
+        <v>633195300</v>
+      </c>
       <c r="G158" s="3">
+        <f t="shared" si="6"/>
+        <v>20.53963343302409</v>
+      </c>
+      <c r="H158" s="3">
         <f t="shared" si="7"/>
-        <v>20.53963343302409</v>
-      </c>
-      <c r="H158" s="3">
+        <v>65.96834659576416</v>
+      </c>
+      <c r="I158" s="3">
         <f t="shared" si="8"/>
-        <v>65.96834659576416</v>
-      </c>
-      <c r="I158" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>50.321841239929199</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5231,18 +5547,20 @@
       <c r="E159" s="2">
         <v>2598646600</v>
       </c>
-      <c r="F159" s="3"/>
+      <c r="F159" s="3">
+        <v>1820277400</v>
+      </c>
       <c r="G159" s="3">
+        <f t="shared" si="6"/>
+        <v>62.284262975056969</v>
+      </c>
+      <c r="H159" s="3">
         <f t="shared" si="7"/>
-        <v>62.284262975056969</v>
-      </c>
-      <c r="H159" s="3">
+        <v>206.52187665303549</v>
+      </c>
+      <c r="I159" s="3">
         <f t="shared" si="8"/>
-        <v>206.52187665303549</v>
-      </c>
-      <c r="I159" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>144.66265042622885</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5261,18 +5579,20 @@
       <c r="E160" s="2">
         <v>10601605400</v>
       </c>
-      <c r="F160" s="3"/>
+      <c r="F160" s="3">
+        <v>7447008800</v>
+      </c>
       <c r="G160" s="3">
+        <f t="shared" si="6"/>
+        <v>71.115907407407406</v>
+      </c>
+      <c r="H160" s="3">
         <f t="shared" si="7"/>
-        <v>71.115907407407406</v>
-      </c>
-      <c r="H160" s="3">
+        <v>196.32602592592593</v>
+      </c>
+      <c r="I160" s="3">
         <f t="shared" si="8"/>
-        <v>196.32602592592593</v>
-      </c>
-      <c r="I160" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>137.90757037037037</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5291,18 +5611,20 @@
       <c r="E161" s="2">
         <v>12215200</v>
       </c>
-      <c r="F161" s="3"/>
+      <c r="F161" s="3">
+        <v>9759100</v>
+      </c>
       <c r="G161" s="3">
+        <f t="shared" si="6"/>
+        <v>39.52789306640625</v>
+      </c>
+      <c r="H161" s="3">
         <f t="shared" si="7"/>
-        <v>39.52789306640625</v>
-      </c>
-      <c r="H161" s="3">
+        <v>93.194580078125</v>
+      </c>
+      <c r="I161" s="3">
         <f t="shared" si="8"/>
-        <v>93.194580078125</v>
-      </c>
-      <c r="I161" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>74.456024169921875</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5321,18 +5643,20 @@
       <c r="E162" s="2">
         <v>7112769700</v>
       </c>
-      <c r="F162" s="3"/>
+      <c r="F162" s="3">
+        <v>4998511300</v>
+      </c>
       <c r="G162" s="3">
+        <f t="shared" si="6"/>
+        <v>31.921568055555557</v>
+      </c>
+      <c r="H162" s="3">
         <f t="shared" si="7"/>
-        <v>31.921568055555557</v>
-      </c>
-      <c r="H162" s="3">
+        <v>98.788468055555555</v>
+      </c>
+      <c r="I162" s="3">
         <f t="shared" si="8"/>
-        <v>98.788468055555555</v>
-      </c>
-      <c r="I162" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>69.423768055555556</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5351,18 +5675,20 @@
       <c r="E163" s="2">
         <v>13883800</v>
       </c>
-      <c r="F163" s="3"/>
+      <c r="F163" s="3">
+        <v>7863700</v>
+      </c>
       <c r="G163" s="3">
+        <f t="shared" si="6"/>
+        <v>22.368367513020832</v>
+      </c>
+      <c r="H163" s="3">
         <f t="shared" si="7"/>
-        <v>22.368367513020832</v>
-      </c>
-      <c r="H163" s="3">
+        <v>70.616658528645829</v>
+      </c>
+      <c r="I163" s="3">
         <f t="shared" si="8"/>
-        <v>70.616658528645829</v>
-      </c>
-      <c r="I163" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>39.996846516927086</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5381,18 +5707,20 @@
       <c r="E164" s="2">
         <v>26149900</v>
       </c>
-      <c r="F164" s="3"/>
+      <c r="F164" s="3">
+        <v>12104300</v>
+      </c>
       <c r="G164" s="3">
+        <f t="shared" si="6"/>
+        <v>79.7821044921875</v>
+      </c>
+      <c r="H164" s="3">
         <f t="shared" si="7"/>
-        <v>79.7821044921875</v>
-      </c>
-      <c r="H164" s="3">
+        <v>266.01053873697919</v>
+      </c>
+      <c r="I164" s="3">
         <f t="shared" si="8"/>
-        <v>266.01053873697919</v>
-      </c>
-      <c r="I164" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>123.13130696614583</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5411,18 +5739,20 @@
       <c r="E165" s="2">
         <v>247592900</v>
       </c>
-      <c r="F165" s="3"/>
+      <c r="F165" s="3">
+        <v>165304800</v>
+      </c>
       <c r="G165" s="3">
+        <f t="shared" si="6"/>
+        <v>158.23160807291666</v>
+      </c>
+      <c r="H165" s="3">
         <f t="shared" si="7"/>
-        <v>158.23160807291666</v>
-      </c>
-      <c r="H165" s="3">
+        <v>402.98323567708331</v>
+      </c>
+      <c r="I165" s="3">
         <f t="shared" si="8"/>
-        <v>402.98323567708331</v>
-      </c>
-      <c r="I165" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>269.05078125</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5441,18 +5771,20 @@
       <c r="E166" s="2">
         <v>115549900</v>
       </c>
-      <c r="F166" s="3"/>
+      <c r="F166" s="3">
+        <v>101127900</v>
+      </c>
       <c r="G166" s="3">
+        <f t="shared" si="6"/>
+        <v>64.420247395833329</v>
+      </c>
+      <c r="H166" s="3">
         <f t="shared" si="7"/>
-        <v>64.420247395833329</v>
-      </c>
-      <c r="H166" s="3">
+        <v>188.06949869791666</v>
+      </c>
+      <c r="I166" s="3">
         <f t="shared" si="8"/>
-        <v>188.06949869791666</v>
-      </c>
-      <c r="I166" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>164.59619140625</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5471,18 +5803,20 @@
       <c r="E167" s="2">
         <v>134721900</v>
       </c>
-      <c r="F167" s="3"/>
+      <c r="F167" s="3">
+        <v>144879600</v>
+      </c>
       <c r="G167" s="3">
+        <f t="shared" si="6"/>
+        <v>75.122395833333329</v>
+      </c>
+      <c r="H167" s="3">
         <f t="shared" si="7"/>
-        <v>75.122395833333329</v>
-      </c>
-      <c r="H167" s="3">
+        <v>219.27392578125</v>
+      </c>
+      <c r="I167" s="3">
         <f t="shared" si="8"/>
-        <v>219.27392578125</v>
-      </c>
-      <c r="I167" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>235.806640625</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5501,18 +5835,20 @@
       <c r="E168" s="2">
         <v>822018000</v>
       </c>
-      <c r="F168" s="3"/>
+      <c r="F168" s="3">
+        <v>589845100</v>
+      </c>
       <c r="G168" s="3">
+        <f t="shared" si="6"/>
+        <v>30.696713924407959</v>
+      </c>
+      <c r="H168" s="3">
         <f t="shared" si="7"/>
-        <v>30.696713924407959</v>
-      </c>
-      <c r="H168" s="3">
+        <v>97.992181777954102</v>
+      </c>
+      <c r="I168" s="3">
         <f t="shared" si="8"/>
-        <v>97.992181777954102</v>
-      </c>
-      <c r="I168" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>70.315015316009521</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5531,18 +5867,20 @@
       <c r="E169" s="2">
         <v>7707345600</v>
       </c>
-      <c r="F169" s="3"/>
+      <c r="F169" s="3">
+        <v>5453824900</v>
+      </c>
       <c r="G169" s="3">
+        <f t="shared" si="6"/>
+        <v>19.964449074074075</v>
+      </c>
+      <c r="H169" s="3">
         <f t="shared" si="7"/>
-        <v>19.964449074074075</v>
-      </c>
-      <c r="H169" s="3">
+        <v>71.364311111111107</v>
+      </c>
+      <c r="I169" s="3">
         <f t="shared" si="8"/>
-        <v>71.364311111111107</v>
-      </c>
-      <c r="I169" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>50.498378703703708</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5561,18 +5899,20 @@
       <c r="E170" s="2">
         <v>111211800</v>
       </c>
-      <c r="F170" s="3"/>
+      <c r="F170" s="3">
+        <v>85630800</v>
+      </c>
       <c r="G170" s="3">
+        <f t="shared" si="6"/>
+        <v>71.284505208333329</v>
+      </c>
+      <c r="H170" s="3">
         <f t="shared" si="7"/>
-        <v>71.284505208333329</v>
-      </c>
-      <c r="H170" s="3">
+        <v>181.0087890625</v>
+      </c>
+      <c r="I170" s="3">
         <f t="shared" si="8"/>
-        <v>181.0087890625</v>
-      </c>
-      <c r="I170" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>139.373046875</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5591,18 +5931,20 @@
       <c r="E171" s="2">
         <v>73977900</v>
       </c>
-      <c r="F171" s="3"/>
+      <c r="F171" s="3">
+        <v>39244200</v>
+      </c>
       <c r="G171" s="3">
+        <f t="shared" si="6"/>
+        <v>196.72444661458334</v>
+      </c>
+      <c r="H171" s="3">
         <f t="shared" si="7"/>
-        <v>196.72444661458334</v>
-      </c>
-      <c r="H171" s="3">
+        <v>752.5421142578125</v>
+      </c>
+      <c r="I171" s="3">
         <f t="shared" si="8"/>
-        <v>752.5421142578125</v>
-      </c>
-      <c r="I171" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>399.212646484375</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5621,18 +5963,20 @@
       <c r="E172" s="2">
         <v>15215600</v>
       </c>
-      <c r="F172" s="3"/>
+      <c r="F172" s="3">
+        <v>7492700</v>
+      </c>
       <c r="G172" s="3">
+        <f t="shared" si="6"/>
+        <v>33.393096923828125</v>
+      </c>
+      <c r="H172" s="3">
         <f t="shared" si="7"/>
-        <v>33.393096923828125</v>
-      </c>
-      <c r="H172" s="3">
+        <v>116.0858154296875</v>
+      </c>
+      <c r="I172" s="3">
         <f t="shared" si="8"/>
-        <v>116.0858154296875</v>
-      </c>
-      <c r="I172" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>57.164764404296875</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -5651,18 +5995,20 @@
       <c r="E173" s="2">
         <v>7110485600</v>
       </c>
-      <c r="F173" s="3"/>
+      <c r="F173" s="3">
+        <v>4893098700</v>
+      </c>
       <c r="G173" s="3">
+        <f t="shared" si="6"/>
+        <v>19.459688888888888</v>
+      </c>
+      <c r="H173" s="3">
         <f t="shared" si="7"/>
-        <v>19.459688888888888</v>
-      </c>
-      <c r="H173" s="3">
+        <v>65.837829629629638</v>
+      </c>
+      <c r="I173" s="3">
         <f t="shared" si="8"/>
-        <v>65.837829629629638</v>
-      </c>
-      <c r="I173" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>45.306469444444446</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5681,18 +6027,20 @@
       <c r="E174" s="2">
         <v>2595172900</v>
       </c>
-      <c r="F174" s="3"/>
+      <c r="F174" s="3">
+        <v>1805953900</v>
+      </c>
       <c r="G174" s="3">
+        <f t="shared" si="6"/>
+        <v>88.263857364654541</v>
+      </c>
+      <c r="H174" s="3">
         <f t="shared" si="7"/>
-        <v>88.263857364654541</v>
-      </c>
-      <c r="H174" s="3">
+        <v>309.36871767044067</v>
+      </c>
+      <c r="I174" s="3">
         <f t="shared" si="8"/>
-        <v>309.36871767044067</v>
-      </c>
-      <c r="I174" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>215.28648138046265</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5711,18 +6059,20 @@
       <c r="E175" s="2">
         <v>107595600</v>
       </c>
-      <c r="F175" s="3"/>
+      <c r="F175" s="3">
+        <v>802959900</v>
+      </c>
       <c r="G175" s="3">
+        <f t="shared" si="6"/>
+        <v>80.48779296875</v>
+      </c>
+      <c r="H175" s="3">
         <f t="shared" si="7"/>
-        <v>80.48779296875</v>
-      </c>
-      <c r="H175" s="3">
+        <v>175.123046875</v>
+      </c>
+      <c r="I175" s="3">
         <f t="shared" si="8"/>
-        <v>175.123046875</v>
-      </c>
-      <c r="I175" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1306.90087890625</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5741,18 +6091,20 @@
       <c r="E176" s="2">
         <v>869652100</v>
       </c>
-      <c r="F176" s="3"/>
+      <c r="F176" s="3">
+        <v>612032800</v>
+      </c>
       <c r="G176" s="3">
+        <f t="shared" si="6"/>
+        <v>29.850530624389648</v>
+      </c>
+      <c r="H176" s="3">
         <f t="shared" si="7"/>
-        <v>29.850530624389648</v>
-      </c>
-      <c r="H176" s="3">
+        <v>103.67060899734497</v>
+      </c>
+      <c r="I176" s="3">
         <f t="shared" si="8"/>
-        <v>103.67060899734497</v>
-      </c>
-      <c r="I176" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>72.959995269775391</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5771,18 +6123,20 @@
       <c r="E177" s="2">
         <v>135975200</v>
       </c>
-      <c r="F177" s="3"/>
+      <c r="F177" s="3">
+        <v>78707800</v>
+      </c>
       <c r="G177" s="3">
+        <f t="shared" si="6"/>
+        <v>71.828287760416671</v>
+      </c>
+      <c r="H177" s="3">
         <f t="shared" si="7"/>
-        <v>71.828287760416671</v>
-      </c>
-      <c r="H177" s="3">
+        <v>221.31380208333334</v>
+      </c>
+      <c r="I177" s="3">
         <f t="shared" si="8"/>
-        <v>221.31380208333334</v>
-      </c>
-      <c r="I177" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>128.10514322916666</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -5801,18 +6155,20 @@
       <c r="E178" s="2">
         <v>81714700</v>
       </c>
-      <c r="F178" s="3"/>
+      <c r="F178" s="3">
+        <v>53315500</v>
+      </c>
       <c r="G178" s="3">
+        <f t="shared" si="6"/>
+        <v>26.480061848958332</v>
+      </c>
+      <c r="H178" s="3">
         <f t="shared" si="7"/>
-        <v>26.480061848958332</v>
-      </c>
-      <c r="H178" s="3">
+        <v>66.499593098958329</v>
+      </c>
+      <c r="I178" s="3">
         <f t="shared" si="8"/>
-        <v>66.499593098958329</v>
-      </c>
-      <c r="I178" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>43.388264973958336</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -5831,18 +6187,20 @@
       <c r="E179" s="2">
         <v>47820100</v>
       </c>
-      <c r="F179" s="3"/>
+      <c r="F179" s="3">
+        <v>29063700</v>
+      </c>
       <c r="G179" s="3">
+        <f t="shared" si="6"/>
+        <v>177.98970540364584</v>
+      </c>
+      <c r="H179" s="3">
         <f t="shared" si="7"/>
-        <v>177.98970540364584</v>
-      </c>
-      <c r="H179" s="3">
+        <v>486.45121256510419</v>
+      </c>
+      <c r="I179" s="3">
         <f t="shared" si="8"/>
-        <v>486.45121256510419</v>
-      </c>
-      <c r="I179" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>295.6512451171875</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -5861,18 +6219,20 @@
       <c r="E180" s="2">
         <v>1567390600</v>
       </c>
-      <c r="F180" s="3"/>
+      <c r="F180" s="3">
+        <v>925713900</v>
+      </c>
       <c r="G180" s="3">
+        <f t="shared" si="6"/>
+        <v>70.518477757771805</v>
+      </c>
+      <c r="H180" s="3">
         <f t="shared" si="7"/>
-        <v>70.518477757771805</v>
-      </c>
-      <c r="H180" s="3">
+        <v>249.13002649943033</v>
+      </c>
+      <c r="I180" s="3">
         <f t="shared" si="8"/>
-        <v>249.13002649943033</v>
-      </c>
-      <c r="I180" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>147.13826179504395</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -5891,18 +6251,20 @@
       <c r="E181" s="2">
         <v>113644300</v>
       </c>
-      <c r="F181" s="3"/>
+      <c r="F181" s="3">
+        <v>56200800</v>
+      </c>
       <c r="G181" s="3">
+        <f t="shared" si="6"/>
+        <v>29.352783203125</v>
+      </c>
+      <c r="H181" s="3">
         <f t="shared" si="7"/>
-        <v>29.352783203125</v>
-      </c>
-      <c r="H181" s="3">
+        <v>138.7259521484375</v>
+      </c>
+      <c r="I181" s="3">
         <f t="shared" si="8"/>
-        <v>138.7259521484375</v>
-      </c>
-      <c r="I181" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>68.6044921875</v>
       </c>
     </row>
   </sheetData>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayumi\Documents\ProyectoFinal-Arquihard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BCF1D9-2C91-4655-8575-F6FB44803348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC950AD-12D0-4319-8A68-15B55C5F549B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CC1E190A-F1DE-402A-8C1B-6B8DAA8DD481}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{CC1E190A-F1DE-402A-8C1B-6B8DAA8DD481}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>BitsxPixel</t>
   </si>
@@ -463,8 +464,5821 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24AEB7E-528F-497B-B9C6-FF1952540C60}">
   <dimension ref="A1:J181"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>512</v>
+      </c>
+      <c r="C2" s="2">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>592215900</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2217199700</v>
+      </c>
+      <c r="F2" s="3">
+        <v>873823200</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(D2/$B2^2)/$C2</f>
+        <v>94.130182266235352</v>
+      </c>
+      <c r="H2" s="3">
+        <f>(E2/$B2^2)/$C2</f>
+        <v>352.41440137227374</v>
+      </c>
+      <c r="I2" s="3">
+        <f>(F2/$B2^2)/$C2</f>
+        <v>138.89045715332031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="2">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7679241200</v>
+      </c>
+      <c r="E3" s="2">
+        <v>32251464900</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15419517400</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G66" si="0">(D3/$B3^2)/$C3</f>
+        <v>142.20817037037037</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H66" si="1">(E3/$B3^2)/$C3</f>
+        <v>597.24934999999994</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I66" si="2">(F3/$B3^2)/$C3</f>
+        <v>285.54661851851853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
+        <v>46033200</v>
+      </c>
+      <c r="E4" s="2">
+        <v>256550400</v>
+      </c>
+      <c r="F4" s="3">
+        <v>102307800</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>37.4619140625</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>208.78125</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>83.25830078125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4263122200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>23493837100</v>
+      </c>
+      <c r="F5" s="3">
+        <v>11085299600</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>59.210030555555555</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>326.30329305555557</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>153.96249444444445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13251100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>61418200</v>
+      </c>
+      <c r="F6" s="3">
+        <v>22476200</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>67.398579915364579</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>312.38911946614581</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>114.31986490885417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4471200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>19012800</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8958000</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>22.74169921875</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>96.7041015625</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>45.562744140625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9696600</v>
+      </c>
+      <c r="E8" s="2">
+        <v>41577600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>15530500</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>49.3194580078125</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>211.474609375</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>78.992207845052079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>160</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40873900</v>
+      </c>
+      <c r="E9" s="2">
+        <v>175161100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>93921300</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>66.526529947916671</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>285.09293619791669</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>152.86669921875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>160</v>
+      </c>
+      <c r="C10" s="2">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>47560900</v>
+      </c>
+      <c r="E10" s="2">
+        <v>173847600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>93449500</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>77.410319010416671</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>282.955078125</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>152.09879557291666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>512</v>
+      </c>
+      <c r="C11" s="2">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2">
+        <v>256473100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1284306900</v>
+      </c>
+      <c r="F11" s="3">
+        <v>543636700</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>20.382650693257649</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>102.06754207611084</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>43.204363187154136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="2">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4073029900</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15672797000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7765422200</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>75.426479629629625</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>290.23698148148145</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="2"/>
+        <v>143.80411481481482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="2">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2365104600</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11297050000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5267511700</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>32.848675</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>156.90347222222223</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>73.159884722222216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C14" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2466195000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11007758400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4757958200</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>34.252708333333331</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>152.88553333333334</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>66.082752777777785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8396800</v>
+      </c>
+      <c r="E15" s="2">
+        <v>25152200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12649800</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>85.416666666666671</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>255.86140950520834</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>128.680419921875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>512</v>
+      </c>
+      <c r="C16" s="2">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>545755700</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2631416300</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1173962200</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>65.059149265289307</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>313.68926763534546</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>139.94719982147217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C17" s="2">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4571240100</v>
+      </c>
+      <c r="E17" s="2">
+        <v>24618844500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10497214300</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>42.326297222222223</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>227.95226388888889</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="2"/>
+        <v>97.196428703703702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="2">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2340070800</v>
+      </c>
+      <c r="E18" s="2">
+        <v>11462393200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4995991100</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>32.50098333333333</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>159.19990555555555</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>69.388765277777779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="2">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2233864800</v>
+      </c>
+      <c r="E19" s="2">
+        <v>11312061800</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5027751900</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>20.683933333333332</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>104.74131296296297</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>46.553258333333332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>512</v>
+      </c>
+      <c r="C20" s="2">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2">
+        <v>526426299</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2610136900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1185226800</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>62.754905104637146</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>311.15256547927856</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>141.2900447845459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C21" s="2">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8098808700</v>
+      </c>
+      <c r="E21" s="2">
+        <v>31441332900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>15486278500</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>149.97793888888887</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>582.2469055555556</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>286.78293518518518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>512</v>
+      </c>
+      <c r="C22" s="2">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>528920900</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1817052900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>845806800</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>84.069712956746415</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>288.81278038024902</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="2"/>
+        <v>134.43737030029297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>160</v>
+      </c>
+      <c r="C23" s="2">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2">
+        <v>66576900</v>
+      </c>
+      <c r="E23" s="2">
+        <v>263119300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>106097800</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>54.180419921875</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>214.12703450520834</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="2"/>
+        <v>86.342610677083329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>160</v>
+      </c>
+      <c r="C24" s="2">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2">
+        <v>36354100</v>
+      </c>
+      <c r="E24" s="2">
+        <v>252419300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>57004400</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>29.585042317708332</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>205.41935221354166</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="2"/>
+        <v>46.390299479166664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>512</v>
+      </c>
+      <c r="C25" s="2">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2">
+        <v>313196400</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2210985100</v>
+      </c>
+      <c r="F25" s="3">
+        <v>582654800</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>24.890613555908203</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>175.71330865224203</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="2"/>
+        <v>46.305243174235024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2">
+        <v>13414600</v>
+      </c>
+      <c r="E26" s="2">
+        <v>64985300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>30305400</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>136.46036783854166</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>661.06465657552087</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="2"/>
+        <v>308.282470703125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C27" s="2">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2787528400</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13313948100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5271949800</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>38.715672222222224</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>184.91594583333332</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="2"/>
+        <v>73.221525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>512</v>
+      </c>
+      <c r="C28" s="2">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2">
+        <v>272598800</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1463899800</v>
+      </c>
+      <c r="F28" s="3">
+        <v>613870700</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>32.496309280395508</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>174.51045513153076</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="2"/>
+        <v>73.179090023040771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>160</v>
+      </c>
+      <c r="C29" s="2">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2">
+        <v>80320100</v>
+      </c>
+      <c r="E29" s="2">
+        <v>410390800</v>
+      </c>
+      <c r="F29" s="3">
+        <v>173965400</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>65.364664713541671</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>333.97688802083331</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="2"/>
+        <v>141.57340494791666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C30" s="2">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3942762700</v>
+      </c>
+      <c r="E30" s="2">
+        <v>17554615700</v>
+      </c>
+      <c r="F30" s="3">
+        <v>7864765800</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>73.014124074074076</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>325.08547592592589</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="2"/>
+        <v>145.64381111111112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2">
+        <v>11378100</v>
+      </c>
+      <c r="E31" s="2">
+        <v>57542900</v>
+      </c>
+      <c r="F31" s="3">
+        <v>22807800</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>57.87200927734375</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>292.67832438151044</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="2"/>
+        <v>116.0064697265625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C32" s="2">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2236918900</v>
+      </c>
+      <c r="E32" s="2">
+        <v>12417197300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4814903100</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>31.068318055555554</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>172.46107361111112</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="2"/>
+        <v>66.873654166666668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3540500</v>
+      </c>
+      <c r="E33" s="2">
+        <v>23425500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>9866400</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>27.011871337890625</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>178.72238159179688</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="2"/>
+        <v>75.274658203125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
+        <v>160</v>
+      </c>
+      <c r="C34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2">
+        <v>84693800</v>
+      </c>
+      <c r="E34" s="2">
+        <v>407575000</v>
+      </c>
+      <c r="F34" s="3">
+        <v>170738400</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>103.385986328125</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="1"/>
+        <v>497.528076171875</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="2"/>
+        <v>208.4208984375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>160</v>
+      </c>
+      <c r="C35" s="2">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2">
+        <v>75357800</v>
+      </c>
+      <c r="E35" s="2">
+        <v>404966500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>168310700</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>61.326334635416664</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="1"/>
+        <v>329.56258138020831</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="2"/>
+        <v>136.97159830729166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>64</v>
+      </c>
+      <c r="C36" s="2">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2">
+        <v>8269400</v>
+      </c>
+      <c r="E36" s="2">
+        <v>39136500</v>
+      </c>
+      <c r="F36" s="3">
+        <v>14614200</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>84.120686848958329</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="1"/>
+        <v>398.1170654296875</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="2"/>
+        <v>148.663330078125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>160</v>
+      </c>
+      <c r="C37" s="2">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2">
+        <v>25942300</v>
+      </c>
+      <c r="E37" s="2">
+        <v>138666000</v>
+      </c>
+      <c r="F37" s="3">
+        <v>57171800</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>31.6678466796875</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="1"/>
+        <v>169.27001953125</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="2"/>
+        <v>69.789794921875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C38" s="2">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3956396500</v>
+      </c>
+      <c r="E38" s="2">
+        <v>19051427900</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7664813000</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>73.26660185185186</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="1"/>
+        <v>352.80422037037039</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="2"/>
+        <v>141.94098148148149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>160</v>
+      </c>
+      <c r="C39" s="2">
+        <v>48</v>
+      </c>
+      <c r="D39" s="2">
+        <v>29308500</v>
+      </c>
+      <c r="E39" s="2">
+        <v>100038800</v>
+      </c>
+      <c r="F39" s="3">
+        <v>55662900</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>23.851318359375</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="1"/>
+        <v>81.411783854166671</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="2"/>
+        <v>45.298583984375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>512</v>
+      </c>
+      <c r="C40" s="2">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2">
+        <v>454802900</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1737095500</v>
+      </c>
+      <c r="F40" s="3">
+        <v>892455300</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="0"/>
+        <v>72.288974126180008</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="1"/>
+        <v>276.10389391581219</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="2"/>
+        <v>141.85194969177246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5104300</v>
+      </c>
+      <c r="E41" s="2">
+        <v>17019100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10675300</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>25.961812337239582</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="1"/>
+        <v>86.563618977864579</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="2"/>
+        <v>54.297383626302086</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C42" s="2">
+        <v>48</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4569108200</v>
+      </c>
+      <c r="E42" s="2">
+        <v>21661572800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10922967400</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>42.306557407407404</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="1"/>
+        <v>200.57011851851851</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="2"/>
+        <v>101.13858703703704</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2">
+        <v>160</v>
+      </c>
+      <c r="C43" s="2">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2">
+        <v>49582200</v>
+      </c>
+      <c r="E43" s="2">
+        <v>226705100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>116789300</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>60.525146484375</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="1"/>
+        <v>276.7396240234375</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="2"/>
+        <v>142.5650634765625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>160</v>
+      </c>
+      <c r="C44" s="2">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2">
+        <v>80258900</v>
+      </c>
+      <c r="E44" s="2">
+        <v>357246100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>168541400</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>65.314860026041671</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="1"/>
+        <v>290.72762044270831</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="2"/>
+        <v>137.15934244791666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>160</v>
+      </c>
+      <c r="C45" s="2">
+        <v>32</v>
+      </c>
+      <c r="D45" s="2">
+        <v>26070000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>95821400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>55262700</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="0"/>
+        <v>31.82373046875</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="1"/>
+        <v>116.969482421875</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="2"/>
+        <v>67.4593505859375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>160</v>
+      </c>
+      <c r="C46" s="2">
+        <v>48</v>
+      </c>
+      <c r="D46" s="2">
+        <v>24945500</v>
+      </c>
+      <c r="E46" s="2">
+        <v>123756000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>61315300</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="0"/>
+        <v>20.300699869791668</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="1"/>
+        <v>100.712890625</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="2"/>
+        <v>49.898518880208336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>160</v>
+      </c>
+      <c r="C47" s="2">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2">
+        <v>24054900</v>
+      </c>
+      <c r="E47" s="2">
+        <v>124732900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>53864000</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="0"/>
+        <v>29.3638916015625</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="1"/>
+        <v>152.2618408203125</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="2"/>
+        <v>65.751953125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>160</v>
+      </c>
+      <c r="C48" s="2">
+        <v>48</v>
+      </c>
+      <c r="D48" s="2">
+        <v>47499700</v>
+      </c>
+      <c r="E48" s="2">
+        <v>215636200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>104307200</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="0"/>
+        <v>38.655354817708336</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="1"/>
+        <v>175.48518880208334</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="2"/>
+        <v>84.885416666666671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>64</v>
+      </c>
+      <c r="C49" s="2">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4979800</v>
+      </c>
+      <c r="E49" s="2">
+        <v>15061700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>11765700</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="0"/>
+        <v>37.99285888671875</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="1"/>
+        <v>114.91165161132813</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="2"/>
+        <v>89.765167236328125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>64</v>
+      </c>
+      <c r="C50" s="2">
+        <v>48</v>
+      </c>
+      <c r="D50" s="2">
+        <v>10486400</v>
+      </c>
+      <c r="E50" s="2">
+        <v>34714400</v>
+      </c>
+      <c r="F50" s="3">
+        <v>21185200</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="0"/>
+        <v>53.336588541666664</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="1"/>
+        <v>176.56656901041666</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="2"/>
+        <v>107.75349934895833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>512</v>
+      </c>
+      <c r="C51" s="2">
+        <v>48</v>
+      </c>
+      <c r="D51" s="2">
+        <v>575161800</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2519208400</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1252728200</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="0"/>
+        <v>45.709753036499023</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="1"/>
+        <v>200.20869572957358</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="2"/>
+        <v>99.557892481486007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2">
+        <v>32</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10562300</v>
+      </c>
+      <c r="E52" s="2">
+        <v>40588100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>19320500</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="0"/>
+        <v>80.583953857421875</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="1"/>
+        <v>309.66262817382813</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="2"/>
+        <v>147.40371704101563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C53" s="2">
+        <v>32</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2149145100</v>
+      </c>
+      <c r="E53" s="2">
+        <v>11186325600</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5216075700</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="0"/>
+        <v>29.849237500000001</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="1"/>
+        <v>155.36563333333334</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="2"/>
+        <v>72.445495833333339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2">
+        <v>8410700</v>
+      </c>
+      <c r="E54" s="2">
+        <v>33910000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>13557600</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="0"/>
+        <v>85.558064778645829</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="1"/>
+        <v>344.95035807291669</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="2"/>
+        <v>137.9150390625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2">
+        <v>48</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4422500</v>
+      </c>
+      <c r="E55" s="2">
+        <v>25930100</v>
+      </c>
+      <c r="F55" s="3">
+        <v>13756000</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="0"/>
+        <v>22.493998209635418</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="1"/>
+        <v>131.88730875651041</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="2"/>
+        <v>69.966634114583329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>64</v>
+      </c>
+      <c r="C56" s="2">
+        <v>32</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4817800</v>
+      </c>
+      <c r="E56" s="2">
+        <v>34951200</v>
+      </c>
+      <c r="F56" s="3">
+        <v>9160600</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="0"/>
+        <v>36.75689697265625</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="1"/>
+        <v>266.656494140625</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="2"/>
+        <v>69.88983154296875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2">
+        <v>512</v>
+      </c>
+      <c r="C57" s="2">
+        <v>24</v>
+      </c>
+      <c r="D57" s="2">
+        <v>462176000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1694429800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>989967300</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="0"/>
+        <v>73.460896809895829</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="1"/>
+        <v>269.32236353556317</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="2"/>
+        <v>157.35106468200684</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2">
+        <v>512</v>
+      </c>
+      <c r="C58" s="2">
+        <v>24</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1298911500</v>
+      </c>
+      <c r="E58" s="2">
+        <v>5348006000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2641990600</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="0"/>
+        <v>206.45642280578613</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="1"/>
+        <v>850.04266103108728</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="2"/>
+        <v>419.93309656778973</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C59" s="2">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2">
+        <v>11280912300</v>
+      </c>
+      <c r="E59" s="2">
+        <v>42420888900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>39554318100</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="0"/>
+        <v>208.90578333333335</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="1"/>
+        <v>785.57201666666663</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="2"/>
+        <v>732.48737222222223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2">
+        <v>512</v>
+      </c>
+      <c r="C60" s="2">
+        <v>48</v>
+      </c>
+      <c r="D60" s="2">
+        <v>286295800</v>
+      </c>
+      <c r="E60" s="2">
+        <v>823542100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>650660100</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="0"/>
+        <v>22.752745946248371</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="1"/>
+        <v>65.449245770772293</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="2"/>
+        <v>51.709818840026855</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>160</v>
+      </c>
+      <c r="C61" s="2">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2">
+        <v>99223900</v>
+      </c>
+      <c r="E61" s="2">
+        <v>247957100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>203143900</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="0"/>
+        <v>161.49723307291666</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="1"/>
+        <v>403.57600911458331</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="2"/>
+        <v>330.63785807291669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C62" s="2">
+        <v>48</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2147758200</v>
+      </c>
+      <c r="E62" s="2">
+        <v>7369533600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6027105800</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="0"/>
+        <v>19.886649999999999</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="1"/>
+        <v>68.236422222222231</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="2"/>
+        <v>55.80653518518519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2">
+        <v>512</v>
+      </c>
+      <c r="C63" s="2">
+        <v>48</v>
+      </c>
+      <c r="D63" s="2">
+        <v>264146700</v>
+      </c>
+      <c r="E63" s="2">
+        <v>998778000</v>
+      </c>
+      <c r="F63" s="3">
+        <v>673743700</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="0"/>
+        <v>20.992493629455566</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="1"/>
+        <v>79.375743865966797</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="2"/>
+        <v>53.544338544209801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>512</v>
+      </c>
+      <c r="C64" s="2">
+        <v>48</v>
+      </c>
+      <c r="D64" s="2">
+        <v>475931800</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1850682900</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1713323400</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="0"/>
+        <v>37.823661168416344</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="1"/>
+        <v>147.07906246185303</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="2"/>
+        <v>136.16271018981934</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2">
+        <v>512</v>
+      </c>
+      <c r="C65" s="2">
+        <v>24</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1432391000</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3962745100</v>
+      </c>
+      <c r="F65" s="3">
+        <v>3741718200</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="0"/>
+        <v>227.67241795857748</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="1"/>
+        <v>629.86137072245276</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="2"/>
+        <v>594.7300910949707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2">
+        <v>512</v>
+      </c>
+      <c r="C66" s="2">
+        <v>24</v>
+      </c>
+      <c r="D66" s="2">
+        <v>430621800</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1384321900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1072278100</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="0"/>
+        <v>68.445491790771484</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="1"/>
+        <v>220.03204027811685</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="2"/>
+        <v>170.43401400248209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2">
+        <v>512</v>
+      </c>
+      <c r="C67" s="2">
+        <v>32</v>
+      </c>
+      <c r="D67" s="2">
+        <v>236810600</v>
+      </c>
+      <c r="E67" s="2">
+        <v>918151900</v>
+      </c>
+      <c r="F67" s="3">
+        <v>640257700</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" ref="G67:G130" si="3">(D67/$B67^2)/$C67</f>
+        <v>28.230023384094238</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" ref="H67:H130" si="4">(E67/$B67^2)/$C67</f>
+        <v>109.45223569869995</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" ref="I67:I130" si="5">(F67/$B67^2)/$C67</f>
+        <v>76.324665546417236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C68" s="2">
+        <v>24</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4466100100</v>
+      </c>
+      <c r="E68" s="2">
+        <v>11799429800</v>
+      </c>
+      <c r="F68" s="3">
+        <v>8896781800</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="3"/>
+        <v>82.705557407407412</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="4"/>
+        <v>218.50795925925925</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="5"/>
+        <v>164.75521851851852</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C69" s="2">
+        <v>48</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2861865100</v>
+      </c>
+      <c r="E69" s="2">
+        <v>7627067800</v>
+      </c>
+      <c r="F69" s="3">
+        <v>6011426600</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="3"/>
+        <v>26.498750925925929</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="4"/>
+        <v>70.620998148148146</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="5"/>
+        <v>55.661357407407401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2">
+        <v>512</v>
+      </c>
+      <c r="C70" s="2">
+        <v>24</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1066327900</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2617529900</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2064604800</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="3"/>
+        <v>169.48825518290201</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="4"/>
+        <v>416.04517300923663</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" si="5"/>
+        <v>328.16009521484375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2">
+        <v>512</v>
+      </c>
+      <c r="C71" s="2">
+        <v>32</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1001887200</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2679691200</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2109913200</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="3"/>
+        <v>119.43426132202148</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="4"/>
+        <v>319.44408416748047</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="5"/>
+        <v>251.52125358581543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2">
+        <v>160</v>
+      </c>
+      <c r="C72" s="2">
+        <v>32</v>
+      </c>
+      <c r="D72" s="2">
+        <v>30860700</v>
+      </c>
+      <c r="E72" s="2">
+        <v>86526900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>62461500</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="3"/>
+        <v>37.6717529296875</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="4"/>
+        <v>105.6236572265625</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="5"/>
+        <v>76.2469482421875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2">
+        <v>512</v>
+      </c>
+      <c r="C73" s="2">
+        <v>32</v>
+      </c>
+      <c r="D73" s="2">
+        <v>356840400</v>
+      </c>
+      <c r="E73" s="2">
+        <v>829920900</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1072644000</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="3"/>
+        <v>42.538690567016602</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="4"/>
+        <v>98.934280872344971</v>
+      </c>
+      <c r="I73" s="3">
+        <f t="shared" si="5"/>
+        <v>127.8691291809082</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2">
+        <v>160</v>
+      </c>
+      <c r="C74" s="2">
+        <v>48</v>
+      </c>
+      <c r="D74" s="2">
+        <v>43812200</v>
+      </c>
+      <c r="E74" s="2">
+        <v>97305900</v>
+      </c>
+      <c r="F74" s="3">
+        <v>63100800</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="3"/>
+        <v>35.654459635416664</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="4"/>
+        <v>79.187744140625</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="5"/>
+        <v>51.3515625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C75" s="2">
+        <v>48</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2138250200</v>
+      </c>
+      <c r="E75" s="2">
+        <v>7549327200</v>
+      </c>
+      <c r="F75" s="3">
+        <v>8060933500</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="3"/>
+        <v>19.798612962962963</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="4"/>
+        <v>69.901177777777775</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="5"/>
+        <v>74.638273148148144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2">
+        <v>24</v>
+      </c>
+      <c r="D76" s="2">
+        <v>20945000</v>
+      </c>
+      <c r="E76" s="2">
+        <v>55502300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>114583300</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="3"/>
+        <v>213.06355794270834</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="4"/>
+        <v>564.59859212239587</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="5"/>
+        <v>1165.6016031901042</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2">
+        <v>160</v>
+      </c>
+      <c r="C77" s="2">
+        <v>48</v>
+      </c>
+      <c r="D77" s="2">
+        <v>27392200</v>
+      </c>
+      <c r="E77" s="2">
+        <v>81210000</v>
+      </c>
+      <c r="F77" s="3">
+        <v>110241600</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="3"/>
+        <v>22.291829427083332</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="4"/>
+        <v>66.0888671875</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="5"/>
+        <v>89.71484375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2">
+        <v>64</v>
+      </c>
+      <c r="C78" s="2">
+        <v>48</v>
+      </c>
+      <c r="D78" s="2">
+        <v>8372800</v>
+      </c>
+      <c r="E78" s="2">
+        <v>26250300</v>
+      </c>
+      <c r="F78" s="3">
+        <v>28446200</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="3"/>
+        <v>42.586263020833336</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="4"/>
+        <v>133.51593017578125</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" si="5"/>
+        <v>144.68485514322916</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2">
+        <v>64</v>
+      </c>
+      <c r="C79" s="2">
+        <v>24</v>
+      </c>
+      <c r="D79" s="2">
+        <v>18670300</v>
+      </c>
+      <c r="E79" s="2">
+        <v>56240000</v>
+      </c>
+      <c r="F79" s="3">
+        <v>57139800</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="3"/>
+        <v>189.92411295572916</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="4"/>
+        <v>572.10286458333337</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" si="5"/>
+        <v>581.256103515625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2">
+        <v>64</v>
+      </c>
+      <c r="C80" s="2">
+        <v>24</v>
+      </c>
+      <c r="D80" s="2">
+        <v>8092100</v>
+      </c>
+      <c r="E80" s="2">
+        <v>29450800</v>
+      </c>
+      <c r="F80" s="3">
+        <v>22619000</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="3"/>
+        <v>82.317097981770829</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" si="4"/>
+        <v>299.58902994791669</v>
+      </c>
+      <c r="I80" s="3">
+        <f t="shared" si="5"/>
+        <v>230.09236653645834</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>3</v>
+      </c>
+      <c r="B81" s="2">
+        <v>160</v>
+      </c>
+      <c r="C81" s="2">
+        <v>48</v>
+      </c>
+      <c r="D81" s="2">
+        <v>31267400</v>
+      </c>
+      <c r="E81" s="2">
+        <v>87777800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>98452200</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="3"/>
+        <v>25.445475260416668</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="4"/>
+        <v>71.433756510416671</v>
+      </c>
+      <c r="I81" s="3">
+        <f t="shared" si="5"/>
+        <v>80.12060546875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2">
+        <v>512</v>
+      </c>
+      <c r="C82" s="2">
+        <v>24</v>
+      </c>
+      <c r="D82" s="2">
+        <v>476445600</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1387430300</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1601993200</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="3"/>
+        <v>75.728988647460938</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="4"/>
+        <v>220.52610715230307</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="5"/>
+        <v>254.62996164957681</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2">
+        <v>64</v>
+      </c>
+      <c r="C83" s="2">
+        <v>32</v>
+      </c>
+      <c r="D83" s="2">
+        <v>5400200</v>
+      </c>
+      <c r="E83" s="2">
+        <v>18230800</v>
+      </c>
+      <c r="F83" s="3">
+        <v>22864800</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="3"/>
+        <v>41.20025634765625</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="4"/>
+        <v>139.0899658203125</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="5"/>
+        <v>174.444580078125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C84" s="2">
+        <v>24</v>
+      </c>
+      <c r="D84" s="2">
+        <v>11855267600</v>
+      </c>
+      <c r="E84" s="2">
+        <v>34525495800</v>
+      </c>
+      <c r="F84" s="3">
+        <v>32170412000</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="3"/>
+        <v>219.54199259259258</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="4"/>
+        <v>639.36103333333335</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="5"/>
+        <v>595.74837037037037</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2">
+        <v>512</v>
+      </c>
+      <c r="C85" s="2">
+        <v>32</v>
+      </c>
+      <c r="D85" s="2">
+        <v>255336700</v>
+      </c>
+      <c r="E85" s="2">
+        <v>863465800</v>
+      </c>
+      <c r="F85" s="3">
+        <v>675360100</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="3"/>
+        <v>30.438506603240967</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="4"/>
+        <v>102.93314456939697</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="5"/>
+        <v>80.50919771194458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2">
+        <v>64</v>
+      </c>
+      <c r="C86" s="2">
+        <v>48</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4396400</v>
+      </c>
+      <c r="E86" s="2">
+        <v>13519000</v>
+      </c>
+      <c r="F86" s="3">
+        <v>11028300</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="3"/>
+        <v>22.361246744791668</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="4"/>
+        <v>68.761189778645829</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" si="5"/>
+        <v>56.09283447265625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2">
+        <v>512</v>
+      </c>
+      <c r="C87" s="2">
+        <v>32</v>
+      </c>
+      <c r="D87" s="2">
+        <v>252541400</v>
+      </c>
+      <c r="E87" s="2">
+        <v>862926100</v>
+      </c>
+      <c r="F87" s="3">
+        <v>704281900</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="3"/>
+        <v>30.105280876159668</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="4"/>
+        <v>102.86880731582642</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" si="5"/>
+        <v>83.956944942474365</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>5</v>
+      </c>
+      <c r="B88" s="2">
+        <v>64</v>
+      </c>
+      <c r="C88" s="2">
+        <v>32</v>
+      </c>
+      <c r="D88" s="2">
+        <v>4943300</v>
+      </c>
+      <c r="E88" s="2">
+        <v>11621100</v>
+      </c>
+      <c r="F88" s="3">
+        <v>8136700</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="3"/>
+        <v>37.714385986328125</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="4"/>
+        <v>88.661956787109375</v>
+      </c>
+      <c r="I88" s="3">
+        <f t="shared" si="5"/>
+        <v>62.078094482421875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2">
+        <v>64</v>
+      </c>
+      <c r="C89" s="2">
+        <v>24</v>
+      </c>
+      <c r="D89" s="2">
+        <v>7020200</v>
+      </c>
+      <c r="E89" s="2">
+        <v>20804600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>22691700</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="3"/>
+        <v>71.413167317708329</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="4"/>
+        <v>211.63533528645834</v>
+      </c>
+      <c r="I89" s="3">
+        <f t="shared" si="5"/>
+        <v>230.8319091796875</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2">
+        <v>512</v>
+      </c>
+      <c r="C90" s="2">
+        <v>24</v>
+      </c>
+      <c r="D90" s="2">
+        <v>432220700</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1318230500</v>
+      </c>
+      <c r="F90" s="3">
+        <v>9487019300</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="3"/>
+        <v>68.699630101521805</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="4"/>
+        <v>209.52709515889487</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="5"/>
+        <v>1507.9211076100667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C91" s="2">
+        <v>48</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2264054600</v>
+      </c>
+      <c r="E91" s="2">
+        <v>7865947000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>6243766900</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="3"/>
+        <v>20.963468518518518</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="4"/>
+        <v>72.832842592592598</v>
+      </c>
+      <c r="I91" s="3">
+        <f t="shared" si="5"/>
+        <v>57.812656481481476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2">
+        <v>64</v>
+      </c>
+      <c r="C92" s="2">
+        <v>24</v>
+      </c>
+      <c r="D92" s="2">
+        <v>16117600</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43147200</v>
+      </c>
+      <c r="F92" s="3">
+        <v>26975900</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="3"/>
+        <v>163.95670572916666</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" si="4"/>
+        <v>438.916015625</v>
+      </c>
+      <c r="I92" s="3">
+        <f t="shared" si="5"/>
+        <v>274.41304524739581</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C93" s="2">
+        <v>24</v>
+      </c>
+      <c r="D93" s="2">
+        <v>4223894800</v>
+      </c>
+      <c r="E93" s="2">
+        <v>11096405800</v>
+      </c>
+      <c r="F93" s="3">
+        <v>9645837400</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="3"/>
+        <v>78.220274074074069</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="4"/>
+        <v>205.48899629629628</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" si="5"/>
+        <v>178.62661851851851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C94" s="2">
+        <v>48</v>
+      </c>
+      <c r="D94" s="2">
+        <v>6751872300</v>
+      </c>
+      <c r="E94" s="2">
+        <v>24569522200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>19744844900</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="3"/>
+        <v>62.517336111111113</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="4"/>
+        <v>227.49557592592592</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" si="5"/>
+        <v>182.82263796296297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2">
+        <v>512</v>
+      </c>
+      <c r="C95" s="2">
+        <v>24</v>
+      </c>
+      <c r="D95" s="2">
+        <v>913608800</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2525598100</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2136608400</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" si="3"/>
+        <v>145.21420796712241</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="4"/>
+        <v>401.43300692240399</v>
+      </c>
+      <c r="I95" s="3">
+        <f t="shared" si="5"/>
+        <v>339.60475921630859</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2">
+        <v>512</v>
+      </c>
+      <c r="C96" s="2">
+        <v>48</v>
+      </c>
+      <c r="D96" s="2">
+        <v>777350400</v>
+      </c>
+      <c r="E96" s="2">
+        <v>2598457000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2381996400</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="3"/>
+        <v>61.77825927734375</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="4"/>
+        <v>206.50680859883627</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="5"/>
+        <v>189.3040657043457</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2">
+        <v>160</v>
+      </c>
+      <c r="C97" s="2">
+        <v>32</v>
+      </c>
+      <c r="D97" s="2">
+        <v>27943200</v>
+      </c>
+      <c r="E97" s="2">
+        <v>86019500</v>
+      </c>
+      <c r="F97" s="3">
+        <v>68124000</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" si="3"/>
+        <v>34.1103515625</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" si="4"/>
+        <v>105.0042724609375</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="5"/>
+        <v>83.1591796875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C98" s="2">
+        <v>32</v>
+      </c>
+      <c r="D98" s="2">
+        <v>6785281400</v>
+      </c>
+      <c r="E98" s="2">
+        <v>22631377700</v>
+      </c>
+      <c r="F98" s="3">
+        <v>20701648800</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="3"/>
+        <v>94.240019444444442</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="4"/>
+        <v>314.32469027777779</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="5"/>
+        <v>287.52289999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>3</v>
+      </c>
+      <c r="B99" s="2">
+        <v>160</v>
+      </c>
+      <c r="C99" s="2">
+        <v>32</v>
+      </c>
+      <c r="D99" s="2">
+        <v>23553000</v>
+      </c>
+      <c r="E99" s="2">
+        <v>80530600</v>
+      </c>
+      <c r="F99" s="3">
+        <v>64021600</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="3"/>
+        <v>28.751220703125</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" si="4"/>
+        <v>98.303955078125</v>
+      </c>
+      <c r="I99" s="3">
+        <f t="shared" si="5"/>
+        <v>78.1513671875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2">
+        <v>64</v>
+      </c>
+      <c r="C100" s="2">
+        <v>48</v>
+      </c>
+      <c r="D100" s="2">
+        <v>6539000</v>
+      </c>
+      <c r="E100" s="2">
+        <v>15111000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>9335900</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="3"/>
+        <v>33.259073893229164</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="4"/>
+        <v>76.8585205078125</v>
+      </c>
+      <c r="I100" s="3">
+        <f t="shared" si="5"/>
+        <v>47.484842936197914</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C101" s="2">
+        <v>24</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3694022600</v>
+      </c>
+      <c r="E101" s="2">
+        <v>10389985400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>9062732200</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="3"/>
+        <v>68.407825925925934</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="4"/>
+        <v>192.40713703703705</v>
+      </c>
+      <c r="I101" s="3">
+        <f t="shared" si="5"/>
+        <v>167.82837407407408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C102" s="2">
+        <v>48</v>
+      </c>
+      <c r="D102" s="2">
+        <v>4242887200</v>
+      </c>
+      <c r="E102" s="2">
+        <v>15113389300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>12912629900</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="3"/>
+        <v>39.285992592592592</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="4"/>
+        <v>139.93878981481481</v>
+      </c>
+      <c r="I102" s="3">
+        <f t="shared" si="5"/>
+        <v>119.56138796296295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>2</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C103" s="2">
+        <v>48</v>
+      </c>
+      <c r="D103" s="2">
+        <v>6771092000</v>
+      </c>
+      <c r="E103" s="2">
+        <v>23082705200</v>
+      </c>
+      <c r="F103" s="3">
+        <v>20663786800</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="3"/>
+        <v>62.695296296296299</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="4"/>
+        <v>213.72875185185185</v>
+      </c>
+      <c r="I103" s="3">
+        <f t="shared" si="5"/>
+        <v>191.33135925925924</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C104" s="2">
+        <v>48</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2308879900</v>
+      </c>
+      <c r="E104" s="2">
+        <v>7468889600</v>
+      </c>
+      <c r="F104" s="3">
+        <v>5871531000</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="3"/>
+        <v>21.378517592592591</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="4"/>
+        <v>69.156385185185187</v>
+      </c>
+      <c r="I104" s="3">
+        <f t="shared" si="5"/>
+        <v>54.366027777777781</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2">
+        <v>160</v>
+      </c>
+      <c r="C105" s="2">
+        <v>32</v>
+      </c>
+      <c r="D105" s="2">
+        <v>54486300</v>
+      </c>
+      <c r="E105" s="2">
+        <v>186906300</v>
+      </c>
+      <c r="F105" s="3">
+        <v>133535800</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="3"/>
+        <v>66.5115966796875</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="4"/>
+        <v>228.1571044921875</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" si="5"/>
+        <v>163.007568359375</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2">
+        <v>160</v>
+      </c>
+      <c r="C106" s="2">
+        <v>32</v>
+      </c>
+      <c r="D106" s="2">
+        <v>29283700</v>
+      </c>
+      <c r="E106" s="2">
+        <v>88914700</v>
+      </c>
+      <c r="F106" s="3">
+        <v>60389800</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="3"/>
+        <v>35.7467041015625</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="4"/>
+        <v>108.5384521484375</v>
+      </c>
+      <c r="I106" s="3">
+        <f t="shared" si="5"/>
+        <v>73.718017578125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2">
+        <v>64</v>
+      </c>
+      <c r="C107" s="2">
+        <v>32</v>
+      </c>
+      <c r="D107" s="2">
+        <v>5030000</v>
+      </c>
+      <c r="E107" s="2">
+        <v>17650300</v>
+      </c>
+      <c r="F107" s="3">
+        <v>8660900</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="3"/>
+        <v>38.3758544921875</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="4"/>
+        <v>134.66110229492188</v>
+      </c>
+      <c r="I107" s="3">
+        <f t="shared" si="5"/>
+        <v>66.077423095703125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>2</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C108" s="2">
+        <v>32</v>
+      </c>
+      <c r="D108" s="2">
+        <v>6928351900</v>
+      </c>
+      <c r="E108" s="2">
+        <v>22750682900</v>
+      </c>
+      <c r="F108" s="3">
+        <v>20090758100</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="3"/>
+        <v>96.227109722222224</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="4"/>
+        <v>315.98170694444445</v>
+      </c>
+      <c r="I108" s="3">
+        <f t="shared" si="5"/>
+        <v>279.03830694444446</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>2</v>
+      </c>
+      <c r="B109" s="2">
+        <v>160</v>
+      </c>
+      <c r="C109" s="2">
+        <v>24</v>
+      </c>
+      <c r="D109" s="2">
+        <v>141703500</v>
+      </c>
+      <c r="E109" s="2">
+        <v>411696600</v>
+      </c>
+      <c r="F109" s="3">
+        <v>311364700</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" si="3"/>
+        <v>230.63720703125</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" si="4"/>
+        <v>670.0791015625</v>
+      </c>
+      <c r="I109" s="3">
+        <f t="shared" si="5"/>
+        <v>506.77848307291669</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C110" s="2">
+        <v>32</v>
+      </c>
+      <c r="D110" s="2">
+        <v>2208617100</v>
+      </c>
+      <c r="E110" s="2">
+        <v>7749200100</v>
+      </c>
+      <c r="F110" s="3">
+        <v>7387953200</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" si="3"/>
+        <v>30.675237500000001</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="4"/>
+        <v>107.62777916666667</v>
+      </c>
+      <c r="I110" s="3">
+        <f t="shared" si="5"/>
+        <v>102.61046111111111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>5</v>
+      </c>
+      <c r="B111" s="2">
+        <v>160</v>
+      </c>
+      <c r="C111" s="2">
+        <v>24</v>
+      </c>
+      <c r="D111" s="2">
+        <v>41608600</v>
+      </c>
+      <c r="E111" s="2">
+        <v>123996800</v>
+      </c>
+      <c r="F111" s="3">
+        <v>145830200</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="3"/>
+        <v>67.722330729166671</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="4"/>
+        <v>201.81770833333334</v>
+      </c>
+      <c r="I111" s="3">
+        <f t="shared" si="5"/>
+        <v>237.35384114583334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>4</v>
+      </c>
+      <c r="B112" s="2">
+        <v>512</v>
+      </c>
+      <c r="C112" s="2">
+        <v>48</v>
+      </c>
+      <c r="D112" s="2">
+        <v>510329300</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1695739600</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1784527800</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="3"/>
+        <v>40.557328859965004</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="4"/>
+        <v>134.76527531941733</v>
+      </c>
+      <c r="I112" s="3">
+        <f t="shared" si="5"/>
+        <v>141.8215274810791</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>2</v>
+      </c>
+      <c r="B113" s="2">
+        <v>512</v>
+      </c>
+      <c r="C113" s="2">
+        <v>32</v>
+      </c>
+      <c r="D113" s="2">
+        <v>758832300</v>
+      </c>
+      <c r="E113" s="2">
+        <v>2629286000</v>
+      </c>
+      <c r="F113" s="3">
+        <v>3334874500</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" si="3"/>
+        <v>90.459859371185303</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="4"/>
+        <v>313.43531608581543</v>
+      </c>
+      <c r="I113" s="3">
+        <f t="shared" si="5"/>
+        <v>397.54801988601685</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>3</v>
+      </c>
+      <c r="B114" s="2">
+        <v>64</v>
+      </c>
+      <c r="C114" s="2">
+        <v>32</v>
+      </c>
+      <c r="D114" s="2">
+        <v>3704600</v>
+      </c>
+      <c r="E114" s="2">
+        <v>15521400</v>
+      </c>
+      <c r="F114" s="3">
+        <v>10952100</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" si="3"/>
+        <v>28.26385498046875</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="4"/>
+        <v>118.41888427734375</v>
+      </c>
+      <c r="I114" s="3">
+        <f t="shared" si="5"/>
+        <v>83.557891845703125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2">
+        <v>160</v>
+      </c>
+      <c r="C115" s="2">
+        <v>24</v>
+      </c>
+      <c r="D115" s="2">
+        <v>91043200</v>
+      </c>
+      <c r="E115" s="2">
+        <v>250052800</v>
+      </c>
+      <c r="F115" s="3">
+        <v>220781700</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" si="3"/>
+        <v>148.18229166666666</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="4"/>
+        <v>406.98697916666669</v>
+      </c>
+      <c r="I115" s="3">
+        <f t="shared" si="5"/>
+        <v>359.34521484375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2">
+        <v>512</v>
+      </c>
+      <c r="C116" s="2">
+        <v>24</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1384034200</v>
+      </c>
+      <c r="E116" s="2">
+        <v>3838497600</v>
+      </c>
+      <c r="F116" s="3">
+        <v>3551870400</v>
+      </c>
+      <c r="G116" s="3">
+        <f t="shared" si="3"/>
+        <v>219.98631159464517</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" si="4"/>
+        <v>610.11276245117188</v>
+      </c>
+      <c r="I116" s="3">
+        <f t="shared" si="5"/>
+        <v>564.55459594726563</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>2</v>
+      </c>
+      <c r="B117" s="2">
+        <v>64</v>
+      </c>
+      <c r="C117" s="2">
+        <v>32</v>
+      </c>
+      <c r="D117" s="2">
+        <v>13345900</v>
+      </c>
+      <c r="E117" s="2">
+        <v>41665200</v>
+      </c>
+      <c r="F117" s="3">
+        <v>30867400</v>
+      </c>
+      <c r="G117" s="3">
+        <f t="shared" si="3"/>
+        <v>101.82113647460938</v>
+      </c>
+      <c r="H117" s="3">
+        <f t="shared" si="4"/>
+        <v>317.8802490234375</v>
+      </c>
+      <c r="I117" s="3">
+        <f t="shared" si="5"/>
+        <v>235.49957275390625</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>3</v>
+      </c>
+      <c r="B118" s="2">
+        <v>160</v>
+      </c>
+      <c r="C118" s="2">
+        <v>48</v>
+      </c>
+      <c r="D118" s="2">
+        <v>27590100</v>
+      </c>
+      <c r="E118" s="2">
+        <v>72036000</v>
+      </c>
+      <c r="F118" s="3">
+        <v>76933100</v>
+      </c>
+      <c r="G118" s="3">
+        <f t="shared" si="3"/>
+        <v>22.452880859375</v>
+      </c>
+      <c r="H118" s="3">
+        <f t="shared" si="4"/>
+        <v>58.623046875</v>
+      </c>
+      <c r="I118" s="3">
+        <f t="shared" si="5"/>
+        <v>62.608317057291664</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>2</v>
+      </c>
+      <c r="B119" s="2">
+        <v>64</v>
+      </c>
+      <c r="C119" s="2">
+        <v>32</v>
+      </c>
+      <c r="D119" s="2">
+        <v>14393200</v>
+      </c>
+      <c r="E119" s="2">
+        <v>63843000</v>
+      </c>
+      <c r="F119" s="3">
+        <v>31362700</v>
+      </c>
+      <c r="G119" s="3">
+        <f t="shared" si="3"/>
+        <v>109.8114013671875</v>
+      </c>
+      <c r="H119" s="3">
+        <f t="shared" si="4"/>
+        <v>487.08343505859375</v>
+      </c>
+      <c r="I119" s="3">
+        <f t="shared" si="5"/>
+        <v>239.27841186523438</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>5</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C120" s="2">
+        <v>24</v>
+      </c>
+      <c r="D120" s="2">
+        <v>3878549600</v>
+      </c>
+      <c r="E120" s="2">
+        <v>11166221100</v>
+      </c>
+      <c r="F120" s="3">
+        <v>9936189600</v>
+      </c>
+      <c r="G120" s="3">
+        <f t="shared" si="3"/>
+        <v>71.824992592592594</v>
+      </c>
+      <c r="H120" s="3">
+        <f t="shared" si="4"/>
+        <v>206.7818722222222</v>
+      </c>
+      <c r="I120" s="3">
+        <f t="shared" si="5"/>
+        <v>184.00351111111112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>4</v>
+      </c>
+      <c r="B121" s="2">
+        <v>512</v>
+      </c>
+      <c r="C121" s="2">
+        <v>32</v>
+      </c>
+      <c r="D121" s="2">
+        <v>482080900</v>
+      </c>
+      <c r="E121" s="2">
+        <v>2234716400</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1456458100</v>
+      </c>
+      <c r="G121" s="3">
+        <f t="shared" si="3"/>
+        <v>57.468521595001221</v>
+      </c>
+      <c r="H121" s="3">
+        <f t="shared" si="4"/>
+        <v>266.39895439147949</v>
+      </c>
+      <c r="I121" s="3">
+        <f t="shared" si="5"/>
+        <v>173.62333536148071</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2">
+        <v>512</v>
+      </c>
+      <c r="C122" s="2">
+        <v>32</v>
+      </c>
+      <c r="D122" s="2">
+        <v>257281600</v>
+      </c>
+      <c r="E122" s="2">
+        <v>971169200</v>
+      </c>
+      <c r="F122" s="3">
+        <v>746297600</v>
+      </c>
+      <c r="G122" s="3">
+        <f t="shared" si="3"/>
+        <v>30.670356750488281</v>
+      </c>
+      <c r="H122" s="3">
+        <f t="shared" si="4"/>
+        <v>115.77239036560059</v>
+      </c>
+      <c r="I122" s="3">
+        <f t="shared" si="5"/>
+        <v>88.965606689453125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>3</v>
+      </c>
+      <c r="B123" s="2">
+        <v>512</v>
+      </c>
+      <c r="C123" s="2">
+        <v>48</v>
+      </c>
+      <c r="D123" s="2">
+        <v>244636600</v>
+      </c>
+      <c r="E123" s="2">
+        <v>957152300</v>
+      </c>
+      <c r="F123" s="3">
+        <v>707830300</v>
+      </c>
+      <c r="G123" s="3">
+        <f t="shared" si="3"/>
+        <v>19.441970189412434</v>
+      </c>
+      <c r="H123" s="3">
+        <f t="shared" si="4"/>
+        <v>76.067630449930832</v>
+      </c>
+      <c r="I123" s="3">
+        <f t="shared" si="5"/>
+        <v>56.253298123677574</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2">
+        <v>64</v>
+      </c>
+      <c r="C124" s="2">
+        <v>32</v>
+      </c>
+      <c r="D124" s="2">
+        <v>9387100</v>
+      </c>
+      <c r="E124" s="2">
+        <v>41467500</v>
+      </c>
+      <c r="F124" s="3">
+        <v>17854400</v>
+      </c>
+      <c r="G124" s="3">
+        <f t="shared" si="3"/>
+        <v>71.617889404296875</v>
+      </c>
+      <c r="H124" s="3">
+        <f t="shared" si="4"/>
+        <v>316.37191772460938</v>
+      </c>
+      <c r="I124" s="3">
+        <f t="shared" si="5"/>
+        <v>136.21826171875</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>3</v>
+      </c>
+      <c r="B125" s="2">
+        <v>160</v>
+      </c>
+      <c r="C125" s="2">
+        <v>24</v>
+      </c>
+      <c r="D125" s="2">
+        <v>44266300</v>
+      </c>
+      <c r="E125" s="2">
+        <v>173478800</v>
+      </c>
+      <c r="F125" s="3">
+        <v>124655700</v>
+      </c>
+      <c r="G125" s="3">
+        <f t="shared" si="3"/>
+        <v>72.048014322916671</v>
+      </c>
+      <c r="H125" s="3">
+        <f t="shared" si="4"/>
+        <v>282.35481770833331</v>
+      </c>
+      <c r="I125" s="3">
+        <f t="shared" si="5"/>
+        <v>202.89013671875</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2">
+        <v>160</v>
+      </c>
+      <c r="C126" s="2">
+        <v>48</v>
+      </c>
+      <c r="D126" s="2">
+        <v>29389200</v>
+      </c>
+      <c r="E126" s="2">
+        <v>89847500</v>
+      </c>
+      <c r="F126" s="3">
+        <v>64410800</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" si="3"/>
+        <v>23.9169921875</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" si="4"/>
+        <v>73.118082682291671</v>
+      </c>
+      <c r="I126" s="3">
+        <f t="shared" si="5"/>
+        <v>52.417643229166664</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2">
+        <v>512</v>
+      </c>
+      <c r="C127" s="2">
+        <v>48</v>
+      </c>
+      <c r="D127" s="2">
+        <v>250515000</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1020960800</v>
+      </c>
+      <c r="F127" s="3">
+        <v>778009600</v>
+      </c>
+      <c r="G127" s="3">
+        <f t="shared" si="3"/>
+        <v>19.909143447875977</v>
+      </c>
+      <c r="H127" s="3">
+        <f t="shared" si="4"/>
+        <v>81.138674418131515</v>
+      </c>
+      <c r="I127" s="3">
+        <f t="shared" si="5"/>
+        <v>61.830647786458336</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>5</v>
+      </c>
+      <c r="B128" s="2">
+        <v>64</v>
+      </c>
+      <c r="C128" s="2">
+        <v>24</v>
+      </c>
+      <c r="D128" s="2">
+        <v>7281700</v>
+      </c>
+      <c r="E128" s="2">
+        <v>29081500</v>
+      </c>
+      <c r="F128" s="3">
+        <v>17821400</v>
+      </c>
+      <c r="G128" s="3">
+        <f t="shared" si="3"/>
+        <v>74.073282877604171</v>
+      </c>
+      <c r="H128" s="3">
+        <f t="shared" si="4"/>
+        <v>295.83231608072919</v>
+      </c>
+      <c r="I128" s="3">
+        <f t="shared" si="5"/>
+        <v>181.28865559895834</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>5</v>
+      </c>
+      <c r="B129" s="2">
+        <v>64</v>
+      </c>
+      <c r="C129" s="2">
+        <v>48</v>
+      </c>
+      <c r="D129" s="2">
+        <v>4190600</v>
+      </c>
+      <c r="E129" s="2">
+        <v>17307800</v>
+      </c>
+      <c r="F129" s="3">
+        <v>8856300</v>
+      </c>
+      <c r="G129" s="3">
+        <f t="shared" si="3"/>
+        <v>21.314493815104168</v>
+      </c>
+      <c r="H129" s="3">
+        <f t="shared" si="4"/>
+        <v>88.032023111979171</v>
+      </c>
+      <c r="I129" s="3">
+        <f t="shared" si="5"/>
+        <v>45.04547119140625</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>3</v>
+      </c>
+      <c r="B130" s="2">
+        <v>64</v>
+      </c>
+      <c r="C130" s="2">
+        <v>48</v>
+      </c>
+      <c r="D130" s="2">
+        <v>4910100</v>
+      </c>
+      <c r="E130" s="2">
+        <v>12265000</v>
+      </c>
+      <c r="F130" s="3">
+        <v>15490500</v>
+      </c>
+      <c r="G130" s="3">
+        <f t="shared" si="3"/>
+        <v>24.97406005859375</v>
+      </c>
+      <c r="H130" s="3">
+        <f t="shared" si="4"/>
+        <v>62.383015950520836</v>
+      </c>
+      <c r="I130" s="3">
+        <f t="shared" si="5"/>
+        <v>78.78875732421875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C131" s="2">
+        <v>32</v>
+      </c>
+      <c r="D131" s="2">
+        <v>6609662600</v>
+      </c>
+      <c r="E131" s="2">
+        <v>30000666600</v>
+      </c>
+      <c r="F131" s="3">
+        <v>29240745200</v>
+      </c>
+      <c r="G131" s="3">
+        <f t="shared" ref="G131:G181" si="6">(D131/$B131^2)/$C131</f>
+        <v>91.800869444444444</v>
+      </c>
+      <c r="H131" s="3">
+        <f t="shared" ref="H131:H181" si="7">(E131/$B131^2)/$C131</f>
+        <v>416.67592500000001</v>
+      </c>
+      <c r="I131" s="3">
+        <f t="shared" ref="I131:I181" si="8">(F131/$B131^2)/$C131</f>
+        <v>406.1214611111111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>2</v>
+      </c>
+      <c r="B132" s="2">
+        <v>64</v>
+      </c>
+      <c r="C132" s="2">
+        <v>48</v>
+      </c>
+      <c r="D132" s="2">
+        <v>13727500</v>
+      </c>
+      <c r="E132" s="2">
+        <v>39550900</v>
+      </c>
+      <c r="F132" s="3">
+        <v>36567100</v>
+      </c>
+      <c r="G132" s="3">
+        <f t="shared" si="6"/>
+        <v>69.821675618489579</v>
+      </c>
+      <c r="H132" s="3">
+        <f t="shared" si="7"/>
+        <v>201.16628011067709</v>
+      </c>
+      <c r="I132" s="3">
+        <f t="shared" si="8"/>
+        <v>185.98988850911459</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>5</v>
+      </c>
+      <c r="B133" s="2">
+        <v>64</v>
+      </c>
+      <c r="C133" s="2">
+        <v>48</v>
+      </c>
+      <c r="D133" s="2">
+        <v>3912000</v>
+      </c>
+      <c r="E133" s="2">
+        <v>15207600</v>
+      </c>
+      <c r="F133" s="3">
+        <v>11146200</v>
+      </c>
+      <c r="G133" s="3">
+        <f t="shared" si="6"/>
+        <v>19.8974609375</v>
+      </c>
+      <c r="H133" s="3">
+        <f t="shared" si="7"/>
+        <v>77.349853515625</v>
+      </c>
+      <c r="I133" s="3">
+        <f t="shared" si="8"/>
+        <v>56.6925048828125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>4</v>
+      </c>
+      <c r="B134" s="2">
+        <v>64</v>
+      </c>
+      <c r="C134" s="2">
+        <v>32</v>
+      </c>
+      <c r="D134" s="2">
+        <v>11258100</v>
+      </c>
+      <c r="E134" s="2">
+        <v>37038200</v>
+      </c>
+      <c r="F134" s="3">
+        <v>41877700</v>
+      </c>
+      <c r="G134" s="3">
+        <f t="shared" si="6"/>
+        <v>85.892486572265625</v>
+      </c>
+      <c r="H134" s="3">
+        <f t="shared" si="7"/>
+        <v>282.57904052734375</v>
+      </c>
+      <c r="I134" s="3">
+        <f t="shared" si="8"/>
+        <v>319.50149536132813</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>3</v>
+      </c>
+      <c r="B135" s="2">
+        <v>160</v>
+      </c>
+      <c r="C135" s="2">
+        <v>32</v>
+      </c>
+      <c r="D135" s="2">
+        <v>28349000</v>
+      </c>
+      <c r="E135" s="2">
+        <v>91075000</v>
+      </c>
+      <c r="F135" s="3">
+        <v>98789300</v>
+      </c>
+      <c r="G135" s="3">
+        <f t="shared" si="6"/>
+        <v>34.605712890625</v>
+      </c>
+      <c r="H135" s="3">
+        <f t="shared" si="7"/>
+        <v>111.175537109375</v>
+      </c>
+      <c r="I135" s="3">
+        <f t="shared" si="8"/>
+        <v>120.5924072265625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>5</v>
+      </c>
+      <c r="B136" s="2">
+        <v>512</v>
+      </c>
+      <c r="C136" s="2">
+        <v>48</v>
+      </c>
+      <c r="D136" s="2">
+        <v>257249800</v>
+      </c>
+      <c r="E136" s="2">
+        <v>972954100</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1175643700</v>
+      </c>
+      <c r="G136" s="3">
+        <f t="shared" si="6"/>
+        <v>20.444377263387043</v>
+      </c>
+      <c r="H136" s="3">
+        <f t="shared" si="7"/>
+        <v>77.323444684346512</v>
+      </c>
+      <c r="I136" s="3">
+        <f t="shared" si="8"/>
+        <v>93.4317668279012</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>2</v>
+      </c>
+      <c r="B137" s="2">
+        <v>160</v>
+      </c>
+      <c r="C137" s="2">
+        <v>24</v>
+      </c>
+      <c r="D137" s="2">
+        <v>4604078400</v>
+      </c>
+      <c r="E137" s="2">
+        <v>400497800</v>
+      </c>
+      <c r="F137" s="3">
+        <v>543490100</v>
+      </c>
+      <c r="G137" s="3">
+        <f t="shared" si="6"/>
+        <v>7493.6171875</v>
+      </c>
+      <c r="H137" s="3">
+        <f t="shared" si="7"/>
+        <v>651.85188802083337</v>
+      </c>
+      <c r="I137" s="3">
+        <f t="shared" si="8"/>
+        <v>884.58675130208337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>1</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C138" s="2">
+        <v>48</v>
+      </c>
+      <c r="D138" s="2">
+        <v>2212253800</v>
+      </c>
+      <c r="E138" s="2">
+        <v>10066155600</v>
+      </c>
+      <c r="F138" s="3">
+        <v>9933637700</v>
+      </c>
+      <c r="G138" s="3">
+        <f t="shared" si="6"/>
+        <v>20.483831481481481</v>
+      </c>
+      <c r="H138" s="3">
+        <f t="shared" si="7"/>
+        <v>93.205144444444443</v>
+      </c>
+      <c r="I138" s="3">
+        <f t="shared" si="8"/>
+        <v>91.978126851851854</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>4</v>
+      </c>
+      <c r="B139" s="2">
+        <v>512</v>
+      </c>
+      <c r="C139" s="2">
+        <v>24</v>
+      </c>
+      <c r="D139" s="2">
+        <v>964947700</v>
+      </c>
+      <c r="E139" s="2">
+        <v>3354133700</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1712649600</v>
+      </c>
+      <c r="G139" s="3">
+        <f t="shared" si="6"/>
+        <v>153.37430636088052</v>
+      </c>
+      <c r="H139" s="3">
+        <f t="shared" si="7"/>
+        <v>533.12519391377771</v>
+      </c>
+      <c r="I139" s="3">
+        <f t="shared" si="8"/>
+        <v>272.21832275390625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>2</v>
+      </c>
+      <c r="B140" s="2">
+        <v>160</v>
+      </c>
+      <c r="C140" s="2">
+        <v>32</v>
+      </c>
+      <c r="D140" s="2">
+        <v>78510400</v>
+      </c>
+      <c r="E140" s="2">
+        <v>294642500</v>
+      </c>
+      <c r="F140" s="3">
+        <v>156857700</v>
+      </c>
+      <c r="G140" s="3">
+        <f t="shared" si="6"/>
+        <v>95.837890625</v>
+      </c>
+      <c r="H140" s="3">
+        <f t="shared" si="7"/>
+        <v>359.6710205078125</v>
+      </c>
+      <c r="I140" s="3">
+        <f t="shared" si="8"/>
+        <v>191.4766845703125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>2</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C141" s="2">
+        <v>48</v>
+      </c>
+      <c r="D141" s="2">
+        <v>6926516300</v>
+      </c>
+      <c r="E141" s="2">
+        <v>23386601500</v>
+      </c>
+      <c r="F141" s="3">
+        <v>16292910500</v>
+      </c>
+      <c r="G141" s="3">
+        <f t="shared" si="6"/>
+        <v>64.134410185185189</v>
+      </c>
+      <c r="H141" s="3">
+        <f t="shared" si="7"/>
+        <v>216.54260648148147</v>
+      </c>
+      <c r="I141" s="3">
+        <f t="shared" si="8"/>
+        <v>150.86028240740742</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>2</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C142" s="2">
+        <v>24</v>
+      </c>
+      <c r="D142" s="2">
+        <v>12240720300</v>
+      </c>
+      <c r="E142" s="2">
+        <v>34452043100</v>
+      </c>
+      <c r="F142" s="3">
+        <v>24034848800</v>
+      </c>
+      <c r="G142" s="3">
+        <f t="shared" si="6"/>
+        <v>226.68000555555557</v>
+      </c>
+      <c r="H142" s="3">
+        <f t="shared" si="7"/>
+        <v>638.00079814814819</v>
+      </c>
+      <c r="I142" s="3">
+        <f t="shared" si="8"/>
+        <v>445.08979259259263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>1</v>
+      </c>
+      <c r="B143" s="2">
+        <v>512</v>
+      </c>
+      <c r="C143" s="2">
+        <v>48</v>
+      </c>
+      <c r="D143" s="2">
+        <v>261301300</v>
+      </c>
+      <c r="E143" s="2">
+        <v>878379700</v>
+      </c>
+      <c r="F143" s="3">
+        <v>662199400</v>
+      </c>
+      <c r="G143" s="3">
+        <f t="shared" si="6"/>
+        <v>20.766361554463703</v>
+      </c>
+      <c r="H143" s="3">
+        <f t="shared" si="7"/>
+        <v>69.807346661885575</v>
+      </c>
+      <c r="I143" s="3">
+        <f t="shared" si="8"/>
+        <v>52.626880009969078</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>5</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C144" s="2">
+        <v>24</v>
+      </c>
+      <c r="D144" s="2">
+        <v>4083432200</v>
+      </c>
+      <c r="E144" s="2">
+        <v>10798419600</v>
+      </c>
+      <c r="F144" s="3">
+        <v>7812118900</v>
+      </c>
+      <c r="G144" s="3">
+        <f t="shared" si="6"/>
+        <v>75.619114814814807</v>
+      </c>
+      <c r="H144" s="3">
+        <f t="shared" si="7"/>
+        <v>199.97073333333333</v>
+      </c>
+      <c r="I144" s="3">
+        <f t="shared" si="8"/>
+        <v>144.66886851851851</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>3</v>
+      </c>
+      <c r="B145" s="2">
+        <v>64</v>
+      </c>
+      <c r="C145" s="2">
+        <v>24</v>
+      </c>
+      <c r="D145" s="2">
+        <v>9296500</v>
+      </c>
+      <c r="E145" s="2">
+        <v>17487300</v>
+      </c>
+      <c r="F145" s="3">
+        <v>12177700</v>
+      </c>
+      <c r="G145" s="3">
+        <f t="shared" si="6"/>
+        <v>94.568888346354171</v>
+      </c>
+      <c r="H145" s="3">
+        <f t="shared" si="7"/>
+        <v>177.8900146484375</v>
+      </c>
+      <c r="I145" s="3">
+        <f t="shared" si="8"/>
+        <v>123.87797037760417</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>2</v>
+      </c>
+      <c r="B146" s="2">
+        <v>160</v>
+      </c>
+      <c r="C146" s="2">
+        <v>32</v>
+      </c>
+      <c r="D146" s="2">
+        <v>81952900</v>
+      </c>
+      <c r="E146" s="2">
+        <v>251694900</v>
+      </c>
+      <c r="F146" s="3">
+        <v>154654300</v>
+      </c>
+      <c r="G146" s="3">
+        <f t="shared" si="6"/>
+        <v>100.0401611328125</v>
+      </c>
+      <c r="H146" s="3">
+        <f t="shared" si="7"/>
+        <v>307.2447509765625</v>
+      </c>
+      <c r="I146" s="3">
+        <f t="shared" si="8"/>
+        <v>188.7869873046875</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>4</v>
+      </c>
+      <c r="B147" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C147" s="2">
+        <v>32</v>
+      </c>
+      <c r="D147" s="2">
+        <v>4658367100</v>
+      </c>
+      <c r="E147" s="2">
+        <v>15222119500</v>
+      </c>
+      <c r="F147" s="3">
+        <v>10765993800</v>
+      </c>
+      <c r="G147" s="3">
+        <f t="shared" si="6"/>
+        <v>64.699543055555552</v>
+      </c>
+      <c r="H147" s="3">
+        <f t="shared" si="7"/>
+        <v>211.41832638888889</v>
+      </c>
+      <c r="I147" s="3">
+        <f t="shared" si="8"/>
+        <v>149.52769166666667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>2</v>
+      </c>
+      <c r="B148" s="2">
+        <v>160</v>
+      </c>
+      <c r="C148" s="2">
+        <v>24</v>
+      </c>
+      <c r="D148" s="2">
+        <v>140805200</v>
+      </c>
+      <c r="E148" s="2">
+        <v>382778700</v>
+      </c>
+      <c r="F148" s="3">
+        <v>284853600</v>
+      </c>
+      <c r="G148" s="3">
+        <f t="shared" si="6"/>
+        <v>229.17513020833334</v>
+      </c>
+      <c r="H148" s="3">
+        <f t="shared" si="7"/>
+        <v>623.01220703125</v>
+      </c>
+      <c r="I148" s="3">
+        <f t="shared" si="8"/>
+        <v>463.62890625</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>4</v>
+      </c>
+      <c r="B149" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C149" s="2">
+        <v>24</v>
+      </c>
+      <c r="D149" s="2">
+        <v>8273470300</v>
+      </c>
+      <c r="E149" s="2">
+        <v>22357065100</v>
+      </c>
+      <c r="F149" s="3">
+        <v>15848579700</v>
+      </c>
+      <c r="G149" s="3">
+        <f t="shared" si="6"/>
+        <v>153.21241296296296</v>
+      </c>
+      <c r="H149" s="3">
+        <f t="shared" si="7"/>
+        <v>414.01972407407408</v>
+      </c>
+      <c r="I149" s="3">
+        <f t="shared" si="8"/>
+        <v>293.49221666666665</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>1</v>
+      </c>
+      <c r="B150" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C150" s="2">
+        <v>32</v>
+      </c>
+      <c r="D150" s="2">
+        <v>2264619600</v>
+      </c>
+      <c r="E150" s="2">
+        <v>7551793000</v>
+      </c>
+      <c r="F150" s="3">
+        <v>5507264200</v>
+      </c>
+      <c r="G150" s="3">
+        <f t="shared" si="6"/>
+        <v>31.453050000000001</v>
+      </c>
+      <c r="H150" s="3">
+        <f t="shared" si="7"/>
+        <v>104.88601388888888</v>
+      </c>
+      <c r="I150" s="3">
+        <f t="shared" si="8"/>
+        <v>76.489780555555555</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>3</v>
+      </c>
+      <c r="B151" s="2">
+        <v>64</v>
+      </c>
+      <c r="C151" s="2">
+        <v>24</v>
+      </c>
+      <c r="D151" s="2">
+        <v>6410600</v>
+      </c>
+      <c r="E151" s="2">
+        <v>18917400</v>
+      </c>
+      <c r="F151" s="3">
+        <v>22806000</v>
+      </c>
+      <c r="G151" s="3">
+        <f t="shared" si="6"/>
+        <v>65.211995442708329</v>
+      </c>
+      <c r="H151" s="3">
+        <f t="shared" si="7"/>
+        <v>192.437744140625</v>
+      </c>
+      <c r="I151" s="3">
+        <f t="shared" si="8"/>
+        <v>231.99462890625</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>2</v>
+      </c>
+      <c r="B152" s="2">
+        <v>64</v>
+      </c>
+      <c r="C152" s="2">
+        <v>32</v>
+      </c>
+      <c r="D152" s="2">
+        <v>13546700</v>
+      </c>
+      <c r="E152" s="2">
+        <v>35085300</v>
+      </c>
+      <c r="F152" s="3">
+        <v>27661600</v>
+      </c>
+      <c r="G152" s="3">
+        <f t="shared" si="6"/>
+        <v>103.35311889648438</v>
+      </c>
+      <c r="H152" s="3">
+        <f t="shared" si="7"/>
+        <v>267.67959594726563</v>
+      </c>
+      <c r="I152" s="3">
+        <f t="shared" si="8"/>
+        <v>211.041259765625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>3</v>
+      </c>
+      <c r="B153" s="2">
+        <v>512</v>
+      </c>
+      <c r="C153" s="2">
+        <v>24</v>
+      </c>
+      <c r="D153" s="2">
+        <v>443947500</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1247567100</v>
+      </c>
+      <c r="F153" s="3">
+        <v>881004600</v>
+      </c>
+      <c r="G153" s="3">
+        <f t="shared" si="6"/>
+        <v>70.563554763793945</v>
+      </c>
+      <c r="H153" s="3">
+        <f t="shared" si="7"/>
+        <v>198.29545021057129</v>
+      </c>
+      <c r="I153" s="3">
+        <f t="shared" si="8"/>
+        <v>140.03190994262695</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>3</v>
+      </c>
+      <c r="B154" s="2">
+        <v>512</v>
+      </c>
+      <c r="C154" s="2">
+        <v>32</v>
+      </c>
+      <c r="D154" s="2">
+        <v>251340500</v>
+      </c>
+      <c r="E154" s="2">
+        <v>837990500</v>
+      </c>
+      <c r="F154" s="3">
+        <v>548534200</v>
+      </c>
+      <c r="G154" s="3">
+        <f t="shared" si="6"/>
+        <v>29.962122440338135</v>
+      </c>
+      <c r="H154" s="3">
+        <f t="shared" si="7"/>
+        <v>99.896252155303955</v>
+      </c>
+      <c r="I154" s="3">
+        <f t="shared" si="8"/>
+        <v>65.390372276306152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>2</v>
+      </c>
+      <c r="B155" s="2">
+        <v>512</v>
+      </c>
+      <c r="C155" s="2">
+        <v>48</v>
+      </c>
+      <c r="D155" s="2">
+        <v>819184700</v>
+      </c>
+      <c r="E155" s="2">
+        <v>2573191300</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1787065700</v>
+      </c>
+      <c r="G155" s="3">
+        <f t="shared" si="6"/>
+        <v>65.102950731913253</v>
+      </c>
+      <c r="H155" s="3">
+        <f t="shared" si="7"/>
+        <v>204.49887116750082</v>
+      </c>
+      <c r="I155" s="3">
+        <f t="shared" si="8"/>
+        <v>142.02322165171304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>4</v>
+      </c>
+      <c r="B156" s="2">
+        <v>160</v>
+      </c>
+      <c r="C156" s="2">
+        <v>32</v>
+      </c>
+      <c r="D156" s="2">
+        <v>52311900</v>
+      </c>
+      <c r="E156" s="2">
+        <v>157950500</v>
+      </c>
+      <c r="F156" s="3">
+        <v>132774000</v>
+      </c>
+      <c r="G156" s="3">
+        <f t="shared" si="6"/>
+        <v>63.8572998046875</v>
+      </c>
+      <c r="H156" s="3">
+        <f t="shared" si="7"/>
+        <v>192.8106689453125</v>
+      </c>
+      <c r="I156" s="3">
+        <f t="shared" si="8"/>
+        <v>162.07763671875</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>4</v>
+      </c>
+      <c r="B157" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C157" s="2">
+        <v>32</v>
+      </c>
+      <c r="D157" s="2">
+        <v>4433747900</v>
+      </c>
+      <c r="E157" s="2">
+        <v>15213818500</v>
+      </c>
+      <c r="F157" s="3">
+        <v>10916573200</v>
+      </c>
+      <c r="G157" s="3">
+        <f t="shared" si="6"/>
+        <v>61.579831944444443</v>
+      </c>
+      <c r="H157" s="3">
+        <f t="shared" si="7"/>
+        <v>211.30303472222224</v>
+      </c>
+      <c r="I157" s="3">
+        <f t="shared" si="8"/>
+        <v>151.61907222222223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>1</v>
+      </c>
+      <c r="B158" s="2">
+        <v>512</v>
+      </c>
+      <c r="C158" s="2">
+        <v>48</v>
+      </c>
+      <c r="D158" s="2">
+        <v>258448400</v>
+      </c>
+      <c r="E158" s="2">
+        <v>830073900</v>
+      </c>
+      <c r="F158" s="3">
+        <v>633195300</v>
+      </c>
+      <c r="G158" s="3">
+        <f t="shared" si="6"/>
+        <v>20.53963343302409</v>
+      </c>
+      <c r="H158" s="3">
+        <f t="shared" si="7"/>
+        <v>65.96834659576416</v>
+      </c>
+      <c r="I158" s="3">
+        <f t="shared" si="8"/>
+        <v>50.321841239929199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>2</v>
+      </c>
+      <c r="B159" s="2">
+        <v>512</v>
+      </c>
+      <c r="C159" s="2">
+        <v>48</v>
+      </c>
+      <c r="D159" s="2">
+        <v>783717400</v>
+      </c>
+      <c r="E159" s="2">
+        <v>2598646600</v>
+      </c>
+      <c r="F159" s="3">
+        <v>1820277400</v>
+      </c>
+      <c r="G159" s="3">
+        <f t="shared" si="6"/>
+        <v>62.284262975056969</v>
+      </c>
+      <c r="H159" s="3">
+        <f t="shared" si="7"/>
+        <v>206.52187665303549</v>
+      </c>
+      <c r="I159" s="3">
+        <f t="shared" si="8"/>
+        <v>144.66265042622885</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>3</v>
+      </c>
+      <c r="B160" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C160" s="2">
+        <v>24</v>
+      </c>
+      <c r="D160" s="2">
+        <v>3840259000</v>
+      </c>
+      <c r="E160" s="2">
+        <v>10601605400</v>
+      </c>
+      <c r="F160" s="3">
+        <v>7447008800</v>
+      </c>
+      <c r="G160" s="3">
+        <f t="shared" si="6"/>
+        <v>71.115907407407406</v>
+      </c>
+      <c r="H160" s="3">
+        <f t="shared" si="7"/>
+        <v>196.32602592592593</v>
+      </c>
+      <c r="I160" s="3">
+        <f t="shared" si="8"/>
+        <v>137.90757037037037</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>5</v>
+      </c>
+      <c r="B161" s="2">
+        <v>64</v>
+      </c>
+      <c r="C161" s="2">
+        <v>32</v>
+      </c>
+      <c r="D161" s="2">
+        <v>5181000</v>
+      </c>
+      <c r="E161" s="2">
+        <v>12215200</v>
+      </c>
+      <c r="F161" s="3">
+        <v>9759100</v>
+      </c>
+      <c r="G161" s="3">
+        <f t="shared" si="6"/>
+        <v>39.52789306640625</v>
+      </c>
+      <c r="H161" s="3">
+        <f t="shared" si="7"/>
+        <v>93.194580078125</v>
+      </c>
+      <c r="I161" s="3">
+        <f t="shared" si="8"/>
+        <v>74.456024169921875</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>3</v>
+      </c>
+      <c r="B162" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C162" s="2">
+        <v>32</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2298352900</v>
+      </c>
+      <c r="E162" s="2">
+        <v>7112769700</v>
+      </c>
+      <c r="F162" s="3">
+        <v>4998511300</v>
+      </c>
+      <c r="G162" s="3">
+        <f t="shared" si="6"/>
+        <v>31.921568055555557</v>
+      </c>
+      <c r="H162" s="3">
+        <f t="shared" si="7"/>
+        <v>98.788468055555555</v>
+      </c>
+      <c r="I162" s="3">
+        <f t="shared" si="8"/>
+        <v>69.423768055555556</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>3</v>
+      </c>
+      <c r="B163" s="2">
+        <v>64</v>
+      </c>
+      <c r="C163" s="2">
+        <v>48</v>
+      </c>
+      <c r="D163" s="2">
+        <v>4397800</v>
+      </c>
+      <c r="E163" s="2">
+        <v>13883800</v>
+      </c>
+      <c r="F163" s="3">
+        <v>7863700</v>
+      </c>
+      <c r="G163" s="3">
+        <f t="shared" si="6"/>
+        <v>22.368367513020832</v>
+      </c>
+      <c r="H163" s="3">
+        <f t="shared" si="7"/>
+        <v>70.616658528645829</v>
+      </c>
+      <c r="I163" s="3">
+        <f t="shared" si="8"/>
+        <v>39.996846516927086</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>3</v>
+      </c>
+      <c r="B164" s="2">
+        <v>64</v>
+      </c>
+      <c r="C164" s="2">
+        <v>24</v>
+      </c>
+      <c r="D164" s="2">
+        <v>7842900</v>
+      </c>
+      <c r="E164" s="2">
+        <v>26149900</v>
+      </c>
+      <c r="F164" s="3">
+        <v>12104300</v>
+      </c>
+      <c r="G164" s="3">
+        <f t="shared" si="6"/>
+        <v>79.7821044921875</v>
+      </c>
+      <c r="H164" s="3">
+        <f t="shared" si="7"/>
+        <v>266.01053873697919</v>
+      </c>
+      <c r="I164" s="3">
+        <f t="shared" si="8"/>
+        <v>123.13130696614583</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>4</v>
+      </c>
+      <c r="B165" s="2">
+        <v>160</v>
+      </c>
+      <c r="C165" s="2">
+        <v>24</v>
+      </c>
+      <c r="D165" s="2">
+        <v>97217500</v>
+      </c>
+      <c r="E165" s="2">
+        <v>247592900</v>
+      </c>
+      <c r="F165" s="3">
+        <v>165304800</v>
+      </c>
+      <c r="G165" s="3">
+        <f t="shared" si="6"/>
+        <v>158.23160807291666</v>
+      </c>
+      <c r="H165" s="3">
+        <f t="shared" si="7"/>
+        <v>402.98323567708331</v>
+      </c>
+      <c r="I165" s="3">
+        <f t="shared" si="8"/>
+        <v>269.05078125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>1</v>
+      </c>
+      <c r="B166" s="2">
+        <v>160</v>
+      </c>
+      <c r="C166" s="2">
+        <v>24</v>
+      </c>
+      <c r="D166" s="2">
+        <v>39579800</v>
+      </c>
+      <c r="E166" s="2">
+        <v>115549900</v>
+      </c>
+      <c r="F166" s="3">
+        <v>101127900</v>
+      </c>
+      <c r="G166" s="3">
+        <f t="shared" si="6"/>
+        <v>64.420247395833329</v>
+      </c>
+      <c r="H166" s="3">
+        <f t="shared" si="7"/>
+        <v>188.06949869791666</v>
+      </c>
+      <c r="I166" s="3">
+        <f t="shared" si="8"/>
+        <v>164.59619140625</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>1</v>
+      </c>
+      <c r="B167" s="2">
+        <v>160</v>
+      </c>
+      <c r="C167" s="2">
+        <v>24</v>
+      </c>
+      <c r="D167" s="2">
+        <v>46155200</v>
+      </c>
+      <c r="E167" s="2">
+        <v>134721900</v>
+      </c>
+      <c r="F167" s="3">
+        <v>144879600</v>
+      </c>
+      <c r="G167" s="3">
+        <f t="shared" si="6"/>
+        <v>75.122395833333329</v>
+      </c>
+      <c r="H167" s="3">
+        <f t="shared" si="7"/>
+        <v>219.27392578125</v>
+      </c>
+      <c r="I167" s="3">
+        <f t="shared" si="8"/>
+        <v>235.806640625</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>3</v>
+      </c>
+      <c r="B168" s="2">
+        <v>512</v>
+      </c>
+      <c r="C168" s="2">
+        <v>32</v>
+      </c>
+      <c r="D168" s="2">
+        <v>257502700</v>
+      </c>
+      <c r="E168" s="2">
+        <v>822018000</v>
+      </c>
+      <c r="F168" s="3">
+        <v>589845100</v>
+      </c>
+      <c r="G168" s="3">
+        <f t="shared" si="6"/>
+        <v>30.696713924407959</v>
+      </c>
+      <c r="H168" s="3">
+        <f t="shared" si="7"/>
+        <v>97.992181777954102</v>
+      </c>
+      <c r="I168" s="3">
+        <f t="shared" si="8"/>
+        <v>70.315015316009521</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>1</v>
+      </c>
+      <c r="B169" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C169" s="2">
+        <v>48</v>
+      </c>
+      <c r="D169" s="2">
+        <v>2156160500</v>
+      </c>
+      <c r="E169" s="2">
+        <v>7707345600</v>
+      </c>
+      <c r="F169" s="3">
+        <v>5453824900</v>
+      </c>
+      <c r="G169" s="3">
+        <f t="shared" si="6"/>
+        <v>19.964449074074075</v>
+      </c>
+      <c r="H169" s="3">
+        <f t="shared" si="7"/>
+        <v>71.364311111111107</v>
+      </c>
+      <c r="I169" s="3">
+        <f t="shared" si="8"/>
+        <v>50.498378703703708</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>1</v>
+      </c>
+      <c r="B170" s="2">
+        <v>160</v>
+      </c>
+      <c r="C170" s="2">
+        <v>24</v>
+      </c>
+      <c r="D170" s="2">
+        <v>43797200</v>
+      </c>
+      <c r="E170" s="2">
+        <v>111211800</v>
+      </c>
+      <c r="F170" s="3">
+        <v>85630800</v>
+      </c>
+      <c r="G170" s="3">
+        <f t="shared" si="6"/>
+        <v>71.284505208333329</v>
+      </c>
+      <c r="H170" s="3">
+        <f t="shared" si="7"/>
+        <v>181.0087890625</v>
+      </c>
+      <c r="I170" s="3">
+        <f t="shared" si="8"/>
+        <v>139.373046875</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>2</v>
+      </c>
+      <c r="B171" s="2">
+        <v>64</v>
+      </c>
+      <c r="C171" s="2">
+        <v>24</v>
+      </c>
+      <c r="D171" s="2">
+        <v>19338800</v>
+      </c>
+      <c r="E171" s="2">
+        <v>73977900</v>
+      </c>
+      <c r="F171" s="3">
+        <v>39244200</v>
+      </c>
+      <c r="G171" s="3">
+        <f t="shared" si="6"/>
+        <v>196.72444661458334</v>
+      </c>
+      <c r="H171" s="3">
+        <f t="shared" si="7"/>
+        <v>752.5421142578125</v>
+      </c>
+      <c r="I171" s="3">
+        <f t="shared" si="8"/>
+        <v>399.212646484375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>3</v>
+      </c>
+      <c r="B172" s="2">
+        <v>64</v>
+      </c>
+      <c r="C172" s="2">
+        <v>32</v>
+      </c>
+      <c r="D172" s="2">
+        <v>4376900</v>
+      </c>
+      <c r="E172" s="2">
+        <v>15215600</v>
+      </c>
+      <c r="F172" s="3">
+        <v>7492700</v>
+      </c>
+      <c r="G172" s="3">
+        <f t="shared" si="6"/>
+        <v>33.393096923828125</v>
+      </c>
+      <c r="H172" s="3">
+        <f t="shared" si="7"/>
+        <v>116.0858154296875</v>
+      </c>
+      <c r="I172" s="3">
+        <f t="shared" si="8"/>
+        <v>57.164764404296875</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>3</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C173" s="2">
+        <v>48</v>
+      </c>
+      <c r="D173" s="2">
+        <v>2101646400</v>
+      </c>
+      <c r="E173" s="2">
+        <v>7110485600</v>
+      </c>
+      <c r="F173" s="3">
+        <v>4893098700</v>
+      </c>
+      <c r="G173" s="3">
+        <f t="shared" si="6"/>
+        <v>19.459688888888888</v>
+      </c>
+      <c r="H173" s="3">
+        <f t="shared" si="7"/>
+        <v>65.837829629629638</v>
+      </c>
+      <c r="I173" s="3">
+        <f t="shared" si="8"/>
+        <v>45.306469444444446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>2</v>
+      </c>
+      <c r="B174" s="2">
+        <v>512</v>
+      </c>
+      <c r="C174" s="2">
+        <v>32</v>
+      </c>
+      <c r="D174" s="2">
+        <v>740410900</v>
+      </c>
+      <c r="E174" s="2">
+        <v>2595172900</v>
+      </c>
+      <c r="F174" s="3">
+        <v>1805953900</v>
+      </c>
+      <c r="G174" s="3">
+        <f t="shared" si="6"/>
+        <v>88.263857364654541</v>
+      </c>
+      <c r="H174" s="3">
+        <f t="shared" si="7"/>
+        <v>309.36871767044067</v>
+      </c>
+      <c r="I174" s="3">
+        <f t="shared" si="8"/>
+        <v>215.28648138046265</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>3</v>
+      </c>
+      <c r="B175" s="2">
+        <v>160</v>
+      </c>
+      <c r="C175" s="2">
+        <v>24</v>
+      </c>
+      <c r="D175" s="2">
+        <v>49451700</v>
+      </c>
+      <c r="E175" s="2">
+        <v>107595600</v>
+      </c>
+      <c r="F175" s="3">
+        <v>802959900</v>
+      </c>
+      <c r="G175" s="3">
+        <f t="shared" si="6"/>
+        <v>80.48779296875</v>
+      </c>
+      <c r="H175" s="3">
+        <f t="shared" si="7"/>
+        <v>175.123046875</v>
+      </c>
+      <c r="I175" s="3">
+        <f t="shared" si="8"/>
+        <v>1306.90087890625</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>1</v>
+      </c>
+      <c r="B176" s="2">
+        <v>512</v>
+      </c>
+      <c r="C176" s="2">
+        <v>32</v>
+      </c>
+      <c r="D176" s="2">
+        <v>250404400</v>
+      </c>
+      <c r="E176" s="2">
+        <v>869652100</v>
+      </c>
+      <c r="F176" s="3">
+        <v>612032800</v>
+      </c>
+      <c r="G176" s="3">
+        <f t="shared" si="6"/>
+        <v>29.850530624389648</v>
+      </c>
+      <c r="H176" s="3">
+        <f t="shared" si="7"/>
+        <v>103.67060899734497</v>
+      </c>
+      <c r="I176" s="3">
+        <f t="shared" si="8"/>
+        <v>72.959995269775391</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>5</v>
+      </c>
+      <c r="B177" s="2">
+        <v>160</v>
+      </c>
+      <c r="C177" s="2">
+        <v>24</v>
+      </c>
+      <c r="D177" s="2">
+        <v>44131300</v>
+      </c>
+      <c r="E177" s="2">
+        <v>135975200</v>
+      </c>
+      <c r="F177" s="3">
+        <v>78707800</v>
+      </c>
+      <c r="G177" s="3">
+        <f t="shared" si="6"/>
+        <v>71.828287760416671</v>
+      </c>
+      <c r="H177" s="3">
+        <f t="shared" si="7"/>
+        <v>221.31380208333334</v>
+      </c>
+      <c r="I177" s="3">
+        <f t="shared" si="8"/>
+        <v>128.10514322916666</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>1</v>
+      </c>
+      <c r="B178" s="2">
+        <v>160</v>
+      </c>
+      <c r="C178" s="2">
+        <v>48</v>
+      </c>
+      <c r="D178" s="2">
+        <v>32538700</v>
+      </c>
+      <c r="E178" s="2">
+        <v>81714700</v>
+      </c>
+      <c r="F178" s="3">
+        <v>53315500</v>
+      </c>
+      <c r="G178" s="3">
+        <f t="shared" si="6"/>
+        <v>26.480061848958332</v>
+      </c>
+      <c r="H178" s="3">
+        <f t="shared" si="7"/>
+        <v>66.499593098958329</v>
+      </c>
+      <c r="I178" s="3">
+        <f t="shared" si="8"/>
+        <v>43.388264973958336</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>4</v>
+      </c>
+      <c r="B179" s="2">
+        <v>64</v>
+      </c>
+      <c r="C179" s="2">
+        <v>24</v>
+      </c>
+      <c r="D179" s="2">
+        <v>17497100</v>
+      </c>
+      <c r="E179" s="2">
+        <v>47820100</v>
+      </c>
+      <c r="F179" s="3">
+        <v>29063700</v>
+      </c>
+      <c r="G179" s="3">
+        <f t="shared" si="6"/>
+        <v>177.98970540364584</v>
+      </c>
+      <c r="H179" s="3">
+        <f t="shared" si="7"/>
+        <v>486.45121256510419</v>
+      </c>
+      <c r="I179" s="3">
+        <f t="shared" si="8"/>
+        <v>295.6512451171875</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>1</v>
+      </c>
+      <c r="B180" s="2">
+        <v>512</v>
+      </c>
+      <c r="C180" s="2">
+        <v>24</v>
+      </c>
+      <c r="D180" s="2">
+        <v>443663900</v>
+      </c>
+      <c r="E180" s="2">
+        <v>1567390600</v>
+      </c>
+      <c r="F180" s="3">
+        <v>925713900</v>
+      </c>
+      <c r="G180" s="3">
+        <f t="shared" si="6"/>
+        <v>70.518477757771805</v>
+      </c>
+      <c r="H180" s="3">
+        <f t="shared" si="7"/>
+        <v>249.13002649943033</v>
+      </c>
+      <c r="I180" s="3">
+        <f t="shared" si="8"/>
+        <v>147.13826179504395</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>3</v>
+      </c>
+      <c r="B181" s="2">
+        <v>160</v>
+      </c>
+      <c r="C181" s="2">
+        <v>32</v>
+      </c>
+      <c r="D181" s="2">
+        <v>24045800</v>
+      </c>
+      <c r="E181" s="2">
+        <v>113644300</v>
+      </c>
+      <c r="F181" s="3">
+        <v>56200800</v>
+      </c>
+      <c r="G181" s="3">
+        <f t="shared" si="6"/>
+        <v>29.352783203125</v>
+      </c>
+      <c r="H181" s="3">
+        <f t="shared" si="7"/>
+        <v>138.7259521484375</v>
+      </c>
+      <c r="I181" s="3">
+        <f t="shared" si="8"/>
+        <v>68.6044921875</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B20025-5C30-4AC0-88AD-D2DD7321B898}">
+  <dimension ref="A1:J181"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2:I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,16 +6341,16 @@
         <v>873823200</v>
       </c>
       <c r="G2" s="3">
-        <f>(D2/$B2^2)/$C2</f>
-        <v>94.130182266235352</v>
+        <f>D2/D2</f>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
-        <f>(E2/$B2^2)/$C2</f>
-        <v>352.41440137227374</v>
+        <f>E2/D2</f>
+        <v>3.7439043767652977</v>
       </c>
       <c r="I2" s="3">
-        <f>(F2/$B2^2)/$C2</f>
-        <v>138.89045715332031</v>
+        <f>F2/D2</f>
+        <v>1.4755145885140875</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -559,16 +6373,16 @@
         <v>15419517400</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G66" si="0">(D3/$B3^2)/$C3</f>
-        <v>142.20817037037037</v>
+        <f t="shared" ref="G3:G66" si="0">D3/D3</f>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H66" si="1">(E3/$B3^2)/$C3</f>
-        <v>597.24934999999994</v>
+        <f t="shared" ref="H3:H66" si="1">E3/D3</f>
+        <v>4.1998244435921608</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I66" si="2">(F3/$B3^2)/$C3</f>
-        <v>285.54661851851853</v>
+        <f t="shared" ref="I3:I66" si="2">F3/D3</f>
+        <v>2.0079480509089884</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -592,15 +6406,15 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>37.4619140625</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>208.78125</v>
+        <v>5.5731602408696332</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="2"/>
-        <v>83.25830078125</v>
+        <v>2.2224785589531035</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -624,15 +6438,15 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>59.210030555555555</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>326.30329305555557</v>
+        <v>5.5109462027619101</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="2"/>
-        <v>153.96249444444445</v>
+        <v>2.6002772334323421</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -656,15 +6470,15 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>67.398579915364579</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>312.38911946614581</v>
+        <v>4.634951060666662</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="2"/>
-        <v>114.31986490885417</v>
+        <v>1.6961761665069315</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -688,15 +6502,15 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>22.74169921875</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>96.7041015625</v>
+        <v>4.2522812667740206</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="2"/>
-        <v>45.562744140625</v>
+        <v>2.0034889962426194</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -720,15 +6534,15 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>49.3194580078125</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>211.474609375</v>
+        <v>4.287853474413712</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="2"/>
-        <v>78.992207845052079</v>
+        <v>1.6016438751727409</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -752,15 +6566,15 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>66.526529947916671</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>285.09293619791669</v>
+        <v>4.2854021759606988</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="2"/>
-        <v>152.86669921875</v>
+        <v>2.2978306449837183</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -784,15 +6598,15 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>77.410319010416671</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>282.955078125</v>
+        <v>3.6552630417002203</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="2"/>
-        <v>152.09879557291666</v>
+        <v>1.9648387646154719</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -816,15 +6630,15 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>20.382650693257649</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>102.06754207611084</v>
+        <v>5.0075696047655684</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="2"/>
-        <v>43.204363187154136</v>
+        <v>2.1196636216429714</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -848,15 +6662,15 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>75.426479629629625</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>290.23698148148145</v>
+        <v>3.8479454815688929</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>143.80411481481482</v>
+        <v>1.9065468191137021</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -880,15 +6694,15 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>32.848675</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>156.90347222222223</v>
+        <v>4.7765540686868562</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
-        <v>73.159884722222216</v>
+        <v>2.2271791700037284</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -912,15 +6726,15 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>34.252708333333331</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>152.88553333333334</v>
+        <v>4.4634582423530986</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
-        <v>66.082752777777785</v>
+        <v>1.9292708808508654</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -944,15 +6758,15 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>85.416666666666671</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>255.86140950520834</v>
+        <v>2.9954506478658538</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="2"/>
-        <v>128.680419921875</v>
+        <v>1.5065024771341464</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -976,15 +6790,15 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>65.059149265289307</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>313.68926763534546</v>
+        <v>4.8216011303225965</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="2"/>
-        <v>139.94719982147217</v>
+        <v>2.1510763882081303</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1008,15 +6822,15 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>42.326297222222223</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>227.95226388888889</v>
+        <v>5.3855942723288592</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="2"/>
-        <v>97.196428703703702</v>
+        <v>2.2963603027546071</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1040,15 +6854,15 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>32.50098333333333</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>159.19990555555555</v>
+        <v>4.8983104271887843</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
-        <v>69.388765277777779</v>
+        <v>2.134974334964566</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1072,15 +6886,15 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>20.683933333333332</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>104.74131296296297</v>
+        <v>5.0638972421249484</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="2"/>
-        <v>46.553258333333332</v>
+        <v>2.2506965954251124</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1104,15 +6918,15 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>62.754905104637146</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>311.15256547927856</v>
+        <v>4.9582190421683325</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="2"/>
-        <v>141.2900447845459</v>
+        <v>2.2514581856025395</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,15 +6950,15 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>149.97793888888887</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>582.2469055555556</v>
+        <v>3.8822170105092124</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="2"/>
-        <v>286.78293518518518</v>
+        <v>1.9121674648272653</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1168,15 +6982,15 @@
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>84.069712956746415</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>288.81278038024902</v>
+        <v>3.4353962946066225</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="2"/>
-        <v>134.43737030029297</v>
+        <v>1.5991177508773051</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,15 +7014,15 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>54.180419921875</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>214.12703450520834</v>
+        <v>3.9521110174850436</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="2"/>
-        <v>86.342610677083329</v>
+        <v>1.593612799634708</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1232,15 +7046,15 @@
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>29.585042317708332</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>205.41935221354166</v>
+        <v>6.9433516439686311</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="2"/>
-        <v>46.390299479166664</v>
+        <v>1.5680322164487637</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1264,15 +7078,15 @@
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>24.890613555908203</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="1"/>
-        <v>175.71330865224203</v>
+        <v>7.0594205425094287</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="2"/>
-        <v>46.305243174235024</v>
+        <v>1.8603496081053295</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1296,15 +7110,15 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
-        <v>136.46036783854166</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="1"/>
-        <v>661.06465657552087</v>
+        <v>4.8443710583990578</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="2"/>
-        <v>308.282470703125</v>
+        <v>2.2591355687087202</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1328,15 +7142,15 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
-        <v>38.715672222222224</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>184.91594583333332</v>
+        <v>4.7762555890013534</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="2"/>
-        <v>73.221525</v>
+        <v>1.8912631706281451</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1360,15 +7174,15 @@
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
-        <v>32.496309280395508</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="1"/>
-        <v>174.51045513153076</v>
+        <v>5.370162304456219</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="2"/>
-        <v>73.179090023040771</v>
+        <v>2.2519200377991391</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1392,15 +7206,15 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>65.364664713541671</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>333.97688802083331</v>
+        <v>5.1094408497997392</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="2"/>
-        <v>141.57340494791666</v>
+        <v>2.1659011878720271</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1424,15 +7238,15 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
-        <v>73.014124074074076</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="1"/>
-        <v>325.08547592592589</v>
+        <v>4.4523642521017051</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="2"/>
-        <v>145.64381111111112</v>
+        <v>1.9947347579401622</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1456,15 +7270,15 @@
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
-        <v>57.87200927734375</v>
+        <v>1</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="1"/>
-        <v>292.67832438151044</v>
+        <v>5.057338219913694</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="2"/>
-        <v>116.0064697265625</v>
+        <v>2.004535027816595</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1488,15 +7302,15 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>31.068318055555554</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="1"/>
-        <v>172.46107361111112</v>
+        <v>5.5510270399163781</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="2"/>
-        <v>66.873654166666668</v>
+        <v>2.1524710171656203</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1520,15 +7334,15 @@
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>27.011871337890625</v>
+        <v>1</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>178.72238159179688</v>
+        <v>6.6164383561643838</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="2"/>
-        <v>75.274658203125</v>
+        <v>2.7867250388363227</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1552,15 +7366,15 @@
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
-        <v>103.385986328125</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="1"/>
-        <v>497.528076171875</v>
+        <v>4.8123357317772966</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="2"/>
-        <v>208.4208984375</v>
+        <v>2.0159492194233817</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1584,15 +7398,15 @@
       </c>
       <c r="G35" s="3">
         <f t="shared" si="0"/>
-        <v>61.326334635416664</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="1"/>
-        <v>329.56258138020831</v>
+        <v>5.3739161705888439</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="2"/>
-        <v>136.97159830729166</v>
+        <v>2.2334874425739604</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1616,15 +7430,15 @@
       </c>
       <c r="G36" s="3">
         <f t="shared" si="0"/>
-        <v>84.120686848958329</v>
+        <v>1</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="1"/>
-        <v>398.1170654296875</v>
+        <v>4.7326891914770117</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="2"/>
-        <v>148.663330078125</v>
+        <v>1.7672624374198853</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1648,15 +7462,15 @@
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
-        <v>31.6678466796875</v>
+        <v>1</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="1"/>
-        <v>169.27001953125</v>
+        <v>5.3451698577227154</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="2"/>
-        <v>69.789794921875</v>
+        <v>2.203806139008492</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1680,15 +7494,15 @@
       </c>
       <c r="G38" s="3">
         <f t="shared" si="0"/>
-        <v>73.26660185185186</v>
+        <v>1</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="1"/>
-        <v>352.80422037037039</v>
+        <v>4.8153484869375456</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="2"/>
-        <v>141.94098148148149</v>
+        <v>1.937321752256125</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1712,15 +7526,15 @@
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>23.851318359375</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="1"/>
-        <v>81.411783854166671</v>
+        <v>3.4133033079140862</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="2"/>
-        <v>45.298583984375</v>
+        <v>1.8992067147755771</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1744,15 +7558,15 @@
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>72.288974126180008</v>
+        <v>1</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="1"/>
-        <v>276.10389391581219</v>
+        <v>3.8194468416977991</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="2"/>
-        <v>141.85194969177246</v>
+        <v>1.9622902580436492</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1776,15 +7590,15 @@
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
-        <v>25.961812337239582</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="1"/>
-        <v>86.563618977864579</v>
+        <v>3.3342671864898223</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="2"/>
-        <v>54.297383626302086</v>
+        <v>2.0914327135944202</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1808,15 +7622,15 @@
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>42.306557407407404</v>
+        <v>1</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="1"/>
-        <v>200.57011851851851</v>
+        <v>4.7408754294765876</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="2"/>
-        <v>101.13858703703704</v>
+        <v>2.3906125488558141</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1840,15 +7654,15 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" si="0"/>
-        <v>60.525146484375</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="1"/>
-        <v>276.7396240234375</v>
+        <v>4.5723082073808747</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="2"/>
-        <v>142.5650634765625</v>
+        <v>2.3554682930567825</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1872,15 +7686,15 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>
-        <v>65.314860026041671</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="1"/>
-        <v>290.72762044270831</v>
+        <v>4.4511711473743096</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="2"/>
-        <v>137.15934244791666</v>
+        <v>2.0999714673388246</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1904,15 +7718,15 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" si="0"/>
-        <v>31.82373046875</v>
+        <v>1</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="1"/>
-        <v>116.969482421875</v>
+        <v>3.6755427694668201</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="2"/>
-        <v>67.4593505859375</v>
+        <v>2.1197813578826237</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1936,15 +7750,15 @@
       </c>
       <c r="G46" s="3">
         <f t="shared" si="0"/>
-        <v>20.300699869791668</v>
+        <v>1</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="1"/>
-        <v>100.712890625</v>
+        <v>4.9610551001182577</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="2"/>
-        <v>49.898518880208336</v>
+        <v>2.4579703754184123</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1968,15 +7782,15 @@
       </c>
       <c r="G47" s="3">
         <f t="shared" si="0"/>
-        <v>29.3638916015625</v>
+        <v>1</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="1"/>
-        <v>152.2618408203125</v>
+        <v>5.1853426952512791</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="2"/>
-        <v>65.751953125</v>
+        <v>2.2392111378554889</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2000,15 +7814,15 @@
       </c>
       <c r="G48" s="3">
         <f t="shared" si="0"/>
-        <v>38.655354817708336</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="1"/>
-        <v>175.48518880208334</v>
+        <v>4.5397381457146047</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="2"/>
-        <v>84.885416666666671</v>
+        <v>2.195954921820559</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2032,15 +7846,15 @@
       </c>
       <c r="G49" s="3">
         <f t="shared" si="0"/>
-        <v>37.99285888671875</v>
+        <v>1</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="1"/>
-        <v>114.91165161132813</v>
+        <v>3.0245592192457527</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="2"/>
-        <v>89.765167236328125</v>
+        <v>2.3626852484035505</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2064,15 +7878,15 @@
       </c>
       <c r="G50" s="3">
         <f t="shared" si="0"/>
-        <v>53.336588541666664</v>
+        <v>1</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="1"/>
-        <v>176.56656901041666</v>
+        <v>3.3104211168751907</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="2"/>
-        <v>107.75349934895833</v>
+        <v>2.0202548062252061</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2096,15 +7910,15 @@
       </c>
       <c r="G51" s="3">
         <f t="shared" si="0"/>
-        <v>45.709753036499023</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="1"/>
-        <v>200.20869572957358</v>
+        <v>4.3799995062259001</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="2"/>
-        <v>99.557892481486007</v>
+        <v>2.1780448562474071</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2128,15 +7942,15 @@
       </c>
       <c r="G52" s="3">
         <f t="shared" si="0"/>
-        <v>80.583953857421875</v>
+        <v>1</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="1"/>
-        <v>309.66262817382813</v>
+        <v>3.842733116840082</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="2"/>
-        <v>147.40371704101563</v>
+        <v>1.829194398947199</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2160,15 +7974,15 @@
       </c>
       <c r="G53" s="3">
         <f t="shared" si="0"/>
-        <v>29.849237500000001</v>
+        <v>1</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="1"/>
-        <v>155.36563333333334</v>
+        <v>5.2050117974817054</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="2"/>
-        <v>72.445495833333339</v>
+        <v>2.4270467824624777</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2192,15 +8006,15 @@
       </c>
       <c r="G54" s="3">
         <f t="shared" si="0"/>
-        <v>85.558064778645829</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="1"/>
-        <v>344.95035807291669</v>
+        <v>4.0317690560833226</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="2"/>
-        <v>137.9150390625</v>
+        <v>1.6119466869582793</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2224,15 +8038,15 @@
       </c>
       <c r="G55" s="3">
         <f t="shared" si="0"/>
-        <v>22.493998209635418</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="1"/>
-        <v>131.88730875651041</v>
+        <v>5.8632221594120972</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="2"/>
-        <v>69.966634114583329</v>
+        <v>3.1104578858111926</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2256,15 +8070,15 @@
       </c>
       <c r="G56" s="3">
         <f t="shared" si="0"/>
-        <v>36.75689697265625</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="1"/>
-        <v>266.656494140625</v>
+        <v>7.2545975341442155</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="2"/>
-        <v>69.88983154296875</v>
+        <v>1.9014072813317282</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2288,15 +8102,15 @@
       </c>
       <c r="G57" s="3">
         <f t="shared" si="0"/>
-        <v>73.460896809895829</v>
+        <v>1</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="1"/>
-        <v>269.32236353556317</v>
+        <v>3.6662003219552726</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="2"/>
-        <v>157.35106468200684</v>
+        <v>2.1419703749221077</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2320,15 +8134,15 @@
       </c>
       <c r="G58" s="3">
         <f t="shared" si="0"/>
-        <v>206.45642280578613</v>
+        <v>1</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="1"/>
-        <v>850.04266103108728</v>
+        <v>4.1172982146974597</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="2"/>
-        <v>419.93309656778973</v>
+        <v>2.0340035483556811</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2352,15 +8166,15 @@
       </c>
       <c r="G59" s="3">
         <f t="shared" si="0"/>
-        <v>208.90578333333335</v>
+        <v>1</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="1"/>
-        <v>785.57201666666663</v>
+        <v>3.7604129676639717</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="2"/>
-        <v>732.48737222222223</v>
+        <v>3.5063049023083002</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2384,15 +8198,15 @@
       </c>
       <c r="G60" s="3">
         <f t="shared" si="0"/>
-        <v>22.752745946248371</v>
+        <v>1</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="1"/>
-        <v>65.449245770772293</v>
+        <v>2.8765427225966991</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="2"/>
-        <v>51.709818840026855</v>
+        <v>2.2726847547187208</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2416,15 +8230,15 @@
       </c>
       <c r="G61" s="3">
         <f t="shared" si="0"/>
-        <v>161.49723307291666</v>
+        <v>1</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="1"/>
-        <v>403.57600911458331</v>
+        <v>2.4989654710205906</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="2"/>
-        <v>330.63785807291669</v>
+        <v>2.0473283150531274</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2448,15 +8262,15 @@
       </c>
       <c r="G62" s="3">
         <f t="shared" si="0"/>
-        <v>19.886649999999999</v>
+        <v>1</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="1"/>
-        <v>68.236422222222231</v>
+        <v>3.4312678214894023</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="2"/>
-        <v>55.80653518518519</v>
+        <v>2.8062310738704199</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2480,15 +8294,15 @@
       </c>
       <c r="G63" s="3">
         <f t="shared" si="0"/>
-        <v>20.992493629455566</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="1"/>
-        <v>79.375743865966797</v>
+        <v>3.7811488843131489</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="2"/>
-        <v>53.544338544209801</v>
+        <v>2.5506421242438386</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2512,15 +8326,15 @@
       </c>
       <c r="G64" s="3">
         <f t="shared" si="0"/>
-        <v>37.823661168416344</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="1"/>
-        <v>147.07906246185303</v>
+        <v>3.8885464261896345</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="2"/>
-        <v>136.16271018981934</v>
+        <v>3.599934696525847</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2544,15 +8358,15 @@
       </c>
       <c r="G65" s="3">
         <f t="shared" si="0"/>
-        <v>227.67241795857748</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="1"/>
-        <v>629.86137072245276</v>
+        <v>2.7665247128751855</v>
       </c>
       <c r="I65" s="3">
         <f t="shared" si="2"/>
-        <v>594.7300910949707</v>
+        <v>2.6122184515261546</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2576,15 +8390,15 @@
       </c>
       <c r="G66" s="3">
         <f t="shared" si="0"/>
-        <v>68.445491790771484</v>
+        <v>1</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="1"/>
-        <v>220.03204027811685</v>
+        <v>3.2147046433784818</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="2"/>
-        <v>170.43401400248209</v>
+        <v>2.4900692440559209</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2607,16 +8421,16 @@
         <v>640257700</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" ref="G67:G130" si="3">(D67/$B67^2)/$C67</f>
-        <v>28.230023384094238</v>
+        <f t="shared" ref="G67:G130" si="3">D67/D67</f>
+        <v>1</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" ref="H67:H130" si="4">(E67/$B67^2)/$C67</f>
-        <v>109.45223569869995</v>
+        <f t="shared" ref="H67:H130" si="4">E67/D67</f>
+        <v>3.8771571036093824</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" ref="I67:I130" si="5">(F67/$B67^2)/$C67</f>
-        <v>76.324665546417236</v>
+        <f t="shared" ref="I67:I130" si="5">F67/D67</f>
+        <v>2.7036699370720738</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2640,15 +8454,15 @@
       </c>
       <c r="G68" s="3">
         <f t="shared" si="3"/>
-        <v>82.705557407407412</v>
+        <v>1</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" si="4"/>
-        <v>218.50795925925925</v>
+        <v>2.6419985078256532</v>
       </c>
       <c r="I68" s="3">
         <f t="shared" si="5"/>
-        <v>164.75521851851852</v>
+        <v>1.9920695015322205</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2672,15 +8486,15 @@
       </c>
       <c r="G69" s="3">
         <f t="shared" si="3"/>
-        <v>26.498750925925929</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" si="4"/>
-        <v>70.620998148148146</v>
+        <v>2.6650689440253492</v>
       </c>
       <c r="I69" s="3">
         <f t="shared" si="5"/>
-        <v>55.661357407407401</v>
+        <v>2.1005275895079749</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2704,15 +8518,15 @@
       </c>
       <c r="G70" s="3">
         <f t="shared" si="3"/>
-        <v>169.48825518290201</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" si="4"/>
-        <v>416.04517300923663</v>
+        <v>2.4547138830372908</v>
       </c>
       <c r="I70" s="3">
         <f t="shared" si="5"/>
-        <v>328.16009521484375</v>
+        <v>1.9361819192764251</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2736,15 +8550,15 @@
       </c>
       <c r="G71" s="3">
         <f t="shared" si="3"/>
-        <v>119.43426132202148</v>
+        <v>1</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="4"/>
-        <v>319.44408416748047</v>
+        <v>2.6746436125743496</v>
       </c>
       <c r="I71" s="3">
         <f t="shared" si="5"/>
-        <v>251.52125358581543</v>
+        <v>2.1059388721604586</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2768,15 +8582,15 @@
       </c>
       <c r="G72" s="3">
         <f t="shared" si="3"/>
-        <v>37.6717529296875</v>
+        <v>1</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="4"/>
-        <v>105.6236572265625</v>
+        <v>2.8037892854018218</v>
       </c>
       <c r="I72" s="3">
         <f t="shared" si="5"/>
-        <v>76.2469482421875</v>
+        <v>2.0239819576354394</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2800,15 +8614,15 @@
       </c>
       <c r="G73" s="3">
         <f t="shared" si="3"/>
-        <v>42.538690567016602</v>
+        <v>1</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" si="4"/>
-        <v>98.934280872344971</v>
+        <v>2.3257481495929273</v>
       </c>
       <c r="I73" s="3">
         <f t="shared" si="5"/>
-        <v>127.8691291809082</v>
+        <v>3.0059488779857886</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2832,15 +8646,15 @@
       </c>
       <c r="G74" s="3">
         <f t="shared" si="3"/>
-        <v>35.654459635416664</v>
+        <v>1</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="4"/>
-        <v>79.187744140625</v>
+        <v>2.2209772620411665</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="5"/>
-        <v>51.3515625</v>
+        <v>1.4402563669480191</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2864,15 +8678,15 @@
       </c>
       <c r="G75" s="3">
         <f t="shared" si="3"/>
-        <v>19.798612962962963</v>
+        <v>1</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" si="4"/>
-        <v>69.901177777777775</v>
+        <v>3.5306098416359322</v>
       </c>
       <c r="I75" s="3">
         <f t="shared" si="5"/>
-        <v>74.638273148148144</v>
+        <v>3.769873843575462</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2896,15 +8710,15 @@
       </c>
       <c r="G76" s="3">
         <f t="shared" si="3"/>
-        <v>213.06355794270834</v>
+        <v>1</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="4"/>
-        <v>564.59859212239587</v>
+        <v>2.649906899021246</v>
       </c>
       <c r="I76" s="3">
         <f t="shared" si="5"/>
-        <v>1165.6016031901042</v>
+        <v>5.4706755788971115</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2928,15 +8742,15 @@
       </c>
       <c r="G77" s="3">
         <f t="shared" si="3"/>
-        <v>22.291829427083332</v>
+        <v>1</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="4"/>
-        <v>66.0888671875</v>
+        <v>2.9647125824139717</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="5"/>
-        <v>89.71484375</v>
+        <v>4.0245617365527409</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2960,15 +8774,15 @@
       </c>
       <c r="G78" s="3">
         <f t="shared" si="3"/>
-        <v>42.586263020833336</v>
+        <v>1</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="4"/>
-        <v>133.51593017578125</v>
+        <v>3.1351877508121535</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" si="5"/>
-        <v>144.68485514322916</v>
+        <v>3.3974536594687561</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2992,15 +8806,15 @@
       </c>
       <c r="G79" s="3">
         <f t="shared" si="3"/>
-        <v>189.92411295572916</v>
+        <v>1</v>
       </c>
       <c r="H79" s="3">
         <f t="shared" si="4"/>
-        <v>572.10286458333337</v>
+        <v>3.0122708258571098</v>
       </c>
       <c r="I79" s="3">
         <f t="shared" si="5"/>
-        <v>581.256103515625</v>
+        <v>3.0604650166306917</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3024,15 +8838,15 @@
       </c>
       <c r="G80" s="3">
         <f t="shared" si="3"/>
-        <v>82.317097981770829</v>
+        <v>1</v>
       </c>
       <c r="H80" s="3">
         <f t="shared" si="4"/>
-        <v>299.58902994791669</v>
+        <v>3.639450822407039</v>
       </c>
       <c r="I80" s="3">
         <f t="shared" si="5"/>
-        <v>230.09236653645834</v>
+        <v>2.7951953139481716</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3056,15 +8870,15 @@
       </c>
       <c r="G81" s="3">
         <f t="shared" si="3"/>
-        <v>25.445475260416668</v>
+        <v>1</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" si="4"/>
-        <v>71.433756510416671</v>
+        <v>2.8073264806155933</v>
       </c>
       <c r="I81" s="3">
         <f t="shared" si="5"/>
-        <v>80.12060546875</v>
+        <v>3.1487171942662324</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3088,15 +8902,15 @@
       </c>
       <c r="G82" s="3">
         <f t="shared" si="3"/>
-        <v>75.728988647460938</v>
+        <v>1</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" si="4"/>
-        <v>220.52610715230307</v>
+        <v>2.9120434735885903</v>
       </c>
       <c r="I82" s="3">
         <f t="shared" si="5"/>
-        <v>254.62996164957681</v>
+        <v>3.3623842889933289</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3120,15 +8934,15 @@
       </c>
       <c r="G83" s="3">
         <f t="shared" si="3"/>
-        <v>41.20025634765625</v>
+        <v>1</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" si="4"/>
-        <v>139.0899658203125</v>
+        <v>3.3759490389244844</v>
       </c>
       <c r="I83" s="3">
         <f t="shared" si="5"/>
-        <v>174.444580078125</v>
+        <v>4.2340654049850004</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3152,15 +8966,15 @@
       </c>
       <c r="G84" s="3">
         <f t="shared" si="3"/>
-        <v>219.54199259259258</v>
+        <v>1</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" si="4"/>
-        <v>639.36103333333335</v>
+        <v>2.9122493869307515</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" si="5"/>
-        <v>595.74837037037037</v>
+        <v>2.713596443828902</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3184,15 +8998,15 @@
       </c>
       <c r="G85" s="3">
         <f t="shared" si="3"/>
-        <v>30.438506603240967</v>
+        <v>1</v>
       </c>
       <c r="H85" s="3">
         <f t="shared" si="4"/>
-        <v>102.93314456939697</v>
+        <v>3.3816752546735351</v>
       </c>
       <c r="I85" s="3">
         <f t="shared" si="5"/>
-        <v>80.50919771194458</v>
+        <v>2.6449785714313689</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3216,15 +9030,15 @@
       </c>
       <c r="G86" s="3">
         <f t="shared" si="3"/>
-        <v>22.361246744791668</v>
+        <v>1</v>
       </c>
       <c r="H86" s="3">
         <f t="shared" si="4"/>
-        <v>68.761189778645829</v>
+        <v>3.0750159221180966</v>
       </c>
       <c r="I86" s="3">
         <f t="shared" si="5"/>
-        <v>56.09283447265625</v>
+        <v>2.5084842143572015</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3248,15 +9062,15 @@
       </c>
       <c r="G87" s="3">
         <f t="shared" si="3"/>
-        <v>30.105280876159668</v>
+        <v>1</v>
       </c>
       <c r="H87" s="3">
         <f t="shared" si="4"/>
-        <v>102.86880731582642</v>
+        <v>3.4169688613431304</v>
       </c>
       <c r="I87" s="3">
         <f t="shared" si="5"/>
-        <v>83.956944942474365</v>
+        <v>2.7887779983796714</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3280,15 +9094,15 @@
       </c>
       <c r="G88" s="3">
         <f t="shared" si="3"/>
-        <v>37.714385986328125</v>
+        <v>1</v>
       </c>
       <c r="H88" s="3">
         <f t="shared" si="4"/>
-        <v>88.661956787109375</v>
+        <v>2.3508789674913517</v>
       </c>
       <c r="I88" s="3">
         <f t="shared" si="5"/>
-        <v>62.078094482421875</v>
+        <v>1.6460057046911982</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3312,15 +9126,15 @@
       </c>
       <c r="G89" s="3">
         <f t="shared" si="3"/>
-        <v>71.413167317708329</v>
+        <v>1</v>
       </c>
       <c r="H89" s="3">
         <f t="shared" si="4"/>
-        <v>211.63533528645834</v>
+        <v>2.9635338024557707</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="5"/>
-        <v>230.8319091796875</v>
+        <v>3.2323438078687219</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3344,15 +9158,15 @@
       </c>
       <c r="G90" s="3">
         <f t="shared" si="3"/>
-        <v>68.699630101521805</v>
+        <v>1</v>
       </c>
       <c r="H90" s="3">
         <f t="shared" si="4"/>
-        <v>209.52709515889487</v>
+        <v>3.0499013582644237</v>
       </c>
       <c r="I90" s="3">
         <f t="shared" si="5"/>
-        <v>1507.9211076100667</v>
+        <v>21.949479282227806</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3376,15 +9190,15 @@
       </c>
       <c r="G91" s="3">
         <f t="shared" si="3"/>
-        <v>20.963468518518518</v>
+        <v>1</v>
       </c>
       <c r="H91" s="3">
         <f t="shared" si="4"/>
-        <v>72.832842592592598</v>
+        <v>3.4742744278340285</v>
       </c>
       <c r="I91" s="3">
         <f t="shared" si="5"/>
-        <v>57.812656481481476</v>
+        <v>2.7577810623471715</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3408,15 +9222,15 @@
       </c>
       <c r="G92" s="3">
         <f t="shared" si="3"/>
-        <v>163.95670572916666</v>
+        <v>1</v>
       </c>
       <c r="H92" s="3">
         <f t="shared" si="4"/>
-        <v>438.916015625</v>
+        <v>2.6770238745222614</v>
       </c>
       <c r="I92" s="3">
         <f t="shared" si="5"/>
-        <v>274.41304524739581</v>
+        <v>1.6736921129696729</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3440,15 +9254,15 @@
       </c>
       <c r="G93" s="3">
         <f t="shared" si="3"/>
-        <v>78.220274074074069</v>
+        <v>1</v>
       </c>
       <c r="H93" s="3">
         <f t="shared" si="4"/>
-        <v>205.48899629629628</v>
+        <v>2.627055437081435</v>
       </c>
       <c r="I93" s="3">
         <f t="shared" si="5"/>
-        <v>178.62661851851851</v>
+        <v>2.2836358045659662</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3472,15 +9286,15 @@
       </c>
       <c r="G94" s="3">
         <f t="shared" si="3"/>
-        <v>62.517336111111113</v>
+        <v>1</v>
       </c>
       <c r="H94" s="3">
         <f t="shared" si="4"/>
-        <v>227.49557592592592</v>
+        <v>3.6389198593107279</v>
       </c>
       <c r="I94" s="3">
         <f t="shared" si="5"/>
-        <v>182.82263796296297</v>
+        <v>2.9243510574096612</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3504,15 +9318,15 @@
       </c>
       <c r="G95" s="3">
         <f t="shared" si="3"/>
-        <v>145.21420796712241</v>
+        <v>1</v>
       </c>
       <c r="H95" s="3">
         <f t="shared" si="4"/>
-        <v>401.43300692240399</v>
+        <v>2.7644196290578638</v>
       </c>
       <c r="I95" s="3">
         <f t="shared" si="5"/>
-        <v>339.60475921630859</v>
+        <v>2.3386469132083665</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3536,15 +9350,15 @@
       </c>
       <c r="G96" s="3">
         <f t="shared" si="3"/>
-        <v>61.77825927734375</v>
+        <v>1</v>
       </c>
       <c r="H96" s="3">
         <f t="shared" si="4"/>
-        <v>206.50680859883627</v>
+        <v>3.342710057137682</v>
       </c>
       <c r="I96" s="3">
         <f t="shared" si="5"/>
-        <v>189.3040657043457</v>
+        <v>3.0642505619087608</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3568,15 +9382,15 @@
       </c>
       <c r="G97" s="3">
         <f t="shared" si="3"/>
-        <v>34.1103515625</v>
+        <v>1</v>
       </c>
       <c r="H97" s="3">
         <f t="shared" si="4"/>
-        <v>105.0042724609375</v>
+        <v>3.0783696928054054</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="5"/>
-        <v>83.1591796875</v>
+        <v>2.437945546680409</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3600,15 +9414,15 @@
       </c>
       <c r="G98" s="3">
         <f t="shared" si="3"/>
-        <v>94.240019444444442</v>
+        <v>1</v>
       </c>
       <c r="H98" s="3">
         <f t="shared" si="4"/>
-        <v>314.32469027777779</v>
+        <v>3.3353631729997226</v>
       </c>
       <c r="I98" s="3">
         <f t="shared" si="5"/>
-        <v>287.52289999999999</v>
+        <v>3.0509639290715342</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3632,15 +9446,15 @@
       </c>
       <c r="G99" s="3">
         <f t="shared" si="3"/>
-        <v>28.751220703125</v>
+        <v>1</v>
       </c>
       <c r="H99" s="3">
         <f t="shared" si="4"/>
-        <v>98.303955078125</v>
+        <v>3.4191228293635629</v>
       </c>
       <c r="I99" s="3">
         <f t="shared" si="5"/>
-        <v>78.1513671875</v>
+        <v>2.7181930115059654</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3664,15 +9478,15 @@
       </c>
       <c r="G100" s="3">
         <f t="shared" si="3"/>
-        <v>33.259073893229164</v>
+        <v>1</v>
       </c>
       <c r="H100" s="3">
         <f t="shared" si="4"/>
-        <v>76.8585205078125</v>
+        <v>2.3109038079217004</v>
       </c>
       <c r="I100" s="3">
         <f t="shared" si="5"/>
-        <v>47.484842936197914</v>
+        <v>1.4277259519804251</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3696,15 +9510,15 @@
       </c>
       <c r="G101" s="3">
         <f t="shared" si="3"/>
-        <v>68.407825925925934</v>
+        <v>1</v>
       </c>
       <c r="H101" s="3">
         <f t="shared" si="4"/>
-        <v>192.40713703703705</v>
+        <v>2.8126480330683412</v>
       </c>
       <c r="I101" s="3">
         <f t="shared" si="5"/>
-        <v>167.82837407407408</v>
+        <v>2.4533505019703994</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3728,15 +9542,15 @@
       </c>
       <c r="G102" s="3">
         <f t="shared" si="3"/>
-        <v>39.285992592592592</v>
+        <v>1</v>
       </c>
       <c r="H102" s="3">
         <f t="shared" si="4"/>
-        <v>139.93878981481481</v>
+        <v>3.5620530519878066</v>
       </c>
       <c r="I102" s="3">
         <f t="shared" si="5"/>
-        <v>119.56138796296295</v>
+        <v>3.0433592248221917</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3760,15 +9574,15 @@
       </c>
       <c r="G103" s="3">
         <f t="shared" si="3"/>
-        <v>62.695296296296299</v>
+        <v>1</v>
       </c>
       <c r="H103" s="3">
         <f t="shared" si="4"/>
-        <v>213.72875185185185</v>
+        <v>3.4090077641833845</v>
       </c>
       <c r="I103" s="3">
         <f t="shared" si="5"/>
-        <v>191.33135925925924</v>
+        <v>3.0517657713113335</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3792,15 +9606,15 @@
       </c>
       <c r="G104" s="3">
         <f t="shared" si="3"/>
-        <v>21.378517592592591</v>
+        <v>1</v>
       </c>
       <c r="H104" s="3">
         <f t="shared" si="4"/>
-        <v>69.156385185185187</v>
+        <v>3.2348540952693123</v>
       </c>
       <c r="I104" s="3">
         <f t="shared" si="5"/>
-        <v>54.366027777777781</v>
+        <v>2.5430214018494421</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3824,15 +9638,15 @@
       </c>
       <c r="G105" s="3">
         <f t="shared" si="3"/>
-        <v>66.5115966796875</v>
+        <v>1</v>
       </c>
       <c r="H105" s="3">
         <f t="shared" si="4"/>
-        <v>228.1571044921875</v>
+        <v>3.4303356990656368</v>
       </c>
       <c r="I105" s="3">
         <f t="shared" si="5"/>
-        <v>163.007568359375</v>
+        <v>2.450814241378108</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3856,15 +9670,15 @@
       </c>
       <c r="G106" s="3">
         <f t="shared" si="3"/>
-        <v>35.7467041015625</v>
+        <v>1</v>
       </c>
       <c r="H106" s="3">
         <f t="shared" si="4"/>
-        <v>108.5384521484375</v>
+        <v>3.0363205469254226</v>
       </c>
       <c r="I106" s="3">
         <f t="shared" si="5"/>
-        <v>73.718017578125</v>
+        <v>2.06223257306966</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3888,15 +9702,15 @@
       </c>
       <c r="G107" s="3">
         <f t="shared" si="3"/>
-        <v>38.3758544921875</v>
+        <v>1</v>
       </c>
       <c r="H107" s="3">
         <f t="shared" si="4"/>
-        <v>134.66110229492188</v>
+        <v>3.5090059642147118</v>
       </c>
       <c r="I107" s="3">
         <f t="shared" si="5"/>
-        <v>66.077423095703125</v>
+        <v>1.7218489065606362</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3920,15 +9734,15 @@
       </c>
       <c r="G108" s="3">
         <f t="shared" si="3"/>
-        <v>96.227109722222224</v>
+        <v>1</v>
       </c>
       <c r="H108" s="3">
         <f t="shared" si="4"/>
-        <v>315.98170694444445</v>
+        <v>3.283707760282788</v>
       </c>
       <c r="I108" s="3">
         <f t="shared" si="5"/>
-        <v>279.03830694444446</v>
+        <v>2.8997889238276131</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3952,15 +9766,15 @@
       </c>
       <c r="G109" s="3">
         <f t="shared" si="3"/>
-        <v>230.63720703125</v>
+        <v>1</v>
       </c>
       <c r="H109" s="3">
         <f t="shared" si="4"/>
-        <v>670.0791015625</v>
+        <v>2.9053382591114545</v>
       </c>
       <c r="I109" s="3">
         <f t="shared" si="5"/>
-        <v>506.77848307291669</v>
+        <v>2.1972971733231712</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3984,15 +9798,15 @@
       </c>
       <c r="G110" s="3">
         <f t="shared" si="3"/>
-        <v>30.675237500000001</v>
+        <v>1</v>
       </c>
       <c r="H110" s="3">
         <f t="shared" si="4"/>
-        <v>107.62777916666667</v>
+        <v>3.508620892231614</v>
       </c>
       <c r="I110" s="3">
         <f t="shared" si="5"/>
-        <v>102.61046111111111</v>
+        <v>3.3450584078154608</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4016,15 +9830,15 @@
       </c>
       <c r="G111" s="3">
         <f t="shared" si="3"/>
-        <v>67.722330729166671</v>
+        <v>1</v>
       </c>
       <c r="H111" s="3">
         <f t="shared" si="4"/>
-        <v>201.81770833333334</v>
+        <v>2.9800762342400371</v>
       </c>
       <c r="I111" s="3">
         <f t="shared" si="5"/>
-        <v>237.35384114583334</v>
+        <v>3.5048091019644976</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4048,15 +9862,15 @@
       </c>
       <c r="G112" s="3">
         <f t="shared" si="3"/>
-        <v>40.557328859965004</v>
+        <v>1</v>
       </c>
       <c r="H112" s="3">
         <f t="shared" si="4"/>
-        <v>134.76527531941733</v>
+        <v>3.3228340994726344</v>
       </c>
       <c r="I112" s="3">
         <f t="shared" si="5"/>
-        <v>141.8215274810791</v>
+        <v>3.4968162713761486</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4080,15 +9894,15 @@
       </c>
       <c r="G113" s="3">
         <f t="shared" si="3"/>
-        <v>90.459859371185303</v>
+        <v>1</v>
       </c>
       <c r="H113" s="3">
         <f t="shared" si="4"/>
-        <v>313.43531608581543</v>
+        <v>3.4649104947166851</v>
       </c>
       <c r="I113" s="3">
         <f t="shared" si="5"/>
-        <v>397.54801988601685</v>
+        <v>4.3947450576365821</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4112,15 +9926,15 @@
       </c>
       <c r="G114" s="3">
         <f t="shared" si="3"/>
-        <v>28.26385498046875</v>
+        <v>1</v>
       </c>
       <c r="H114" s="3">
         <f t="shared" si="4"/>
-        <v>118.41888427734375</v>
+        <v>4.1897640770933435</v>
       </c>
       <c r="I114" s="3">
         <f t="shared" si="5"/>
-        <v>83.557891845703125</v>
+        <v>2.9563515629217729</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4144,15 +9958,15 @@
       </c>
       <c r="G115" s="3">
         <f t="shared" si="3"/>
-        <v>148.18229166666666</v>
+        <v>1</v>
       </c>
       <c r="H115" s="3">
         <f t="shared" si="4"/>
-        <v>406.98697916666669</v>
+        <v>2.7465291202418194</v>
       </c>
       <c r="I115" s="3">
         <f t="shared" si="5"/>
-        <v>359.34521484375</v>
+        <v>2.4250213085656038</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4176,15 +9990,15 @@
       </c>
       <c r="G116" s="3">
         <f t="shared" si="3"/>
-        <v>219.98631159464517</v>
+        <v>1</v>
       </c>
       <c r="H116" s="3">
         <f t="shared" si="4"/>
-        <v>610.11276245117188</v>
+        <v>2.7734123911099884</v>
       </c>
       <c r="I116" s="3">
         <f t="shared" si="5"/>
-        <v>564.55459594726563</v>
+        <v>2.5663169306076394</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4208,15 +10022,15 @@
       </c>
       <c r="G117" s="3">
         <f t="shared" si="3"/>
-        <v>101.82113647460938</v>
+        <v>1</v>
       </c>
       <c r="H117" s="3">
         <f t="shared" si="4"/>
-        <v>317.8802490234375</v>
+        <v>3.1219475644205334</v>
       </c>
       <c r="I117" s="3">
         <f t="shared" si="5"/>
-        <v>235.49957275390625</v>
+        <v>2.3128751152039202</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4240,15 +10054,15 @@
       </c>
       <c r="G118" s="3">
         <f t="shared" si="3"/>
-        <v>22.452880859375</v>
+        <v>1</v>
       </c>
       <c r="H118" s="3">
         <f t="shared" si="4"/>
-        <v>58.623046875</v>
+        <v>2.6109365315819804</v>
       </c>
       <c r="I118" s="3">
         <f t="shared" si="5"/>
-        <v>62.608317057291664</v>
+        <v>2.7884313576246553</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4272,15 +10086,15 @@
       </c>
       <c r="G119" s="3">
         <f t="shared" si="3"/>
-        <v>109.8114013671875</v>
+        <v>1</v>
       </c>
       <c r="H119" s="3">
         <f t="shared" si="4"/>
-        <v>487.08343505859375</v>
+        <v>4.4356362726843228</v>
       </c>
       <c r="I119" s="3">
         <f t="shared" si="5"/>
-        <v>239.27841186523438</v>
+        <v>2.1789942472834394</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4304,15 +10118,15 @@
       </c>
       <c r="G120" s="3">
         <f t="shared" si="3"/>
-        <v>71.824992592592594</v>
+        <v>1</v>
       </c>
       <c r="H120" s="3">
         <f t="shared" si="4"/>
-        <v>206.7818722222222</v>
+        <v>2.8789682359611954</v>
       </c>
       <c r="I120" s="3">
         <f t="shared" si="5"/>
-        <v>184.00351111111112</v>
+        <v>2.5618312577464524</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4336,15 +10150,15 @@
       </c>
       <c r="G121" s="3">
         <f t="shared" si="3"/>
-        <v>57.468521595001221</v>
+        <v>1</v>
       </c>
       <c r="H121" s="3">
         <f t="shared" si="4"/>
-        <v>266.39895439147949</v>
+        <v>4.6355630351669195</v>
       </c>
       <c r="I121" s="3">
         <f t="shared" si="5"/>
-        <v>173.62333536148071</v>
+        <v>3.0211902193179609</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4368,15 +10182,15 @@
       </c>
       <c r="G122" s="3">
         <f t="shared" si="3"/>
-        <v>30.670356750488281</v>
+        <v>1</v>
       </c>
       <c r="H122" s="3">
         <f t="shared" si="4"/>
-        <v>115.77239036560059</v>
+        <v>3.7747324332560122</v>
       </c>
       <c r="I122" s="3">
         <f t="shared" si="5"/>
-        <v>88.965606689453125</v>
+        <v>2.9007033538348641</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4400,15 +10214,15 @@
       </c>
       <c r="G123" s="3">
         <f t="shared" si="3"/>
-        <v>19.441970189412434</v>
+        <v>1</v>
       </c>
       <c r="H123" s="3">
         <f t="shared" si="4"/>
-        <v>76.067630449930832</v>
+        <v>3.9125474274904084</v>
       </c>
       <c r="I123" s="3">
         <f t="shared" si="5"/>
-        <v>56.253298123677574</v>
+        <v>2.8933949376340253</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4432,15 +10246,15 @@
       </c>
       <c r="G124" s="3">
         <f t="shared" si="3"/>
-        <v>71.617889404296875</v>
+        <v>1</v>
       </c>
       <c r="H124" s="3">
         <f t="shared" si="4"/>
-        <v>316.37191772460938</v>
+        <v>4.4174984819592842</v>
       </c>
       <c r="I124" s="3">
         <f t="shared" si="5"/>
-        <v>136.21826171875</v>
+        <v>1.9020144666616954</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4464,15 +10278,15 @@
       </c>
       <c r="G125" s="3">
         <f t="shared" si="3"/>
-        <v>72.048014322916671</v>
+        <v>1</v>
       </c>
       <c r="H125" s="3">
         <f t="shared" si="4"/>
-        <v>282.35481770833331</v>
+        <v>3.9189812566218545</v>
       </c>
       <c r="I125" s="3">
         <f t="shared" si="5"/>
-        <v>202.89013671875</v>
+        <v>2.8160406449149806</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4496,15 +10310,15 @@
       </c>
       <c r="G126" s="3">
         <f t="shared" si="3"/>
-        <v>23.9169921875</v>
+        <v>1</v>
       </c>
       <c r="H126" s="3">
         <f t="shared" si="4"/>
-        <v>73.118082682291671</v>
+        <v>3.0571604534999253</v>
       </c>
       <c r="I126" s="3">
         <f t="shared" si="5"/>
-        <v>52.417643229166664</v>
+        <v>2.1916486328311082</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4528,15 +10342,15 @@
       </c>
       <c r="G127" s="3">
         <f t="shared" si="3"/>
-        <v>19.909143447875977</v>
+        <v>1</v>
       </c>
       <c r="H127" s="3">
         <f t="shared" si="4"/>
-        <v>81.138674418131515</v>
+        <v>4.075447777578189</v>
       </c>
       <c r="I127" s="3">
         <f t="shared" si="5"/>
-        <v>61.830647786458336</v>
+        <v>3.1056407799932142</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4560,15 +10374,15 @@
       </c>
       <c r="G128" s="3">
         <f t="shared" si="3"/>
-        <v>74.073282877604171</v>
+        <v>1</v>
       </c>
       <c r="H128" s="3">
         <f t="shared" si="4"/>
-        <v>295.83231608072919</v>
+        <v>3.9937789252509717</v>
       </c>
       <c r="I128" s="3">
         <f t="shared" si="5"/>
-        <v>181.28865559895834</v>
+        <v>2.4474229918837636</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4592,15 +10406,15 @@
       </c>
       <c r="G129" s="3">
         <f t="shared" si="3"/>
-        <v>21.314493815104168</v>
+        <v>1</v>
       </c>
       <c r="H129" s="3">
         <f t="shared" si="4"/>
-        <v>88.032023111979171</v>
+        <v>4.1301484274328262</v>
       </c>
       <c r="I129" s="3">
         <f t="shared" si="5"/>
-        <v>45.04547119140625</v>
+        <v>2.11337278671312</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4624,15 +10438,15 @@
       </c>
       <c r="G130" s="3">
         <f t="shared" si="3"/>
-        <v>24.97406005859375</v>
+        <v>1</v>
       </c>
       <c r="H130" s="3">
         <f t="shared" si="4"/>
-        <v>62.383015950520836</v>
+        <v>2.4979124661412193</v>
       </c>
       <c r="I130" s="3">
         <f t="shared" si="5"/>
-        <v>78.78875732421875</v>
+        <v>3.1548237306775828</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4655,16 +10469,16 @@
         <v>29240745200</v>
       </c>
       <c r="G131" s="3">
-        <f t="shared" ref="G131:G181" si="6">(D131/$B131^2)/$C131</f>
-        <v>91.800869444444444</v>
+        <f t="shared" ref="G131:G181" si="6">D131/D131</f>
+        <v>1</v>
       </c>
       <c r="H131" s="3">
-        <f t="shared" ref="H131:H181" si="7">(E131/$B131^2)/$C131</f>
-        <v>416.67592500000001</v>
+        <f t="shared" ref="H131:H181" si="7">E131/D131</f>
+        <v>4.5389104430232186</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" ref="I131:I181" si="8">(F131/$B131^2)/$C131</f>
-        <v>406.1214611111111</v>
+        <f t="shared" ref="I131:I181" si="8">F131/D131</f>
+        <v>4.4239391584072685</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -4688,15 +10502,15 @@
       </c>
       <c r="G132" s="3">
         <f t="shared" si="6"/>
-        <v>69.821675618489579</v>
+        <v>1</v>
       </c>
       <c r="H132" s="3">
         <f t="shared" si="7"/>
-        <v>201.16628011067709</v>
+        <v>2.8811436896740119</v>
       </c>
       <c r="I132" s="3">
         <f t="shared" si="8"/>
-        <v>185.98988850911459</v>
+        <v>2.6637843744308869</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4720,15 +10534,15 @@
       </c>
       <c r="G133" s="3">
         <f t="shared" si="6"/>
-        <v>19.8974609375</v>
+        <v>1</v>
       </c>
       <c r="H133" s="3">
         <f t="shared" si="7"/>
-        <v>77.349853515625</v>
+        <v>3.8874233128834357</v>
       </c>
       <c r="I133" s="3">
         <f t="shared" si="8"/>
-        <v>56.6925048828125</v>
+        <v>2.849233128834356</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4752,15 +10566,15 @@
       </c>
       <c r="G134" s="3">
         <f t="shared" si="6"/>
-        <v>85.892486572265625</v>
+        <v>1</v>
       </c>
       <c r="H134" s="3">
         <f t="shared" si="7"/>
-        <v>282.57904052734375</v>
+        <v>3.289915705136746</v>
       </c>
       <c r="I134" s="3">
         <f t="shared" si="8"/>
-        <v>319.50149536132813</v>
+        <v>3.7197839777582362</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4784,15 +10598,15 @@
       </c>
       <c r="G135" s="3">
         <f t="shared" si="6"/>
-        <v>34.605712890625</v>
+        <v>1</v>
       </c>
       <c r="H135" s="3">
         <f t="shared" si="7"/>
-        <v>111.175537109375</v>
+        <v>3.2126353663268548</v>
       </c>
       <c r="I135" s="3">
         <f t="shared" si="8"/>
-        <v>120.5924072265625</v>
+        <v>3.4847543123214222</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4816,15 +10630,15 @@
       </c>
       <c r="G136" s="3">
         <f t="shared" si="6"/>
-        <v>20.444377263387043</v>
+        <v>1</v>
       </c>
       <c r="H136" s="3">
         <f t="shared" si="7"/>
-        <v>77.323444684346512</v>
+        <v>3.7821374399513625</v>
       </c>
       <c r="I136" s="3">
         <f t="shared" si="8"/>
-        <v>93.4317668279012</v>
+        <v>4.5700470904156196</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -4848,15 +10662,15 @@
       </c>
       <c r="G137" s="3">
         <f t="shared" si="6"/>
-        <v>7493.6171875</v>
+        <v>1</v>
       </c>
       <c r="H137" s="3">
         <f t="shared" si="7"/>
-        <v>651.85188802083337</v>
+        <v>8.6987615154424824E-2</v>
       </c>
       <c r="I137" s="3">
         <f t="shared" si="8"/>
-        <v>884.58675130208337</v>
+        <v>0.11804536169497026</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -4880,15 +10694,15 @@
       </c>
       <c r="G138" s="3">
         <f t="shared" si="6"/>
-        <v>20.483831481481481</v>
+        <v>1</v>
       </c>
       <c r="H138" s="3">
         <f t="shared" si="7"/>
-        <v>93.205144444444443</v>
+        <v>4.5501811772229752</v>
       </c>
       <c r="I138" s="3">
         <f t="shared" si="8"/>
-        <v>91.978126851851854</v>
+        <v>4.490279415499252</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -4912,15 +10726,15 @@
       </c>
       <c r="G139" s="3">
         <f t="shared" si="6"/>
-        <v>153.37430636088052</v>
+        <v>1</v>
       </c>
       <c r="H139" s="3">
         <f t="shared" si="7"/>
-        <v>533.12519391377771</v>
+        <v>3.475974604634013</v>
       </c>
       <c r="I139" s="3">
         <f t="shared" si="8"/>
-        <v>272.21832275390625</v>
+        <v>1.7748626169065951</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -4944,15 +10758,15 @@
       </c>
       <c r="G140" s="3">
         <f t="shared" si="6"/>
-        <v>95.837890625</v>
+        <v>1</v>
       </c>
       <c r="H140" s="3">
         <f t="shared" si="7"/>
-        <v>359.6710205078125</v>
+        <v>3.7529104424381994</v>
       </c>
       <c r="I140" s="3">
         <f t="shared" si="8"/>
-        <v>191.4766845703125</v>
+        <v>1.9979225682202613</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -4976,15 +10790,15 @@
       </c>
       <c r="G141" s="3">
         <f t="shared" si="6"/>
-        <v>64.134410185185189</v>
+        <v>1</v>
       </c>
       <c r="H141" s="3">
         <f t="shared" si="7"/>
-        <v>216.54260648148147</v>
+        <v>3.3763872756641025</v>
       </c>
       <c r="I141" s="3">
         <f t="shared" si="8"/>
-        <v>150.86028240740742</v>
+        <v>2.3522518094702241</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5008,15 +10822,15 @@
       </c>
       <c r="G142" s="3">
         <f t="shared" si="6"/>
-        <v>226.68000555555557</v>
+        <v>1</v>
       </c>
       <c r="H142" s="3">
         <f t="shared" si="7"/>
-        <v>638.00079814814819</v>
+        <v>2.814543773212431</v>
       </c>
       <c r="I142" s="3">
         <f t="shared" si="8"/>
-        <v>445.08979259259263</v>
+        <v>1.9635158888484692</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5040,15 +10854,15 @@
       </c>
       <c r="G143" s="3">
         <f t="shared" si="6"/>
-        <v>20.766361554463703</v>
+        <v>1</v>
       </c>
       <c r="H143" s="3">
         <f t="shared" si="7"/>
-        <v>69.807346661885575</v>
+        <v>3.3615588594469297</v>
       </c>
       <c r="I143" s="3">
         <f t="shared" si="8"/>
-        <v>52.626880009969078</v>
+        <v>2.5342369134788076</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5072,15 +10886,15 @@
       </c>
       <c r="G144" s="3">
         <f t="shared" si="6"/>
-        <v>75.619114814814807</v>
+        <v>1</v>
       </c>
       <c r="H144" s="3">
         <f t="shared" si="7"/>
-        <v>199.97073333333333</v>
+        <v>2.6444468944531514</v>
       </c>
       <c r="I144" s="3">
         <f t="shared" si="8"/>
-        <v>144.66886851851851</v>
+        <v>1.9131256544433382</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5104,15 +10918,15 @@
       </c>
       <c r="G145" s="3">
         <f t="shared" si="6"/>
-        <v>94.568888346354171</v>
+        <v>1</v>
       </c>
       <c r="H145" s="3">
         <f t="shared" si="7"/>
-        <v>177.8900146484375</v>
+        <v>1.8810627655569301</v>
       </c>
       <c r="I145" s="3">
         <f t="shared" si="8"/>
-        <v>123.87797037760417</v>
+        <v>1.3099230893346958</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5136,15 +10950,15 @@
       </c>
       <c r="G146" s="3">
         <f t="shared" si="6"/>
-        <v>100.0401611328125</v>
+        <v>1</v>
       </c>
       <c r="H146" s="3">
         <f t="shared" si="7"/>
-        <v>307.2447509765625</v>
+        <v>3.0712140754018469</v>
       </c>
       <c r="I146" s="3">
         <f t="shared" si="8"/>
-        <v>188.7869873046875</v>
+        <v>1.8871119874952564</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5168,15 +10982,15 @@
       </c>
       <c r="G147" s="3">
         <f t="shared" si="6"/>
-        <v>64.699543055555552</v>
+        <v>1</v>
       </c>
       <c r="H147" s="3">
         <f t="shared" si="7"/>
-        <v>211.41832638888889</v>
+        <v>3.2676942742447239</v>
       </c>
       <c r="I147" s="3">
         <f t="shared" si="8"/>
-        <v>149.52769166666667</v>
+        <v>2.3111089291352758</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5200,15 +11014,15 @@
       </c>
       <c r="G148" s="3">
         <f t="shared" si="6"/>
-        <v>229.17513020833334</v>
+        <v>1</v>
       </c>
       <c r="H148" s="3">
         <f t="shared" si="7"/>
-        <v>623.01220703125</v>
+        <v>2.7184983225051349</v>
       </c>
       <c r="I148" s="3">
         <f t="shared" si="8"/>
-        <v>463.62890625</v>
+        <v>2.0230332402496498</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5232,15 +11046,15 @@
       </c>
       <c r="G149" s="3">
         <f t="shared" si="6"/>
-        <v>153.21241296296296</v>
+        <v>1</v>
       </c>
       <c r="H149" s="3">
         <f t="shared" si="7"/>
-        <v>414.01972407407408</v>
+        <v>2.7022596672644128</v>
       </c>
       <c r="I149" s="3">
         <f t="shared" si="8"/>
-        <v>293.49221666666665</v>
+        <v>1.9155903297314067</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5264,15 +11078,15 @@
       </c>
       <c r="G150" s="3">
         <f t="shared" si="6"/>
-        <v>31.453050000000001</v>
+        <v>1</v>
       </c>
       <c r="H150" s="3">
         <f t="shared" si="7"/>
-        <v>104.88601388888888</v>
+        <v>3.3346849952195061</v>
       </c>
       <c r="I150" s="3">
         <f t="shared" si="8"/>
-        <v>76.489780555555555</v>
+        <v>2.4318716485541323</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5296,15 +11110,15 @@
       </c>
       <c r="G151" s="3">
         <f t="shared" si="6"/>
-        <v>65.211995442708329</v>
+        <v>1</v>
       </c>
       <c r="H151" s="3">
         <f t="shared" si="7"/>
-        <v>192.437744140625</v>
+        <v>2.9509562287461391</v>
       </c>
       <c r="I151" s="3">
         <f t="shared" si="8"/>
-        <v>231.99462890625</v>
+        <v>3.5575453155710854</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5328,15 +11142,15 @@
       </c>
       <c r="G152" s="3">
         <f t="shared" si="6"/>
-        <v>103.35311889648438</v>
+        <v>1</v>
       </c>
       <c r="H152" s="3">
         <f t="shared" si="7"/>
-        <v>267.67959594726563</v>
+        <v>2.589951796378454</v>
       </c>
       <c r="I152" s="3">
         <f t="shared" si="8"/>
-        <v>211.041259765625</v>
+        <v>2.0419437944296397</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5360,15 +11174,15 @@
       </c>
       <c r="G153" s="3">
         <f t="shared" si="6"/>
-        <v>70.563554763793945</v>
+        <v>1</v>
       </c>
       <c r="H153" s="3">
         <f t="shared" si="7"/>
-        <v>198.29545021057129</v>
+        <v>2.8101680942003275</v>
       </c>
       <c r="I153" s="3">
         <f t="shared" si="8"/>
-        <v>140.03190994262695</v>
+        <v>1.9844792458567737</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5392,15 +11206,15 @@
       </c>
       <c r="G154" s="3">
         <f t="shared" si="6"/>
-        <v>29.962122440338135</v>
+        <v>1</v>
       </c>
       <c r="H154" s="3">
         <f t="shared" si="7"/>
-        <v>99.896252155303955</v>
+        <v>3.3340846381701317</v>
       </c>
       <c r="I154" s="3">
         <f t="shared" si="8"/>
-        <v>65.390372276306152</v>
+        <v>2.182434585751202</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5424,15 +11238,15 @@
       </c>
       <c r="G155" s="3">
         <f t="shared" si="6"/>
-        <v>65.102950731913253</v>
+        <v>1</v>
       </c>
       <c r="H155" s="3">
         <f t="shared" si="7"/>
-        <v>204.49887116750082</v>
+        <v>3.1411613278421826</v>
       </c>
       <c r="I155" s="3">
         <f t="shared" si="8"/>
-        <v>142.02322165171304</v>
+        <v>2.1815174282429837</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5456,15 +11270,15 @@
       </c>
       <c r="G156" s="3">
         <f t="shared" si="6"/>
-        <v>63.8572998046875</v>
+        <v>1</v>
       </c>
       <c r="H156" s="3">
         <f t="shared" si="7"/>
-        <v>192.8106689453125</v>
+        <v>3.0193990277546789</v>
       </c>
       <c r="I156" s="3">
         <f t="shared" si="8"/>
-        <v>162.07763671875</v>
+        <v>2.538122301044313</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5488,15 +11302,15 @@
       </c>
       <c r="G157" s="3">
         <f t="shared" si="6"/>
-        <v>61.579831944444443</v>
+        <v>1</v>
       </c>
       <c r="H157" s="3">
         <f t="shared" si="7"/>
-        <v>211.30303472222224</v>
+        <v>3.4313675118966507</v>
       </c>
       <c r="I157" s="3">
         <f t="shared" si="8"/>
-        <v>151.61907222222223</v>
+        <v>2.4621546930983604</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5520,15 +11334,15 @@
       </c>
       <c r="G158" s="3">
         <f t="shared" si="6"/>
-        <v>20.53963343302409</v>
+        <v>1</v>
       </c>
       <c r="H158" s="3">
         <f t="shared" si="7"/>
-        <v>65.96834659576416</v>
+        <v>3.2117587108297054</v>
       </c>
       <c r="I158" s="3">
         <f t="shared" si="8"/>
-        <v>50.321841239929199</v>
+        <v>2.4499873088786774</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5552,15 +11366,15 @@
       </c>
       <c r="G159" s="3">
         <f t="shared" si="6"/>
-        <v>62.284262975056969</v>
+        <v>1</v>
       </c>
       <c r="H159" s="3">
         <f t="shared" si="7"/>
-        <v>206.52187665303549</v>
+        <v>3.3157954640282328</v>
       </c>
       <c r="I159" s="3">
         <f t="shared" si="8"/>
-        <v>144.66265042622885</v>
+        <v>2.3226196075268968</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5584,15 +11398,15 @@
       </c>
       <c r="G160" s="3">
         <f t="shared" si="6"/>
-        <v>71.115907407407406</v>
+        <v>1</v>
       </c>
       <c r="H160" s="3">
         <f t="shared" si="7"/>
-        <v>196.32602592592593</v>
+        <v>2.7606485395906892</v>
       </c>
       <c r="I160" s="3">
         <f t="shared" si="8"/>
-        <v>137.90757037037037</v>
+        <v>1.9391944137101169</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5616,15 +11430,15 @@
       </c>
       <c r="G161" s="3">
         <f t="shared" si="6"/>
-        <v>39.52789306640625</v>
+        <v>1</v>
       </c>
       <c r="H161" s="3">
         <f t="shared" si="7"/>
-        <v>93.194580078125</v>
+        <v>2.3576915653348776</v>
       </c>
       <c r="I161" s="3">
         <f t="shared" si="8"/>
-        <v>74.456024169921875</v>
+        <v>1.8836325033777264</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5648,15 +11462,15 @@
       </c>
       <c r="G162" s="3">
         <f t="shared" si="6"/>
-        <v>31.921568055555557</v>
+        <v>1</v>
       </c>
       <c r="H162" s="3">
         <f t="shared" si="7"/>
-        <v>98.788468055555555</v>
+        <v>3.0947247918280958</v>
       </c>
       <c r="I162" s="3">
         <f t="shared" si="8"/>
-        <v>69.423768055555556</v>
+        <v>2.1748232397209324</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5680,15 +11494,15 @@
       </c>
       <c r="G163" s="3">
         <f t="shared" si="6"/>
-        <v>22.368367513020832</v>
+        <v>1</v>
       </c>
       <c r="H163" s="3">
         <f t="shared" si="7"/>
-        <v>70.616658528645829</v>
+        <v>3.1569875847014415</v>
       </c>
       <c r="I163" s="3">
         <f t="shared" si="8"/>
-        <v>39.996846516927086</v>
+        <v>1.7880985947519215</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -5712,15 +11526,15 @@
       </c>
       <c r="G164" s="3">
         <f t="shared" si="6"/>
-        <v>79.7821044921875</v>
+        <v>1</v>
       </c>
       <c r="H164" s="3">
         <f t="shared" si="7"/>
-        <v>266.01053873697919</v>
+        <v>3.3342131099465759</v>
       </c>
       <c r="I164" s="3">
         <f t="shared" si="8"/>
-        <v>123.13130696614583</v>
+        <v>1.5433449361843197</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5744,15 +11558,15 @@
       </c>
       <c r="G165" s="3">
         <f t="shared" si="6"/>
-        <v>158.23160807291666</v>
+        <v>1</v>
       </c>
       <c r="H165" s="3">
         <f t="shared" si="7"/>
-        <v>402.98323567708331</v>
+        <v>2.5467935299714557</v>
       </c>
       <c r="I165" s="3">
         <f t="shared" si="8"/>
-        <v>269.05078125</v>
+        <v>1.7003605317972588</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5776,15 +11590,15 @@
       </c>
       <c r="G166" s="3">
         <f t="shared" si="6"/>
-        <v>64.420247395833329</v>
+        <v>1</v>
       </c>
       <c r="H166" s="3">
         <f t="shared" si="7"/>
-        <v>188.06949869791666</v>
+        <v>2.919415964709271</v>
       </c>
       <c r="I166" s="3">
         <f t="shared" si="8"/>
-        <v>164.59619140625</v>
+        <v>2.5550381760392926</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5808,15 +11622,15 @@
       </c>
       <c r="G167" s="3">
         <f t="shared" si="6"/>
-        <v>75.122395833333329</v>
+        <v>1</v>
       </c>
       <c r="H167" s="3">
         <f t="shared" si="7"/>
-        <v>219.27392578125</v>
+        <v>2.9188888792595415</v>
       </c>
       <c r="I167" s="3">
         <f t="shared" si="8"/>
-        <v>235.806640625</v>
+        <v>3.1389659236662393</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5840,15 +11654,15 @@
       </c>
       <c r="G168" s="3">
         <f t="shared" si="6"/>
-        <v>30.696713924407959</v>
+        <v>1</v>
       </c>
       <c r="H168" s="3">
         <f t="shared" si="7"/>
-        <v>97.992181777954102</v>
+        <v>3.192269440281597</v>
       </c>
       <c r="I168" s="3">
         <f t="shared" si="8"/>
-        <v>70.315015316009521</v>
+        <v>2.2906365641991329</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5872,15 +11686,15 @@
       </c>
       <c r="G169" s="3">
         <f t="shared" si="6"/>
-        <v>19.964449074074075</v>
+        <v>1</v>
       </c>
       <c r="H169" s="3">
         <f t="shared" si="7"/>
-        <v>71.364311111111107</v>
+        <v>3.5745695183637767</v>
       </c>
       <c r="I169" s="3">
         <f t="shared" si="8"/>
-        <v>50.498378703703708</v>
+        <v>2.5294150876059551</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5904,15 +11718,15 @@
       </c>
       <c r="G170" s="3">
         <f t="shared" si="6"/>
-        <v>71.284505208333329</v>
+        <v>1</v>
       </c>
       <c r="H170" s="3">
         <f t="shared" si="7"/>
-        <v>181.0087890625</v>
+        <v>2.5392445179143874</v>
       </c>
       <c r="I170" s="3">
         <f t="shared" si="8"/>
-        <v>139.373046875</v>
+        <v>1.9551660836765821</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5936,15 +11750,15 @@
       </c>
       <c r="G171" s="3">
         <f t="shared" si="6"/>
-        <v>196.72444661458334</v>
+        <v>1</v>
       </c>
       <c r="H171" s="3">
         <f t="shared" si="7"/>
-        <v>752.5421142578125</v>
+        <v>3.8253614495211701</v>
       </c>
       <c r="I171" s="3">
         <f t="shared" si="8"/>
-        <v>399.212646484375</v>
+        <v>2.0292986121165741</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5968,15 +11782,15 @@
       </c>
       <c r="G172" s="3">
         <f t="shared" si="6"/>
-        <v>33.393096923828125</v>
+        <v>1</v>
       </c>
       <c r="H172" s="3">
         <f t="shared" si="7"/>
-        <v>116.0858154296875</v>
+        <v>3.4763417030318262</v>
       </c>
       <c r="I172" s="3">
         <f t="shared" si="8"/>
-        <v>57.164764404296875</v>
+        <v>1.7118737005643263</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6000,15 +11814,15 @@
       </c>
       <c r="G173" s="3">
         <f t="shared" si="6"/>
-        <v>19.459688888888888</v>
+        <v>1</v>
       </c>
       <c r="H173" s="3">
         <f t="shared" si="7"/>
-        <v>65.837829629629638</v>
+        <v>3.3832930220802129</v>
       </c>
       <c r="I173" s="3">
         <f t="shared" si="8"/>
-        <v>45.306469444444446</v>
+        <v>2.3282216742074215</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -6032,15 +11846,15 @@
       </c>
       <c r="G174" s="3">
         <f t="shared" si="6"/>
-        <v>88.263857364654541</v>
+        <v>1</v>
       </c>
       <c r="H174" s="3">
         <f t="shared" si="7"/>
-        <v>309.36871767044067</v>
+        <v>3.5050441585881571</v>
       </c>
       <c r="I174" s="3">
         <f t="shared" si="8"/>
-        <v>215.28648138046265</v>
+        <v>2.4391238702725744</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6064,15 +11878,15 @@
       </c>
       <c r="G175" s="3">
         <f t="shared" si="6"/>
-        <v>80.48779296875</v>
+        <v>1</v>
       </c>
       <c r="H175" s="3">
         <f t="shared" si="7"/>
-        <v>175.123046875</v>
+        <v>2.1757715103828583</v>
       </c>
       <c r="I175" s="3">
         <f t="shared" si="8"/>
-        <v>1306.90087890625</v>
+        <v>16.237255746516297</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6096,15 +11910,15 @@
       </c>
       <c r="G176" s="3">
         <f t="shared" si="6"/>
-        <v>29.850530624389648</v>
+        <v>1</v>
       </c>
       <c r="H176" s="3">
         <f t="shared" si="7"/>
-        <v>103.67060899734497</v>
+        <v>3.472990490582434</v>
       </c>
       <c r="I176" s="3">
         <f t="shared" si="8"/>
-        <v>72.959995269775391</v>
+        <v>2.4441774984784614</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6128,15 +11942,15 @@
       </c>
       <c r="G177" s="3">
         <f t="shared" si="6"/>
-        <v>71.828287760416671</v>
+        <v>1</v>
       </c>
       <c r="H177" s="3">
         <f t="shared" si="7"/>
-        <v>221.31380208333334</v>
+        <v>3.0811510197977401</v>
       </c>
       <c r="I177" s="3">
         <f t="shared" si="8"/>
-        <v>128.10514322916666</v>
+        <v>1.7834915354861516</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -6160,15 +11974,15 @@
       </c>
       <c r="G178" s="3">
         <f t="shared" si="6"/>
-        <v>26.480061848958332</v>
+        <v>1</v>
       </c>
       <c r="H178" s="3">
         <f t="shared" si="7"/>
-        <v>66.499593098958329</v>
+        <v>2.5113080731559649</v>
       </c>
       <c r="I178" s="3">
         <f t="shared" si="8"/>
-        <v>43.388264973958336</v>
+        <v>1.6385258169502777</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -6192,15 +12006,15 @@
       </c>
       <c r="G179" s="3">
         <f t="shared" si="6"/>
-        <v>177.98970540364584</v>
+        <v>1</v>
       </c>
       <c r="H179" s="3">
         <f t="shared" si="7"/>
-        <v>486.45121256510419</v>
+        <v>2.7330300449788822</v>
       </c>
       <c r="I179" s="3">
         <f t="shared" si="8"/>
-        <v>295.6512451171875</v>
+        <v>1.6610581182024449</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6224,15 +12038,15 @@
       </c>
       <c r="G180" s="3">
         <f t="shared" si="6"/>
-        <v>70.518477757771805</v>
+        <v>1</v>
       </c>
       <c r="H180" s="3">
         <f t="shared" si="7"/>
-        <v>249.13002649943033</v>
+        <v>3.532833300162578</v>
       </c>
       <c r="I180" s="3">
         <f t="shared" si="8"/>
-        <v>147.13826179504395</v>
+        <v>2.0865206747720517</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6256,19 +12070,18 @@
       </c>
       <c r="G181" s="3">
         <f t="shared" si="6"/>
-        <v>29.352783203125</v>
+        <v>1</v>
       </c>
       <c r="H181" s="3">
         <f t="shared" si="7"/>
-        <v>138.7259521484375</v>
+        <v>4.7261600778514339</v>
       </c>
       <c r="I181" s="3">
         <f t="shared" si="8"/>
-        <v>68.6044921875</v>
+        <v>2.3372397674437946</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayumi\Documents\ProyectoFinal-Arquihard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documentos\ICESI\7mo Semestre\Arquitectura de hardware\Proyecto final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC950AD-12D0-4319-8A68-15B55C5F549B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17DA750-7581-4CE1-800F-D5BACA8B317F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{CC1E190A-F1DE-402A-8C1B-6B8DAA8DD481}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC1E190A-F1DE-402A-8C1B-6B8DAA8DD481}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -464,14 +464,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24AEB7E-528F-497B-B9C6-FF1952540C60}">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G181"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
@@ -517,7 +519,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>592215900</v>
+        <v>625704300</v>
       </c>
       <c r="E2" s="2">
         <v>2217199700</v>
@@ -527,7 +529,7 @@
       </c>
       <c r="G2" s="3">
         <f>(D2/$B2^2)/$C2</f>
-        <v>94.130182266235352</v>
+        <v>99.453020095825195</v>
       </c>
       <c r="H2" s="3">
         <f>(E2/$B2^2)/$C2</f>
@@ -549,7 +551,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>7679241200</v>
+        <v>8022937600</v>
       </c>
       <c r="E3" s="2">
         <v>32251464900</v>
@@ -559,7 +561,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G66" si="0">(D3/$B3^2)/$C3</f>
-        <v>142.20817037037037</v>
+        <v>148.57291851851852</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H66" si="1">(E3/$B3^2)/$C3</f>
@@ -581,7 +583,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="2">
-        <v>46033200</v>
+        <v>57885600</v>
       </c>
       <c r="E4" s="2">
         <v>256550400</v>
@@ -591,7 +593,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>37.4619140625</v>
+        <v>47.107421875</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
@@ -613,7 +615,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="2">
-        <v>4263122200</v>
+        <v>4449116000</v>
       </c>
       <c r="E5" s="2">
         <v>23493837100</v>
@@ -623,7 +625,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>59.210030555555555</v>
+        <v>61.793277777777774</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
@@ -645,7 +647,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2">
-        <v>13251100</v>
+        <v>14315000</v>
       </c>
       <c r="E6" s="2">
         <v>61418200</v>
@@ -655,7 +657,7 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>67.398579915364579</v>
+        <v>72.809855143229171</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
@@ -677,7 +679,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="2">
-        <v>4471200</v>
+        <v>4407100</v>
       </c>
       <c r="E7" s="2">
         <v>19012800</v>
@@ -687,7 +689,7 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>22.74169921875</v>
+        <v>22.415669759114582</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
@@ -709,7 +711,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="2">
-        <v>9696600</v>
+        <v>7986700</v>
       </c>
       <c r="E8" s="2">
         <v>41577600</v>
@@ -719,7 +721,7 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>49.3194580078125</v>
+        <v>40.622456868489586</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
@@ -741,7 +743,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>40873900</v>
+        <v>41823800</v>
       </c>
       <c r="E9" s="2">
         <v>175161100</v>
@@ -751,7 +753,7 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>66.526529947916671</v>
+        <v>68.072591145833329</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
@@ -773,7 +775,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>47560900</v>
+        <v>47714600</v>
       </c>
       <c r="E10" s="2">
         <v>173847600</v>
@@ -783,7 +785,7 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>77.410319010416671</v>
+        <v>77.660481770833329</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
@@ -805,7 +807,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="2">
-        <v>256473100</v>
+        <v>250845500</v>
       </c>
       <c r="E11" s="2">
         <v>1284306900</v>
@@ -815,7 +817,7 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>20.382650693257649</v>
+        <v>19.935409228007</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
@@ -837,7 +839,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>4073029900</v>
+        <v>3932424900</v>
       </c>
       <c r="E12" s="2">
         <v>15672797000</v>
@@ -847,7 +849,7 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>75.426479629629625</v>
+        <v>72.82268333333333</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
@@ -869,7 +871,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="2">
-        <v>2365104600</v>
+        <v>2319003300</v>
       </c>
       <c r="E13" s="2">
         <v>11297050000</v>
@@ -879,7 +881,7 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>32.848675</v>
+        <v>32.208379166666667</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
@@ -901,7 +903,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="2">
-        <v>2466195000</v>
+        <v>2252867700</v>
       </c>
       <c r="E14" s="2">
         <v>11007758400</v>
@@ -911,7 +913,7 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>34.252708333333331</v>
+        <v>31.289829166666667</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
@@ -933,7 +935,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="2">
-        <v>8396800</v>
+        <v>7408300</v>
       </c>
       <c r="E15" s="2">
         <v>25152200</v>
@@ -943,7 +945,7 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>85.416666666666671</v>
+        <v>75.361124674479171</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
@@ -965,7 +967,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="2">
-        <v>545755700</v>
+        <v>515969100</v>
       </c>
       <c r="E16" s="2">
         <v>2631416300</v>
@@ -975,7 +977,7 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>65.059149265289307</v>
+        <v>61.508309841156006</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
@@ -997,7 +999,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="2">
-        <v>4571240100</v>
+        <v>4422664900</v>
       </c>
       <c r="E17" s="2">
         <v>24618844500</v>
@@ -1007,7 +1009,7 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>42.326297222222223</v>
+        <v>40.950600925925926</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
@@ -1029,7 +1031,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="2">
-        <v>2340070800</v>
+        <v>2200775600</v>
       </c>
       <c r="E18" s="2">
         <v>11462393200</v>
@@ -1039,7 +1041,7 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>32.50098333333333</v>
+        <v>30.566327777777779</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="1"/>
@@ -1061,7 +1063,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="2">
-        <v>2233864800</v>
+        <v>2171989600</v>
       </c>
       <c r="E19" s="2">
         <v>11312061800</v>
@@ -1071,7 +1073,7 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>20.683933333333332</v>
+        <v>20.111014814814816</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="1"/>
@@ -1093,7 +1095,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="2">
-        <v>526426299</v>
+        <v>492160200</v>
       </c>
       <c r="E20" s="2">
         <v>2610136900</v>
@@ -1103,7 +1105,7 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>62.754905104637146</v>
+        <v>58.67006778717041</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
@@ -1125,7 +1127,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="2">
-        <v>8098808700</v>
+        <v>7817609400</v>
       </c>
       <c r="E21" s="2">
         <v>31441332900</v>
@@ -1135,7 +1137,7 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>149.97793888888887</v>
+        <v>144.77054444444445</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
@@ -1157,7 +1159,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="2">
-        <v>528920900</v>
+        <v>436893200</v>
       </c>
       <c r="E22" s="2">
         <v>1817052900</v>
@@ -1167,7 +1169,7 @@
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>84.069712956746415</v>
+        <v>69.442303975423172</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
@@ -1189,7 +1191,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="2">
-        <v>66576900</v>
+        <v>57858100</v>
       </c>
       <c r="E23" s="2">
         <v>263119300</v>
@@ -1199,7 +1201,7 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>54.180419921875</v>
+        <v>47.085042317708336</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="1"/>
@@ -1221,7 +1223,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="2">
-        <v>36354100</v>
+        <v>23755000</v>
       </c>
       <c r="E24" s="2">
         <v>252419300</v>
@@ -1231,7 +1233,7 @@
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>29.585042317708332</v>
+        <v>19.331868489583332</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
@@ -1253,7 +1255,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="2">
-        <v>313196400</v>
+        <v>266155800</v>
       </c>
       <c r="E25" s="2">
         <v>2210985100</v>
@@ -1263,7 +1265,7 @@
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>24.890613555908203</v>
+        <v>21.152162551879883</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="1"/>
@@ -1285,7 +1287,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="2">
-        <v>13414600</v>
+        <v>15546000</v>
       </c>
       <c r="E26" s="2">
         <v>64985300</v>
@@ -1295,7 +1297,7 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
-        <v>136.46036783854166</v>
+        <v>158.14208984375</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="1"/>
@@ -1317,7 +1319,7 @@
         <v>32</v>
       </c>
       <c r="D27" s="2">
-        <v>2787528400</v>
+        <v>2168644600</v>
       </c>
       <c r="E27" s="2">
         <v>13313948100</v>
@@ -1327,7 +1329,7 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
-        <v>38.715672222222224</v>
+        <v>30.12006388888889</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="1"/>
@@ -1349,7 +1351,7 @@
         <v>32</v>
       </c>
       <c r="D28" s="2">
-        <v>272598800</v>
+        <v>244589400</v>
       </c>
       <c r="E28" s="2">
         <v>1463899800</v>
@@ -1359,7 +1361,7 @@
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
-        <v>32.496309280395508</v>
+        <v>29.157328605651855</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="1"/>
@@ -1381,7 +1383,7 @@
         <v>48</v>
       </c>
       <c r="D29" s="2">
-        <v>80320100</v>
+        <v>71658800</v>
       </c>
       <c r="E29" s="2">
         <v>410390800</v>
@@ -1391,7 +1393,7 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>65.364664713541671</v>
+        <v>58.316080729166664</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
@@ -1413,7 +1415,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="2">
-        <v>3942762700</v>
+        <v>3792251100</v>
       </c>
       <c r="E30" s="2">
         <v>17554615700</v>
@@ -1423,7 +1425,7 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
-        <v>73.014124074074076</v>
+        <v>70.226872222222227</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="1"/>
@@ -1445,7 +1447,7 @@
         <v>48</v>
       </c>
       <c r="D31" s="2">
-        <v>11378100</v>
+        <v>13991500</v>
       </c>
       <c r="E31" s="2">
         <v>57542900</v>
@@ -1455,7 +1457,7 @@
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
-        <v>57.87200927734375</v>
+        <v>71.164449055989579</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="1"/>
@@ -1477,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="2">
-        <v>2236918900</v>
+        <v>2150706800</v>
       </c>
       <c r="E32" s="2">
         <v>12417197300</v>
@@ -1487,7 +1489,7 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>31.068318055555554</v>
+        <v>29.870927777777776</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="1"/>
@@ -1509,7 +1511,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="2">
-        <v>3540500</v>
+        <v>5054000</v>
       </c>
       <c r="E33" s="2">
         <v>23425500</v>
@@ -1519,7 +1521,7 @@
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>27.011871337890625</v>
+        <v>38.5589599609375</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
@@ -1541,7 +1543,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="2">
-        <v>84693800</v>
+        <v>81066900</v>
       </c>
       <c r="E34" s="2">
         <v>407575000</v>
@@ -1551,7 +1553,7 @@
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
-        <v>103.385986328125</v>
+        <v>98.9586181640625</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="1"/>
@@ -1573,7 +1575,7 @@
         <v>48</v>
       </c>
       <c r="D35" s="2">
-        <v>75357800</v>
+        <v>76046400</v>
       </c>
       <c r="E35" s="2">
         <v>404966500</v>
@@ -1583,7 +1585,7 @@
       </c>
       <c r="G35" s="3">
         <f t="shared" si="0"/>
-        <v>61.326334635416664</v>
+        <v>61.88671875</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="1"/>
@@ -1605,7 +1607,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="2">
-        <v>8269400</v>
+        <v>7328000</v>
       </c>
       <c r="E36" s="2">
         <v>39136500</v>
@@ -1615,7 +1617,7 @@
       </c>
       <c r="G36" s="3">
         <f t="shared" si="0"/>
-        <v>84.120686848958329</v>
+        <v>74.544270833333329</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="1"/>
@@ -1637,7 +1639,7 @@
         <v>32</v>
       </c>
       <c r="D37" s="2">
-        <v>25942300</v>
+        <v>29339600</v>
       </c>
       <c r="E37" s="2">
         <v>138666000</v>
@@ -1647,7 +1649,7 @@
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
-        <v>31.6678466796875</v>
+        <v>35.81494140625</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="1"/>
@@ -1669,7 +1671,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="2">
-        <v>3956396500</v>
+        <v>3728719700</v>
       </c>
       <c r="E38" s="2">
         <v>19051427900</v>
@@ -1679,7 +1681,7 @@
       </c>
       <c r="G38" s="3">
         <f t="shared" si="0"/>
-        <v>73.26660185185186</v>
+        <v>69.050364814814813</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="1"/>
@@ -1701,7 +1703,7 @@
         <v>48</v>
       </c>
       <c r="D39" s="2">
-        <v>29308500</v>
+        <v>24125300</v>
       </c>
       <c r="E39" s="2">
         <v>100038800</v>
@@ -1711,7 +1713,7 @@
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>23.851318359375</v>
+        <v>19.633219401041668</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="1"/>
@@ -1733,7 +1735,7 @@
         <v>24</v>
       </c>
       <c r="D40" s="2">
-        <v>454802900</v>
+        <v>455893200</v>
       </c>
       <c r="E40" s="2">
         <v>1737095500</v>
@@ -1743,7 +1745,7 @@
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>72.288974126180008</v>
+        <v>72.462272644042969</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="1"/>
@@ -1765,7 +1767,7 @@
         <v>48</v>
       </c>
       <c r="D41" s="2">
-        <v>5104300</v>
+        <v>5127200</v>
       </c>
       <c r="E41" s="2">
         <v>17019100</v>
@@ -1775,7 +1777,7 @@
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
-        <v>25.961812337239582</v>
+        <v>26.078287760416668</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="1"/>
@@ -1797,7 +1799,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="2">
-        <v>4569108200</v>
+        <v>4323079300</v>
       </c>
       <c r="E42" s="2">
         <v>21661572800</v>
@@ -1807,7 +1809,7 @@
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>42.306557407407404</v>
+        <v>40.028512037037039</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="1"/>
@@ -1829,7 +1831,7 @@
         <v>32</v>
       </c>
       <c r="D43" s="2">
-        <v>49582200</v>
+        <v>58158900</v>
       </c>
       <c r="E43" s="2">
         <v>226705100</v>
@@ -1839,7 +1841,7 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" si="0"/>
-        <v>60.525146484375</v>
+        <v>70.9947509765625</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="1"/>
@@ -1861,7 +1863,7 @@
         <v>48</v>
       </c>
       <c r="D44" s="2">
-        <v>80258900</v>
+        <v>77379100</v>
       </c>
       <c r="E44" s="2">
         <v>357246100</v>
@@ -1871,7 +1873,7 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>
-        <v>65.314860026041671</v>
+        <v>62.971272786458336</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="1"/>
@@ -1893,7 +1895,7 @@
         <v>32</v>
       </c>
       <c r="D45" s="2">
-        <v>26070000</v>
+        <v>28723500</v>
       </c>
       <c r="E45" s="2">
         <v>95821400</v>
@@ -1903,7 +1905,7 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" si="0"/>
-        <v>31.82373046875</v>
+        <v>35.0628662109375</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="1"/>
@@ -1925,7 +1927,7 @@
         <v>48</v>
       </c>
       <c r="D46" s="2">
-        <v>24945500</v>
+        <v>23754900</v>
       </c>
       <c r="E46" s="2">
         <v>123756000</v>
@@ -1935,7 +1937,7 @@
       </c>
       <c r="G46" s="3">
         <f t="shared" si="0"/>
-        <v>20.300699869791668</v>
+        <v>19.331787109375</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="1"/>
@@ -1957,7 +1959,7 @@
         <v>32</v>
       </c>
       <c r="D47" s="2">
-        <v>24054900</v>
+        <v>27913600</v>
       </c>
       <c r="E47" s="2">
         <v>124732900</v>
@@ -1967,7 +1969,7 @@
       </c>
       <c r="G47" s="3">
         <f t="shared" si="0"/>
-        <v>29.3638916015625</v>
+        <v>34.07421875</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="1"/>
@@ -1989,7 +1991,7 @@
         <v>48</v>
       </c>
       <c r="D48" s="2">
-        <v>47499700</v>
+        <v>51662300</v>
       </c>
       <c r="E48" s="2">
         <v>215636200</v>
@@ -1999,7 +2001,7 @@
       </c>
       <c r="G48" s="3">
         <f t="shared" si="0"/>
-        <v>38.655354817708336</v>
+        <v>42.042887369791664</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="1"/>
@@ -2021,7 +2023,7 @@
         <v>32</v>
       </c>
       <c r="D49" s="2">
-        <v>4979800</v>
+        <v>4582400</v>
       </c>
       <c r="E49" s="2">
         <v>15061700</v>
@@ -2031,7 +2033,7 @@
       </c>
       <c r="G49" s="3">
         <f t="shared" si="0"/>
-        <v>37.99285888671875</v>
+        <v>34.9609375</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="1"/>
@@ -2053,7 +2055,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="2">
-        <v>10486400</v>
+        <v>6995500</v>
       </c>
       <c r="E50" s="2">
         <v>34714400</v>
@@ -2063,7 +2065,7 @@
       </c>
       <c r="G50" s="3">
         <f t="shared" si="0"/>
-        <v>53.336588541666664</v>
+        <v>35.580952962239586</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="1"/>
@@ -2085,7 +2087,7 @@
         <v>48</v>
       </c>
       <c r="D51" s="2">
-        <v>575161800</v>
+        <v>473902200</v>
       </c>
       <c r="E51" s="2">
         <v>2519208400</v>
@@ -2095,7 +2097,7 @@
       </c>
       <c r="G51" s="3">
         <f t="shared" si="0"/>
-        <v>45.709753036499023</v>
+        <v>37.662363052368164</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="1"/>
@@ -2117,7 +2119,7 @@
         <v>32</v>
       </c>
       <c r="D52" s="2">
-        <v>10562300</v>
+        <v>9230200</v>
       </c>
       <c r="E52" s="2">
         <v>40588100</v>
@@ -2127,7 +2129,7 @@
       </c>
       <c r="G52" s="3">
         <f t="shared" si="0"/>
-        <v>80.583953857421875</v>
+        <v>70.42083740234375</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="1"/>
@@ -2149,7 +2151,7 @@
         <v>32</v>
       </c>
       <c r="D53" s="2">
-        <v>2149145100</v>
+        <v>2184890400</v>
       </c>
       <c r="E53" s="2">
         <v>11186325600</v>
@@ -2159,7 +2161,7 @@
       </c>
       <c r="G53" s="3">
         <f t="shared" si="0"/>
-        <v>29.849237500000001</v>
+        <v>30.345700000000001</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="1"/>
@@ -2181,7 +2183,7 @@
         <v>24</v>
       </c>
       <c r="D54" s="2">
-        <v>8410700</v>
+        <v>8001000</v>
       </c>
       <c r="E54" s="2">
         <v>33910000</v>
@@ -2191,7 +2193,7 @@
       </c>
       <c r="G54" s="3">
         <f t="shared" si="0"/>
-        <v>85.558064778645829</v>
+        <v>81.390380859375</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="1"/>
@@ -2213,7 +2215,7 @@
         <v>48</v>
       </c>
       <c r="D55" s="2">
-        <v>4422500</v>
+        <v>4604800</v>
       </c>
       <c r="E55" s="2">
         <v>25930100</v>
@@ -2223,7 +2225,7 @@
       </c>
       <c r="G55" s="3">
         <f t="shared" si="0"/>
-        <v>22.493998209635418</v>
+        <v>23.421223958333332</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="1"/>
@@ -2245,7 +2247,7 @@
         <v>32</v>
       </c>
       <c r="D56" s="2">
-        <v>4817800</v>
+        <v>4387100</v>
       </c>
       <c r="E56" s="2">
         <v>34951200</v>
@@ -2255,7 +2257,7 @@
       </c>
       <c r="G56" s="3">
         <f t="shared" si="0"/>
-        <v>36.75689697265625</v>
+        <v>33.470916748046875</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="1"/>
@@ -2277,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="D57" s="2">
-        <v>462176000</v>
+        <v>408420000</v>
       </c>
       <c r="E57" s="2">
         <v>1694429800</v>
@@ -2287,7 +2289,7 @@
       </c>
       <c r="G57" s="3">
         <f t="shared" si="0"/>
-        <v>73.460896809895829</v>
+        <v>64.916610717773438</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="1"/>
@@ -2309,7 +2311,7 @@
         <v>24</v>
       </c>
       <c r="D58" s="2">
-        <v>1298911500</v>
+        <v>1323130600</v>
       </c>
       <c r="E58" s="2">
         <v>5348006000</v>
@@ -2319,7 +2321,7 @@
       </c>
       <c r="G58" s="3">
         <f t="shared" si="0"/>
-        <v>206.45642280578613</v>
+        <v>210.30594507853189</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="1"/>
@@ -2341,7 +2343,7 @@
         <v>24</v>
       </c>
       <c r="D59" s="2">
-        <v>11280912300</v>
+        <v>11362568700</v>
       </c>
       <c r="E59" s="2">
         <v>42420888900</v>
@@ -2351,7 +2353,7 @@
       </c>
       <c r="G59" s="3">
         <f t="shared" si="0"/>
-        <v>208.90578333333335</v>
+        <v>210.4179388888889</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="1"/>
@@ -2373,7 +2375,7 @@
         <v>48</v>
       </c>
       <c r="D60" s="2">
-        <v>286295800</v>
+        <v>243439100</v>
       </c>
       <c r="E60" s="2">
         <v>823542100</v>
@@ -2383,7 +2385,7 @@
       </c>
       <c r="G60" s="3">
         <f t="shared" si="0"/>
-        <v>22.752745946248371</v>
+        <v>19.346801439921062</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="1"/>
@@ -2405,7 +2407,7 @@
         <v>24</v>
       </c>
       <c r="D61" s="2">
-        <v>99223900</v>
+        <v>94671100</v>
       </c>
       <c r="E61" s="2">
         <v>247957100</v>
@@ -2415,7 +2417,7 @@
       </c>
       <c r="G61" s="3">
         <f t="shared" si="0"/>
-        <v>161.49723307291666</v>
+        <v>154.08707682291666</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="1"/>
@@ -2437,7 +2439,7 @@
         <v>48</v>
       </c>
       <c r="D62" s="2">
-        <v>2147758200</v>
+        <v>2189437800</v>
       </c>
       <c r="E62" s="2">
         <v>7369533600</v>
@@ -2447,7 +2449,7 @@
       </c>
       <c r="G62" s="3">
         <f t="shared" si="0"/>
-        <v>19.886649999999999</v>
+        <v>20.272572222222223</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="1"/>
@@ -2469,7 +2471,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="2">
-        <v>264146700</v>
+        <v>260876900</v>
       </c>
       <c r="E63" s="2">
         <v>998778000</v>
@@ -2479,7 +2481,7 @@
       </c>
       <c r="G63" s="3">
         <f t="shared" si="0"/>
-        <v>20.992493629455566</v>
+        <v>20.732633272806805</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="1"/>
@@ -2501,7 +2503,7 @@
         <v>48</v>
       </c>
       <c r="D64" s="2">
-        <v>475931800</v>
+        <v>521948000</v>
       </c>
       <c r="E64" s="2">
         <v>1850682900</v>
@@ -2511,7 +2513,7 @@
       </c>
       <c r="G64" s="3">
         <f t="shared" si="0"/>
-        <v>37.823661168416344</v>
+        <v>41.480700174967446</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="1"/>
@@ -2533,7 +2535,7 @@
         <v>24</v>
       </c>
       <c r="D65" s="2">
-        <v>1432391000</v>
+        <v>1351949900</v>
       </c>
       <c r="E65" s="2">
         <v>3962745100</v>
@@ -2543,7 +2545,7 @@
       </c>
       <c r="G65" s="3">
         <f t="shared" si="0"/>
-        <v>227.67241795857748</v>
+        <v>214.88664944966635</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="1"/>
@@ -2565,7 +2567,7 @@
         <v>24</v>
       </c>
       <c r="D66" s="2">
-        <v>430621800</v>
+        <v>456214700</v>
       </c>
       <c r="E66" s="2">
         <v>1384321900</v>
@@ -2575,7 +2577,7 @@
       </c>
       <c r="G66" s="3">
         <f t="shared" si="0"/>
-        <v>68.445491790771484</v>
+        <v>72.513373692830399</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="1"/>
@@ -2597,7 +2599,7 @@
         <v>32</v>
       </c>
       <c r="D67" s="2">
-        <v>236810600</v>
+        <v>253049700</v>
       </c>
       <c r="E67" s="2">
         <v>918151900</v>
@@ -2607,7 +2609,7 @@
       </c>
       <c r="G67" s="3">
         <f t="shared" ref="G67:G130" si="3">(D67/$B67^2)/$C67</f>
-        <v>28.230023384094238</v>
+        <v>30.16587495803833</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" ref="H67:H130" si="4">(E67/$B67^2)/$C67</f>
@@ -2629,7 +2631,7 @@
         <v>24</v>
       </c>
       <c r="D68" s="2">
-        <v>4466100100</v>
+        <v>3749923400</v>
       </c>
       <c r="E68" s="2">
         <v>11799429800</v>
@@ -2639,7 +2641,7 @@
       </c>
       <c r="G68" s="3">
         <f t="shared" si="3"/>
-        <v>82.705557407407412</v>
+        <v>69.443025925925923</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" si="4"/>
@@ -2661,7 +2663,7 @@
         <v>48</v>
       </c>
       <c r="D69" s="2">
-        <v>2861865100</v>
+        <v>2206629400</v>
       </c>
       <c r="E69" s="2">
         <v>7627067800</v>
@@ -2671,7 +2673,7 @@
       </c>
       <c r="G69" s="3">
         <f t="shared" si="3"/>
-        <v>26.498750925925929</v>
+        <v>20.431753703703702</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" si="4"/>
@@ -2693,7 +2695,7 @@
         <v>24</v>
       </c>
       <c r="D70" s="2">
-        <v>1066327900</v>
+        <v>882871900</v>
       </c>
       <c r="E70" s="2">
         <v>2617529900</v>
@@ -2703,7 +2705,7 @@
       </c>
       <c r="G70" s="3">
         <f t="shared" si="3"/>
-        <v>169.48825518290201</v>
+        <v>140.32870928446451</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" si="4"/>
@@ -2725,7 +2727,7 @@
         <v>32</v>
       </c>
       <c r="D71" s="2">
-        <v>1001887200</v>
+        <v>750388800</v>
       </c>
       <c r="E71" s="2">
         <v>2679691200</v>
@@ -2735,7 +2737,7 @@
       </c>
       <c r="G71" s="3">
         <f t="shared" si="3"/>
-        <v>119.43426132202148</v>
+        <v>89.453315734863281</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="4"/>
@@ -2757,7 +2759,7 @@
         <v>32</v>
       </c>
       <c r="D72" s="2">
-        <v>30860700</v>
+        <v>28260000</v>
       </c>
       <c r="E72" s="2">
         <v>86526900</v>
@@ -2767,7 +2769,7 @@
       </c>
       <c r="G72" s="3">
         <f t="shared" si="3"/>
-        <v>37.6717529296875</v>
+        <v>34.4970703125</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="4"/>
@@ -2789,7 +2791,7 @@
         <v>32</v>
       </c>
       <c r="D73" s="2">
-        <v>356840400</v>
+        <v>254515500</v>
       </c>
       <c r="E73" s="2">
         <v>829920900</v>
@@ -2799,7 +2801,7 @@
       </c>
       <c r="G73" s="3">
         <f t="shared" si="3"/>
-        <v>42.538690567016602</v>
+        <v>30.340611934661865</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" si="4"/>
@@ -2821,7 +2823,7 @@
         <v>48</v>
       </c>
       <c r="D74" s="2">
-        <v>43812200</v>
+        <v>24299900</v>
       </c>
       <c r="E74" s="2">
         <v>97305900</v>
@@ -2831,7 +2833,7 @@
       </c>
       <c r="G74" s="3">
         <f t="shared" si="3"/>
-        <v>35.654459635416664</v>
+        <v>19.775309244791668</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="4"/>
@@ -2853,7 +2855,7 @@
         <v>48</v>
       </c>
       <c r="D75" s="2">
-        <v>2138250200</v>
+        <v>2180025000</v>
       </c>
       <c r="E75" s="2">
         <v>7549327200</v>
@@ -2863,7 +2865,7 @@
       </c>
       <c r="G75" s="3">
         <f t="shared" si="3"/>
-        <v>19.798612962962963</v>
+        <v>20.185416666666665</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" si="4"/>
@@ -2885,7 +2887,7 @@
         <v>24</v>
       </c>
       <c r="D76" s="2">
-        <v>20945000</v>
+        <v>18787800</v>
       </c>
       <c r="E76" s="2">
         <v>55502300</v>
@@ -2895,7 +2897,7 @@
       </c>
       <c r="G76" s="3">
         <f t="shared" si="3"/>
-        <v>213.06355794270834</v>
+        <v>191.119384765625</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="4"/>
@@ -2917,7 +2919,7 @@
         <v>48</v>
       </c>
       <c r="D77" s="2">
-        <v>27392200</v>
+        <v>21633500</v>
       </c>
       <c r="E77" s="2">
         <v>81210000</v>
@@ -2927,7 +2929,7 @@
       </c>
       <c r="G77" s="3">
         <f t="shared" si="3"/>
-        <v>22.291829427083332</v>
+        <v>17.605387369791668</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="4"/>
@@ -2949,7 +2951,7 @@
         <v>48</v>
       </c>
       <c r="D78" s="2">
-        <v>8372800</v>
+        <v>9309100</v>
       </c>
       <c r="E78" s="2">
         <v>26250300</v>
@@ -2959,7 +2961,7 @@
       </c>
       <c r="G78" s="3">
         <f t="shared" si="3"/>
-        <v>42.586263020833336</v>
+        <v>47.348531087239586</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="4"/>
@@ -2981,7 +2983,7 @@
         <v>24</v>
       </c>
       <c r="D79" s="2">
-        <v>18670300</v>
+        <v>22659900</v>
       </c>
       <c r="E79" s="2">
         <v>56240000</v>
@@ -2991,7 +2993,7 @@
       </c>
       <c r="G79" s="3">
         <f t="shared" si="3"/>
-        <v>189.92411295572916</v>
+        <v>230.5084228515625</v>
       </c>
       <c r="H79" s="3">
         <f t="shared" si="4"/>
@@ -3013,7 +3015,7 @@
         <v>24</v>
       </c>
       <c r="D80" s="2">
-        <v>8092100</v>
+        <v>8969900</v>
       </c>
       <c r="E80" s="2">
         <v>29450800</v>
@@ -3023,7 +3025,7 @@
       </c>
       <c r="G80" s="3">
         <f t="shared" si="3"/>
-        <v>82.317097981770829</v>
+        <v>91.246541341145829</v>
       </c>
       <c r="H80" s="3">
         <f t="shared" si="4"/>
@@ -3045,7 +3047,7 @@
         <v>48</v>
       </c>
       <c r="D81" s="2">
-        <v>31267400</v>
+        <v>24834400</v>
       </c>
       <c r="E81" s="2">
         <v>87777800</v>
@@ -3055,7 +3057,7 @@
       </c>
       <c r="G81" s="3">
         <f t="shared" si="3"/>
-        <v>25.445475260416668</v>
+        <v>20.210286458333332</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" si="4"/>
@@ -3077,7 +3079,7 @@
         <v>24</v>
       </c>
       <c r="D82" s="2">
-        <v>476445600</v>
+        <v>449666200</v>
       </c>
       <c r="E82" s="2">
         <v>1387430300</v>
@@ -3087,7 +3089,7 @@
       </c>
       <c r="G82" s="3">
         <f t="shared" si="3"/>
-        <v>75.728988647460938</v>
+        <v>71.472517649332687</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" si="4"/>
@@ -3109,7 +3111,7 @@
         <v>32</v>
       </c>
       <c r="D83" s="2">
-        <v>5400200</v>
+        <v>4885400</v>
       </c>
       <c r="E83" s="2">
         <v>18230800</v>
@@ -3119,7 +3121,7 @@
       </c>
       <c r="G83" s="3">
         <f t="shared" si="3"/>
-        <v>41.20025634765625</v>
+        <v>37.27264404296875</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" si="4"/>
@@ -3141,7 +3143,7 @@
         <v>24</v>
       </c>
       <c r="D84" s="2">
-        <v>11855267600</v>
+        <v>11634177200</v>
       </c>
       <c r="E84" s="2">
         <v>34525495800</v>
@@ -3151,7 +3153,7 @@
       </c>
       <c r="G84" s="3">
         <f t="shared" si="3"/>
-        <v>219.54199259259258</v>
+        <v>215.44772592592594</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" si="4"/>
@@ -3173,7 +3175,7 @@
         <v>32</v>
       </c>
       <c r="D85" s="2">
-        <v>255336700</v>
+        <v>263087300</v>
       </c>
       <c r="E85" s="2">
         <v>863465800</v>
@@ -3183,7 +3185,7 @@
       </c>
       <c r="G85" s="3">
         <f t="shared" si="3"/>
-        <v>30.438506603240967</v>
+        <v>31.362450122833252</v>
       </c>
       <c r="H85" s="3">
         <f t="shared" si="4"/>
@@ -3205,7 +3207,7 @@
         <v>48</v>
       </c>
       <c r="D86" s="2">
-        <v>4396400</v>
+        <v>4380000</v>
       </c>
       <c r="E86" s="2">
         <v>13519000</v>
@@ -3215,7 +3217,7 @@
       </c>
       <c r="G86" s="3">
         <f t="shared" si="3"/>
-        <v>22.361246744791668</v>
+        <v>22.27783203125</v>
       </c>
       <c r="H86" s="3">
         <f t="shared" si="4"/>
@@ -3237,7 +3239,7 @@
         <v>32</v>
       </c>
       <c r="D87" s="2">
-        <v>252541400</v>
+        <v>262808500</v>
       </c>
       <c r="E87" s="2">
         <v>862926100</v>
@@ -3247,7 +3249,7 @@
       </c>
       <c r="G87" s="3">
         <f t="shared" si="3"/>
-        <v>30.105280876159668</v>
+        <v>31.329214572906494</v>
       </c>
       <c r="H87" s="3">
         <f t="shared" si="4"/>
@@ -3269,7 +3271,7 @@
         <v>32</v>
       </c>
       <c r="D88" s="2">
-        <v>4943300</v>
+        <v>4645300</v>
       </c>
       <c r="E88" s="2">
         <v>11621100</v>
@@ -3279,7 +3281,7 @@
       </c>
       <c r="G88" s="3">
         <f t="shared" si="3"/>
-        <v>37.714385986328125</v>
+        <v>35.440826416015625</v>
       </c>
       <c r="H88" s="3">
         <f t="shared" si="4"/>
@@ -3301,7 +3303,7 @@
         <v>24</v>
       </c>
       <c r="D89" s="2">
-        <v>7020200</v>
+        <v>7491600</v>
       </c>
       <c r="E89" s="2">
         <v>20804600</v>
@@ -3311,7 +3313,7 @@
       </c>
       <c r="G89" s="3">
         <f t="shared" si="3"/>
-        <v>71.413167317708329</v>
+        <v>76.20849609375</v>
       </c>
       <c r="H89" s="3">
         <f t="shared" si="4"/>
@@ -3333,7 +3335,7 @@
         <v>24</v>
       </c>
       <c r="D90" s="2">
-        <v>432220700</v>
+        <v>16190788700</v>
       </c>
       <c r="E90" s="2">
         <v>1318230500</v>
@@ -3343,7 +3345,7 @@
       </c>
       <c r="G90" s="3">
         <f t="shared" si="3"/>
-        <v>68.699630101521805</v>
+        <v>2573.4565575917563</v>
       </c>
       <c r="H90" s="3">
         <f t="shared" si="4"/>
@@ -3365,7 +3367,7 @@
         <v>48</v>
       </c>
       <c r="D91" s="2">
-        <v>2264054600</v>
+        <v>2108384300</v>
       </c>
       <c r="E91" s="2">
         <v>7865947000</v>
@@ -3375,7 +3377,7 @@
       </c>
       <c r="G91" s="3">
         <f t="shared" si="3"/>
-        <v>20.963468518518518</v>
+        <v>19.522076851851853</v>
       </c>
       <c r="H91" s="3">
         <f t="shared" si="4"/>
@@ -3397,7 +3399,7 @@
         <v>24</v>
       </c>
       <c r="D92" s="2">
-        <v>16117600</v>
+        <v>15106800</v>
       </c>
       <c r="E92" s="2">
         <v>43147200</v>
@@ -3407,7 +3409,7 @@
       </c>
       <c r="G92" s="3">
         <f t="shared" si="3"/>
-        <v>163.95670572916666</v>
+        <v>153.67431640625</v>
       </c>
       <c r="H92" s="3">
         <f t="shared" si="4"/>
@@ -3429,7 +3431,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="2">
-        <v>4223894800</v>
+        <v>3785058500</v>
       </c>
       <c r="E93" s="2">
         <v>11096405800</v>
@@ -3439,7 +3441,7 @@
       </c>
       <c r="G93" s="3">
         <f t="shared" si="3"/>
-        <v>78.220274074074069</v>
+        <v>70.093675925925922</v>
       </c>
       <c r="H93" s="3">
         <f t="shared" si="4"/>
@@ -3461,7 +3463,7 @@
         <v>48</v>
       </c>
       <c r="D94" s="2">
-        <v>6751872300</v>
+        <v>6504877800</v>
       </c>
       <c r="E94" s="2">
         <v>24569522200</v>
@@ -3471,7 +3473,7 @@
       </c>
       <c r="G94" s="3">
         <f t="shared" si="3"/>
-        <v>62.517336111111113</v>
+        <v>60.230349999999994</v>
       </c>
       <c r="H94" s="3">
         <f t="shared" si="4"/>
@@ -3493,7 +3495,7 @@
         <v>24</v>
       </c>
       <c r="D95" s="2">
-        <v>913608800</v>
+        <v>910926400</v>
       </c>
       <c r="E95" s="2">
         <v>2525598100</v>
@@ -3503,7 +3505,7 @@
       </c>
       <c r="G95" s="3">
         <f t="shared" si="3"/>
-        <v>145.21420796712241</v>
+        <v>144.78785196940103</v>
       </c>
       <c r="H95" s="3">
         <f t="shared" si="4"/>
@@ -3525,7 +3527,7 @@
         <v>48</v>
       </c>
       <c r="D96" s="2">
-        <v>777350400</v>
+        <v>794794600</v>
       </c>
       <c r="E96" s="2">
         <v>2598457000</v>
@@ -3535,7 +3537,7 @@
       </c>
       <c r="G96" s="3">
         <f t="shared" si="3"/>
-        <v>61.77825927734375</v>
+        <v>63.164599736531578</v>
       </c>
       <c r="H96" s="3">
         <f t="shared" si="4"/>
@@ -3557,7 +3559,7 @@
         <v>32</v>
       </c>
       <c r="D97" s="2">
-        <v>27943200</v>
+        <v>25277800</v>
       </c>
       <c r="E97" s="2">
         <v>86019500</v>
@@ -3567,7 +3569,7 @@
       </c>
       <c r="G97" s="3">
         <f t="shared" si="3"/>
-        <v>34.1103515625</v>
+        <v>30.856689453125</v>
       </c>
       <c r="H97" s="3">
         <f t="shared" si="4"/>
@@ -3589,7 +3591,7 @@
         <v>32</v>
       </c>
       <c r="D98" s="2">
-        <v>6785281400</v>
+        <v>6662614100</v>
       </c>
       <c r="E98" s="2">
         <v>22631377700</v>
@@ -3599,7 +3601,7 @@
       </c>
       <c r="G98" s="3">
         <f t="shared" si="3"/>
-        <v>94.240019444444442</v>
+        <v>92.536306944444448</v>
       </c>
       <c r="H98" s="3">
         <f t="shared" si="4"/>
@@ -3621,7 +3623,7 @@
         <v>32</v>
       </c>
       <c r="D99" s="2">
-        <v>23553000</v>
+        <v>25547600</v>
       </c>
       <c r="E99" s="2">
         <v>80530600</v>
@@ -3631,7 +3633,7 @@
       </c>
       <c r="G99" s="3">
         <f t="shared" si="3"/>
-        <v>28.751220703125</v>
+        <v>31.18603515625</v>
       </c>
       <c r="H99" s="3">
         <f t="shared" si="4"/>
@@ -3653,7 +3655,7 @@
         <v>48</v>
       </c>
       <c r="D100" s="2">
-        <v>6539000</v>
+        <v>4665100</v>
       </c>
       <c r="E100" s="2">
         <v>15111000</v>
@@ -3663,7 +3665,7 @@
       </c>
       <c r="G100" s="3">
         <f t="shared" si="3"/>
-        <v>33.259073893229164</v>
+        <v>23.727925618489582</v>
       </c>
       <c r="H100" s="3">
         <f t="shared" si="4"/>
@@ -3685,7 +3687,7 @@
         <v>24</v>
       </c>
       <c r="D101" s="2">
-        <v>3694022600</v>
+        <v>3843517300</v>
       </c>
       <c r="E101" s="2">
         <v>10389985400</v>
@@ -3695,7 +3697,7 @@
       </c>
       <c r="G101" s="3">
         <f t="shared" si="3"/>
-        <v>68.407825925925934</v>
+        <v>71.176246296296299</v>
       </c>
       <c r="H101" s="3">
         <f t="shared" si="4"/>
@@ -3717,7 +3719,7 @@
         <v>48</v>
       </c>
       <c r="D102" s="2">
-        <v>4242887200</v>
+        <v>4462682900</v>
       </c>
       <c r="E102" s="2">
         <v>15113389300</v>
@@ -3727,7 +3729,7 @@
       </c>
       <c r="G102" s="3">
         <f t="shared" si="3"/>
-        <v>39.285992592592592</v>
+        <v>41.321137962962965</v>
       </c>
       <c r="H102" s="3">
         <f t="shared" si="4"/>
@@ -3749,7 +3751,7 @@
         <v>48</v>
       </c>
       <c r="D103" s="2">
-        <v>6771092000</v>
+        <v>6528379900</v>
       </c>
       <c r="E103" s="2">
         <v>23082705200</v>
@@ -3759,7 +3761,7 @@
       </c>
       <c r="G103" s="3">
         <f t="shared" si="3"/>
-        <v>62.695296296296299</v>
+        <v>60.447962037037037</v>
       </c>
       <c r="H103" s="3">
         <f t="shared" si="4"/>
@@ -3781,7 +3783,7 @@
         <v>48</v>
       </c>
       <c r="D104" s="2">
-        <v>2308879900</v>
+        <v>2149576700</v>
       </c>
       <c r="E104" s="2">
         <v>7468889600</v>
@@ -3791,7 +3793,7 @@
       </c>
       <c r="G104" s="3">
         <f t="shared" si="3"/>
-        <v>21.378517592592591</v>
+        <v>19.903487962962963</v>
       </c>
       <c r="H104" s="3">
         <f t="shared" si="4"/>
@@ -3813,7 +3815,7 @@
         <v>32</v>
       </c>
       <c r="D105" s="2">
-        <v>54486300</v>
+        <v>54934700</v>
       </c>
       <c r="E105" s="2">
         <v>186906300</v>
@@ -3823,7 +3825,7 @@
       </c>
       <c r="G105" s="3">
         <f t="shared" si="3"/>
-        <v>66.5115966796875</v>
+        <v>67.0589599609375</v>
       </c>
       <c r="H105" s="3">
         <f t="shared" si="4"/>
@@ -3845,7 +3847,7 @@
         <v>32</v>
       </c>
       <c r="D106" s="2">
-        <v>29283700</v>
+        <v>26295800</v>
       </c>
       <c r="E106" s="2">
         <v>88914700</v>
@@ -3855,7 +3857,7 @@
       </c>
       <c r="G106" s="3">
         <f t="shared" si="3"/>
-        <v>35.7467041015625</v>
+        <v>32.099365234375</v>
       </c>
       <c r="H106" s="3">
         <f t="shared" si="4"/>
@@ -3877,7 +3879,7 @@
         <v>32</v>
       </c>
       <c r="D107" s="2">
-        <v>5030000</v>
+        <v>3467400</v>
       </c>
       <c r="E107" s="2">
         <v>17650300</v>
@@ -3887,7 +3889,7 @@
       </c>
       <c r="G107" s="3">
         <f t="shared" si="3"/>
-        <v>38.3758544921875</v>
+        <v>26.45416259765625</v>
       </c>
       <c r="H107" s="3">
         <f t="shared" si="4"/>
@@ -3909,7 +3911,7 @@
         <v>32</v>
       </c>
       <c r="D108" s="2">
-        <v>6928351900</v>
+        <v>6652771600</v>
       </c>
       <c r="E108" s="2">
         <v>22750682900</v>
@@ -3919,7 +3921,7 @@
       </c>
       <c r="G108" s="3">
         <f t="shared" si="3"/>
-        <v>96.227109722222224</v>
+        <v>92.399605555555553</v>
       </c>
       <c r="H108" s="3">
         <f t="shared" si="4"/>
@@ -3941,7 +3943,7 @@
         <v>24</v>
       </c>
       <c r="D109" s="2">
-        <v>141703500</v>
+        <v>137201200</v>
       </c>
       <c r="E109" s="2">
         <v>411696600</v>
@@ -3951,7 +3953,7 @@
       </c>
       <c r="G109" s="3">
         <f t="shared" si="3"/>
-        <v>230.63720703125</v>
+        <v>223.30924479166666</v>
       </c>
       <c r="H109" s="3">
         <f t="shared" si="4"/>
@@ -3973,7 +3975,7 @@
         <v>32</v>
       </c>
       <c r="D110" s="2">
-        <v>2208617100</v>
+        <v>2209705000</v>
       </c>
       <c r="E110" s="2">
         <v>7749200100</v>
@@ -3983,7 +3985,7 @@
       </c>
       <c r="G110" s="3">
         <f t="shared" si="3"/>
-        <v>30.675237500000001</v>
+        <v>30.690347222222222</v>
       </c>
       <c r="H110" s="3">
         <f t="shared" si="4"/>
@@ -4005,7 +4007,7 @@
         <v>24</v>
       </c>
       <c r="D111" s="2">
-        <v>41608600</v>
+        <v>42737500</v>
       </c>
       <c r="E111" s="2">
         <v>123996800</v>
@@ -4015,7 +4017,7 @@
       </c>
       <c r="G111" s="3">
         <f t="shared" si="3"/>
-        <v>67.722330729166671</v>
+        <v>69.559733072916671</v>
       </c>
       <c r="H111" s="3">
         <f t="shared" si="4"/>
@@ -4037,7 +4039,7 @@
         <v>48</v>
       </c>
       <c r="D112" s="2">
-        <v>510329300</v>
+        <v>510611500</v>
       </c>
       <c r="E112" s="2">
         <v>1695739600</v>
@@ -4047,7 +4049,7 @@
       </c>
       <c r="G112" s="3">
         <f t="shared" si="3"/>
-        <v>40.557328859965004</v>
+        <v>40.579756100972496</v>
       </c>
       <c r="H112" s="3">
         <f t="shared" si="4"/>
@@ -4069,7 +4071,7 @@
         <v>32</v>
       </c>
       <c r="D113" s="2">
-        <v>758832300</v>
+        <v>762569100</v>
       </c>
       <c r="E113" s="2">
         <v>2629286000</v>
@@ -4079,7 +4081,7 @@
       </c>
       <c r="G113" s="3">
         <f t="shared" si="3"/>
-        <v>90.459859371185303</v>
+        <v>90.905320644378662</v>
       </c>
       <c r="H113" s="3">
         <f t="shared" si="4"/>
@@ -4101,7 +4103,7 @@
         <v>32</v>
       </c>
       <c r="D114" s="2">
-        <v>3704600</v>
+        <v>4586000</v>
       </c>
       <c r="E114" s="2">
         <v>15521400</v>
@@ -4111,7 +4113,7 @@
       </c>
       <c r="G114" s="3">
         <f t="shared" si="3"/>
-        <v>28.26385498046875</v>
+        <v>34.9884033203125</v>
       </c>
       <c r="H114" s="3">
         <f t="shared" si="4"/>
@@ -4133,7 +4135,7 @@
         <v>24</v>
       </c>
       <c r="D115" s="2">
-        <v>91043200</v>
+        <v>88293000</v>
       </c>
       <c r="E115" s="2">
         <v>250052800</v>
@@ -4143,7 +4145,7 @@
       </c>
       <c r="G115" s="3">
         <f t="shared" si="3"/>
-        <v>148.18229166666666</v>
+        <v>143.7060546875</v>
       </c>
       <c r="H115" s="3">
         <f t="shared" si="4"/>
@@ -4165,7 +4167,7 @@
         <v>24</v>
       </c>
       <c r="D116" s="2">
-        <v>1384034200</v>
+        <v>1390144800</v>
       </c>
       <c r="E116" s="2">
         <v>3838497600</v>
@@ -4175,7 +4177,7 @@
       </c>
       <c r="G116" s="3">
         <f t="shared" si="3"/>
-        <v>219.98631159464517</v>
+        <v>220.95756530761719</v>
       </c>
       <c r="H116" s="3">
         <f t="shared" si="4"/>
@@ -4197,7 +4199,7 @@
         <v>32</v>
       </c>
       <c r="D117" s="2">
-        <v>13345900</v>
+        <v>10490000</v>
       </c>
       <c r="E117" s="2">
         <v>41665200</v>
@@ -4207,7 +4209,7 @@
       </c>
       <c r="G117" s="3">
         <f t="shared" si="3"/>
-        <v>101.82113647460938</v>
+        <v>80.0323486328125</v>
       </c>
       <c r="H117" s="3">
         <f t="shared" si="4"/>
@@ -4229,7 +4231,7 @@
         <v>48</v>
       </c>
       <c r="D118" s="2">
-        <v>27590100</v>
+        <v>28709100</v>
       </c>
       <c r="E118" s="2">
         <v>72036000</v>
@@ -4239,7 +4241,7 @@
       </c>
       <c r="G118" s="3">
         <f t="shared" si="3"/>
-        <v>22.452880859375</v>
+        <v>23.363525390625</v>
       </c>
       <c r="H118" s="3">
         <f t="shared" si="4"/>
@@ -4261,7 +4263,7 @@
         <v>32</v>
       </c>
       <c r="D119" s="2">
-        <v>14393200</v>
+        <v>11337100</v>
       </c>
       <c r="E119" s="2">
         <v>63843000</v>
@@ -4271,7 +4273,7 @@
       </c>
       <c r="G119" s="3">
         <f t="shared" si="3"/>
-        <v>109.8114013671875</v>
+        <v>86.495208740234375</v>
       </c>
       <c r="H119" s="3">
         <f t="shared" si="4"/>
@@ -4293,7 +4295,7 @@
         <v>24</v>
       </c>
       <c r="D120" s="2">
-        <v>3878549600</v>
+        <v>3929005100</v>
       </c>
       <c r="E120" s="2">
         <v>11166221100</v>
@@ -4303,7 +4305,7 @@
       </c>
       <c r="G120" s="3">
         <f t="shared" si="3"/>
-        <v>71.824992592592594</v>
+        <v>72.759353703703695</v>
       </c>
       <c r="H120" s="3">
         <f t="shared" si="4"/>
@@ -4325,7 +4327,7 @@
         <v>32</v>
       </c>
       <c r="D121" s="2">
-        <v>482080900</v>
+        <v>524268900</v>
       </c>
       <c r="E121" s="2">
         <v>2234716400</v>
@@ -4335,7 +4337,7 @@
       </c>
       <c r="G121" s="3">
         <f t="shared" si="3"/>
-        <v>57.468521595001221</v>
+        <v>62.49772310256958</v>
       </c>
       <c r="H121" s="3">
         <f t="shared" si="4"/>
@@ -4357,7 +4359,7 @@
         <v>32</v>
       </c>
       <c r="D122" s="2">
-        <v>257281600</v>
+        <v>237646900</v>
       </c>
       <c r="E122" s="2">
         <v>971169200</v>
@@ -4367,7 +4369,7 @@
       </c>
       <c r="G122" s="3">
         <f t="shared" si="3"/>
-        <v>30.670356750488281</v>
+        <v>28.329718112945557</v>
       </c>
       <c r="H122" s="3">
         <f t="shared" si="4"/>
@@ -4389,7 +4391,7 @@
         <v>48</v>
       </c>
       <c r="D123" s="2">
-        <v>244636600</v>
+        <v>281436200</v>
       </c>
       <c r="E123" s="2">
         <v>957152300</v>
@@ -4399,7 +4401,7 @@
       </c>
       <c r="G123" s="3">
         <f t="shared" si="3"/>
-        <v>19.441970189412434</v>
+        <v>22.366539637247723</v>
       </c>
       <c r="H123" s="3">
         <f t="shared" si="4"/>
@@ -4421,7 +4423,7 @@
         <v>32</v>
       </c>
       <c r="D124" s="2">
-        <v>9387100</v>
+        <v>8299700</v>
       </c>
       <c r="E124" s="2">
         <v>41467500</v>
@@ -4431,7 +4433,7 @@
       </c>
       <c r="G124" s="3">
         <f t="shared" si="3"/>
-        <v>71.617889404296875</v>
+        <v>63.321685791015625</v>
       </c>
       <c r="H124" s="3">
         <f t="shared" si="4"/>
@@ -4453,7 +4455,7 @@
         <v>24</v>
       </c>
       <c r="D125" s="2">
-        <v>44266300</v>
+        <v>39173200</v>
       </c>
       <c r="E125" s="2">
         <v>173478800</v>
@@ -4463,7 +4465,7 @@
       </c>
       <c r="G125" s="3">
         <f t="shared" si="3"/>
-        <v>72.048014322916671</v>
+        <v>63.758463541666664</v>
       </c>
       <c r="H125" s="3">
         <f t="shared" si="4"/>
@@ -4485,7 +4487,7 @@
         <v>48</v>
       </c>
       <c r="D126" s="2">
-        <v>29389200</v>
+        <v>27817200</v>
       </c>
       <c r="E126" s="2">
         <v>89847500</v>
@@ -4495,7 +4497,7 @@
       </c>
       <c r="G126" s="3">
         <f t="shared" si="3"/>
-        <v>23.9169921875</v>
+        <v>22.6376953125</v>
       </c>
       <c r="H126" s="3">
         <f t="shared" si="4"/>
@@ -4517,7 +4519,7 @@
         <v>48</v>
       </c>
       <c r="D127" s="2">
-        <v>250515000</v>
+        <v>279300300</v>
       </c>
       <c r="E127" s="2">
         <v>1020960800</v>
@@ -4527,7 +4529,7 @@
       </c>
       <c r="G127" s="3">
         <f t="shared" si="3"/>
-        <v>19.909143447875977</v>
+        <v>22.196793556213379</v>
       </c>
       <c r="H127" s="3">
         <f t="shared" si="4"/>
@@ -4549,7 +4551,7 @@
         <v>24</v>
       </c>
       <c r="D128" s="2">
-        <v>7281700</v>
+        <v>7745100</v>
       </c>
       <c r="E128" s="2">
         <v>29081500</v>
@@ -4559,7 +4561,7 @@
       </c>
       <c r="G128" s="3">
         <f t="shared" si="3"/>
-        <v>74.073282877604171</v>
+        <v>78.7872314453125</v>
       </c>
       <c r="H128" s="3">
         <f t="shared" si="4"/>
@@ -4581,7 +4583,7 @@
         <v>48</v>
       </c>
       <c r="D129" s="2">
-        <v>4190600</v>
+        <v>4845300</v>
       </c>
       <c r="E129" s="2">
         <v>17307800</v>
@@ -4591,7 +4593,7 @@
       </c>
       <c r="G129" s="3">
         <f t="shared" si="3"/>
-        <v>21.314493815104168</v>
+        <v>24.64447021484375</v>
       </c>
       <c r="H129" s="3">
         <f t="shared" si="4"/>
@@ -4613,7 +4615,7 @@
         <v>48</v>
       </c>
       <c r="D130" s="2">
-        <v>4910100</v>
+        <v>6256800</v>
       </c>
       <c r="E130" s="2">
         <v>12265000</v>
@@ -4623,7 +4625,7 @@
       </c>
       <c r="G130" s="3">
         <f t="shared" si="3"/>
-        <v>24.97406005859375</v>
+        <v>31.82373046875</v>
       </c>
       <c r="H130" s="3">
         <f t="shared" si="4"/>
@@ -4645,7 +4647,7 @@
         <v>32</v>
       </c>
       <c r="D131" s="2">
-        <v>6609662600</v>
+        <v>6646829000</v>
       </c>
       <c r="E131" s="2">
         <v>30000666600</v>
@@ -4655,7 +4657,7 @@
       </c>
       <c r="G131" s="3">
         <f t="shared" ref="G131:G181" si="6">(D131/$B131^2)/$C131</f>
-        <v>91.800869444444444</v>
+        <v>92.317069444444442</v>
       </c>
       <c r="H131" s="3">
         <f t="shared" ref="H131:H181" si="7">(E131/$B131^2)/$C131</f>
@@ -4677,7 +4679,7 @@
         <v>48</v>
       </c>
       <c r="D132" s="2">
-        <v>13727500</v>
+        <v>13116600</v>
       </c>
       <c r="E132" s="2">
         <v>39550900</v>
@@ -4687,7 +4689,7 @@
       </c>
       <c r="G132" s="3">
         <f t="shared" si="6"/>
-        <v>69.821675618489579</v>
+        <v>66.7144775390625</v>
       </c>
       <c r="H132" s="3">
         <f t="shared" si="7"/>
@@ -4709,7 +4711,7 @@
         <v>48</v>
       </c>
       <c r="D133" s="2">
-        <v>3912000</v>
+        <v>4959600</v>
       </c>
       <c r="E133" s="2">
         <v>15207600</v>
@@ -4719,7 +4721,7 @@
       </c>
       <c r="G133" s="3">
         <f t="shared" si="6"/>
-        <v>19.8974609375</v>
+        <v>25.225830078125</v>
       </c>
       <c r="H133" s="3">
         <f t="shared" si="7"/>
@@ -4741,7 +4743,7 @@
         <v>32</v>
       </c>
       <c r="D134" s="2">
-        <v>11258100</v>
+        <v>9109100</v>
       </c>
       <c r="E134" s="2">
         <v>37038200</v>
@@ -4751,7 +4753,7 @@
       </c>
       <c r="G134" s="3">
         <f t="shared" si="6"/>
-        <v>85.892486572265625</v>
+        <v>69.496917724609375</v>
       </c>
       <c r="H134" s="3">
         <f t="shared" si="7"/>
@@ -4773,7 +4775,7 @@
         <v>32</v>
       </c>
       <c r="D135" s="2">
-        <v>28349000</v>
+        <v>21696800</v>
       </c>
       <c r="E135" s="2">
         <v>91075000</v>
@@ -4783,7 +4785,7 @@
       </c>
       <c r="G135" s="3">
         <f t="shared" si="6"/>
-        <v>34.605712890625</v>
+        <v>26.4853515625</v>
       </c>
       <c r="H135" s="3">
         <f t="shared" si="7"/>
@@ -4805,7 +4807,7 @@
         <v>48</v>
       </c>
       <c r="D136" s="2">
-        <v>257249800</v>
+        <v>256030600</v>
       </c>
       <c r="E136" s="2">
         <v>972954100</v>
@@ -4815,7 +4817,7 @@
       </c>
       <c r="G136" s="3">
         <f t="shared" si="6"/>
-        <v>20.444377263387043</v>
+        <v>20.347483952840168</v>
       </c>
       <c r="H136" s="3">
         <f t="shared" si="7"/>
@@ -4837,7 +4839,7 @@
         <v>24</v>
       </c>
       <c r="D137" s="2">
-        <v>4604078400</v>
+        <v>147492900</v>
       </c>
       <c r="E137" s="2">
         <v>400497800</v>
@@ -4847,7 +4849,7 @@
       </c>
       <c r="G137" s="3">
         <f t="shared" si="6"/>
-        <v>7493.6171875</v>
+        <v>240.06005859375</v>
       </c>
       <c r="H137" s="3">
         <f t="shared" si="7"/>
@@ -4869,7 +4871,7 @@
         <v>48</v>
       </c>
       <c r="D138" s="2">
-        <v>2212253800</v>
+        <v>2246937400</v>
       </c>
       <c r="E138" s="2">
         <v>10066155600</v>
@@ -4879,7 +4881,7 @@
       </c>
       <c r="G138" s="3">
         <f t="shared" si="6"/>
-        <v>20.483831481481481</v>
+        <v>20.804975925925927</v>
       </c>
       <c r="H138" s="3">
         <f t="shared" si="7"/>
@@ -4901,7 +4903,7 @@
         <v>24</v>
       </c>
       <c r="D139" s="2">
-        <v>964947700</v>
+        <v>915425400</v>
       </c>
       <c r="E139" s="2">
         <v>3354133700</v>
@@ -4911,7 +4913,7 @@
       </c>
       <c r="G139" s="3">
         <f t="shared" si="6"/>
-        <v>153.37430636088052</v>
+        <v>145.50294876098633</v>
       </c>
       <c r="H139" s="3">
         <f t="shared" si="7"/>
@@ -4933,7 +4935,7 @@
         <v>32</v>
       </c>
       <c r="D140" s="2">
-        <v>78510400</v>
+        <v>74169300</v>
       </c>
       <c r="E140" s="2">
         <v>294642500</v>
@@ -4943,7 +4945,7 @@
       </c>
       <c r="G140" s="3">
         <f t="shared" si="6"/>
-        <v>95.837890625</v>
+        <v>90.5386962890625</v>
       </c>
       <c r="H140" s="3">
         <f t="shared" si="7"/>
@@ -4965,7 +4967,7 @@
         <v>48</v>
       </c>
       <c r="D141" s="2">
-        <v>6926516300</v>
+        <v>6597105500</v>
       </c>
       <c r="E141" s="2">
         <v>23386601500</v>
@@ -4975,7 +4977,7 @@
       </c>
       <c r="G141" s="3">
         <f t="shared" si="6"/>
-        <v>64.134410185185189</v>
+        <v>61.084310185185188</v>
       </c>
       <c r="H141" s="3">
         <f t="shared" si="7"/>
@@ -4997,7 +4999,7 @@
         <v>24</v>
       </c>
       <c r="D142" s="2">
-        <v>12240720300</v>
+        <v>11794175800</v>
       </c>
       <c r="E142" s="2">
         <v>34452043100</v>
@@ -5007,7 +5009,7 @@
       </c>
       <c r="G142" s="3">
         <f t="shared" si="6"/>
-        <v>226.68000555555557</v>
+        <v>218.41066296296296</v>
       </c>
       <c r="H142" s="3">
         <f t="shared" si="7"/>
@@ -5029,7 +5031,7 @@
         <v>48</v>
       </c>
       <c r="D143" s="2">
-        <v>261301300</v>
+        <v>255284400</v>
       </c>
       <c r="E143" s="2">
         <v>878379700</v>
@@ -5039,7 +5041,7 @@
       </c>
       <c r="G143" s="3">
         <f t="shared" si="6"/>
-        <v>20.766361554463703</v>
+        <v>20.288181304931641</v>
       </c>
       <c r="H143" s="3">
         <f t="shared" si="7"/>
@@ -5061,7 +5063,7 @@
         <v>24</v>
       </c>
       <c r="D144" s="2">
-        <v>4083432200</v>
+        <v>3975682300</v>
       </c>
       <c r="E144" s="2">
         <v>10798419600</v>
@@ -5071,7 +5073,7 @@
       </c>
       <c r="G144" s="3">
         <f t="shared" si="6"/>
-        <v>75.619114814814807</v>
+        <v>73.623746296296289</v>
       </c>
       <c r="H144" s="3">
         <f t="shared" si="7"/>
@@ -5093,7 +5095,7 @@
         <v>24</v>
       </c>
       <c r="D145" s="2">
-        <v>9296500</v>
+        <v>6253700</v>
       </c>
       <c r="E145" s="2">
         <v>17487300</v>
@@ -5103,7 +5105,7 @@
       </c>
       <c r="G145" s="3">
         <f t="shared" si="6"/>
-        <v>94.568888346354171</v>
+        <v>63.615926106770836</v>
       </c>
       <c r="H145" s="3">
         <f t="shared" si="7"/>
@@ -5125,7 +5127,7 @@
         <v>32</v>
       </c>
       <c r="D146" s="2">
-        <v>81952900</v>
+        <v>78966000</v>
       </c>
       <c r="E146" s="2">
         <v>251694900</v>
@@ -5135,7 +5137,7 @@
       </c>
       <c r="G146" s="3">
         <f t="shared" si="6"/>
-        <v>100.0401611328125</v>
+        <v>96.39404296875</v>
       </c>
       <c r="H146" s="3">
         <f t="shared" si="7"/>
@@ -5157,7 +5159,7 @@
         <v>32</v>
       </c>
       <c r="D147" s="2">
-        <v>4658367100</v>
+        <v>4389741200</v>
       </c>
       <c r="E147" s="2">
         <v>15222119500</v>
@@ -5167,7 +5169,7 @@
       </c>
       <c r="G147" s="3">
         <f t="shared" si="6"/>
-        <v>64.699543055555552</v>
+        <v>60.968627777777776</v>
       </c>
       <c r="H147" s="3">
         <f t="shared" si="7"/>
@@ -5189,7 +5191,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="2">
-        <v>140805200</v>
+        <v>133428300</v>
       </c>
       <c r="E148" s="2">
         <v>382778700</v>
@@ -5199,7 +5201,7 @@
       </c>
       <c r="G148" s="3">
         <f t="shared" si="6"/>
-        <v>229.17513020833334</v>
+        <v>217.16845703125</v>
       </c>
       <c r="H148" s="3">
         <f t="shared" si="7"/>
@@ -5221,7 +5223,7 @@
         <v>24</v>
       </c>
       <c r="D149" s="2">
-        <v>8273470300</v>
+        <v>7736644100</v>
       </c>
       <c r="E149" s="2">
         <v>22357065100</v>
@@ -5231,7 +5233,7 @@
       </c>
       <c r="G149" s="3">
         <f t="shared" si="6"/>
-        <v>153.21241296296296</v>
+        <v>143.27118703703704</v>
       </c>
       <c r="H149" s="3">
         <f t="shared" si="7"/>
@@ -5253,7 +5255,7 @@
         <v>32</v>
       </c>
       <c r="D150" s="2">
-        <v>2264619600</v>
+        <v>2242587400</v>
       </c>
       <c r="E150" s="2">
         <v>7551793000</v>
@@ -5263,7 +5265,7 @@
       </c>
       <c r="G150" s="3">
         <f t="shared" si="6"/>
-        <v>31.453050000000001</v>
+        <v>31.147047222222223</v>
       </c>
       <c r="H150" s="3">
         <f t="shared" si="7"/>
@@ -5285,7 +5287,7 @@
         <v>24</v>
       </c>
       <c r="D151" s="2">
-        <v>6410600</v>
+        <v>7319300</v>
       </c>
       <c r="E151" s="2">
         <v>18917400</v>
@@ -5295,7 +5297,7 @@
       </c>
       <c r="G151" s="3">
         <f t="shared" si="6"/>
-        <v>65.211995442708329</v>
+        <v>74.455769856770829</v>
       </c>
       <c r="H151" s="3">
         <f t="shared" si="7"/>
@@ -5317,7 +5319,7 @@
         <v>32</v>
       </c>
       <c r="D152" s="2">
-        <v>13546700</v>
+        <v>12463000</v>
       </c>
       <c r="E152" s="2">
         <v>35085300</v>
@@ -5327,7 +5329,7 @@
       </c>
       <c r="G152" s="3">
         <f t="shared" si="6"/>
-        <v>103.35311889648438</v>
+        <v>95.08514404296875</v>
       </c>
       <c r="H152" s="3">
         <f t="shared" si="7"/>
@@ -5349,7 +5351,7 @@
         <v>24</v>
       </c>
       <c r="D153" s="2">
-        <v>443947500</v>
+        <v>450896700</v>
       </c>
       <c r="E153" s="2">
         <v>1247567100</v>
@@ -5359,7 +5361,7 @@
       </c>
       <c r="G153" s="3">
         <f t="shared" si="6"/>
-        <v>70.563554763793945</v>
+        <v>71.668100357055664</v>
       </c>
       <c r="H153" s="3">
         <f t="shared" si="7"/>
@@ -5381,7 +5383,7 @@
         <v>32</v>
       </c>
       <c r="D154" s="2">
-        <v>251340500</v>
+        <v>262957500</v>
       </c>
       <c r="E154" s="2">
         <v>837990500</v>
@@ -5391,7 +5393,7 @@
       </c>
       <c r="G154" s="3">
         <f t="shared" si="6"/>
-        <v>29.962122440338135</v>
+        <v>31.346976757049561</v>
       </c>
       <c r="H154" s="3">
         <f t="shared" si="7"/>
@@ -5413,7 +5415,7 @@
         <v>48</v>
       </c>
       <c r="D155" s="2">
-        <v>819184700</v>
+        <v>730103100</v>
       </c>
       <c r="E155" s="2">
         <v>2573191300</v>
@@ -5423,7 +5425,7 @@
       </c>
       <c r="G155" s="3">
         <f t="shared" si="6"/>
-        <v>65.102950731913253</v>
+        <v>58.023381233215332</v>
       </c>
       <c r="H155" s="3">
         <f t="shared" si="7"/>
@@ -5445,7 +5447,7 @@
         <v>32</v>
       </c>
       <c r="D156" s="2">
-        <v>52311900</v>
+        <v>45846500</v>
       </c>
       <c r="E156" s="2">
         <v>157950500</v>
@@ -5455,7 +5457,7 @@
       </c>
       <c r="G156" s="3">
         <f t="shared" si="6"/>
-        <v>63.8572998046875</v>
+        <v>55.9649658203125</v>
       </c>
       <c r="H156" s="3">
         <f t="shared" si="7"/>
@@ -5477,7 +5479,7 @@
         <v>32</v>
       </c>
       <c r="D157" s="2">
-        <v>4433747900</v>
+        <v>4365949200</v>
       </c>
       <c r="E157" s="2">
         <v>15213818500</v>
@@ -5487,7 +5489,7 @@
       </c>
       <c r="G157" s="3">
         <f t="shared" si="6"/>
-        <v>61.579831944444443</v>
+        <v>60.63818333333333</v>
       </c>
       <c r="H157" s="3">
         <f t="shared" si="7"/>
@@ -5509,7 +5511,7 @@
         <v>48</v>
       </c>
       <c r="D158" s="2">
-        <v>258448400</v>
+        <v>249171300</v>
       </c>
       <c r="E158" s="2">
         <v>830073900</v>
@@ -5519,7 +5521,7 @@
       </c>
       <c r="G158" s="3">
         <f t="shared" si="6"/>
-        <v>20.53963343302409</v>
+        <v>19.802355766296387</v>
       </c>
       <c r="H158" s="3">
         <f t="shared" si="7"/>
@@ -5541,7 +5543,7 @@
         <v>48</v>
       </c>
       <c r="D159" s="2">
-        <v>783717400</v>
+        <v>795140800</v>
       </c>
       <c r="E159" s="2">
         <v>2598646600</v>
@@ -5551,7 +5553,7 @@
       </c>
       <c r="G159" s="3">
         <f t="shared" si="6"/>
-        <v>62.284262975056969</v>
+        <v>63.192113240559898</v>
       </c>
       <c r="H159" s="3">
         <f t="shared" si="7"/>
@@ -5573,7 +5575,7 @@
         <v>24</v>
       </c>
       <c r="D160" s="2">
-        <v>3840259000</v>
+        <v>3809342300</v>
       </c>
       <c r="E160" s="2">
         <v>10601605400</v>
@@ -5583,7 +5585,7 @@
       </c>
       <c r="G160" s="3">
         <f t="shared" si="6"/>
-        <v>71.115907407407406</v>
+        <v>70.543375925925929</v>
       </c>
       <c r="H160" s="3">
         <f t="shared" si="7"/>
@@ -5605,7 +5607,7 @@
         <v>32</v>
       </c>
       <c r="D161" s="2">
-        <v>5181000</v>
+        <v>4714700</v>
       </c>
       <c r="E161" s="2">
         <v>12215200</v>
@@ -5615,7 +5617,7 @@
       </c>
       <c r="G161" s="3">
         <f t="shared" si="6"/>
-        <v>39.52789306640625</v>
+        <v>35.970306396484375</v>
       </c>
       <c r="H161" s="3">
         <f t="shared" si="7"/>
@@ -5637,7 +5639,7 @@
         <v>32</v>
       </c>
       <c r="D162" s="2">
-        <v>2298352900</v>
+        <v>2197846700</v>
       </c>
       <c r="E162" s="2">
         <v>7112769700</v>
@@ -5647,7 +5649,7 @@
       </c>
       <c r="G162" s="3">
         <f t="shared" si="6"/>
-        <v>31.921568055555557</v>
+        <v>30.525648611111112</v>
       </c>
       <c r="H162" s="3">
         <f t="shared" si="7"/>
@@ -5669,7 +5671,7 @@
         <v>48</v>
       </c>
       <c r="D163" s="2">
-        <v>4397800</v>
+        <v>4421600</v>
       </c>
       <c r="E163" s="2">
         <v>13883800</v>
@@ -5679,7 +5681,7 @@
       </c>
       <c r="G163" s="3">
         <f t="shared" si="6"/>
-        <v>22.368367513020832</v>
+        <v>22.489420572916668</v>
       </c>
       <c r="H163" s="3">
         <f t="shared" si="7"/>
@@ -5701,7 +5703,7 @@
         <v>24</v>
       </c>
       <c r="D164" s="2">
-        <v>7842900</v>
+        <v>7655800</v>
       </c>
       <c r="E164" s="2">
         <v>26149900</v>
@@ -5711,7 +5713,7 @@
       </c>
       <c r="G164" s="3">
         <f t="shared" si="6"/>
-        <v>79.7821044921875</v>
+        <v>77.878824869791671</v>
       </c>
       <c r="H164" s="3">
         <f t="shared" si="7"/>
@@ -5733,7 +5735,7 @@
         <v>24</v>
       </c>
       <c r="D165" s="2">
-        <v>97217500</v>
+        <v>86099600</v>
       </c>
       <c r="E165" s="2">
         <v>247592900</v>
@@ -5743,7 +5745,7 @@
       </c>
       <c r="G165" s="3">
         <f t="shared" si="6"/>
-        <v>158.23160807291666</v>
+        <v>140.13606770833334</v>
       </c>
       <c r="H165" s="3">
         <f t="shared" si="7"/>
@@ -5765,7 +5767,7 @@
         <v>24</v>
       </c>
       <c r="D166" s="2">
-        <v>39579800</v>
+        <v>45359700</v>
       </c>
       <c r="E166" s="2">
         <v>115549900</v>
@@ -5775,7 +5777,7 @@
       </c>
       <c r="G166" s="3">
         <f t="shared" si="6"/>
-        <v>64.420247395833329</v>
+        <v>73.82763671875</v>
       </c>
       <c r="H166" s="3">
         <f t="shared" si="7"/>
@@ -5797,7 +5799,7 @@
         <v>24</v>
       </c>
       <c r="D167" s="2">
-        <v>46155200</v>
+        <v>47294800</v>
       </c>
       <c r="E167" s="2">
         <v>134721900</v>
@@ -5807,7 +5809,7 @@
       </c>
       <c r="G167" s="3">
         <f t="shared" si="6"/>
-        <v>75.122395833333329</v>
+        <v>76.977213541666671</v>
       </c>
       <c r="H167" s="3">
         <f t="shared" si="7"/>
@@ -5829,7 +5831,7 @@
         <v>32</v>
       </c>
       <c r="D168" s="2">
-        <v>257502700</v>
+        <v>260979800</v>
       </c>
       <c r="E168" s="2">
         <v>822018000</v>
@@ -5839,7 +5841,7 @@
       </c>
       <c r="G168" s="3">
         <f t="shared" si="6"/>
-        <v>30.696713924407959</v>
+        <v>31.11121654510498</v>
       </c>
       <c r="H168" s="3">
         <f t="shared" si="7"/>
@@ -5861,7 +5863,7 @@
         <v>48</v>
       </c>
       <c r="D169" s="2">
-        <v>2156160500</v>
+        <v>2211732600</v>
       </c>
       <c r="E169" s="2">
         <v>7707345600</v>
@@ -5871,7 +5873,7 @@
       </c>
       <c r="G169" s="3">
         <f t="shared" si="6"/>
-        <v>19.964449074074075</v>
+        <v>20.479005555555556</v>
       </c>
       <c r="H169" s="3">
         <f t="shared" si="7"/>
@@ -5893,7 +5895,7 @@
         <v>24</v>
       </c>
       <c r="D170" s="2">
-        <v>43797200</v>
+        <v>39143600</v>
       </c>
       <c r="E170" s="2">
         <v>111211800</v>
@@ -5903,7 +5905,7 @@
       </c>
       <c r="G170" s="3">
         <f t="shared" si="6"/>
-        <v>71.284505208333329</v>
+        <v>63.710286458333336</v>
       </c>
       <c r="H170" s="3">
         <f t="shared" si="7"/>
@@ -5925,7 +5927,7 @@
         <v>24</v>
       </c>
       <c r="D171" s="2">
-        <v>19338800</v>
+        <v>24861900</v>
       </c>
       <c r="E171" s="2">
         <v>73977900</v>
@@ -5935,7 +5937,7 @@
       </c>
       <c r="G171" s="3">
         <f t="shared" si="6"/>
-        <v>196.72444661458334</v>
+        <v>252.9083251953125</v>
       </c>
       <c r="H171" s="3">
         <f t="shared" si="7"/>
@@ -5957,7 +5959,7 @@
         <v>32</v>
       </c>
       <c r="D172" s="2">
-        <v>4376900</v>
+        <v>4339700</v>
       </c>
       <c r="E172" s="2">
         <v>15215600</v>
@@ -5967,7 +5969,7 @@
       </c>
       <c r="G172" s="3">
         <f t="shared" si="6"/>
-        <v>33.393096923828125</v>
+        <v>33.109283447265625</v>
       </c>
       <c r="H172" s="3">
         <f t="shared" si="7"/>
@@ -5989,7 +5991,7 @@
         <v>48</v>
       </c>
       <c r="D173" s="2">
-        <v>2101646400</v>
+        <v>2238704500</v>
       </c>
       <c r="E173" s="2">
         <v>7110485600</v>
@@ -5999,7 +6001,7 @@
       </c>
       <c r="G173" s="3">
         <f t="shared" si="6"/>
-        <v>19.459688888888888</v>
+        <v>20.728745370370373</v>
       </c>
       <c r="H173" s="3">
         <f t="shared" si="7"/>
@@ -6021,7 +6023,7 @@
         <v>32</v>
       </c>
       <c r="D174" s="2">
-        <v>740410900</v>
+        <v>783785400</v>
       </c>
       <c r="E174" s="2">
         <v>2595172900</v>
@@ -6031,7 +6033,7 @@
       </c>
       <c r="G174" s="3">
         <f t="shared" si="6"/>
-        <v>88.263857364654541</v>
+        <v>93.434500694274902</v>
       </c>
       <c r="H174" s="3">
         <f t="shared" si="7"/>
@@ -6053,7 +6055,7 @@
         <v>24</v>
       </c>
       <c r="D175" s="2">
-        <v>49451700</v>
+        <v>1585539500</v>
       </c>
       <c r="E175" s="2">
         <v>107595600</v>
@@ -6063,7 +6065,7 @@
       </c>
       <c r="G175" s="3">
         <f t="shared" si="6"/>
-        <v>80.48779296875</v>
+        <v>2580.6306966145835</v>
       </c>
       <c r="H175" s="3">
         <f t="shared" si="7"/>
@@ -6085,7 +6087,7 @@
         <v>32</v>
       </c>
       <c r="D176" s="2">
-        <v>250404400</v>
+        <v>274390100</v>
       </c>
       <c r="E176" s="2">
         <v>869652100</v>
@@ -6095,7 +6097,7 @@
       </c>
       <c r="G176" s="3">
         <f t="shared" si="6"/>
-        <v>29.850530624389648</v>
+        <v>32.709848880767822</v>
       </c>
       <c r="H176" s="3">
         <f t="shared" si="7"/>
@@ -6117,7 +6119,7 @@
         <v>24</v>
       </c>
       <c r="D177" s="2">
-        <v>44131300</v>
+        <v>48990800</v>
       </c>
       <c r="E177" s="2">
         <v>135975200</v>
@@ -6127,7 +6129,7 @@
       </c>
       <c r="G177" s="3">
         <f t="shared" si="6"/>
-        <v>71.828287760416671</v>
+        <v>79.737630208333329</v>
       </c>
       <c r="H177" s="3">
         <f t="shared" si="7"/>
@@ -6149,7 +6151,7 @@
         <v>48</v>
       </c>
       <c r="D178" s="2">
-        <v>32538700</v>
+        <v>30681900</v>
       </c>
       <c r="E178" s="2">
         <v>81714700</v>
@@ -6159,7 +6161,7 @@
       </c>
       <c r="G178" s="3">
         <f t="shared" si="6"/>
-        <v>26.480061848958332</v>
+        <v>24.968994140625</v>
       </c>
       <c r="H178" s="3">
         <f t="shared" si="7"/>
@@ -6181,7 +6183,7 @@
         <v>24</v>
       </c>
       <c r="D179" s="2">
-        <v>17497100</v>
+        <v>15837300</v>
       </c>
       <c r="E179" s="2">
         <v>47820100</v>
@@ -6191,7 +6193,7 @@
       </c>
       <c r="G179" s="3">
         <f t="shared" si="6"/>
-        <v>177.98970540364584</v>
+        <v>161.1053466796875</v>
       </c>
       <c r="H179" s="3">
         <f t="shared" si="7"/>
@@ -6213,7 +6215,7 @@
         <v>24</v>
       </c>
       <c r="D180" s="2">
-        <v>443663900</v>
+        <v>451878300</v>
       </c>
       <c r="E180" s="2">
         <v>1567390600</v>
@@ -6223,7 +6225,7 @@
       </c>
       <c r="G180" s="3">
         <f t="shared" si="6"/>
-        <v>70.518477757771805</v>
+        <v>71.824121475219727</v>
       </c>
       <c r="H180" s="3">
         <f t="shared" si="7"/>
@@ -6245,7 +6247,7 @@
         <v>32</v>
       </c>
       <c r="D181" s="2">
-        <v>24045800</v>
+        <v>27755000</v>
       </c>
       <c r="E181" s="2">
         <v>113644300</v>
@@ -6255,7 +6257,7 @@
       </c>
       <c r="G181" s="3">
         <f t="shared" si="6"/>
-        <v>29.352783203125</v>
+        <v>33.880615234375</v>
       </c>
       <c r="H181" s="3">
         <f t="shared" si="7"/>
@@ -6277,8 +6279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B20025-5C30-4AC0-88AD-D2DD7321B898}">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I181"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
